--- a/config/default/forms/contact/PLACE_TYPE-create.xlsx
+++ b/config/default/forms/contact/PLACE_TYPE-create.xlsx
@@ -1,129 +1,122 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="choices" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="settings" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="survey" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="376">
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::hi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::ne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::es</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relevant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appearance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read_only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice_filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::hi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::ne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::es</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notes</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="375">
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>label::en</t>
+  </si>
+  <si>
+    <t>label::hi</t>
+  </si>
+  <si>
+    <t>label::id</t>
+  </si>
+  <si>
+    <t>label::sw</t>
+  </si>
+  <si>
+    <t>label::ne</t>
+  </si>
+  <si>
+    <t>label::es</t>
+  </si>
+  <si>
+    <t>label::fr</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>read_only</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>constraint_message</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>choice_filter</t>
+  </si>
+  <si>
+    <t>hint::en</t>
+  </si>
+  <si>
+    <t>hint::hi</t>
+  </si>
+  <si>
+    <t>hint::id</t>
+  </si>
+  <si>
+    <t>hint::sw</t>
+  </si>
+  <si>
+    <t>hint::ne</t>
+  </si>
+  <si>
+    <t>hint::es</t>
+  </si>
+  <si>
+    <t>hint::fr</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
   <si>
     <t xml:space="preserve">begin group</t>
   </si>
   <si>
-    <t xml:space="preserve">inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO_LABEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact_id</t>
+    <t>inputs</t>
+  </si>
+  <si>
+    <t>NO_LABEL</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>contact_id</t>
   </si>
   <si>
     <t xml:space="preserve">Contact ID of the logged in user</t>
   </si>
   <si>
-    <t xml:space="preserve">facility_id</t>
+    <t>facility_id</t>
   </si>
   <si>
     <t xml:space="preserve">Place ID of the logged in user</t>
@@ -135,16 +128,16 @@
     <t xml:space="preserve">end group</t>
   </si>
   <si>
-    <t xml:space="preserve">init</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field-list</t>
+    <t>init</t>
+  </si>
+  <si>
+    <t>field-list</t>
   </si>
   <si>
     <t xml:space="preserve">select_one contact</t>
   </si>
   <si>
-    <t xml:space="preserve">create_new_person</t>
+    <t>create_new_person</t>
   </si>
   <si>
     <t xml:space="preserve">Set the Primary Contact</t>
@@ -165,16 +158,16 @@
     <t xml:space="preserve">Contact primaire</t>
   </si>
   <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">horizontal-compact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">db:person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_person</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>horizontal-compact</t>
+  </si>
+  <si>
+    <t>db:person</t>
+  </si>
+  <si>
+    <t>select_person</t>
   </si>
   <si>
     <t xml:space="preserve">Select the Primary Contact</t>
@@ -192,19 +185,19 @@
     <t xml:space="preserve">Choisisser le contact primaire</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(${create_new_person},'old_person')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">db-object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hidden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact_name</t>
+    <t>selected(${create_new_person},'old_person')</t>
+  </si>
+  <si>
+    <t>db-object</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>contact_name</t>
   </si>
   <si>
     <t xml:space="preserve">coalesce(../../contact/name, ../name)</t>
@@ -213,28 +206,25 @@
     <t xml:space="preserve">select_one translate_name_label</t>
   </si>
   <si>
-    <t xml:space="preserve">custom_place_name_label_translator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${create_new_person},'none')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"name"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">custom_place_name_label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jr:choice-name(${custom_place_name_label_translator},'${custom_place_name_label_translator}')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">custom_place_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${custom_place_name_label}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${create_new_person},'none') or selected(${is_name_generated}, 'false')  or selected(${is_name_generated}, 'no')</t>
+    <t>custom_place_name_label_translator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${create_new_person},'none') or selected(${is_name_generated}, 'false')</t>
+  </si>
+  <si>
+    <t>"name"</t>
+  </si>
+  <si>
+    <t>custom_place_name_label</t>
+  </si>
+  <si>
+    <t>jr:choice-name(${custom_place_name_label_translator},'${custom_place_name_label_translator}')</t>
+  </si>
+  <si>
+    <t>custom_place_name</t>
+  </si>
+  <si>
+    <t>${custom_place_name_label}</t>
   </si>
   <si>
     <t xml:space="preserve">Standalone question only if no contact is selected, so show label accordingly</t>
@@ -243,7 +233,7 @@
     <t xml:space="preserve">select_one place_type</t>
   </si>
   <si>
-    <t xml:space="preserve">place_type</t>
+    <t>place_type</t>
   </si>
   <si>
     <t xml:space="preserve">Enter the name of this place</t>
@@ -264,28 +254,28 @@
     <t xml:space="preserve">Nom de l'endroit</t>
   </si>
   <si>
-    <t xml:space="preserve">PLACE_TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">place_type_translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jr:choice-name(${place_type},'${place_type}')</t>
+    <t>PLACE_TYPE</t>
+  </si>
+  <si>
+    <t>place_type_translation</t>
+  </si>
+  <si>
+    <t>jr:choice-name(${place_type},'${place_type}')</t>
   </si>
   <si>
     <t xml:space="preserve">select_one generated_name</t>
   </si>
   <si>
-    <t xml:space="preserve">generated_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">generated_name_translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jr:choice-name(${generated_name},'${generated_name}')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact</t>
+    <t>generated_name</t>
+  </si>
+  <si>
+    <t>generated_name_translation</t>
+  </si>
+  <si>
+    <t>jr:choice-name(${generated_name},'${generated_name}')</t>
+  </si>
+  <si>
+    <t>contact</t>
   </si>
   <si>
     <t xml:space="preserve">New Person</t>
@@ -303,43 +293,43 @@
     <t xml:space="preserve">Nouvelle personne</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(${create_new_person},'new_person')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">person</t>
+    <t>selected(${create_new_person},'new_person')</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>PARENT</t>
+  </si>
+  <si>
+    <t>person</t>
   </si>
   <si>
     <t xml:space="preserve">Full Name</t>
   </si>
   <si>
-    <t xml:space="preserve">नाम</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom</t>
+    <t>नाम</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Jina</t>
+  </si>
+  <si>
+    <t>Nom</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">short_name</t>
+    <t>short_name</t>
   </si>
   <si>
     <t xml:space="preserve">Short name</t>
   </si>
   <si>
-    <t xml:space="preserve">no</t>
+    <t>no</t>
   </si>
   <si>
     <t xml:space="preserve">string-length(.) &lt;= 10</t>
@@ -351,31 +341,31 @@
     <t xml:space="preserve">Please enter a short name that is preferred by the person.</t>
   </si>
   <si>
-    <t xml:space="preserve">date_of_birth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../ephemeral_dob/dob_iso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_of_birth_method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../ephemeral_dob/dob_method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ephemeral_dob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_calendar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not(selected(../dob_method,'approx'))</t>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>../ephemeral_dob/dob_iso</t>
+  </si>
+  <si>
+    <t>date_of_birth_method</t>
+  </si>
+  <si>
+    <t>../ephemeral_dob/dob_method</t>
+  </si>
+  <si>
+    <t>ephemeral_dob</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>dob_calendar</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>not(selected(../dob_method,'approx'))</t>
   </si>
   <si>
     <t xml:space="preserve">floor(decimal-date-time(.)) &lt;= floor(decimal-date-time(today()))</t>
@@ -387,25 +377,25 @@
     <t xml:space="preserve">Date of Birth</t>
   </si>
   <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Age**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../dob_method,'approx')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Years</t>
+    <t>note</t>
+  </si>
+  <si>
+    <t>age_label</t>
+  </si>
+  <si>
+    <t>**Age**</t>
+  </si>
+  <si>
+    <t>selected(../dob_method,'approx')</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>age_years</t>
+  </si>
+  <si>
+    <t>Years</t>
   </si>
   <si>
     <t xml:space="preserve">. &gt;= 0 and . &lt;= 130</t>
@@ -414,10 +404,10 @@
     <t xml:space="preserve">Age must be between 0 and 130</t>
   </si>
   <si>
-    <t xml:space="preserve">age_months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Months</t>
+    <t>age_months</t>
+  </si>
+  <si>
+    <t>Months</t>
   </si>
   <si>
     <t xml:space="preserve">. &gt;= 0 and . &lt;= 11</t>
@@ -429,37 +419,37 @@
     <t xml:space="preserve">select_multiple select_dob_method</t>
   </si>
   <si>
-    <t xml:space="preserve">dob_method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELETE_THIS_LINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">horizontal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ephemeral_months</t>
+    <t>dob_method</t>
+  </si>
+  <si>
+    <t>DELETE_THIS_LINE</t>
+  </si>
+  <si>
+    <t>horizontal</t>
+  </si>
+  <si>
+    <t>ephemeral_months</t>
   </si>
   <si>
     <t xml:space="preserve">if(format-date-time(today(),"%m") - ../age_months &lt; 0, format-date-time(today(),"%m") - ../age_months + 12, format-date-time(today(),"%m") - ../age_months)</t>
   </si>
   <si>
-    <t xml:space="preserve">ephemeral_years</t>
+    <t>ephemeral_years</t>
   </si>
   <si>
     <t xml:space="preserve">if(format-date-time(today(),"%m") - ../age_months &lt; 0, format-date-time(today(),"%Y") - ../age_years - 1, format-date-time(today(),"%Y") -../age_years)</t>
   </si>
   <si>
-    <t xml:space="preserve">dob_approx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOB</t>
+    <t>dob_approx</t>
+  </si>
+  <si>
+    <t>DOB</t>
   </si>
   <si>
     <t xml:space="preserve">concat(string(${ephemeral_years}),'-',if(${ephemeral_months}&lt;10, concat('0',string(${ephemeral_months})), ${ephemeral_months}),'-',string(format-date-time(today(), "%d")))</t>
   </si>
   <si>
-    <t xml:space="preserve">dob_raw</t>
+    <t>dob_raw</t>
   </si>
   <si>
     <t xml:space="preserve">if(not(selected( ../dob_method,'approx')), 
@@ -467,13 +457,13 @@
 ../dob_approx)</t>
   </si>
   <si>
-    <t xml:space="preserve">dob_iso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">format-date-time(../dob_raw,"%Y-%m-%d")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_debug</t>
+    <t>dob_iso</t>
+  </si>
+  <si>
+    <t>format-date-time(../dob_raw,"%Y-%m-%d")</t>
+  </si>
+  <si>
+    <t>dob_debug</t>
   </si>
   <si>
     <t xml:space="preserve">Months: ${ephemeral_months}
@@ -483,10 +473,10 @@
 DOB ISO: ${dob_iso}</t>
   </si>
   <si>
-    <t xml:space="preserve">tel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phone</t>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>phone</t>
   </si>
   <si>
     <t xml:space="preserve">Phone Number</t>
@@ -504,13 +494,13 @@
     <t xml:space="preserve">फाेन नम्बर</t>
   </si>
   <si>
-    <t xml:space="preserve">Téléphone</t>
+    <t>Téléphone</t>
   </si>
   <si>
     <t xml:space="preserve">Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +254712345678</t>
   </si>
   <si>
-    <t xml:space="preserve">phone_alternate</t>
+    <t>phone_alternate</t>
   </si>
   <si>
     <t xml:space="preserve">Alternate Phone Number</t>
@@ -534,49 +524,49 @@
     <t xml:space="preserve">select_one male_female</t>
   </si>
   <si>
-    <t xml:space="preserve">sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">लिंग</t>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>लिंग</t>
   </si>
   <si>
     <t xml:space="preserve">Jenis kelamin</t>
   </si>
   <si>
-    <t xml:space="preserve">Jinsia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sexe</t>
+    <t>Jinsia</t>
+  </si>
+  <si>
+    <t>Sexe</t>
   </si>
   <si>
     <t xml:space="preserve">select_one roles</t>
   </si>
   <si>
-    <t xml:space="preserve">role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">भूमिका</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peran</t>
+    <t>role</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>भूमिका</t>
+  </si>
+  <si>
+    <t>Peran</t>
   </si>
   <si>
     <t xml:space="preserve">Namba ya simu Nyingine</t>
   </si>
   <si>
-    <t xml:space="preserve">भुमिका</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rôle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">role_other</t>
+    <t>भुमिका</t>
+  </si>
+  <si>
+    <t>Rôle</t>
+  </si>
+  <si>
+    <t>role_other</t>
   </si>
   <si>
     <t xml:space="preserve">Specify other</t>
@@ -594,13 +584,13 @@
     <t xml:space="preserve">अन्य उल्लेख गर्नुहोस्</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifier</t>
+    <t>Specifier</t>
   </si>
   <si>
     <t xml:space="preserve">selected( ${role},'other')</t>
   </si>
   <si>
-    <t xml:space="preserve">external_id</t>
+    <t>external_id</t>
   </si>
   <si>
     <t xml:space="preserve">External ID</t>
@@ -621,49 +611,49 @@
     <t xml:space="preserve">Identifiant externe</t>
   </si>
   <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">नोट्स</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maelezo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">टिप्पणि</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multiline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">created_by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../../inputs/user/name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">created_by_person_uuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../../inputs/user/contact_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">created_by_place_uuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../../inputs/user/facility_id</t>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>नोट्स</t>
+  </si>
+  <si>
+    <t>Catatan</t>
+  </si>
+  <si>
+    <t>Maelezo</t>
+  </si>
+  <si>
+    <t>टिप्पणि</t>
+  </si>
+  <si>
+    <t>multiline</t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>created_by</t>
+  </si>
+  <si>
+    <t>../../../inputs/user/name</t>
+  </si>
+  <si>
+    <t>created_by_person_uuid</t>
+  </si>
+  <si>
+    <t>../../../inputs/user/contact_id</t>
+  </si>
+  <si>
+    <t>created_by_place_uuid</t>
+  </si>
+  <si>
+    <t>../../../inputs/user/facility_id</t>
   </si>
   <si>
     <t xml:space="preserve">select_one yes_no_generated_name</t>
   </si>
   <si>
-    <t xml:space="preserve">is_name_generated</t>
+    <t>is_name_generated</t>
   </si>
   <si>
     <t xml:space="preserve">Would you like to name the place after the primary contact: "${generated_name_translation}"?</t>
@@ -684,13 +674,13 @@
     <t xml:space="preserve">Voulez-vous nommer l'endroit: "${generated_name_translation}"?</t>
   </si>
   <si>
-    <t xml:space="preserve">not(selected(${create_new_person},'none'))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
+    <t>not(selected(${create_new_person},'none'))</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
   <si>
     <t xml:space="preserve">if( ( selected(${is_name_generated}, 'true') or selected(${is_name_generated}, 'yes') ), ${generated_name_translation}, ${custom_place_name})</t>
@@ -702,103 +692,103 @@
     <t xml:space="preserve">if(selected(${create_new_person},'none'), "", coalesce(${select_person},"NEW"))</t>
   </si>
   <si>
-    <t xml:space="preserve">geolocation</t>
+    <t>geolocation</t>
   </si>
   <si>
     <t xml:space="preserve">concat(../../inputs/meta/location/lat, concat(' ', ../../inputs/meta/location/long))</t>
   </si>
   <si>
-    <t xml:space="preserve">list_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">हाँ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ndio</t>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>हाँ</t>
+  </si>
+  <si>
+    <t>Iya</t>
+  </si>
+  <si>
+    <t>Ndio</t>
   </si>
   <si>
     <t xml:space="preserve">हो </t>
   </si>
   <si>
-    <t xml:space="preserve">Oui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t xml:space="preserve">नहीं </t>
   </si>
   <si>
-    <t xml:space="preserve">Tidak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hapana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">होइन</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non</t>
-  </si>
-  <si>
-    <t xml:space="preserve">male_female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्त्री</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wanita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">महिला</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Femme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पुरूष</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पुरुष</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_person</t>
+    <t>Tidak</t>
+  </si>
+  <si>
+    <t>Hapana</t>
+  </si>
+  <si>
+    <t>होइन</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>male_female</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>स्त्री</t>
+  </si>
+  <si>
+    <t>Wanita</t>
+  </si>
+  <si>
+    <t>Kike</t>
+  </si>
+  <si>
+    <t>महिला</t>
+  </si>
+  <si>
+    <t>Femme</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>पुरूष</t>
+  </si>
+  <si>
+    <t>Pria</t>
+  </si>
+  <si>
+    <t>Kiume</t>
+  </si>
+  <si>
+    <t>पुरुष</t>
+  </si>
+  <si>
+    <t>Homme</t>
+  </si>
+  <si>
+    <t>new_person</t>
   </si>
   <si>
     <t xml:space="preserve">Create a new person</t>
@@ -819,7 +809,7 @@
     <t xml:space="preserve">Créer une nouvelle personne</t>
   </si>
   <si>
-    <t xml:space="preserve">old_person</t>
+    <t>old_person</t>
   </si>
   <si>
     <t xml:space="preserve">Select an existing person</t>
@@ -840,7 +830,7 @@
     <t xml:space="preserve">Selectiionner une personne existant</t>
   </si>
   <si>
-    <t xml:space="preserve">none</t>
+    <t>none</t>
   </si>
   <si>
     <t xml:space="preserve">Skip this step</t>
@@ -861,28 +851,28 @@
     <t xml:space="preserve">Sauter cette section</t>
   </si>
   <si>
-    <t xml:space="preserve">select_dob_method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">approx</t>
+    <t>select_dob_method</t>
+  </si>
+  <si>
+    <t>approx</t>
   </si>
   <si>
     <t xml:space="preserve">Date of birth unknown</t>
   </si>
   <si>
-    <t xml:space="preserve">roles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHW</t>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>chw</t>
+  </si>
+  <si>
+    <t>CHW</t>
   </si>
   <si>
     <t xml:space="preserve">सामुदायिक स्वास्थ्य कर्मी</t>
   </si>
   <si>
-    <t xml:space="preserve">Kader</t>
+    <t>Kader</t>
   </si>
   <si>
     <t xml:space="preserve">Mhudumu wa afya</t>
@@ -891,10 +881,10 @@
     <t xml:space="preserve">महिला स्वास्थ्य स्वयम् सेविका</t>
   </si>
   <si>
-    <t xml:space="preserve">ASC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chw_supervisor</t>
+    <t>ASC</t>
+  </si>
+  <si>
+    <t>chw_supervisor</t>
   </si>
   <si>
     <t xml:space="preserve">CHW Supervisor</t>
@@ -915,25 +905,25 @@
     <t xml:space="preserve">Superviseur ASC</t>
   </si>
   <si>
-    <t xml:space="preserve">nurse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nurse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">नर्स</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perawat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muuguzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infirmier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manager</t>
+    <t>nurse</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>नर्स</t>
+  </si>
+  <si>
+    <t>Perawat</t>
+  </si>
+  <si>
+    <t>Muuguzi</t>
+  </si>
+  <si>
+    <t>Infirmier</t>
+  </si>
+  <si>
+    <t>manager</t>
   </si>
   <si>
     <t xml:space="preserve">Facility Manager</t>
@@ -954,46 +944,46 @@
     <t xml:space="preserve">Staff médical</t>
   </si>
   <si>
-    <t xml:space="preserve">patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient</t>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>Patient</t>
   </si>
   <si>
     <t xml:space="preserve">मरीज़ </t>
   </si>
   <si>
-    <t xml:space="preserve">Pasien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mgonjwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">बिरामी</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अन्य</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyingine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes_no_generated_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">हो</t>
+    <t>Pasien</t>
+  </si>
+  <si>
+    <t>Mgonjwa</t>
+  </si>
+  <si>
+    <t>बिरामी</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>अन्य</t>
+  </si>
+  <si>
+    <t>Lain</t>
+  </si>
+  <si>
+    <t>Nyingine</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>yes_no_generated_name</t>
+  </si>
+  <si>
+    <t>हो</t>
   </si>
   <si>
     <t xml:space="preserve">No, I want to name it manually</t>
@@ -1014,31 +1004,31 @@
     <t xml:space="preserve">Non, je veux nommer ça manuellement</t>
   </si>
   <si>
-    <t xml:space="preserve">district_hospital</t>
+    <t>district_hospital</t>
   </si>
   <si>
     <t xml:space="preserve">Health Facility</t>
   </si>
   <si>
-    <t xml:space="preserve">ज़िला</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabupaten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wilaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">जिल्ला</t>
-  </si>
-  <si>
-    <t xml:space="preserve">District</t>
-  </si>
-  <si>
-    <t xml:space="preserve">health_center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area</t>
+    <t>ज़िला</t>
+  </si>
+  <si>
+    <t>Kabupaten</t>
+  </si>
+  <si>
+    <t>Wilaya</t>
+  </si>
+  <si>
+    <t>जिल्ला</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>health_center</t>
+  </si>
+  <si>
+    <t>Area</t>
   </si>
   <si>
     <t xml:space="preserve">स्वास्थ्य केंद्र</t>
@@ -1056,22 +1046,22 @@
     <t xml:space="preserve">Centre de santé</t>
   </si>
   <si>
-    <t xml:space="preserve">clinic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">क्षेत्र</t>
+    <t>clinic</t>
+  </si>
+  <si>
+    <t>Household</t>
+  </si>
+  <si>
+    <t>क्षेत्र</t>
   </si>
   <si>
     <t xml:space="preserve">Daerah </t>
   </si>
   <si>
-    <t xml:space="preserve">Eneo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone</t>
+    <t>Eneo</t>
+  </si>
+  <si>
+    <t>Zone</t>
   </si>
   <si>
     <t xml:space="preserve">${contact_name}'s Health Facility</t>
@@ -1128,94 +1118,64 @@
     <t xml:space="preserve">Zone de ${contact_name}</t>
   </si>
   <si>
-    <t xml:space="preserve">translate_name_label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">style</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default_language</t>
+    <t>translate_name_label</t>
+  </si>
+  <si>
+    <t>form_title</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>default_language</t>
   </si>
   <si>
     <t xml:space="preserve">New PLACE_NAME</t>
   </si>
   <si>
-    <t xml:space="preserve">contact:PLACE_TYPE:create</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en</t>
+    <t>contact:PLACE_TYPE:create</t>
+  </si>
+  <si>
+    <t>pages</t>
+  </si>
+  <si>
+    <t>en</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="@"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <color indexed="64"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <sz val="10.000000"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <b/>
+      <color indexed="64"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
+      <color indexed="64"/>
+      <sz val="11.000000"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1270,24 +1230,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF6FA8DC"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor indexed="55"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor indexed="65"/>
         <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1295,301 +1255,549 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
+  </cellStyleXfs>
+  <cellXfs count="39">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="38">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="4" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="3" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="3" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="3" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="3" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFD9D9D9"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF6FA8DC"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFF2CC"/>
-      <rgbColor rgb="FFCFE2F3"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFD9D2E9"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFF3F3F3"/>
-      <rgbColor rgb="FFD0E0E3"/>
-      <rgbColor rgb="FFFCE5CD"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFF4CCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
+  <a:themeElements>
+    <a:clrScheme name="">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="">
+      <a:majorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill/>
+        <a:solidFill/>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+        </a:ln>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr filterMode="0">
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AR72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P22" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
-      <selection pane="bottomRight" activeCell="P39" activeCellId="0" sqref="P39"/>
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
+      <selection activeCell="P39" activeCellId="0" sqref="P39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="37.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="51.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="25.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="46.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="68.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="33.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="36.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="20" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="35.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="27" style="0" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="37" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="39" style="0" width="17.29"/>
+    <col customWidth="1" min="1" max="1" style="0" width="34"/>
+    <col customWidth="1" min="2" max="2" style="0" width="22.710000000000001"/>
+    <col customWidth="1" min="3" max="3" style="0" width="47.859999999999999"/>
+    <col customWidth="1" min="4" max="4" style="0" width="33.43"/>
+    <col customWidth="1" min="5" max="5" style="0" width="27.43"/>
+    <col customWidth="1" min="6" max="6" style="0" width="37.289999999999999"/>
+    <col customWidth="1" min="7" max="7" style="0" width="31.289999999999999"/>
+    <col customWidth="1" min="8" max="8" style="0" width="8.1400000000000006"/>
+    <col customWidth="1" min="9" max="9" style="0" width="16.710000000000001"/>
+    <col customWidth="1" min="10" max="10" style="0" width="8.1400000000000006"/>
+    <col customWidth="1" min="11" max="11" style="0" width="51.43"/>
+    <col customWidth="1" min="12" max="13" style="0" width="10.710000000000001"/>
+    <col customWidth="1" min="14" max="14" style="0" width="25.300000000000001"/>
+    <col customWidth="1" min="15" max="15" style="0" width="46.289999999999999"/>
+    <col customWidth="1" min="16" max="16" style="0" width="68.849999999999994"/>
+    <col customWidth="1" min="17" max="17" style="0" width="9.4299999999999997"/>
+    <col customWidth="1" min="18" max="18" style="0" width="33.43"/>
+    <col customWidth="1" min="19" max="19" style="0" width="36.289999999999999"/>
+    <col customWidth="1" min="20" max="23" style="0" width="13.57"/>
+    <col customWidth="1" min="24" max="24" style="0" width="7.7000000000000002"/>
+    <col customWidth="1" min="25" max="25" style="0" width="8.6999999999999993"/>
+    <col customWidth="1" min="26" max="26" style="0" width="35.850000000000001"/>
+    <col customWidth="1" min="27" max="36" style="0" width="7.7000000000000002"/>
+    <col customWidth="1" min="37" max="38" style="0" width="15.140000000000001"/>
+    <col customWidth="1" min="39" max="44" style="0" width="17.289999999999999"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1681,7 +1889,7 @@
       <c r="AK1" s="8"/>
       <c r="AL1" s="8"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>26</v>
       </c>
@@ -1708,8 +1916,8 @@
         <v>28</v>
       </c>
       <c r="J2" s="10"/>
-      <c r="K2" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="K2" s="10">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="L2" s="10"/>
@@ -1746,7 +1954,7 @@
       <c r="AQ2" s="10"/>
       <c r="AR2" s="10"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" ht="15">
       <c r="A3" s="9" t="s">
         <v>26</v>
       </c>
@@ -1808,7 +2016,7 @@
       <c r="AQ3" s="10"/>
       <c r="AR3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>30</v>
       </c>
@@ -1872,7 +2080,7 @@
       <c r="AQ4" s="10"/>
       <c r="AR4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>30</v>
       </c>
@@ -1936,7 +2144,7 @@
       <c r="AQ5" s="10"/>
       <c r="AR5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>30</v>
       </c>
@@ -2000,7 +2208,7 @@
       <c r="AQ6" s="10"/>
       <c r="AR6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" ht="15">
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
@@ -2048,7 +2256,7 @@
       <c r="AQ7" s="10"/>
       <c r="AR7" s="10"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>36</v>
       </c>
@@ -2096,7 +2304,7 @@
       <c r="AQ8" s="10"/>
       <c r="AR8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2136,7 +2344,7 @@
       <c r="AK9" s="8"/>
       <c r="AL9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>26</v>
       </c>
@@ -2200,7 +2408,7 @@
       <c r="AQ10" s="16"/>
       <c r="AR10" s="16"/>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" ht="13.5" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>39</v>
       </c>
@@ -2266,7 +2474,7 @@
       <c r="AQ11" s="16"/>
       <c r="AR11" s="16"/>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>49</v>
       </c>
@@ -2334,7 +2542,7 @@
       <c r="AQ12" s="16"/>
       <c r="AR12" s="16"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" ht="15">
       <c r="A13" s="17" t="s">
         <v>30</v>
       </c>
@@ -2398,7 +2606,7 @@
       <c r="AQ13" s="16"/>
       <c r="AR13" s="16"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="17" t="s">
         <v>59</v>
       </c>
@@ -2450,7 +2658,7 @@
       <c r="AQ14" s="16"/>
       <c r="AR14" s="16"/>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="17" t="s">
         <v>62</v>
       </c>
@@ -2477,7 +2685,7 @@
         <v>28</v>
       </c>
       <c r="J15" s="16"/>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="19" t="s">
         <v>64</v>
       </c>
       <c r="L15" s="16" t="s">
@@ -2518,7 +2726,7 @@
       <c r="AQ15" s="16"/>
       <c r="AR15" s="16"/>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="17" t="s">
         <v>59</v>
       </c>
@@ -2570,7 +2778,7 @@
       <c r="AQ16" s="16"/>
       <c r="AR16" s="16"/>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="17" t="s">
         <v>30</v>
       </c>
@@ -2599,8 +2807,8 @@
       <c r="J17" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="16" t="s">
-        <v>70</v>
+      <c r="K17" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
@@ -2617,7 +2825,7 @@
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA17" s="16"/>
       <c r="AB17" s="16"/>
@@ -2638,31 +2846,31 @@
       <c r="AQ17" s="16"/>
       <c r="AR17" s="16"/>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="D18" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="E18" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="F18" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="G18" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>78</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
@@ -2682,7 +2890,7 @@
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
       <c r="Y18" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z18" s="16"/>
       <c r="AA18" s="16"/>
@@ -2704,12 +2912,12 @@
       <c r="AQ18" s="16"/>
       <c r="AR18" s="16"/>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -2725,7 +2933,7 @@
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
       <c r="P19" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
@@ -2756,12 +2964,12 @@
       <c r="AQ19" s="16"/>
       <c r="AR19" s="16"/>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>83</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>84</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>28</v>
@@ -2800,7 +3008,7 @@
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
       <c r="Y20" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z20" s="16"/>
       <c r="AA20" s="16"/>
@@ -2822,12 +3030,12 @@
       <c r="AQ20" s="16"/>
       <c r="AR20" s="16"/>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -2843,7 +3051,7 @@
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
       <c r="P21" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
@@ -2874,7 +3082,7 @@
       <c r="AQ21" s="16"/>
       <c r="AR21" s="16"/>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="17" t="s">
         <v>36</v>
       </c>
@@ -2922,7 +3130,7 @@
       <c r="AQ22" s="16"/>
       <c r="AR22" s="16"/>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2962,35 +3170,35 @@
       <c r="AK23" s="8"/>
       <c r="AL23" s="8"/>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="D24" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="E24" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="F24" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>91</v>
-      </c>
       <c r="G24" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L24" s="16" t="s">
         <v>38</v>
@@ -3028,12 +3236,12 @@
       <c r="AQ24" s="16"/>
       <c r="AR24" s="16"/>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="17" t="s">
         <v>58</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>28</v>
@@ -3050,7 +3258,7 @@
       <c r="G25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="20"/>
       <c r="I25" s="16" t="s">
         <v>28</v>
       </c>
@@ -3070,7 +3278,7 @@
       <c r="W25" s="16"/>
       <c r="X25" s="16"/>
       <c r="Y25" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z25" s="16"/>
       <c r="AA25" s="16"/>
@@ -3092,7 +3300,7 @@
       <c r="AQ25" s="16"/>
       <c r="AR25" s="16"/>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="17" t="s">
         <v>58</v>
       </c>
@@ -3114,7 +3322,7 @@
       <c r="G26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="20"/>
       <c r="I26" s="16" t="s">
         <v>28</v>
       </c>
@@ -3134,7 +3342,7 @@
       <c r="W26" s="16"/>
       <c r="X26" s="16"/>
       <c r="Y26" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z26" s="16"/>
       <c r="AA26" s="16"/>
@@ -3156,7 +3364,7 @@
       <c r="AQ26" s="16"/>
       <c r="AR26" s="16"/>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="17" t="s">
         <v>30</v>
       </c>
@@ -3164,23 +3372,23 @@
         <v>1</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="E27" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="F27" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F27" s="16" t="s">
-        <v>100</v>
-      </c>
       <c r="G27" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H27" s="16"/>
       <c r="I27" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J27" s="16" t="s">
         <v>47</v>
@@ -3189,7 +3397,7 @@
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
       <c r="N27" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
@@ -3222,15 +3430,15 @@
       <c r="AQ27" s="16"/>
       <c r="AR27" s="16"/>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>103</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>104</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -3239,21 +3447,21 @@
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
       <c r="M28" s="16"/>
       <c r="N28" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="O28" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="O28" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
-      <c r="R28" s="20" t="s">
-        <v>108</v>
+      <c r="R28" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
@@ -3282,14 +3490,14 @@
       <c r="AQ28" s="16"/>
       <c r="AR28" s="16"/>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="19"/>
+        <v>108</v>
+      </c>
+      <c r="C29" s="20"/>
       <c r="D29" s="18"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -3305,7 +3513,7 @@
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
       <c r="P29" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
@@ -3336,14 +3544,14 @@
       <c r="AQ29" s="16"/>
       <c r="AR29" s="16"/>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="19"/>
+        <v>110</v>
+      </c>
+      <c r="C30" s="20"/>
       <c r="D30" s="18"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
@@ -3357,7 +3565,7 @@
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
       <c r="P30" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
@@ -3388,30 +3596,30 @@
       <c r="AQ30" s="16"/>
       <c r="AR30" s="16"/>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19" t="s">
+      <c r="H31" s="20"/>
+      <c r="I31" s="20" t="s">
         <v>28</v>
       </c>
       <c r="J31" s="16"/>
@@ -3450,15 +3658,15 @@
       <c r="AQ31" s="16"/>
       <c r="AR31" s="16"/>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>115</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>116</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="16"/>
@@ -3470,20 +3678,20 @@
         <v>47</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
       <c r="N32" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="O32" s="16" t="s">
         <v>118</v>
-      </c>
-      <c r="O32" s="16" t="s">
-        <v>119</v>
       </c>
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
       <c r="R32" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S32" s="16"/>
       <c r="T32" s="16"/>
@@ -3512,15 +3720,15 @@
       <c r="AQ32" s="16"/>
       <c r="AR32" s="16"/>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>122</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>123</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
@@ -3530,7 +3738,7 @@
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
       <c r="K33" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
@@ -3566,15 +3774,15 @@
       <c r="AQ33" s="16"/>
       <c r="AR33" s="16"/>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="C34" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>127</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="16"/>
@@ -3586,15 +3794,15 @@
         <v>47</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
       <c r="N34" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="O34" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="O34" s="16" t="s">
-        <v>129</v>
       </c>
       <c r="P34" s="16"/>
       <c r="Q34" s="16"/>
@@ -3626,15 +3834,15 @@
       <c r="AQ34" s="16"/>
       <c r="AR34" s="16"/>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B35" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>130</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>131</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="16"/>
@@ -3644,15 +3852,15 @@
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
       <c r="K35" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
       <c r="N35" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="O35" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="O35" s="16" t="s">
-        <v>133</v>
       </c>
       <c r="P35" s="16"/>
       <c r="Q35" s="16"/>
@@ -3684,15 +3892,15 @@
       <c r="AQ35" s="16"/>
       <c r="AR35" s="16"/>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>136</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="16"/>
@@ -3703,7 +3911,7 @@
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
       <c r="L36" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
@@ -3738,12 +3946,12 @@
       <c r="AQ36" s="16"/>
       <c r="AR36" s="16"/>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="18"/>
@@ -3759,7 +3967,7 @@
       <c r="N37" s="16"/>
       <c r="O37" s="16"/>
       <c r="P37" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
@@ -3790,12 +3998,12 @@
       <c r="AQ37" s="16"/>
       <c r="AR37" s="16"/>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="18"/>
@@ -3811,7 +4019,7 @@
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
       <c r="P38" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q38" s="16"/>
       <c r="R38" s="16"/>
@@ -3842,15 +4050,15 @@
       <c r="AQ38" s="16"/>
       <c r="AR38" s="16"/>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B39" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="16" t="s">
         <v>142</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>143</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="16"/>
@@ -3864,8 +4072,8 @@
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
       <c r="O39" s="16"/>
-      <c r="P39" s="21" t="s">
-        <v>144</v>
+      <c r="P39" s="16" t="s">
+        <v>143</v>
       </c>
       <c r="Q39" s="16"/>
       <c r="R39" s="16"/>
@@ -3896,12 +4104,12 @@
       <c r="AQ39" s="16"/>
       <c r="AR39" s="16"/>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="18"/>
@@ -3917,7 +4125,7 @@
       <c r="N40" s="16"/>
       <c r="O40" s="16"/>
       <c r="P40" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q40" s="16"/>
       <c r="R40" s="16"/>
@@ -3948,15 +4156,15 @@
       <c r="AQ40" s="16"/>
       <c r="AR40" s="16"/>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="16"/>
@@ -3971,7 +4179,7 @@
       <c r="N41" s="16"/>
       <c r="O41" s="16"/>
       <c r="P41" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q41" s="16"/>
       <c r="R41" s="16"/>
@@ -4002,15 +4210,15 @@
       <c r="AQ41" s="16"/>
       <c r="AR41" s="16"/>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B42" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="22" t="s">
         <v>149</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>150</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="16"/>
@@ -4019,8 +4227,8 @@
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
       <c r="J42" s="16"/>
-      <c r="K42" s="16" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="K42" s="16">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="L42" s="16"/>
@@ -4057,7 +4265,7 @@
       <c r="AQ42" s="16"/>
       <c r="AR42" s="16"/>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="17" t="s">
         <v>36</v>
       </c>
@@ -4105,44 +4313,44 @@
       <c r="AQ43" s="16"/>
       <c r="AR43" s="16"/>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="C44" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="D44" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="E44" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="F44" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="G44" s="16" t="s">
         <v>156</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>157</v>
       </c>
       <c r="H44" s="16"/>
       <c r="I44" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J44" s="16"/>
       <c r="K44" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L44" s="16"/>
       <c r="M44" s="16"/>
-      <c r="N44" s="23" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="N44" s="23">
+        <f t="shared" ref="N44:N45" si="0">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O44" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P44" s="16"/>
       <c r="Q44" s="16"/>
@@ -4174,44 +4382,44 @@
       <c r="AQ44" s="16"/>
       <c r="AR44" s="16"/>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B45" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="D45" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="E45" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="F45" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="G45" s="16" t="s">
         <v>164</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>165</v>
       </c>
       <c r="H45" s="16"/>
       <c r="I45" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J45" s="16"/>
       <c r="K45" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
-      <c r="N45" s="23" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="N45" s="23">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O45" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P45" s="16"/>
       <c r="Q45" s="16"/>
@@ -4243,40 +4451,40 @@
       <c r="AQ45" s="16"/>
       <c r="AR45" s="16"/>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="C46" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="D46" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="E46" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="F46" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="F46" s="16" t="s">
-        <v>172</v>
-      </c>
       <c r="G46" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H46" s="16"/>
       <c r="I46" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J46" s="16" t="s">
         <v>47</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L46" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M46" s="16"/>
       <c r="N46" s="16"/>
@@ -4311,35 +4519,35 @@
       <c r="AQ46" s="16"/>
       <c r="AR46" s="16"/>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B47" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="C47" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="D47" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="E47" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="F47" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="G47" s="16" t="s">
         <v>179</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>180</v>
       </c>
       <c r="H47" s="16"/>
       <c r="I47" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J47" s="16"/>
       <c r="K47" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L47" s="16"/>
       <c r="M47" s="16"/>
@@ -4375,37 +4583,37 @@
       <c r="AQ47" s="16"/>
       <c r="AR47" s="16"/>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B48" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C48" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="D48" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="E48" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="F48" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="G48" s="16" t="s">
         <v>186</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>187</v>
       </c>
       <c r="H48" s="16"/>
       <c r="I48" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J48" s="16" t="s">
         <v>47</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L48" s="16"/>
       <c r="M48" s="16"/>
@@ -4441,35 +4649,35 @@
       <c r="AQ48" s="16"/>
       <c r="AR48" s="16"/>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B49" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="D49" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="E49" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="F49" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="G49" s="16" t="s">
         <v>194</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>195</v>
       </c>
       <c r="H49" s="16"/>
       <c r="I49" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J49" s="16"/>
       <c r="K49" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L49" s="16"/>
       <c r="M49" s="16"/>
@@ -4505,7 +4713,7 @@
       <c r="AQ49" s="16"/>
       <c r="AR49" s="16"/>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="17" t="s">
         <v>30</v>
       </c>
@@ -4513,30 +4721,30 @@
         <v>25</v>
       </c>
       <c r="C50" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D50" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="E50" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="F50" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="G50" s="16" t="s">
         <v>200</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>201</v>
       </c>
       <c r="H50" s="16"/>
       <c r="I50" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J50" s="16"/>
       <c r="K50" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L50" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
@@ -4571,12 +4779,12 @@
       <c r="AQ50" s="16"/>
       <c r="AR50" s="16"/>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>28</v>
@@ -4625,12 +4833,12 @@
       <c r="AQ51" s="16"/>
       <c r="AR51" s="16"/>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
@@ -4646,7 +4854,7 @@
       <c r="N52" s="16"/>
       <c r="O52" s="16"/>
       <c r="P52" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q52" s="16"/>
       <c r="R52" s="16"/>
@@ -4677,12 +4885,12 @@
       <c r="AQ52" s="16"/>
       <c r="AR52" s="16"/>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
@@ -4698,7 +4906,7 @@
       <c r="N53" s="16"/>
       <c r="O53" s="16"/>
       <c r="P53" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q53" s="16"/>
       <c r="R53" s="16"/>
@@ -4729,12 +4937,12 @@
       <c r="AQ53" s="16"/>
       <c r="AR53" s="16"/>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
@@ -4750,7 +4958,7 @@
       <c r="N54" s="16"/>
       <c r="O54" s="16"/>
       <c r="P54" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q54" s="16"/>
       <c r="R54" s="16"/>
@@ -4781,7 +4989,7 @@
       <c r="AQ54" s="16"/>
       <c r="AR54" s="16"/>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="17" t="s">
         <v>36</v>
       </c>
@@ -4829,7 +5037,7 @@
       <c r="AQ55" s="16"/>
       <c r="AR55" s="16"/>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="17" t="s">
         <v>36</v>
       </c>
@@ -4877,7 +5085,7 @@
       <c r="AQ56" s="16"/>
       <c r="AR56" s="16"/>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -4917,12 +5125,12 @@
       <c r="AK57" s="8"/>
       <c r="AL57" s="8"/>
     </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>28</v>
@@ -4981,12 +5189,12 @@
       <c r="AQ58" s="16"/>
       <c r="AR58" s="16"/>
     </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>28</v>
@@ -5023,7 +5231,7 @@
       <c r="W59" s="16"/>
       <c r="X59" s="16"/>
       <c r="Y59" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z59" s="16"/>
       <c r="AA59" s="16"/>
@@ -5045,7 +5253,7 @@
       <c r="AQ59" s="16"/>
       <c r="AR59" s="16"/>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="24" t="s">
         <v>58</v>
       </c>
@@ -5107,37 +5315,37 @@
       <c r="AQ60" s="16"/>
       <c r="AR60" s="16"/>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="17" t="s">
+    <row r="61" ht="14.25" customHeight="1">
+      <c r="A61" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B61" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="C61" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="D61" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="E61" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="F61" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="F61" s="16" t="s">
+      <c r="G61" s="16" t="s">
         <v>215</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>216</v>
       </c>
       <c r="H61" s="16"/>
       <c r="I61" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J61" s="16" t="s">
         <v>47</v>
       </c>
       <c r="K61" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L61" s="16" t="s">
         <v>48</v>
@@ -5155,7 +5363,7 @@
       <c r="W61" s="16"/>
       <c r="X61" s="16"/>
       <c r="Y61" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Z61" s="16"/>
       <c r="AA61" s="16"/>
@@ -5177,7 +5385,7 @@
       <c r="AQ61" s="16"/>
       <c r="AR61" s="16"/>
     </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="17" t="s">
         <v>59</v>
       </c>
@@ -5185,23 +5393,23 @@
         <v>1</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D62" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E62" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="F62" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F62" s="16" t="s">
-        <v>100</v>
-      </c>
       <c r="G62" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H62" s="16"/>
       <c r="I62" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J62" s="16" t="s">
         <v>47</v>
@@ -5212,7 +5420,7 @@
       <c r="N62" s="16"/>
       <c r="O62" s="22"/>
       <c r="P62" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q62" s="16"/>
       <c r="R62" s="16"/>
@@ -5243,31 +5451,31 @@
       <c r="AQ62" s="16"/>
       <c r="AR62" s="16"/>
     </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B63" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C63" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="D63" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="E63" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="E63" s="16" t="s">
-        <v>193</v>
-      </c>
       <c r="F63" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H63" s="16"/>
       <c r="I63" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J63" s="16"/>
       <c r="K63" s="16"/>
@@ -5305,7 +5513,7 @@
       <c r="AQ63" s="16"/>
       <c r="AR63" s="16"/>
     </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="17" t="s">
         <v>30</v>
       </c>
@@ -5313,28 +5521,28 @@
         <v>25</v>
       </c>
       <c r="C64" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D64" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="D64" s="16" t="s">
+      <c r="E64" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="F64" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="F64" s="16" t="s">
+      <c r="G64" s="18" t="s">
         <v>200</v>
-      </c>
-      <c r="G64" s="18" t="s">
-        <v>201</v>
       </c>
       <c r="H64" s="16"/>
       <c r="I64" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J64" s="16"/>
       <c r="K64" s="16"/>
       <c r="L64" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M64" s="16"/>
       <c r="N64" s="16"/>
@@ -5369,12 +5577,12 @@
       <c r="AQ64" s="16"/>
       <c r="AR64" s="16"/>
     </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C65" s="16"/>
       <c r="D65" s="16"/>
@@ -5390,7 +5598,7 @@
       <c r="N65" s="16"/>
       <c r="O65" s="16"/>
       <c r="P65" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q65" s="16"/>
       <c r="R65" s="16"/>
@@ -5421,12 +5629,12 @@
       <c r="AQ65" s="16"/>
       <c r="AR65" s="16"/>
     </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
@@ -5442,7 +5650,7 @@
       <c r="N66" s="16"/>
       <c r="O66" s="16"/>
       <c r="P66" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q66" s="16"/>
       <c r="R66" s="16"/>
@@ -5473,12 +5681,12 @@
       <c r="AQ66" s="16"/>
       <c r="AR66" s="16"/>
     </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C67" s="16" t="s">
         <v>28</v>
@@ -5537,12 +5745,12 @@
       <c r="AQ67" s="16"/>
       <c r="AR67" s="16"/>
     </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
@@ -5558,7 +5766,7 @@
       <c r="N68" s="16"/>
       <c r="O68" s="16"/>
       <c r="P68" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q68" s="16"/>
       <c r="R68" s="16"/>
@@ -5589,12 +5797,12 @@
       <c r="AQ68" s="16"/>
       <c r="AR68" s="16"/>
     </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
@@ -5610,7 +5818,7 @@
       <c r="N69" s="16"/>
       <c r="O69" s="16"/>
       <c r="P69" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q69" s="16"/>
       <c r="R69" s="16"/>
@@ -5641,12 +5849,12 @@
       <c r="AQ69" s="16"/>
       <c r="AR69" s="16"/>
     </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
@@ -5662,7 +5870,7 @@
       <c r="N70" s="16"/>
       <c r="O70" s="16"/>
       <c r="P70" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q70" s="16"/>
       <c r="R70" s="16"/>
@@ -5693,7 +5901,7 @@
       <c r="AQ70" s="16"/>
       <c r="AR70" s="16"/>
     </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="17" t="s">
         <v>36</v>
       </c>
@@ -5741,7 +5949,7 @@
       <c r="AQ71" s="16"/>
       <c r="AR71" s="16"/>
     </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="17" t="s">
         <v>36</v>
       </c>
@@ -5790,48 +5998,45 @@
       <c r="AR72" s="16"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr filterMode="0">
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="24.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="0" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="14" style="0" width="15.14"/>
+    <col customWidth="1" min="1" max="1" style="0" width="21.149999999999999"/>
+    <col customWidth="1" min="3" max="3" style="0" width="29"/>
+    <col customWidth="1" min="4" max="4" style="0" width="36.289999999999999"/>
+    <col customWidth="1" min="5" max="5" style="0" width="27.300000000000001"/>
+    <col customWidth="1" min="6" max="7" style="0" width="24.710000000000001"/>
+    <col customWidth="1" min="8" max="8" style="0" width="7.7000000000000002"/>
+    <col customWidth="1" min="9" max="9" style="0" width="14.289999999999999"/>
+    <col customWidth="1" min="10" max="13" style="0" width="7.7000000000000002"/>
+    <col customWidth="1" min="14" max="26" style="0" width="15.140000000000001"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" ht="14.25" customHeight="1">
+      <c r="A1" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -5870,31 +6075,31 @@
       <c r="Y1" s="8"/>
       <c r="Z1" s="8"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="D2" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="E2" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="G2" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="20" t="s">
         <v>232</v>
-      </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="19" t="s">
-        <v>233</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -5914,31 +6119,31 @@
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="B3" s="26" t="s">
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="D3" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="E3" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="G3" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="H3" s="31"/>
+      <c r="I3" s="20" t="s">
         <v>239</v>
-      </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="19" t="s">
-        <v>240</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -5958,31 +6163,31 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="26" t="s">
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="D4" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="E4" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="F4" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="G4" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="H4" s="31"/>
+      <c r="I4" s="20" t="s">
         <v>247</v>
-      </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="19" t="s">
-        <v>248</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -6002,31 +6207,31 @@
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="B5" s="26" t="s">
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="D5" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="E5" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="F5" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="G5" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="H5" s="31"/>
+      <c r="I5" s="20" t="s">
         <v>254</v>
-      </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="19" t="s">
-        <v>255</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -6046,31 +6251,31 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="33" t="s">
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="D6" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="E6" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="F6" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="G6" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="H6" s="31"/>
+      <c r="I6" s="20" t="s">
         <v>261</v>
-      </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="19" t="s">
-        <v>262</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -6090,31 +6295,31 @@
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="33" t="s">
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="D7" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="E7" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="F7" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="G7" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="H7" s="31"/>
+      <c r="I7" s="20" t="s">
         <v>268</v>
-      </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="19" t="s">
-        <v>269</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -6134,31 +6339,31 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="33" t="s">
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="D8" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="E8" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="F8" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="G8" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="H8" s="31"/>
+      <c r="I8" s="20" t="s">
         <v>275</v>
-      </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="19" t="s">
-        <v>276</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -6178,22 +6383,22 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="C9" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="19"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="20"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -6212,31 +6417,31 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="C10" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="D10" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="E10" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="F10" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="G10" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="H10" s="31"/>
+      <c r="I10" s="20" t="s">
         <v>286</v>
-      </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="19" t="s">
-        <v>287</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -6256,31 +6461,31 @@
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="B11" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="D11" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="E11" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="F11" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="G11" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="H11" s="31"/>
+      <c r="I11" s="20" t="s">
         <v>293</v>
-      </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="19" t="s">
-        <v>294</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -6300,31 +6505,31 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="B12" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="D12" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="E12" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="F12" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="G12" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="I12" s="20" t="s">
         <v>299</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="19" t="s">
-        <v>300</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -6344,31 +6549,31 @@
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="B13" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="C13" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="D13" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="E13" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="F13" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="G13" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="H13" s="31"/>
+      <c r="I13" s="20" t="s">
         <v>306</v>
-      </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="19" t="s">
-        <v>307</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -6388,31 +6593,31 @@
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="E14" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="F14" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="G14" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="G14" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="19" t="s">
-        <v>309</v>
+      <c r="H14" s="31"/>
+      <c r="I14" s="20" t="s">
+        <v>308</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -6432,31 +6637,31 @@
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="B15" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="C15" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="D15" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="E15" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="F15" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="G15" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="H15" s="31"/>
+      <c r="I15" s="20" t="s">
         <v>318</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="19" t="s">
-        <v>319</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -6476,31 +6681,31 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26" t="s">
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="G16" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="19" t="s">
-        <v>233</v>
+      <c r="H16" s="31"/>
+      <c r="I16" s="20" t="s">
+        <v>232</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -6520,31 +6725,31 @@
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="C17" s="26" t="s">
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="A17" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="D17" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="E17" s="33" t="s">
         <v>323</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="F17" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="G17" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="H17" s="31"/>
+      <c r="I17" s="20" t="s">
         <v>326</v>
-      </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="19" t="s">
-        <v>327</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -6564,31 +6769,31 @@
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="C18" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="D18" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="E18" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="F18" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="G18" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="H18" s="31"/>
+      <c r="I18" s="20" t="s">
         <v>333</v>
-      </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="19" t="s">
-        <v>334</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -6608,31 +6813,31 @@
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="C19" s="35" t="s">
         <v>335</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="D19" s="28" t="s">
         <v>336</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="E19" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="F19" s="29" t="s">
         <v>338</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="G19" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="H19" s="31"/>
+      <c r="I19" s="20" t="s">
         <v>340</v>
-      </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="19" t="s">
-        <v>341</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -6652,31 +6857,31 @@
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="C20" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="D20" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="E20" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="F20" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="G20" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="H20" s="31"/>
+      <c r="I20" s="20" t="s">
         <v>346</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="19" t="s">
-        <v>347</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -6696,31 +6901,31 @@
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="C21" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="D21" s="28" t="s">
         <v>348</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="E21" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="F21" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="G21" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="H21" s="31"/>
+      <c r="I21" s="20" t="s">
         <v>352</v>
-      </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="19" t="s">
-        <v>353</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -6740,31 +6945,31 @@
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="C22" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="D22" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="E22" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="F22" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="G22" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="H22" s="31"/>
+      <c r="I22" s="20" t="s">
         <v>358</v>
-      </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="19" t="s">
-        <v>359</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -6784,31 +6989,31 @@
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="C23" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="D23" s="28" t="s">
         <v>360</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="E23" s="33" t="s">
         <v>361</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="F23" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="G23" s="36" t="s">
         <v>363</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="H23" s="31"/>
+      <c r="I23" s="20" t="s">
         <v>364</v>
-      </c>
-      <c r="H23" s="30"/>
-      <c r="I23" s="19" t="s">
-        <v>365</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -6828,31 +7033,31 @@
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="36" t="s">
-        <v>366</v>
-      </c>
-      <c r="B24" s="33" t="s">
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="B24" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="D24" s="27" t="s">
+      <c r="C24" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="F24" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="G24" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="31"/>
+      <c r="I24" s="20" t="s">
         <v>100</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="19" t="s">
-        <v>101</v>
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -6873,55 +7078,52 @@
       <c r="Z24" s="8"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr filterMode="0">
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:Y221"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="7" style="0" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="15" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="17.29"/>
+    <col customWidth="1" min="1" max="1" style="0" width="28.140000000000001"/>
+    <col customWidth="1" min="2" max="2" style="0" width="12.710000000000001"/>
+    <col customWidth="1" min="3" max="3" style="0" width="19"/>
+    <col customWidth="1" min="4" max="4" style="0" width="5.7000000000000002"/>
+    <col customWidth="1" min="5" max="5" style="0" width="14.289999999999999"/>
+    <col customWidth="1" min="6" max="6" style="0" width="34"/>
+    <col customWidth="1" min="7" max="14" style="0" width="7.7000000000000002"/>
+    <col customWidth="1" min="15" max="25" style="0" width="15.140000000000001"/>
+    <col customWidth="1" min="26" max="26" style="0" width="17.289999999999999"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="8"/>
@@ -6944,22 +7146,22 @@
       <c r="X1" s="8"/>
       <c r="Y1" s="8"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="38" t="str">
+        <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
+        <v xml:space="preserve">2022-01-19 16-22</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="C2" s="37" t="str">
-        <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2019-10-23  12-01</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>375</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -6982,7 +7184,7 @@
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -7009,7 +7211,7 @@
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -7036,7 +7238,7 @@
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -7063,7 +7265,7 @@
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -7090,7 +7292,7 @@
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -7117,7 +7319,7 @@
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -7144,7 +7346,7 @@
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -7171,7 +7373,7 @@
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -7198,7 +7400,7 @@
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -7225,7 +7427,7 @@
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -7252,7 +7454,7 @@
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -7279,7 +7481,7 @@
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -7306,7 +7508,7 @@
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -7333,7 +7535,7 @@
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -7360,7 +7562,7 @@
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -7387,7 +7589,7 @@
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -7414,7 +7616,7 @@
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -7441,7 +7643,7 @@
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -7468,7 +7670,7 @@
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -7495,7 +7697,7 @@
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -7522,7 +7724,7 @@
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -7549,7 +7751,7 @@
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -7576,7 +7778,7 @@
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -7603,7 +7805,7 @@
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -7630,7 +7832,7 @@
       <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -7657,7 +7859,7 @@
       <c r="X27" s="8"/>
       <c r="Y27" s="8"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -7684,7 +7886,7 @@
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -7711,7 +7913,7 @@
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -7738,7 +7940,7 @@
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -7765,7 +7967,7 @@
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -7792,7 +7994,7 @@
       <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -7819,7 +8021,7 @@
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -7846,7 +8048,7 @@
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -7873,7 +8075,7 @@
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -7900,7 +8102,7 @@
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -7927,7 +8129,7 @@
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -7954,7 +8156,7 @@
       <c r="X38" s="8"/>
       <c r="Y38" s="8"/>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -7981,7 +8183,7 @@
       <c r="X39" s="8"/>
       <c r="Y39" s="8"/>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -8008,7 +8210,7 @@
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -8035,7 +8237,7 @@
       <c r="X41" s="8"/>
       <c r="Y41" s="8"/>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -8062,7 +8264,7 @@
       <c r="X42" s="8"/>
       <c r="Y42" s="8"/>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -8089,7 +8291,7 @@
       <c r="X43" s="8"/>
       <c r="Y43" s="8"/>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -8116,7 +8318,7 @@
       <c r="X44" s="8"/>
       <c r="Y44" s="8"/>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -8143,7 +8345,7 @@
       <c r="X45" s="8"/>
       <c r="Y45" s="8"/>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -8170,7 +8372,7 @@
       <c r="X46" s="8"/>
       <c r="Y46" s="8"/>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -8197,7 +8399,7 @@
       <c r="X47" s="8"/>
       <c r="Y47" s="8"/>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -8224,7 +8426,7 @@
       <c r="X48" s="8"/>
       <c r="Y48" s="8"/>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -8251,7 +8453,7 @@
       <c r="X49" s="8"/>
       <c r="Y49" s="8"/>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -8278,7 +8480,7 @@
       <c r="X50" s="8"/>
       <c r="Y50" s="8"/>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -8305,7 +8507,7 @@
       <c r="X51" s="8"/>
       <c r="Y51" s="8"/>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -8332,7 +8534,7 @@
       <c r="X52" s="8"/>
       <c r="Y52" s="8"/>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -8359,7 +8561,7 @@
       <c r="X53" s="8"/>
       <c r="Y53" s="8"/>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -8386,7 +8588,7 @@
       <c r="X54" s="8"/>
       <c r="Y54" s="8"/>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -8413,7 +8615,7 @@
       <c r="X55" s="8"/>
       <c r="Y55" s="8"/>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -8440,7 +8642,7 @@
       <c r="X56" s="8"/>
       <c r="Y56" s="8"/>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -8467,7 +8669,7 @@
       <c r="X57" s="8"/>
       <c r="Y57" s="8"/>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -8494,7 +8696,7 @@
       <c r="X58" s="8"/>
       <c r="Y58" s="8"/>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -8521,7 +8723,7 @@
       <c r="X59" s="8"/>
       <c r="Y59" s="8"/>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -8548,7 +8750,7 @@
       <c r="X60" s="8"/>
       <c r="Y60" s="8"/>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -8575,7 +8777,7 @@
       <c r="X61" s="8"/>
       <c r="Y61" s="8"/>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -8602,7 +8804,7 @@
       <c r="X62" s="8"/>
       <c r="Y62" s="8"/>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -8629,7 +8831,7 @@
       <c r="X63" s="8"/>
       <c r="Y63" s="8"/>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -8656,7 +8858,7 @@
       <c r="X64" s="8"/>
       <c r="Y64" s="8"/>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -8683,7 +8885,7 @@
       <c r="X65" s="8"/>
       <c r="Y65" s="8"/>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -8710,7 +8912,7 @@
       <c r="X66" s="8"/>
       <c r="Y66" s="8"/>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -8737,7 +8939,7 @@
       <c r="X67" s="8"/>
       <c r="Y67" s="8"/>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -8764,7 +8966,7 @@
       <c r="X68" s="8"/>
       <c r="Y68" s="8"/>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -8791,7 +8993,7 @@
       <c r="X69" s="8"/>
       <c r="Y69" s="8"/>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -8818,7 +9020,7 @@
       <c r="X70" s="8"/>
       <c r="Y70" s="8"/>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -8845,7 +9047,7 @@
       <c r="X71" s="8"/>
       <c r="Y71" s="8"/>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -8872,7 +9074,7 @@
       <c r="X72" s="8"/>
       <c r="Y72" s="8"/>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -8899,7 +9101,7 @@
       <c r="X73" s="8"/>
       <c r="Y73" s="8"/>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -8926,7 +9128,7 @@
       <c r="X74" s="8"/>
       <c r="Y74" s="8"/>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -8953,7 +9155,7 @@
       <c r="X75" s="8"/>
       <c r="Y75" s="8"/>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -8980,7 +9182,7 @@
       <c r="X76" s="8"/>
       <c r="Y76" s="8"/>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -9007,7 +9209,7 @@
       <c r="X77" s="8"/>
       <c r="Y77" s="8"/>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -9034,7 +9236,7 @@
       <c r="X78" s="8"/>
       <c r="Y78" s="8"/>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -9061,7 +9263,7 @@
       <c r="X79" s="8"/>
       <c r="Y79" s="8"/>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -9088,7 +9290,7 @@
       <c r="X80" s="8"/>
       <c r="Y80" s="8"/>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -9115,7 +9317,7 @@
       <c r="X81" s="8"/>
       <c r="Y81" s="8"/>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -9142,7 +9344,7 @@
       <c r="X82" s="8"/>
       <c r="Y82" s="8"/>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -9169,7 +9371,7 @@
       <c r="X83" s="8"/>
       <c r="Y83" s="8"/>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -9196,7 +9398,7 @@
       <c r="X84" s="8"/>
       <c r="Y84" s="8"/>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -9223,7 +9425,7 @@
       <c r="X85" s="8"/>
       <c r="Y85" s="8"/>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -9250,7 +9452,7 @@
       <c r="X86" s="8"/>
       <c r="Y86" s="8"/>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -9277,7 +9479,7 @@
       <c r="X87" s="8"/>
       <c r="Y87" s="8"/>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -9304,7 +9506,7 @@
       <c r="X88" s="8"/>
       <c r="Y88" s="8"/>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -9331,7 +9533,7 @@
       <c r="X89" s="8"/>
       <c r="Y89" s="8"/>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -9358,7 +9560,7 @@
       <c r="X90" s="8"/>
       <c r="Y90" s="8"/>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -9385,7 +9587,7 @@
       <c r="X91" s="8"/>
       <c r="Y91" s="8"/>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -9412,7 +9614,7 @@
       <c r="X92" s="8"/>
       <c r="Y92" s="8"/>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -9439,7 +9641,7 @@
       <c r="X93" s="8"/>
       <c r="Y93" s="8"/>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -9466,7 +9668,7 @@
       <c r="X94" s="8"/>
       <c r="Y94" s="8"/>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -9493,7 +9695,7 @@
       <c r="X95" s="8"/>
       <c r="Y95" s="8"/>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -9520,7 +9722,7 @@
       <c r="X96" s="8"/>
       <c r="Y96" s="8"/>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -9547,7 +9749,7 @@
       <c r="X97" s="8"/>
       <c r="Y97" s="8"/>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -9574,7 +9776,7 @@
       <c r="X98" s="8"/>
       <c r="Y98" s="8"/>
     </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -9601,7 +9803,7 @@
       <c r="X99" s="8"/>
       <c r="Y99" s="8"/>
     </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -9628,7 +9830,7 @@
       <c r="X100" s="8"/>
       <c r="Y100" s="8"/>
     </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -9655,7 +9857,7 @@
       <c r="X101" s="8"/>
       <c r="Y101" s="8"/>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -9682,7 +9884,7 @@
       <c r="X102" s="8"/>
       <c r="Y102" s="8"/>
     </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -9709,7 +9911,7 @@
       <c r="X103" s="8"/>
       <c r="Y103" s="8"/>
     </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -9736,7 +9938,7 @@
       <c r="X104" s="8"/>
       <c r="Y104" s="8"/>
     </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -9763,7 +9965,7 @@
       <c r="X105" s="8"/>
       <c r="Y105" s="8"/>
     </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -9790,7 +9992,7 @@
       <c r="X106" s="8"/>
       <c r="Y106" s="8"/>
     </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -9817,7 +10019,7 @@
       <c r="X107" s="8"/>
       <c r="Y107" s="8"/>
     </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -9844,7 +10046,7 @@
       <c r="X108" s="8"/>
       <c r="Y108" s="8"/>
     </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -9871,7 +10073,7 @@
       <c r="X109" s="8"/>
       <c r="Y109" s="8"/>
     </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -9898,7 +10100,7 @@
       <c r="X110" s="8"/>
       <c r="Y110" s="8"/>
     </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -9925,7 +10127,7 @@
       <c r="X111" s="8"/>
       <c r="Y111" s="8"/>
     </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -9952,7 +10154,7 @@
       <c r="X112" s="8"/>
       <c r="Y112" s="8"/>
     </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -9979,7 +10181,7 @@
       <c r="X113" s="8"/>
       <c r="Y113" s="8"/>
     </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -10006,7 +10208,7 @@
       <c r="X114" s="8"/>
       <c r="Y114" s="8"/>
     </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -10033,7 +10235,7 @@
       <c r="X115" s="8"/>
       <c r="Y115" s="8"/>
     </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -10060,7 +10262,7 @@
       <c r="X116" s="8"/>
       <c r="Y116" s="8"/>
     </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -10087,7 +10289,7 @@
       <c r="X117" s="8"/>
       <c r="Y117" s="8"/>
     </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -10114,7 +10316,7 @@
       <c r="X118" s="8"/>
       <c r="Y118" s="8"/>
     </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -10141,7 +10343,7 @@
       <c r="X119" s="8"/>
       <c r="Y119" s="8"/>
     </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -10168,7 +10370,7 @@
       <c r="X120" s="8"/>
       <c r="Y120" s="8"/>
     </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -10195,7 +10397,7 @@
       <c r="X121" s="8"/>
       <c r="Y121" s="8"/>
     </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -10222,7 +10424,7 @@
       <c r="X122" s="8"/>
       <c r="Y122" s="8"/>
     </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -10249,7 +10451,7 @@
       <c r="X123" s="8"/>
       <c r="Y123" s="8"/>
     </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -10276,7 +10478,7 @@
       <c r="X124" s="8"/>
       <c r="Y124" s="8"/>
     </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -10303,7 +10505,7 @@
       <c r="X125" s="8"/>
       <c r="Y125" s="8"/>
     </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -10330,7 +10532,7 @@
       <c r="X126" s="8"/>
       <c r="Y126" s="8"/>
     </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -10357,7 +10559,7 @@
       <c r="X127" s="8"/>
       <c r="Y127" s="8"/>
     </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -10384,7 +10586,7 @@
       <c r="X128" s="8"/>
       <c r="Y128" s="8"/>
     </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -10411,7 +10613,7 @@
       <c r="X129" s="8"/>
       <c r="Y129" s="8"/>
     </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -10438,7 +10640,7 @@
       <c r="X130" s="8"/>
       <c r="Y130" s="8"/>
     </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -10465,7 +10667,7 @@
       <c r="X131" s="8"/>
       <c r="Y131" s="8"/>
     </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -10492,7 +10694,7 @@
       <c r="X132" s="8"/>
       <c r="Y132" s="8"/>
     </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -10519,7 +10721,7 @@
       <c r="X133" s="8"/>
       <c r="Y133" s="8"/>
     </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -10546,7 +10748,7 @@
       <c r="X134" s="8"/>
       <c r="Y134" s="8"/>
     </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -10573,7 +10775,7 @@
       <c r="X135" s="8"/>
       <c r="Y135" s="8"/>
     </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -10600,7 +10802,7 @@
       <c r="X136" s="8"/>
       <c r="Y136" s="8"/>
     </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -10627,7 +10829,7 @@
       <c r="X137" s="8"/>
       <c r="Y137" s="8"/>
     </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -10654,7 +10856,7 @@
       <c r="X138" s="8"/>
       <c r="Y138" s="8"/>
     </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -10681,7 +10883,7 @@
       <c r="X139" s="8"/>
       <c r="Y139" s="8"/>
     </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -10708,7 +10910,7 @@
       <c r="X140" s="8"/>
       <c r="Y140" s="8"/>
     </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -10735,7 +10937,7 @@
       <c r="X141" s="8"/>
       <c r="Y141" s="8"/>
     </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -10762,7 +10964,7 @@
       <c r="X142" s="8"/>
       <c r="Y142" s="8"/>
     </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -10789,7 +10991,7 @@
       <c r="X143" s="8"/>
       <c r="Y143" s="8"/>
     </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -10816,7 +11018,7 @@
       <c r="X144" s="8"/>
       <c r="Y144" s="8"/>
     </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -10843,7 +11045,7 @@
       <c r="X145" s="8"/>
       <c r="Y145" s="8"/>
     </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -10870,7 +11072,7 @@
       <c r="X146" s="8"/>
       <c r="Y146" s="8"/>
     </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -10897,7 +11099,7 @@
       <c r="X147" s="8"/>
       <c r="Y147" s="8"/>
     </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -10924,7 +11126,7 @@
       <c r="X148" s="8"/>
       <c r="Y148" s="8"/>
     </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -10951,7 +11153,7 @@
       <c r="X149" s="8"/>
       <c r="Y149" s="8"/>
     </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -10978,7 +11180,7 @@
       <c r="X150" s="8"/>
       <c r="Y150" s="8"/>
     </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -11005,7 +11207,7 @@
       <c r="X151" s="8"/>
       <c r="Y151" s="8"/>
     </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -11032,7 +11234,7 @@
       <c r="X152" s="8"/>
       <c r="Y152" s="8"/>
     </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -11059,7 +11261,7 @@
       <c r="X153" s="8"/>
       <c r="Y153" s="8"/>
     </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -11086,7 +11288,7 @@
       <c r="X154" s="8"/>
       <c r="Y154" s="8"/>
     </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -11113,7 +11315,7 @@
       <c r="X155" s="8"/>
       <c r="Y155" s="8"/>
     </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -11140,7 +11342,7 @@
       <c r="X156" s="8"/>
       <c r="Y156" s="8"/>
     </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -11167,7 +11369,7 @@
       <c r="X157" s="8"/>
       <c r="Y157" s="8"/>
     </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -11194,7 +11396,7 @@
       <c r="X158" s="8"/>
       <c r="Y158" s="8"/>
     </row>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -11221,7 +11423,7 @@
       <c r="X159" s="8"/>
       <c r="Y159" s="8"/>
     </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -11248,7 +11450,7 @@
       <c r="X160" s="8"/>
       <c r="Y160" s="8"/>
     </row>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -11275,7 +11477,7 @@
       <c r="X161" s="8"/>
       <c r="Y161" s="8"/>
     </row>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -11302,7 +11504,7 @@
       <c r="X162" s="8"/>
       <c r="Y162" s="8"/>
     </row>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -11329,7 +11531,7 @@
       <c r="X163" s="8"/>
       <c r="Y163" s="8"/>
     </row>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -11356,7 +11558,7 @@
       <c r="X164" s="8"/>
       <c r="Y164" s="8"/>
     </row>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -11383,7 +11585,7 @@
       <c r="X165" s="8"/>
       <c r="Y165" s="8"/>
     </row>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -11410,7 +11612,7 @@
       <c r="X166" s="8"/>
       <c r="Y166" s="8"/>
     </row>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -11437,7 +11639,7 @@
       <c r="X167" s="8"/>
       <c r="Y167" s="8"/>
     </row>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -11464,7 +11666,7 @@
       <c r="X168" s="8"/>
       <c r="Y168" s="8"/>
     </row>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -11491,7 +11693,7 @@
       <c r="X169" s="8"/>
       <c r="Y169" s="8"/>
     </row>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -11518,7 +11720,7 @@
       <c r="X170" s="8"/>
       <c r="Y170" s="8"/>
     </row>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -11545,7 +11747,7 @@
       <c r="X171" s="8"/>
       <c r="Y171" s="8"/>
     </row>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -11572,7 +11774,7 @@
       <c r="X172" s="8"/>
       <c r="Y172" s="8"/>
     </row>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -11599,7 +11801,7 @@
       <c r="X173" s="8"/>
       <c r="Y173" s="8"/>
     </row>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -11626,7 +11828,7 @@
       <c r="X174" s="8"/>
       <c r="Y174" s="8"/>
     </row>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -11653,7 +11855,7 @@
       <c r="X175" s="8"/>
       <c r="Y175" s="8"/>
     </row>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -11680,7 +11882,7 @@
       <c r="X176" s="8"/>
       <c r="Y176" s="8"/>
     </row>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -11707,7 +11909,7 @@
       <c r="X177" s="8"/>
       <c r="Y177" s="8"/>
     </row>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -11734,7 +11936,7 @@
       <c r="X178" s="8"/>
       <c r="Y178" s="8"/>
     </row>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -11761,7 +11963,7 @@
       <c r="X179" s="8"/>
       <c r="Y179" s="8"/>
     </row>
-    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -11788,7 +11990,7 @@
       <c r="X180" s="8"/>
       <c r="Y180" s="8"/>
     </row>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -11815,7 +12017,7 @@
       <c r="X181" s="8"/>
       <c r="Y181" s="8"/>
     </row>
-    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -11842,7 +12044,7 @@
       <c r="X182" s="8"/>
       <c r="Y182" s="8"/>
     </row>
-    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -11869,7 +12071,7 @@
       <c r="X183" s="8"/>
       <c r="Y183" s="8"/>
     </row>
-    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -11896,7 +12098,7 @@
       <c r="X184" s="8"/>
       <c r="Y184" s="8"/>
     </row>
-    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -11923,7 +12125,7 @@
       <c r="X185" s="8"/>
       <c r="Y185" s="8"/>
     </row>
-    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -11950,7 +12152,7 @@
       <c r="X186" s="8"/>
       <c r="Y186" s="8"/>
     </row>
-    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -11977,7 +12179,7 @@
       <c r="X187" s="8"/>
       <c r="Y187" s="8"/>
     </row>
-    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -12004,7 +12206,7 @@
       <c r="X188" s="8"/>
       <c r="Y188" s="8"/>
     </row>
-    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -12031,7 +12233,7 @@
       <c r="X189" s="8"/>
       <c r="Y189" s="8"/>
     </row>
-    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -12058,7 +12260,7 @@
       <c r="X190" s="8"/>
       <c r="Y190" s="8"/>
     </row>
-    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -12085,7 +12287,7 @@
       <c r="X191" s="8"/>
       <c r="Y191" s="8"/>
     </row>
-    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -12112,7 +12314,7 @@
       <c r="X192" s="8"/>
       <c r="Y192" s="8"/>
     </row>
-    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -12139,7 +12341,7 @@
       <c r="X193" s="8"/>
       <c r="Y193" s="8"/>
     </row>
-    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -12166,7 +12368,7 @@
       <c r="X194" s="8"/>
       <c r="Y194" s="8"/>
     </row>
-    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -12193,7 +12395,7 @@
       <c r="X195" s="8"/>
       <c r="Y195" s="8"/>
     </row>
-    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -12220,7 +12422,7 @@
       <c r="X196" s="8"/>
       <c r="Y196" s="8"/>
     </row>
-    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -12247,7 +12449,7 @@
       <c r="X197" s="8"/>
       <c r="Y197" s="8"/>
     </row>
-    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -12274,7 +12476,7 @@
       <c r="X198" s="8"/>
       <c r="Y198" s="8"/>
     </row>
-    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -12301,7 +12503,7 @@
       <c r="X199" s="8"/>
       <c r="Y199" s="8"/>
     </row>
-    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -12328,7 +12530,7 @@
       <c r="X200" s="8"/>
       <c r="Y200" s="8"/>
     </row>
-    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -12355,7 +12557,7 @@
       <c r="X201" s="8"/>
       <c r="Y201" s="8"/>
     </row>
-    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
@@ -12382,7 +12584,7 @@
       <c r="X202" s="8"/>
       <c r="Y202" s="8"/>
     </row>
-    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="8"/>
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
@@ -12409,7 +12611,7 @@
       <c r="X203" s="8"/>
       <c r="Y203" s="8"/>
     </row>
-    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="8"/>
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
@@ -12436,7 +12638,7 @@
       <c r="X204" s="8"/>
       <c r="Y204" s="8"/>
     </row>
-    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="8"/>
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
@@ -12463,7 +12665,7 @@
       <c r="X205" s="8"/>
       <c r="Y205" s="8"/>
     </row>
-    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="8"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
@@ -12490,7 +12692,7 @@
       <c r="X206" s="8"/>
       <c r="Y206" s="8"/>
     </row>
-    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="8"/>
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
@@ -12517,7 +12719,7 @@
       <c r="X207" s="8"/>
       <c r="Y207" s="8"/>
     </row>
-    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="8"/>
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
@@ -12544,7 +12746,7 @@
       <c r="X208" s="8"/>
       <c r="Y208" s="8"/>
     </row>
-    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="8"/>
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
@@ -12571,7 +12773,7 @@
       <c r="X209" s="8"/>
       <c r="Y209" s="8"/>
     </row>
-    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="8"/>
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
@@ -12598,7 +12800,7 @@
       <c r="X210" s="8"/>
       <c r="Y210" s="8"/>
     </row>
-    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="8"/>
       <c r="B211" s="8"/>
       <c r="C211" s="8"/>
@@ -12625,7 +12827,7 @@
       <c r="X211" s="8"/>
       <c r="Y211" s="8"/>
     </row>
-    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="8"/>
       <c r="B212" s="8"/>
       <c r="C212" s="8"/>
@@ -12652,7 +12854,7 @@
       <c r="X212" s="8"/>
       <c r="Y212" s="8"/>
     </row>
-    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="8"/>
       <c r="B213" s="8"/>
       <c r="C213" s="8"/>
@@ -12679,7 +12881,7 @@
       <c r="X213" s="8"/>
       <c r="Y213" s="8"/>
     </row>
-    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="8"/>
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
@@ -12706,7 +12908,7 @@
       <c r="X214" s="8"/>
       <c r="Y214" s="8"/>
     </row>
-    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="8"/>
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
@@ -12733,7 +12935,7 @@
       <c r="X215" s="8"/>
       <c r="Y215" s="8"/>
     </row>
-    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="8"/>
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
@@ -12760,7 +12962,7 @@
       <c r="X216" s="8"/>
       <c r="Y216" s="8"/>
     </row>
-    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="8"/>
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
@@ -12787,7 +12989,7 @@
       <c r="X217" s="8"/>
       <c r="Y217" s="8"/>
     </row>
-    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="8"/>
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
@@ -12814,7 +13016,7 @@
       <c r="X218" s="8"/>
       <c r="Y218" s="8"/>
     </row>
-    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="8"/>
       <c r="B219" s="8"/>
       <c r="C219" s="8"/>
@@ -12841,7 +13043,7 @@
       <c r="X219" s="8"/>
       <c r="Y219" s="8"/>
     </row>
-    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="8"/>
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
@@ -12868,793 +13070,790 @@
       <c r="X220" s="8"/>
       <c r="Y220" s="8"/>
     </row>
-    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config/default/forms/contact/PLACE_TYPE-create.xlsx
+++ b/config/default/forms/contact/PLACE_TYPE-create.xlsx
@@ -1,129 +1,122 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="choices" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="settings" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="survey" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="376">
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::hi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::ne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::es</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relevant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appearance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read_only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice_filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::hi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::ne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::es</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notes</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="376">
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>label::en</t>
+  </si>
+  <si>
+    <t>label::hi</t>
+  </si>
+  <si>
+    <t>label::id</t>
+  </si>
+  <si>
+    <t>label::sw</t>
+  </si>
+  <si>
+    <t>label::ne</t>
+  </si>
+  <si>
+    <t>label::es</t>
+  </si>
+  <si>
+    <t>label::fr</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>read_only</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>constraint_message</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>choice_filter</t>
+  </si>
+  <si>
+    <t>hint::en</t>
+  </si>
+  <si>
+    <t>hint::hi</t>
+  </si>
+  <si>
+    <t>hint::id</t>
+  </si>
+  <si>
+    <t>hint::sw</t>
+  </si>
+  <si>
+    <t>hint::ne</t>
+  </si>
+  <si>
+    <t>hint::es</t>
+  </si>
+  <si>
+    <t>hint::fr</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
   <si>
     <t xml:space="preserve">begin group</t>
   </si>
   <si>
-    <t xml:space="preserve">inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO_LABEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact_id</t>
+    <t>inputs</t>
+  </si>
+  <si>
+    <t>NO_LABEL</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>contact_id</t>
   </si>
   <si>
     <t xml:space="preserve">Contact ID of the logged in user</t>
   </si>
   <si>
-    <t xml:space="preserve">facility_id</t>
+    <t>facility_id</t>
   </si>
   <si>
     <t xml:space="preserve">Place ID of the logged in user</t>
@@ -135,16 +128,16 @@
     <t xml:space="preserve">end group</t>
   </si>
   <si>
-    <t xml:space="preserve">init</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field-list</t>
+    <t>init</t>
+  </si>
+  <si>
+    <t>field-list</t>
   </si>
   <si>
     <t xml:space="preserve">select_one contact</t>
   </si>
   <si>
-    <t xml:space="preserve">create_new_person</t>
+    <t>create_new_person</t>
   </si>
   <si>
     <t xml:space="preserve">Set the Primary Contact</t>
@@ -165,16 +158,16 @@
     <t xml:space="preserve">Contact primaire</t>
   </si>
   <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">horizontal-compact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">db:person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_person</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>horizontal-compact</t>
+  </si>
+  <si>
+    <t>db:person</t>
+  </si>
+  <si>
+    <t>select_person</t>
   </si>
   <si>
     <t xml:space="preserve">Select the Primary Contact</t>
@@ -192,19 +185,19 @@
     <t xml:space="preserve">Choisisser le contact primaire</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(${create_new_person},'old_person')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">db-object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hidden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact_name</t>
+    <t>selected(${create_new_person},'old_person')</t>
+  </si>
+  <si>
+    <t>db-object</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>contact_name</t>
   </si>
   <si>
     <t xml:space="preserve">coalesce(../../contact/name, ../name)</t>
@@ -213,25 +206,25 @@
     <t xml:space="preserve">select_one translate_name_label</t>
   </si>
   <si>
-    <t xml:space="preserve">custom_place_name_label_translator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${create_new_person},'none')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"name"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">custom_place_name_label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jr:choice-name(${custom_place_name_label_translator},'${custom_place_name_label_translator}')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">custom_place_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${custom_place_name_label}</t>
+    <t>custom_place_name_label_translator</t>
+  </si>
+  <si>
+    <t>selected(${create_new_person},'none')</t>
+  </si>
+  <si>
+    <t>"name"</t>
+  </si>
+  <si>
+    <t>custom_place_name_label</t>
+  </si>
+  <si>
+    <t>jr:choice-name(${custom_place_name_label_translator},'${custom_place_name_label_translator}')</t>
+  </si>
+  <si>
+    <t>custom_place_name</t>
+  </si>
+  <si>
+    <t>${custom_place_name_label}</t>
   </si>
   <si>
     <t xml:space="preserve">selected(${create_new_person},'none') or selected(${is_name_generated}, 'false')  or selected(${is_name_generated}, 'no')</t>
@@ -243,7 +236,7 @@
     <t xml:space="preserve">select_one place_type</t>
   </si>
   <si>
-    <t xml:space="preserve">place_type</t>
+    <t>place_type</t>
   </si>
   <si>
     <t xml:space="preserve">Enter the name of this place</t>
@@ -264,28 +257,28 @@
     <t xml:space="preserve">Nom de l'endroit</t>
   </si>
   <si>
-    <t xml:space="preserve">PLACE_TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">place_type_translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jr:choice-name(${place_type},'${place_type}')</t>
+    <t>PLACE_TYPE</t>
+  </si>
+  <si>
+    <t>place_type_translation</t>
+  </si>
+  <si>
+    <t>jr:choice-name(${place_type},'${place_type}')</t>
   </si>
   <si>
     <t xml:space="preserve">select_one generated_name</t>
   </si>
   <si>
-    <t xml:space="preserve">generated_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">generated_name_translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jr:choice-name(${generated_name},'${generated_name}')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact</t>
+    <t>generated_name</t>
+  </si>
+  <si>
+    <t>generated_name_translation</t>
+  </si>
+  <si>
+    <t>jr:choice-name(${generated_name},'${generated_name}')</t>
+  </si>
+  <si>
+    <t>contact</t>
   </si>
   <si>
     <t xml:space="preserve">New Person</t>
@@ -303,43 +296,43 @@
     <t xml:space="preserve">Nouvelle personne</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(${create_new_person},'new_person')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">person</t>
+    <t>selected(${create_new_person},'new_person')</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>PARENT</t>
+  </si>
+  <si>
+    <t>person</t>
   </si>
   <si>
     <t xml:space="preserve">Full Name</t>
   </si>
   <si>
-    <t xml:space="preserve">नाम</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom</t>
+    <t>नाम</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Jina</t>
+  </si>
+  <si>
+    <t>Nom</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">short_name</t>
+    <t>short_name</t>
   </si>
   <si>
     <t xml:space="preserve">Short name</t>
   </si>
   <si>
-    <t xml:space="preserve">no</t>
+    <t>no</t>
   </si>
   <si>
     <t xml:space="preserve">string-length(.) &lt;= 10</t>
@@ -351,31 +344,31 @@
     <t xml:space="preserve">Please enter a short name that is preferred by the person.</t>
   </si>
   <si>
-    <t xml:space="preserve">date_of_birth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../ephemeral_dob/dob_iso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_of_birth_method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../ephemeral_dob/dob_method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ephemeral_dob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_calendar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not(selected(../dob_method,'approx'))</t>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>../ephemeral_dob/dob_iso</t>
+  </si>
+  <si>
+    <t>date_of_birth_method</t>
+  </si>
+  <si>
+    <t>../ephemeral_dob/dob_method</t>
+  </si>
+  <si>
+    <t>ephemeral_dob</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>dob_calendar</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>not(selected(../dob_method,'approx'))</t>
   </si>
   <si>
     <t xml:space="preserve">floor(decimal-date-time(.)) &lt;= floor(decimal-date-time(today()))</t>
@@ -387,25 +380,25 @@
     <t xml:space="preserve">Date of Birth</t>
   </si>
   <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Age**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../dob_method,'approx')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Years</t>
+    <t>note</t>
+  </si>
+  <si>
+    <t>age_label</t>
+  </si>
+  <si>
+    <t>**Age**</t>
+  </si>
+  <si>
+    <t>selected(../dob_method,'approx')</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>age_years</t>
+  </si>
+  <si>
+    <t>Years</t>
   </si>
   <si>
     <t xml:space="preserve">. &gt;= 0 and . &lt;= 130</t>
@@ -414,10 +407,10 @@
     <t xml:space="preserve">Age must be between 0 and 130</t>
   </si>
   <si>
-    <t xml:space="preserve">age_months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Months</t>
+    <t>age_months</t>
+  </si>
+  <si>
+    <t>Months</t>
   </si>
   <si>
     <t xml:space="preserve">. &gt;= 0 and . &lt;= 11</t>
@@ -429,37 +422,37 @@
     <t xml:space="preserve">select_multiple select_dob_method</t>
   </si>
   <si>
-    <t xml:space="preserve">dob_method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELETE_THIS_LINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">horizontal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ephemeral_months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if(format-date-time(today(),"%m") - ../age_months &lt; 0, format-date-time(today(),"%m") - ../age_months + 12, format-date-time(today(),"%m") - ../age_months)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ephemeral_years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if(format-date-time(today(),"%m") - ../age_months &lt; 0, format-date-time(today(),"%Y") - ../age_years - 1, format-date-time(today(),"%Y") -../age_years)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_approx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOB</t>
+    <t>dob_method</t>
+  </si>
+  <si>
+    <t>DELETE_THIS_LINE</t>
+  </si>
+  <si>
+    <t>horizontal</t>
+  </si>
+  <si>
+    <t>ephemeral_months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if(format-date-time(today(),"%m") - coalesce(../age_months, 0) &lt; 0, format-date-time(today(),"%m") - coalesce(../age_months, 0) + 12, format-date-time(today(),"%m") - coalesce(../age_months, 0))</t>
+  </si>
+  <si>
+    <t>ephemeral_years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if(format-date-time(today(),"%m") - coalesce(../age_months, 0) &lt; 0, format-date-time(today(),"%Y") - ../age_years - 1, format-date-time(today(),"%Y") -../age_years)</t>
+  </si>
+  <si>
+    <t>dob_approx</t>
+  </si>
+  <si>
+    <t>DOB</t>
   </si>
   <si>
     <t xml:space="preserve">concat(string(${ephemeral_years}),'-',if(${ephemeral_months}&lt;10, concat('0',string(${ephemeral_months})), ${ephemeral_months}),'-',string(format-date-time(today(), "%d")))</t>
   </si>
   <si>
-    <t xml:space="preserve">dob_raw</t>
+    <t>dob_raw</t>
   </si>
   <si>
     <t xml:space="preserve">if(not(selected( ../dob_method,'approx')), 
@@ -467,13 +460,13 @@
 ../dob_approx)</t>
   </si>
   <si>
-    <t xml:space="preserve">dob_iso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">format-date-time(../dob_raw,"%Y-%m-%d")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_debug</t>
+    <t>dob_iso</t>
+  </si>
+  <si>
+    <t>format-date-time(../dob_raw,"%Y-%m-%d")</t>
+  </si>
+  <si>
+    <t>dob_debug</t>
   </si>
   <si>
     <t xml:space="preserve">Months: ${ephemeral_months}
@@ -483,10 +476,10 @@
 DOB ISO: ${dob_iso}</t>
   </si>
   <si>
-    <t xml:space="preserve">tel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phone</t>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>phone</t>
   </si>
   <si>
     <t xml:space="preserve">Phone Number</t>
@@ -504,13 +497,13 @@
     <t xml:space="preserve">फाेन नम्बर</t>
   </si>
   <si>
-    <t xml:space="preserve">Téléphone</t>
+    <t>Téléphone</t>
   </si>
   <si>
     <t xml:space="preserve">Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +254712345678</t>
   </si>
   <si>
-    <t xml:space="preserve">phone_alternate</t>
+    <t>phone_alternate</t>
   </si>
   <si>
     <t xml:space="preserve">Alternate Phone Number</t>
@@ -534,49 +527,49 @@
     <t xml:space="preserve">select_one male_female</t>
   </si>
   <si>
-    <t xml:space="preserve">sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">लिंग</t>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>लिंग</t>
   </si>
   <si>
     <t xml:space="preserve">Jenis kelamin</t>
   </si>
   <si>
-    <t xml:space="preserve">Jinsia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sexe</t>
+    <t>Jinsia</t>
+  </si>
+  <si>
+    <t>Sexe</t>
   </si>
   <si>
     <t xml:space="preserve">select_one roles</t>
   </si>
   <si>
-    <t xml:space="preserve">role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">भूमिका</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peran</t>
+    <t>role</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>भूमिका</t>
+  </si>
+  <si>
+    <t>Peran</t>
   </si>
   <si>
     <t xml:space="preserve">Namba ya simu Nyingine</t>
   </si>
   <si>
-    <t xml:space="preserve">भुमिका</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rôle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">role_other</t>
+    <t>भुमिका</t>
+  </si>
+  <si>
+    <t>Rôle</t>
+  </si>
+  <si>
+    <t>role_other</t>
   </si>
   <si>
     <t xml:space="preserve">Specify other</t>
@@ -594,13 +587,13 @@
     <t xml:space="preserve">अन्य उल्लेख गर्नुहोस्</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifier</t>
+    <t>Specifier</t>
   </si>
   <si>
     <t xml:space="preserve">selected( ${role},'other')</t>
   </si>
   <si>
-    <t xml:space="preserve">external_id</t>
+    <t>external_id</t>
   </si>
   <si>
     <t xml:space="preserve">External ID</t>
@@ -621,49 +614,49 @@
     <t xml:space="preserve">Identifiant externe</t>
   </si>
   <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">नोट्स</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maelezo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">टिप्पणि</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multiline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">created_by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../../inputs/user/name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">created_by_person_uuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../../inputs/user/contact_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">created_by_place_uuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../../inputs/user/facility_id</t>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>नोट्स</t>
+  </si>
+  <si>
+    <t>Catatan</t>
+  </si>
+  <si>
+    <t>Maelezo</t>
+  </si>
+  <si>
+    <t>टिप्पणि</t>
+  </si>
+  <si>
+    <t>multiline</t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>created_by</t>
+  </si>
+  <si>
+    <t>../../../inputs/user/name</t>
+  </si>
+  <si>
+    <t>created_by_person_uuid</t>
+  </si>
+  <si>
+    <t>../../../inputs/user/contact_id</t>
+  </si>
+  <si>
+    <t>created_by_place_uuid</t>
+  </si>
+  <si>
+    <t>../../../inputs/user/facility_id</t>
   </si>
   <si>
     <t xml:space="preserve">select_one yes_no_generated_name</t>
   </si>
   <si>
-    <t xml:space="preserve">is_name_generated</t>
+    <t>is_name_generated</t>
   </si>
   <si>
     <t xml:space="preserve">Would you like to name the place after the primary contact: "${generated_name_translation}"?</t>
@@ -684,13 +677,13 @@
     <t xml:space="preserve">Voulez-vous nommer l'endroit: "${generated_name_translation}"?</t>
   </si>
   <si>
-    <t xml:space="preserve">not(selected(${create_new_person},'none'))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
+    <t>not(selected(${create_new_person},'none'))</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
   <si>
     <t xml:space="preserve">if( ( selected(${is_name_generated}, 'true') or selected(${is_name_generated}, 'yes') ), ${generated_name_translation}, ${custom_place_name})</t>
@@ -702,103 +695,103 @@
     <t xml:space="preserve">if(selected(${create_new_person},'none'), "", coalesce(${select_person},"NEW"))</t>
   </si>
   <si>
-    <t xml:space="preserve">geolocation</t>
+    <t>geolocation</t>
   </si>
   <si>
     <t xml:space="preserve">concat(../../inputs/meta/location/lat, concat(' ', ../../inputs/meta/location/long))</t>
   </si>
   <si>
-    <t xml:space="preserve">list_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">हाँ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ndio</t>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>हाँ</t>
+  </si>
+  <si>
+    <t>Iya</t>
+  </si>
+  <si>
+    <t>Ndio</t>
   </si>
   <si>
     <t xml:space="preserve">हो </t>
   </si>
   <si>
-    <t xml:space="preserve">Oui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t xml:space="preserve">नहीं </t>
   </si>
   <si>
-    <t xml:space="preserve">Tidak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hapana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">होइन</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non</t>
-  </si>
-  <si>
-    <t xml:space="preserve">male_female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्त्री</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wanita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">महिला</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Femme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पुरूष</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पुरुष</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_person</t>
+    <t>Tidak</t>
+  </si>
+  <si>
+    <t>Hapana</t>
+  </si>
+  <si>
+    <t>होइन</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>male_female</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>स्त्री</t>
+  </si>
+  <si>
+    <t>Wanita</t>
+  </si>
+  <si>
+    <t>Kike</t>
+  </si>
+  <si>
+    <t>महिला</t>
+  </si>
+  <si>
+    <t>Femme</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>पुरूष</t>
+  </si>
+  <si>
+    <t>Pria</t>
+  </si>
+  <si>
+    <t>Kiume</t>
+  </si>
+  <si>
+    <t>पुरुष</t>
+  </si>
+  <si>
+    <t>Homme</t>
+  </si>
+  <si>
+    <t>new_person</t>
   </si>
   <si>
     <t xml:space="preserve">Create a new person</t>
@@ -819,7 +812,7 @@
     <t xml:space="preserve">Créer une nouvelle personne</t>
   </si>
   <si>
-    <t xml:space="preserve">old_person</t>
+    <t>old_person</t>
   </si>
   <si>
     <t xml:space="preserve">Select an existing person</t>
@@ -840,7 +833,7 @@
     <t xml:space="preserve">Selectiionner une personne existant</t>
   </si>
   <si>
-    <t xml:space="preserve">none</t>
+    <t>none</t>
   </si>
   <si>
     <t xml:space="preserve">Skip this step</t>
@@ -861,28 +854,28 @@
     <t xml:space="preserve">Sauter cette section</t>
   </si>
   <si>
-    <t xml:space="preserve">select_dob_method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">approx</t>
+    <t>select_dob_method</t>
+  </si>
+  <si>
+    <t>approx</t>
   </si>
   <si>
     <t xml:space="preserve">Date of birth unknown</t>
   </si>
   <si>
-    <t xml:space="preserve">roles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHW</t>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>chw</t>
+  </si>
+  <si>
+    <t>CHW</t>
   </si>
   <si>
     <t xml:space="preserve">सामुदायिक स्वास्थ्य कर्मी</t>
   </si>
   <si>
-    <t xml:space="preserve">Kader</t>
+    <t>Kader</t>
   </si>
   <si>
     <t xml:space="preserve">Mhudumu wa afya</t>
@@ -891,10 +884,10 @@
     <t xml:space="preserve">महिला स्वास्थ्य स्वयम् सेविका</t>
   </si>
   <si>
-    <t xml:space="preserve">ASC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chw_supervisor</t>
+    <t>ASC</t>
+  </si>
+  <si>
+    <t>chw_supervisor</t>
   </si>
   <si>
     <t xml:space="preserve">CHW Supervisor</t>
@@ -915,25 +908,25 @@
     <t xml:space="preserve">Superviseur ASC</t>
   </si>
   <si>
-    <t xml:space="preserve">nurse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nurse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">नर्स</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perawat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muuguzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infirmier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manager</t>
+    <t>nurse</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>नर्स</t>
+  </si>
+  <si>
+    <t>Perawat</t>
+  </si>
+  <si>
+    <t>Muuguzi</t>
+  </si>
+  <si>
+    <t>Infirmier</t>
+  </si>
+  <si>
+    <t>manager</t>
   </si>
   <si>
     <t xml:space="preserve">Facility Manager</t>
@@ -954,46 +947,46 @@
     <t xml:space="preserve">Staff médical</t>
   </si>
   <si>
-    <t xml:space="preserve">patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient</t>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>Patient</t>
   </si>
   <si>
     <t xml:space="preserve">मरीज़ </t>
   </si>
   <si>
-    <t xml:space="preserve">Pasien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mgonjwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">बिरामी</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अन्य</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyingine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes_no_generated_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">हो</t>
+    <t>Pasien</t>
+  </si>
+  <si>
+    <t>Mgonjwa</t>
+  </si>
+  <si>
+    <t>बिरामी</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>अन्य</t>
+  </si>
+  <si>
+    <t>Lain</t>
+  </si>
+  <si>
+    <t>Nyingine</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>yes_no_generated_name</t>
+  </si>
+  <si>
+    <t>हो</t>
   </si>
   <si>
     <t xml:space="preserve">No, I want to name it manually</t>
@@ -1014,31 +1007,31 @@
     <t xml:space="preserve">Non, je veux nommer ça manuellement</t>
   </si>
   <si>
-    <t xml:space="preserve">district_hospital</t>
+    <t>district_hospital</t>
   </si>
   <si>
     <t xml:space="preserve">Health Facility</t>
   </si>
   <si>
-    <t xml:space="preserve">ज़िला</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabupaten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wilaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">जिल्ला</t>
-  </si>
-  <si>
-    <t xml:space="preserve">District</t>
-  </si>
-  <si>
-    <t xml:space="preserve">health_center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area</t>
+    <t>ज़िला</t>
+  </si>
+  <si>
+    <t>Kabupaten</t>
+  </si>
+  <si>
+    <t>Wilaya</t>
+  </si>
+  <si>
+    <t>जिल्ला</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>health_center</t>
+  </si>
+  <si>
+    <t>Area</t>
   </si>
   <si>
     <t xml:space="preserve">स्वास्थ्य केंद्र</t>
@@ -1056,22 +1049,22 @@
     <t xml:space="preserve">Centre de santé</t>
   </si>
   <si>
-    <t xml:space="preserve">clinic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">क्षेत्र</t>
+    <t>clinic</t>
+  </si>
+  <si>
+    <t>Household</t>
+  </si>
+  <si>
+    <t>क्षेत्र</t>
   </si>
   <si>
     <t xml:space="preserve">Daerah </t>
   </si>
   <si>
-    <t xml:space="preserve">Eneo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone</t>
+    <t>Eneo</t>
+  </si>
+  <si>
+    <t>Zone</t>
   </si>
   <si>
     <t xml:space="preserve">${contact_name}'s Health Facility</t>
@@ -1128,94 +1121,64 @@
     <t xml:space="preserve">Zone de ${contact_name}</t>
   </si>
   <si>
-    <t xml:space="preserve">translate_name_label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">style</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default_language</t>
+    <t>translate_name_label</t>
+  </si>
+  <si>
+    <t>form_title</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>default_language</t>
   </si>
   <si>
     <t xml:space="preserve">New PLACE_NAME</t>
   </si>
   <si>
-    <t xml:space="preserve">contact:PLACE_TYPE:create</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en</t>
+    <t>contact:PLACE_TYPE:create</t>
+  </si>
+  <si>
+    <t>pages</t>
+  </si>
+  <si>
+    <t>en</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="@"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <color indexed="64"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <sz val="10.000000"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <b/>
+      <color indexed="64"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
+      <color indexed="64"/>
+      <sz val="11.000000"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1270,24 +1233,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF6FA8DC"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor indexed="55"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor indexed="65"/>
         <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1295,301 +1258,548 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="6">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="4" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="3" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="3" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="3" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="3" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFD9D9D9"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF6FA8DC"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFF2CC"/>
-      <rgbColor rgb="FFCFE2F3"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFD9D2E9"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFF3F3F3"/>
-      <rgbColor rgb="FFD0E0E3"/>
-      <rgbColor rgb="FFFCE5CD"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFF4CCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
+  <a:themeElements>
+    <a:clrScheme name="">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="">
+      <a:majorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill/>
+        <a:solidFill/>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+        </a:ln>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr filterMode="0">
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AR72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P22" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
-      <selection pane="bottomRight" activeCell="P39" activeCellId="0" sqref="P39"/>
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
+      <selection activeCell="P39" activeCellId="0" sqref="P39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="37.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="51.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="25.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="46.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="68.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="33.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="36.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="20" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="35.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="27" style="0" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="37" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="39" style="0" width="17.29"/>
+    <col customWidth="1" min="1" max="1" style="0" width="34"/>
+    <col customWidth="1" min="2" max="2" style="0" width="22.710000000000001"/>
+    <col customWidth="1" min="3" max="3" style="0" width="47.859999999999999"/>
+    <col customWidth="1" min="4" max="4" style="0" width="33.43"/>
+    <col customWidth="1" min="5" max="5" style="0" width="27.43"/>
+    <col customWidth="1" min="6" max="6" style="0" width="37.289999999999999"/>
+    <col customWidth="1" min="7" max="7" style="0" width="31.289999999999999"/>
+    <col customWidth="1" min="8" max="8" style="0" width="8.1400000000000006"/>
+    <col customWidth="1" min="9" max="9" style="0" width="16.710000000000001"/>
+    <col customWidth="1" min="10" max="10" style="0" width="8.1400000000000006"/>
+    <col customWidth="1" min="11" max="11" style="0" width="51.43"/>
+    <col customWidth="1" min="12" max="13" style="0" width="10.710000000000001"/>
+    <col customWidth="1" min="14" max="14" style="0" width="25.300000000000001"/>
+    <col customWidth="1" min="15" max="15" style="0" width="46.289999999999999"/>
+    <col customWidth="1" min="16" max="16" style="0" width="68.849999999999994"/>
+    <col customWidth="1" min="17" max="17" style="0" width="9.4299999999999997"/>
+    <col customWidth="1" min="18" max="18" style="0" width="33.43"/>
+    <col customWidth="1" min="19" max="19" style="0" width="36.289999999999999"/>
+    <col customWidth="1" min="20" max="23" style="0" width="13.57"/>
+    <col customWidth="1" min="24" max="24" style="0" width="7.7000000000000002"/>
+    <col customWidth="1" min="25" max="25" style="0" width="8.6999999999999993"/>
+    <col customWidth="1" min="26" max="26" style="0" width="35.850000000000001"/>
+    <col customWidth="1" min="27" max="36" style="0" width="7.7000000000000002"/>
+    <col customWidth="1" min="37" max="38" style="0" width="15.140000000000001"/>
+    <col customWidth="1" min="39" max="44" style="0" width="17.289999999999999"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1681,7 +1891,7 @@
       <c r="AK1" s="8"/>
       <c r="AL1" s="8"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>26</v>
       </c>
@@ -1708,8 +1918,8 @@
         <v>28</v>
       </c>
       <c r="J2" s="10"/>
-      <c r="K2" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="K2" s="10">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="L2" s="10"/>
@@ -1746,7 +1956,7 @@
       <c r="AQ2" s="10"/>
       <c r="AR2" s="10"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" ht="15">
       <c r="A3" s="9" t="s">
         <v>26</v>
       </c>
@@ -1808,7 +2018,7 @@
       <c r="AQ3" s="10"/>
       <c r="AR3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>30</v>
       </c>
@@ -1872,7 +2082,7 @@
       <c r="AQ4" s="10"/>
       <c r="AR4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>30</v>
       </c>
@@ -1936,7 +2146,7 @@
       <c r="AQ5" s="10"/>
       <c r="AR5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>30</v>
       </c>
@@ -2000,7 +2210,7 @@
       <c r="AQ6" s="10"/>
       <c r="AR6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" ht="15">
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
@@ -2048,7 +2258,7 @@
       <c r="AQ7" s="10"/>
       <c r="AR7" s="10"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>36</v>
       </c>
@@ -2096,7 +2306,7 @@
       <c r="AQ8" s="10"/>
       <c r="AR8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2136,7 +2346,7 @@
       <c r="AK9" s="8"/>
       <c r="AL9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>26</v>
       </c>
@@ -2200,7 +2410,7 @@
       <c r="AQ10" s="16"/>
       <c r="AR10" s="16"/>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" ht="13.5" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>39</v>
       </c>
@@ -2266,7 +2476,7 @@
       <c r="AQ11" s="16"/>
       <c r="AR11" s="16"/>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>49</v>
       </c>
@@ -2334,7 +2544,7 @@
       <c r="AQ12" s="16"/>
       <c r="AR12" s="16"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" ht="15">
       <c r="A13" s="17" t="s">
         <v>30</v>
       </c>
@@ -2398,7 +2608,7 @@
       <c r="AQ13" s="16"/>
       <c r="AR13" s="16"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="17" t="s">
         <v>59</v>
       </c>
@@ -2450,7 +2660,7 @@
       <c r="AQ14" s="16"/>
       <c r="AR14" s="16"/>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="17" t="s">
         <v>62</v>
       </c>
@@ -2518,7 +2728,7 @@
       <c r="AQ15" s="16"/>
       <c r="AR15" s="16"/>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="17" t="s">
         <v>59</v>
       </c>
@@ -2570,7 +2780,7 @@
       <c r="AQ16" s="16"/>
       <c r="AR16" s="16"/>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="17" t="s">
         <v>30</v>
       </c>
@@ -2638,7 +2848,7 @@
       <c r="AQ17" s="16"/>
       <c r="AR17" s="16"/>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="17" t="s">
         <v>72</v>
       </c>
@@ -2704,7 +2914,7 @@
       <c r="AQ18" s="16"/>
       <c r="AR18" s="16"/>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="17" t="s">
         <v>59</v>
       </c>
@@ -2756,7 +2966,7 @@
       <c r="AQ19" s="16"/>
       <c r="AR19" s="16"/>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="17" t="s">
         <v>83</v>
       </c>
@@ -2822,7 +3032,7 @@
       <c r="AQ20" s="16"/>
       <c r="AR20" s="16"/>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="17" t="s">
         <v>59</v>
       </c>
@@ -2874,7 +3084,7 @@
       <c r="AQ21" s="16"/>
       <c r="AR21" s="16"/>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="17" t="s">
         <v>36</v>
       </c>
@@ -2922,7 +3132,7 @@
       <c r="AQ22" s="16"/>
       <c r="AR22" s="16"/>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2962,7 +3172,7 @@
       <c r="AK23" s="8"/>
       <c r="AL23" s="8"/>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="17" t="s">
         <v>26</v>
       </c>
@@ -3028,7 +3238,7 @@
       <c r="AQ24" s="16"/>
       <c r="AR24" s="16"/>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="17" t="s">
         <v>58</v>
       </c>
@@ -3092,7 +3302,7 @@
       <c r="AQ25" s="16"/>
       <c r="AR25" s="16"/>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="17" t="s">
         <v>58</v>
       </c>
@@ -3156,7 +3366,7 @@
       <c r="AQ26" s="16"/>
       <c r="AR26" s="16"/>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="17" t="s">
         <v>30</v>
       </c>
@@ -3222,7 +3432,7 @@
       <c r="AQ27" s="16"/>
       <c r="AR27" s="16"/>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="17" t="s">
         <v>30</v>
       </c>
@@ -3282,7 +3492,7 @@
       <c r="AQ28" s="16"/>
       <c r="AR28" s="16"/>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="17" t="s">
         <v>59</v>
       </c>
@@ -3336,7 +3546,7 @@
       <c r="AQ29" s="16"/>
       <c r="AR29" s="16"/>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="17" t="s">
         <v>59</v>
       </c>
@@ -3388,7 +3598,7 @@
       <c r="AQ30" s="16"/>
       <c r="AR30" s="16"/>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="17" t="s">
         <v>26</v>
       </c>
@@ -3450,7 +3660,7 @@
       <c r="AQ31" s="16"/>
       <c r="AR31" s="16"/>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="17" t="s">
         <v>114</v>
       </c>
@@ -3512,7 +3722,7 @@
       <c r="AQ32" s="16"/>
       <c r="AR32" s="16"/>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="17" t="s">
         <v>121</v>
       </c>
@@ -3566,7 +3776,7 @@
       <c r="AQ33" s="16"/>
       <c r="AR33" s="16"/>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="17" t="s">
         <v>125</v>
       </c>
@@ -3626,7 +3836,7 @@
       <c r="AQ34" s="16"/>
       <c r="AR34" s="16"/>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="17" t="s">
         <v>125</v>
       </c>
@@ -3684,7 +3894,7 @@
       <c r="AQ35" s="16"/>
       <c r="AR35" s="16"/>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="17" t="s">
         <v>134</v>
       </c>
@@ -3738,7 +3948,7 @@
       <c r="AQ36" s="16"/>
       <c r="AR36" s="16"/>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="17" t="s">
         <v>59</v>
       </c>
@@ -3758,7 +3968,7 @@
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
       <c r="O37" s="16"/>
-      <c r="P37" s="16" t="s">
+      <c r="P37" s="21" t="s">
         <v>139</v>
       </c>
       <c r="Q37" s="16"/>
@@ -3790,7 +4000,7 @@
       <c r="AQ37" s="16"/>
       <c r="AR37" s="16"/>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="17" t="s">
         <v>59</v>
       </c>
@@ -3810,7 +4020,7 @@
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
-      <c r="P38" s="16" t="s">
+      <c r="P38" s="21" t="s">
         <v>141</v>
       </c>
       <c r="Q38" s="16"/>
@@ -3842,7 +4052,7 @@
       <c r="AQ38" s="16"/>
       <c r="AR38" s="16"/>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="17" t="s">
         <v>59</v>
       </c>
@@ -3864,7 +4074,7 @@
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
       <c r="O39" s="16"/>
-      <c r="P39" s="21" t="s">
+      <c r="P39" s="16" t="s">
         <v>144</v>
       </c>
       <c r="Q39" s="16"/>
@@ -3896,7 +4106,7 @@
       <c r="AQ39" s="16"/>
       <c r="AR39" s="16"/>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="17" t="s">
         <v>59</v>
       </c>
@@ -3948,7 +4158,7 @@
       <c r="AQ40" s="16"/>
       <c r="AR40" s="16"/>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="17" t="s">
         <v>59</v>
       </c>
@@ -4002,7 +4212,7 @@
       <c r="AQ41" s="16"/>
       <c r="AR41" s="16"/>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="17" t="s">
         <v>121</v>
       </c>
@@ -4019,8 +4229,8 @@
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
       <c r="J42" s="16"/>
-      <c r="K42" s="16" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="K42" s="16">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="L42" s="16"/>
@@ -4057,7 +4267,7 @@
       <c r="AQ42" s="16"/>
       <c r="AR42" s="16"/>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="17" t="s">
         <v>36</v>
       </c>
@@ -4105,7 +4315,7 @@
       <c r="AQ43" s="16"/>
       <c r="AR43" s="16"/>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="17" t="s">
         <v>151</v>
       </c>
@@ -4137,8 +4347,8 @@
       </c>
       <c r="L44" s="16"/>
       <c r="M44" s="16"/>
-      <c r="N44" s="23" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="N44" s="23">
+        <f t="shared" ref="N44:N45" si="0">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O44" s="16" t="s">
@@ -4174,7 +4384,7 @@
       <c r="AQ44" s="16"/>
       <c r="AR44" s="16"/>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="17" t="s">
         <v>151</v>
       </c>
@@ -4206,8 +4416,8 @@
       </c>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
-      <c r="N45" s="23" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="N45" s="23">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O45" s="16" t="s">
@@ -4243,7 +4453,7 @@
       <c r="AQ45" s="16"/>
       <c r="AR45" s="16"/>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="17" t="s">
         <v>167</v>
       </c>
@@ -4311,7 +4521,7 @@
       <c r="AQ46" s="16"/>
       <c r="AR46" s="16"/>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="17" t="s">
         <v>174</v>
       </c>
@@ -4375,7 +4585,7 @@
       <c r="AQ47" s="16"/>
       <c r="AR47" s="16"/>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="17" t="s">
         <v>30</v>
       </c>
@@ -4441,7 +4651,7 @@
       <c r="AQ48" s="16"/>
       <c r="AR48" s="16"/>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="17" t="s">
         <v>30</v>
       </c>
@@ -4505,7 +4715,7 @@
       <c r="AQ49" s="16"/>
       <c r="AR49" s="16"/>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="17" t="s">
         <v>30</v>
       </c>
@@ -4571,7 +4781,7 @@
       <c r="AQ50" s="16"/>
       <c r="AR50" s="16"/>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="17" t="s">
         <v>26</v>
       </c>
@@ -4625,7 +4835,7 @@
       <c r="AQ51" s="16"/>
       <c r="AR51" s="16"/>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="17" t="s">
         <v>59</v>
       </c>
@@ -4677,7 +4887,7 @@
       <c r="AQ52" s="16"/>
       <c r="AR52" s="16"/>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="17" t="s">
         <v>59</v>
       </c>
@@ -4729,7 +4939,7 @@
       <c r="AQ53" s="16"/>
       <c r="AR53" s="16"/>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="17" t="s">
         <v>59</v>
       </c>
@@ -4781,7 +4991,7 @@
       <c r="AQ54" s="16"/>
       <c r="AR54" s="16"/>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="17" t="s">
         <v>36</v>
       </c>
@@ -4829,7 +5039,7 @@
       <c r="AQ55" s="16"/>
       <c r="AR55" s="16"/>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="17" t="s">
         <v>36</v>
       </c>
@@ -4877,7 +5087,7 @@
       <c r="AQ56" s="16"/>
       <c r="AR56" s="16"/>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -4917,7 +5127,7 @@
       <c r="AK57" s="8"/>
       <c r="AL57" s="8"/>
     </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="17" t="s">
         <v>26</v>
       </c>
@@ -4981,7 +5191,7 @@
       <c r="AQ58" s="16"/>
       <c r="AR58" s="16"/>
     </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="24" t="s">
         <v>58</v>
       </c>
@@ -5045,7 +5255,7 @@
       <c r="AQ59" s="16"/>
       <c r="AR59" s="16"/>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="24" t="s">
         <v>58</v>
       </c>
@@ -5107,7 +5317,7 @@
       <c r="AQ60" s="16"/>
       <c r="AR60" s="16"/>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="17" t="s">
         <v>210</v>
       </c>
@@ -5177,7 +5387,7 @@
       <c r="AQ61" s="16"/>
       <c r="AR61" s="16"/>
     </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="17" t="s">
         <v>59</v>
       </c>
@@ -5243,7 +5453,7 @@
       <c r="AQ62" s="16"/>
       <c r="AR62" s="16"/>
     </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="17" t="s">
         <v>30</v>
       </c>
@@ -5305,7 +5515,7 @@
       <c r="AQ63" s="16"/>
       <c r="AR63" s="16"/>
     </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="17" t="s">
         <v>30</v>
       </c>
@@ -5369,7 +5579,7 @@
       <c r="AQ64" s="16"/>
       <c r="AR64" s="16"/>
     </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="17" t="s">
         <v>59</v>
       </c>
@@ -5421,7 +5631,7 @@
       <c r="AQ65" s="16"/>
       <c r="AR65" s="16"/>
     </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="17" t="s">
         <v>59</v>
       </c>
@@ -5473,7 +5683,7 @@
       <c r="AQ66" s="16"/>
       <c r="AR66" s="16"/>
     </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="17" t="s">
         <v>26</v>
       </c>
@@ -5537,7 +5747,7 @@
       <c r="AQ67" s="16"/>
       <c r="AR67" s="16"/>
     </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="17" t="s">
         <v>59</v>
       </c>
@@ -5589,7 +5799,7 @@
       <c r="AQ68" s="16"/>
       <c r="AR68" s="16"/>
     </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="17" t="s">
         <v>59</v>
       </c>
@@ -5641,7 +5851,7 @@
       <c r="AQ69" s="16"/>
       <c r="AR69" s="16"/>
     </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="17" t="s">
         <v>59</v>
       </c>
@@ -5693,7 +5903,7 @@
       <c r="AQ70" s="16"/>
       <c r="AR70" s="16"/>
     </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="17" t="s">
         <v>36</v>
       </c>
@@ -5741,7 +5951,7 @@
       <c r="AQ71" s="16"/>
       <c r="AR71" s="16"/>
     </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="17" t="s">
         <v>36</v>
       </c>
@@ -5790,41 +6000,38 @@
       <c r="AR72" s="16"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr filterMode="0">
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="24.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="0" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="14" style="0" width="15.14"/>
+    <col customWidth="1" min="1" max="1" style="0" width="21.149999999999999"/>
+    <col customWidth="1" min="3" max="3" style="0" width="29"/>
+    <col customWidth="1" min="4" max="4" style="0" width="36.289999999999999"/>
+    <col customWidth="1" min="5" max="5" style="0" width="27.300000000000001"/>
+    <col customWidth="1" min="6" max="7" style="0" width="24.710000000000001"/>
+    <col customWidth="1" min="8" max="8" style="0" width="7.7000000000000002"/>
+    <col customWidth="1" min="9" max="9" style="0" width="14.289999999999999"/>
+    <col customWidth="1" min="10" max="13" style="0" width="7.7000000000000002"/>
+    <col customWidth="1" min="14" max="26" style="0" width="15.140000000000001"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>226</v>
       </c>
@@ -5870,7 +6077,7 @@
       <c r="Y1" s="8"/>
       <c r="Z1" s="8"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="26" t="s">
         <v>227</v>
       </c>
@@ -5914,7 +6121,7 @@
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="26" t="s">
         <v>227</v>
       </c>
@@ -5958,7 +6165,7 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="26" t="s">
         <v>241</v>
       </c>
@@ -6002,7 +6209,7 @@
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="26" t="s">
         <v>241</v>
       </c>
@@ -6046,7 +6253,7 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="26" t="s">
         <v>87</v>
       </c>
@@ -6090,7 +6297,7 @@
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="26" t="s">
         <v>87</v>
       </c>
@@ -6134,7 +6341,7 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="26" t="s">
         <v>87</v>
       </c>
@@ -6178,7 +6385,7 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>277</v>
       </c>
@@ -6212,7 +6419,7 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>280</v>
       </c>
@@ -6256,7 +6463,7 @@
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>280</v>
       </c>
@@ -6300,7 +6507,7 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>280</v>
       </c>
@@ -6344,7 +6551,7 @@
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>280</v>
       </c>
@@ -6388,7 +6595,7 @@
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>280</v>
       </c>
@@ -6432,7 +6639,7 @@
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>280</v>
       </c>
@@ -6476,7 +6683,7 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="26" t="s">
         <v>320</v>
       </c>
@@ -6520,7 +6727,7 @@
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="26" t="s">
         <v>320</v>
       </c>
@@ -6564,7 +6771,7 @@
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>73</v>
       </c>
@@ -6608,7 +6815,7 @@
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="8" t="s">
         <v>73</v>
       </c>
@@ -6652,7 +6859,7 @@
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="8" t="s">
         <v>73</v>
       </c>
@@ -6696,7 +6903,7 @@
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>84</v>
       </c>
@@ -6740,7 +6947,7 @@
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="8" t="s">
         <v>84</v>
       </c>
@@ -6784,7 +6991,7 @@
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>84</v>
       </c>
@@ -6828,7 +7035,7 @@
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="36" t="s">
         <v>366</v>
       </c>
@@ -6873,41 +7080,38 @@
       <c r="Z24" s="8"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr filterMode="0">
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:Y221"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="7" style="0" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="15" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="17.29"/>
+    <col customWidth="1" min="1" max="1" style="0" width="28.140000000000001"/>
+    <col customWidth="1" min="2" max="2" style="0" width="12.710000000000001"/>
+    <col customWidth="1" min="3" max="3" style="0" width="19"/>
+    <col customWidth="1" min="4" max="4" style="0" width="5.7000000000000002"/>
+    <col customWidth="1" min="5" max="5" style="0" width="14.289999999999999"/>
+    <col customWidth="1" min="6" max="6" style="0" width="34"/>
+    <col customWidth="1" min="7" max="14" style="0" width="7.7000000000000002"/>
+    <col customWidth="1" min="15" max="25" style="0" width="15.140000000000001"/>
+    <col customWidth="1" min="26" max="26" style="0" width="17.289999999999999"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>367</v>
       </c>
@@ -6944,7 +7148,7 @@
       <c r="X1" s="8"/>
       <c r="Y1" s="8"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>372</v>
       </c>
@@ -6952,8 +7156,8 @@
         <v>373</v>
       </c>
       <c r="C2" s="37" t="str">
-        <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2019-10-23  12-01</v>
+        <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
+        <v xml:space="preserve">2022-02-24 13-11</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>374</v>
@@ -6982,7 +7186,7 @@
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -7009,7 +7213,7 @@
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -7036,7 +7240,7 @@
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -7063,7 +7267,7 @@
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -7090,7 +7294,7 @@
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -7117,7 +7321,7 @@
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -7144,7 +7348,7 @@
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -7171,7 +7375,7 @@
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -7198,7 +7402,7 @@
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -7225,7 +7429,7 @@
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -7252,7 +7456,7 @@
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -7279,7 +7483,7 @@
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -7306,7 +7510,7 @@
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -7333,7 +7537,7 @@
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -7360,7 +7564,7 @@
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -7387,7 +7591,7 @@
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -7414,7 +7618,7 @@
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -7441,7 +7645,7 @@
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -7468,7 +7672,7 @@
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -7495,7 +7699,7 @@
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -7522,7 +7726,7 @@
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -7549,7 +7753,7 @@
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -7576,7 +7780,7 @@
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -7603,7 +7807,7 @@
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -7630,7 +7834,7 @@
       <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -7657,7 +7861,7 @@
       <c r="X27" s="8"/>
       <c r="Y27" s="8"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -7684,7 +7888,7 @@
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -7711,7 +7915,7 @@
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -7738,7 +7942,7 @@
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -7765,7 +7969,7 @@
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -7792,7 +7996,7 @@
       <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -7819,7 +8023,7 @@
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -7846,7 +8050,7 @@
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -7873,7 +8077,7 @@
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -7900,7 +8104,7 @@
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -7927,7 +8131,7 @@
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -7954,7 +8158,7 @@
       <c r="X38" s="8"/>
       <c r="Y38" s="8"/>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -7981,7 +8185,7 @@
       <c r="X39" s="8"/>
       <c r="Y39" s="8"/>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -8008,7 +8212,7 @@
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -8035,7 +8239,7 @@
       <c r="X41" s="8"/>
       <c r="Y41" s="8"/>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -8062,7 +8266,7 @@
       <c r="X42" s="8"/>
       <c r="Y42" s="8"/>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -8089,7 +8293,7 @@
       <c r="X43" s="8"/>
       <c r="Y43" s="8"/>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -8116,7 +8320,7 @@
       <c r="X44" s="8"/>
       <c r="Y44" s="8"/>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -8143,7 +8347,7 @@
       <c r="X45" s="8"/>
       <c r="Y45" s="8"/>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -8170,7 +8374,7 @@
       <c r="X46" s="8"/>
       <c r="Y46" s="8"/>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -8197,7 +8401,7 @@
       <c r="X47" s="8"/>
       <c r="Y47" s="8"/>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -8224,7 +8428,7 @@
       <c r="X48" s="8"/>
       <c r="Y48" s="8"/>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -8251,7 +8455,7 @@
       <c r="X49" s="8"/>
       <c r="Y49" s="8"/>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -8278,7 +8482,7 @@
       <c r="X50" s="8"/>
       <c r="Y50" s="8"/>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -8305,7 +8509,7 @@
       <c r="X51" s="8"/>
       <c r="Y51" s="8"/>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -8332,7 +8536,7 @@
       <c r="X52" s="8"/>
       <c r="Y52" s="8"/>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -8359,7 +8563,7 @@
       <c r="X53" s="8"/>
       <c r="Y53" s="8"/>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -8386,7 +8590,7 @@
       <c r="X54" s="8"/>
       <c r="Y54" s="8"/>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -8413,7 +8617,7 @@
       <c r="X55" s="8"/>
       <c r="Y55" s="8"/>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -8440,7 +8644,7 @@
       <c r="X56" s="8"/>
       <c r="Y56" s="8"/>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -8467,7 +8671,7 @@
       <c r="X57" s="8"/>
       <c r="Y57" s="8"/>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -8494,7 +8698,7 @@
       <c r="X58" s="8"/>
       <c r="Y58" s="8"/>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -8521,7 +8725,7 @@
       <c r="X59" s="8"/>
       <c r="Y59" s="8"/>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -8548,7 +8752,7 @@
       <c r="X60" s="8"/>
       <c r="Y60" s="8"/>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -8575,7 +8779,7 @@
       <c r="X61" s="8"/>
       <c r="Y61" s="8"/>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -8602,7 +8806,7 @@
       <c r="X62" s="8"/>
       <c r="Y62" s="8"/>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -8629,7 +8833,7 @@
       <c r="X63" s="8"/>
       <c r="Y63" s="8"/>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -8656,7 +8860,7 @@
       <c r="X64" s="8"/>
       <c r="Y64" s="8"/>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -8683,7 +8887,7 @@
       <c r="X65" s="8"/>
       <c r="Y65" s="8"/>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -8710,7 +8914,7 @@
       <c r="X66" s="8"/>
       <c r="Y66" s="8"/>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -8737,7 +8941,7 @@
       <c r="X67" s="8"/>
       <c r="Y67" s="8"/>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -8764,7 +8968,7 @@
       <c r="X68" s="8"/>
       <c r="Y68" s="8"/>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -8791,7 +8995,7 @@
       <c r="X69" s="8"/>
       <c r="Y69" s="8"/>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -8818,7 +9022,7 @@
       <c r="X70" s="8"/>
       <c r="Y70" s="8"/>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -8845,7 +9049,7 @@
       <c r="X71" s="8"/>
       <c r="Y71" s="8"/>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -8872,7 +9076,7 @@
       <c r="X72" s="8"/>
       <c r="Y72" s="8"/>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -8899,7 +9103,7 @@
       <c r="X73" s="8"/>
       <c r="Y73" s="8"/>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -8926,7 +9130,7 @@
       <c r="X74" s="8"/>
       <c r="Y74" s="8"/>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -8953,7 +9157,7 @@
       <c r="X75" s="8"/>
       <c r="Y75" s="8"/>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -8980,7 +9184,7 @@
       <c r="X76" s="8"/>
       <c r="Y76" s="8"/>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -9007,7 +9211,7 @@
       <c r="X77" s="8"/>
       <c r="Y77" s="8"/>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -9034,7 +9238,7 @@
       <c r="X78" s="8"/>
       <c r="Y78" s="8"/>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -9061,7 +9265,7 @@
       <c r="X79" s="8"/>
       <c r="Y79" s="8"/>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -9088,7 +9292,7 @@
       <c r="X80" s="8"/>
       <c r="Y80" s="8"/>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -9115,7 +9319,7 @@
       <c r="X81" s="8"/>
       <c r="Y81" s="8"/>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -9142,7 +9346,7 @@
       <c r="X82" s="8"/>
       <c r="Y82" s="8"/>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -9169,7 +9373,7 @@
       <c r="X83" s="8"/>
       <c r="Y83" s="8"/>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -9196,7 +9400,7 @@
       <c r="X84" s="8"/>
       <c r="Y84" s="8"/>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -9223,7 +9427,7 @@
       <c r="X85" s="8"/>
       <c r="Y85" s="8"/>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -9250,7 +9454,7 @@
       <c r="X86" s="8"/>
       <c r="Y86" s="8"/>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -9277,7 +9481,7 @@
       <c r="X87" s="8"/>
       <c r="Y87" s="8"/>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -9304,7 +9508,7 @@
       <c r="X88" s="8"/>
       <c r="Y88" s="8"/>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -9331,7 +9535,7 @@
       <c r="X89" s="8"/>
       <c r="Y89" s="8"/>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -9358,7 +9562,7 @@
       <c r="X90" s="8"/>
       <c r="Y90" s="8"/>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -9385,7 +9589,7 @@
       <c r="X91" s="8"/>
       <c r="Y91" s="8"/>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -9412,7 +9616,7 @@
       <c r="X92" s="8"/>
       <c r="Y92" s="8"/>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -9439,7 +9643,7 @@
       <c r="X93" s="8"/>
       <c r="Y93" s="8"/>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -9466,7 +9670,7 @@
       <c r="X94" s="8"/>
       <c r="Y94" s="8"/>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -9493,7 +9697,7 @@
       <c r="X95" s="8"/>
       <c r="Y95" s="8"/>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -9520,7 +9724,7 @@
       <c r="X96" s="8"/>
       <c r="Y96" s="8"/>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -9547,7 +9751,7 @@
       <c r="X97" s="8"/>
       <c r="Y97" s="8"/>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -9574,7 +9778,7 @@
       <c r="X98" s="8"/>
       <c r="Y98" s="8"/>
     </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -9601,7 +9805,7 @@
       <c r="X99" s="8"/>
       <c r="Y99" s="8"/>
     </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -9628,7 +9832,7 @@
       <c r="X100" s="8"/>
       <c r="Y100" s="8"/>
     </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -9655,7 +9859,7 @@
       <c r="X101" s="8"/>
       <c r="Y101" s="8"/>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -9682,7 +9886,7 @@
       <c r="X102" s="8"/>
       <c r="Y102" s="8"/>
     </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -9709,7 +9913,7 @@
       <c r="X103" s="8"/>
       <c r="Y103" s="8"/>
     </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -9736,7 +9940,7 @@
       <c r="X104" s="8"/>
       <c r="Y104" s="8"/>
     </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -9763,7 +9967,7 @@
       <c r="X105" s="8"/>
       <c r="Y105" s="8"/>
     </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -9790,7 +9994,7 @@
       <c r="X106" s="8"/>
       <c r="Y106" s="8"/>
     </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -9817,7 +10021,7 @@
       <c r="X107" s="8"/>
       <c r="Y107" s="8"/>
     </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -9844,7 +10048,7 @@
       <c r="X108" s="8"/>
       <c r="Y108" s="8"/>
     </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -9871,7 +10075,7 @@
       <c r="X109" s="8"/>
       <c r="Y109" s="8"/>
     </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -9898,7 +10102,7 @@
       <c r="X110" s="8"/>
       <c r="Y110" s="8"/>
     </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -9925,7 +10129,7 @@
       <c r="X111" s="8"/>
       <c r="Y111" s="8"/>
     </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -9952,7 +10156,7 @@
       <c r="X112" s="8"/>
       <c r="Y112" s="8"/>
     </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -9979,7 +10183,7 @@
       <c r="X113" s="8"/>
       <c r="Y113" s="8"/>
     </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -10006,7 +10210,7 @@
       <c r="X114" s="8"/>
       <c r="Y114" s="8"/>
     </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -10033,7 +10237,7 @@
       <c r="X115" s="8"/>
       <c r="Y115" s="8"/>
     </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -10060,7 +10264,7 @@
       <c r="X116" s="8"/>
       <c r="Y116" s="8"/>
     </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -10087,7 +10291,7 @@
       <c r="X117" s="8"/>
       <c r="Y117" s="8"/>
     </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -10114,7 +10318,7 @@
       <c r="X118" s="8"/>
       <c r="Y118" s="8"/>
     </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -10141,7 +10345,7 @@
       <c r="X119" s="8"/>
       <c r="Y119" s="8"/>
     </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -10168,7 +10372,7 @@
       <c r="X120" s="8"/>
       <c r="Y120" s="8"/>
     </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -10195,7 +10399,7 @@
       <c r="X121" s="8"/>
       <c r="Y121" s="8"/>
     </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -10222,7 +10426,7 @@
       <c r="X122" s="8"/>
       <c r="Y122" s="8"/>
     </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -10249,7 +10453,7 @@
       <c r="X123" s="8"/>
       <c r="Y123" s="8"/>
     </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -10276,7 +10480,7 @@
       <c r="X124" s="8"/>
       <c r="Y124" s="8"/>
     </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -10303,7 +10507,7 @@
       <c r="X125" s="8"/>
       <c r="Y125" s="8"/>
     </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -10330,7 +10534,7 @@
       <c r="X126" s="8"/>
       <c r="Y126" s="8"/>
     </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -10357,7 +10561,7 @@
       <c r="X127" s="8"/>
       <c r="Y127" s="8"/>
     </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -10384,7 +10588,7 @@
       <c r="X128" s="8"/>
       <c r="Y128" s="8"/>
     </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -10411,7 +10615,7 @@
       <c r="X129" s="8"/>
       <c r="Y129" s="8"/>
     </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -10438,7 +10642,7 @@
       <c r="X130" s="8"/>
       <c r="Y130" s="8"/>
     </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -10465,7 +10669,7 @@
       <c r="X131" s="8"/>
       <c r="Y131" s="8"/>
     </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -10492,7 +10696,7 @@
       <c r="X132" s="8"/>
       <c r="Y132" s="8"/>
     </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -10519,7 +10723,7 @@
       <c r="X133" s="8"/>
       <c r="Y133" s="8"/>
     </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -10546,7 +10750,7 @@
       <c r="X134" s="8"/>
       <c r="Y134" s="8"/>
     </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -10573,7 +10777,7 @@
       <c r="X135" s="8"/>
       <c r="Y135" s="8"/>
     </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -10600,7 +10804,7 @@
       <c r="X136" s="8"/>
       <c r="Y136" s="8"/>
     </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -10627,7 +10831,7 @@
       <c r="X137" s="8"/>
       <c r="Y137" s="8"/>
     </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -10654,7 +10858,7 @@
       <c r="X138" s="8"/>
       <c r="Y138" s="8"/>
     </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -10681,7 +10885,7 @@
       <c r="X139" s="8"/>
       <c r="Y139" s="8"/>
     </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -10708,7 +10912,7 @@
       <c r="X140" s="8"/>
       <c r="Y140" s="8"/>
     </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -10735,7 +10939,7 @@
       <c r="X141" s="8"/>
       <c r="Y141" s="8"/>
     </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -10762,7 +10966,7 @@
       <c r="X142" s="8"/>
       <c r="Y142" s="8"/>
     </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -10789,7 +10993,7 @@
       <c r="X143" s="8"/>
       <c r="Y143" s="8"/>
     </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -10816,7 +11020,7 @@
       <c r="X144" s="8"/>
       <c r="Y144" s="8"/>
     </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -10843,7 +11047,7 @@
       <c r="X145" s="8"/>
       <c r="Y145" s="8"/>
     </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -10870,7 +11074,7 @@
       <c r="X146" s="8"/>
       <c r="Y146" s="8"/>
     </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -10897,7 +11101,7 @@
       <c r="X147" s="8"/>
       <c r="Y147" s="8"/>
     </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -10924,7 +11128,7 @@
       <c r="X148" s="8"/>
       <c r="Y148" s="8"/>
     </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -10951,7 +11155,7 @@
       <c r="X149" s="8"/>
       <c r="Y149" s="8"/>
     </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -10978,7 +11182,7 @@
       <c r="X150" s="8"/>
       <c r="Y150" s="8"/>
     </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -11005,7 +11209,7 @@
       <c r="X151" s="8"/>
       <c r="Y151" s="8"/>
     </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -11032,7 +11236,7 @@
       <c r="X152" s="8"/>
       <c r="Y152" s="8"/>
     </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -11059,7 +11263,7 @@
       <c r="X153" s="8"/>
       <c r="Y153" s="8"/>
     </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -11086,7 +11290,7 @@
       <c r="X154" s="8"/>
       <c r="Y154" s="8"/>
     </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -11113,7 +11317,7 @@
       <c r="X155" s="8"/>
       <c r="Y155" s="8"/>
     </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -11140,7 +11344,7 @@
       <c r="X156" s="8"/>
       <c r="Y156" s="8"/>
     </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -11167,7 +11371,7 @@
       <c r="X157" s="8"/>
       <c r="Y157" s="8"/>
     </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -11194,7 +11398,7 @@
       <c r="X158" s="8"/>
       <c r="Y158" s="8"/>
     </row>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -11221,7 +11425,7 @@
       <c r="X159" s="8"/>
       <c r="Y159" s="8"/>
     </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -11248,7 +11452,7 @@
       <c r="X160" s="8"/>
       <c r="Y160" s="8"/>
     </row>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -11275,7 +11479,7 @@
       <c r="X161" s="8"/>
       <c r="Y161" s="8"/>
     </row>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -11302,7 +11506,7 @@
       <c r="X162" s="8"/>
       <c r="Y162" s="8"/>
     </row>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -11329,7 +11533,7 @@
       <c r="X163" s="8"/>
       <c r="Y163" s="8"/>
     </row>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -11356,7 +11560,7 @@
       <c r="X164" s="8"/>
       <c r="Y164" s="8"/>
     </row>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -11383,7 +11587,7 @@
       <c r="X165" s="8"/>
       <c r="Y165" s="8"/>
     </row>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -11410,7 +11614,7 @@
       <c r="X166" s="8"/>
       <c r="Y166" s="8"/>
     </row>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -11437,7 +11641,7 @@
       <c r="X167" s="8"/>
       <c r="Y167" s="8"/>
     </row>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -11464,7 +11668,7 @@
       <c r="X168" s="8"/>
       <c r="Y168" s="8"/>
     </row>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -11491,7 +11695,7 @@
       <c r="X169" s="8"/>
       <c r="Y169" s="8"/>
     </row>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -11518,7 +11722,7 @@
       <c r="X170" s="8"/>
       <c r="Y170" s="8"/>
     </row>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -11545,7 +11749,7 @@
       <c r="X171" s="8"/>
       <c r="Y171" s="8"/>
     </row>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -11572,7 +11776,7 @@
       <c r="X172" s="8"/>
       <c r="Y172" s="8"/>
     </row>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -11599,7 +11803,7 @@
       <c r="X173" s="8"/>
       <c r="Y173" s="8"/>
     </row>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -11626,7 +11830,7 @@
       <c r="X174" s="8"/>
       <c r="Y174" s="8"/>
     </row>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -11653,7 +11857,7 @@
       <c r="X175" s="8"/>
       <c r="Y175" s="8"/>
     </row>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -11680,7 +11884,7 @@
       <c r="X176" s="8"/>
       <c r="Y176" s="8"/>
     </row>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -11707,7 +11911,7 @@
       <c r="X177" s="8"/>
       <c r="Y177" s="8"/>
     </row>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -11734,7 +11938,7 @@
       <c r="X178" s="8"/>
       <c r="Y178" s="8"/>
     </row>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -11761,7 +11965,7 @@
       <c r="X179" s="8"/>
       <c r="Y179" s="8"/>
     </row>
-    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -11788,7 +11992,7 @@
       <c r="X180" s="8"/>
       <c r="Y180" s="8"/>
     </row>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -11815,7 +12019,7 @@
       <c r="X181" s="8"/>
       <c r="Y181" s="8"/>
     </row>
-    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -11842,7 +12046,7 @@
       <c r="X182" s="8"/>
       <c r="Y182" s="8"/>
     </row>
-    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -11869,7 +12073,7 @@
       <c r="X183" s="8"/>
       <c r="Y183" s="8"/>
     </row>
-    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -11896,7 +12100,7 @@
       <c r="X184" s="8"/>
       <c r="Y184" s="8"/>
     </row>
-    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -11923,7 +12127,7 @@
       <c r="X185" s="8"/>
       <c r="Y185" s="8"/>
     </row>
-    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -11950,7 +12154,7 @@
       <c r="X186" s="8"/>
       <c r="Y186" s="8"/>
     </row>
-    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -11977,7 +12181,7 @@
       <c r="X187" s="8"/>
       <c r="Y187" s="8"/>
     </row>
-    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -12004,7 +12208,7 @@
       <c r="X188" s="8"/>
       <c r="Y188" s="8"/>
     </row>
-    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -12031,7 +12235,7 @@
       <c r="X189" s="8"/>
       <c r="Y189" s="8"/>
     </row>
-    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -12058,7 +12262,7 @@
       <c r="X190" s="8"/>
       <c r="Y190" s="8"/>
     </row>
-    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -12085,7 +12289,7 @@
       <c r="X191" s="8"/>
       <c r="Y191" s="8"/>
     </row>
-    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -12112,7 +12316,7 @@
       <c r="X192" s="8"/>
       <c r="Y192" s="8"/>
     </row>
-    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -12139,7 +12343,7 @@
       <c r="X193" s="8"/>
       <c r="Y193" s="8"/>
     </row>
-    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -12166,7 +12370,7 @@
       <c r="X194" s="8"/>
       <c r="Y194" s="8"/>
     </row>
-    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -12193,7 +12397,7 @@
       <c r="X195" s="8"/>
       <c r="Y195" s="8"/>
     </row>
-    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -12220,7 +12424,7 @@
       <c r="X196" s="8"/>
       <c r="Y196" s="8"/>
     </row>
-    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -12247,7 +12451,7 @@
       <c r="X197" s="8"/>
       <c r="Y197" s="8"/>
     </row>
-    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -12274,7 +12478,7 @@
       <c r="X198" s="8"/>
       <c r="Y198" s="8"/>
     </row>
-    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -12301,7 +12505,7 @@
       <c r="X199" s="8"/>
       <c r="Y199" s="8"/>
     </row>
-    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -12328,7 +12532,7 @@
       <c r="X200" s="8"/>
       <c r="Y200" s="8"/>
     </row>
-    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -12355,7 +12559,7 @@
       <c r="X201" s="8"/>
       <c r="Y201" s="8"/>
     </row>
-    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
@@ -12382,7 +12586,7 @@
       <c r="X202" s="8"/>
       <c r="Y202" s="8"/>
     </row>
-    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="8"/>
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
@@ -12409,7 +12613,7 @@
       <c r="X203" s="8"/>
       <c r="Y203" s="8"/>
     </row>
-    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="8"/>
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
@@ -12436,7 +12640,7 @@
       <c r="X204" s="8"/>
       <c r="Y204" s="8"/>
     </row>
-    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="8"/>
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
@@ -12463,7 +12667,7 @@
       <c r="X205" s="8"/>
       <c r="Y205" s="8"/>
     </row>
-    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="8"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
@@ -12490,7 +12694,7 @@
       <c r="X206" s="8"/>
       <c r="Y206" s="8"/>
     </row>
-    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="8"/>
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
@@ -12517,7 +12721,7 @@
       <c r="X207" s="8"/>
       <c r="Y207" s="8"/>
     </row>
-    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="8"/>
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
@@ -12544,7 +12748,7 @@
       <c r="X208" s="8"/>
       <c r="Y208" s="8"/>
     </row>
-    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="8"/>
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
@@ -12571,7 +12775,7 @@
       <c r="X209" s="8"/>
       <c r="Y209" s="8"/>
     </row>
-    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="8"/>
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
@@ -12598,7 +12802,7 @@
       <c r="X210" s="8"/>
       <c r="Y210" s="8"/>
     </row>
-    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="8"/>
       <c r="B211" s="8"/>
       <c r="C211" s="8"/>
@@ -12625,7 +12829,7 @@
       <c r="X211" s="8"/>
       <c r="Y211" s="8"/>
     </row>
-    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="8"/>
       <c r="B212" s="8"/>
       <c r="C212" s="8"/>
@@ -12652,7 +12856,7 @@
       <c r="X212" s="8"/>
       <c r="Y212" s="8"/>
     </row>
-    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="8"/>
       <c r="B213" s="8"/>
       <c r="C213" s="8"/>
@@ -12679,7 +12883,7 @@
       <c r="X213" s="8"/>
       <c r="Y213" s="8"/>
     </row>
-    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="8"/>
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
@@ -12706,7 +12910,7 @@
       <c r="X214" s="8"/>
       <c r="Y214" s="8"/>
     </row>
-    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="8"/>
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
@@ -12733,7 +12937,7 @@
       <c r="X215" s="8"/>
       <c r="Y215" s="8"/>
     </row>
-    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="8"/>
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
@@ -12760,7 +12964,7 @@
       <c r="X216" s="8"/>
       <c r="Y216" s="8"/>
     </row>
-    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="8"/>
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
@@ -12787,7 +12991,7 @@
       <c r="X217" s="8"/>
       <c r="Y217" s="8"/>
     </row>
-    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="8"/>
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
@@ -12814,7 +13018,7 @@
       <c r="X218" s="8"/>
       <c r="Y218" s="8"/>
     </row>
-    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="8"/>
       <c r="B219" s="8"/>
       <c r="C219" s="8"/>
@@ -12841,7 +13045,7 @@
       <c r="X219" s="8"/>
       <c r="Y219" s="8"/>
     </row>
-    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="8"/>
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
@@ -12868,793 +13072,790 @@
       <c r="X220" s="8"/>
       <c r="Y220" s="8"/>
     </row>
-    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config/default/forms/contact/PLACE_TYPE-create.xlsx
+++ b/config/default/forms/contact/PLACE_TYPE-create.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="375">
   <si>
     <t>type</t>
   </si>
@@ -209,7 +209,7 @@
     <t>custom_place_name_label_translator</t>
   </si>
   <si>
-    <t>selected(${create_new_person},'none')</t>
+    <t xml:space="preserve">selected(${create_new_person},'none') or selected(${is_name_generated}, 'false')</t>
   </si>
   <si>
     <t>"name"</t>
@@ -225,9 +225,6 @@
   </si>
   <si>
     <t>${custom_place_name_label}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${create_new_person},'none') or selected(${is_name_generated}, 'false')  or selected(${is_name_generated}, 'no')</t>
   </si>
   <si>
     <t xml:space="preserve">Standalone question only if no contact is selected, so show label accordingly</t>
@@ -1158,7 +1155,7 @@
   <fonts count="5">
     <font>
       <name val="Calibri"/>
-      <color indexed="64"/>
+      <color theme="1"/>
       <sz val="11.000000"/>
     </font>
     <font>
@@ -1168,7 +1165,6 @@
     <font>
       <name val="Calibri"/>
       <b/>
-      <color indexed="64"/>
       <sz val="11.000000"/>
     </font>
     <font>
@@ -1177,7 +1173,6 @@
     </font>
     <font>
       <name val="Arial"/>
-      <color indexed="64"/>
       <sz val="11.000000"/>
     </font>
   </fonts>
@@ -1292,9 +1287,9 @@
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="4" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2687,7 +2682,7 @@
         <v>28</v>
       </c>
       <c r="J15" s="16"/>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="19" t="s">
         <v>64</v>
       </c>
       <c r="L15" s="16" t="s">
@@ -2809,8 +2804,8 @@
       <c r="J17" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="16" t="s">
-        <v>70</v>
+      <c r="K17" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
@@ -2827,7 +2822,7 @@
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA17" s="16"/>
       <c r="AB17" s="16"/>
@@ -2850,29 +2845,29 @@
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="D18" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="E18" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="F18" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="G18" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>78</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
@@ -2892,7 +2887,7 @@
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
       <c r="Y18" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z18" s="16"/>
       <c r="AA18" s="16"/>
@@ -2919,7 +2914,7 @@
         <v>59</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -2935,7 +2930,7 @@
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
       <c r="P19" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
@@ -2968,10 +2963,10 @@
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>83</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>84</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>28</v>
@@ -3010,7 +3005,7 @@
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
       <c r="Y20" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z20" s="16"/>
       <c r="AA20" s="16"/>
@@ -3037,7 +3032,7 @@
         <v>59</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -3053,7 +3048,7 @@
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
       <c r="P21" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
@@ -3177,30 +3172,30 @@
         <v>26</v>
       </c>
       <c r="B24" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="D24" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="E24" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="F24" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>91</v>
-      </c>
       <c r="G24" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L24" s="16" t="s">
         <v>38</v>
@@ -3243,7 +3238,7 @@
         <v>58</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>28</v>
@@ -3260,7 +3255,7 @@
       <c r="G25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="20"/>
       <c r="I25" s="16" t="s">
         <v>28</v>
       </c>
@@ -3280,7 +3275,7 @@
       <c r="W25" s="16"/>
       <c r="X25" s="16"/>
       <c r="Y25" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z25" s="16"/>
       <c r="AA25" s="16"/>
@@ -3324,7 +3319,7 @@
       <c r="G26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="20"/>
       <c r="I26" s="16" t="s">
         <v>28</v>
       </c>
@@ -3344,7 +3339,7 @@
       <c r="W26" s="16"/>
       <c r="X26" s="16"/>
       <c r="Y26" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z26" s="16"/>
       <c r="AA26" s="16"/>
@@ -3374,23 +3369,23 @@
         <v>1</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="E27" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="F27" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F27" s="16" t="s">
-        <v>100</v>
-      </c>
       <c r="G27" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H27" s="16"/>
       <c r="I27" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J27" s="16" t="s">
         <v>47</v>
@@ -3399,7 +3394,7 @@
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
       <c r="N27" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
@@ -3437,10 +3432,10 @@
         <v>30</v>
       </c>
       <c r="B28" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>103</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>104</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -3449,21 +3444,21 @@
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
       <c r="M28" s="16"/>
       <c r="N28" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="O28" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="O28" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
-      <c r="R28" s="20" t="s">
-        <v>108</v>
+      <c r="R28" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
@@ -3497,9 +3492,9 @@
         <v>59</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="19"/>
+        <v>108</v>
+      </c>
+      <c r="C29" s="20"/>
       <c r="D29" s="18"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -3515,7 +3510,7 @@
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
       <c r="P29" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
@@ -3551,9 +3546,9 @@
         <v>59</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="19"/>
+        <v>110</v>
+      </c>
+      <c r="C30" s="20"/>
       <c r="D30" s="18"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
@@ -3567,7 +3562,7 @@
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
       <c r="P30" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
@@ -3603,25 +3598,25 @@
         <v>26</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19" t="s">
+      <c r="H31" s="20"/>
+      <c r="I31" s="20" t="s">
         <v>28</v>
       </c>
       <c r="J31" s="16"/>
@@ -3662,13 +3657,13 @@
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>115</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>116</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="16"/>
@@ -3680,20 +3675,20 @@
         <v>47</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
       <c r="N32" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="O32" s="16" t="s">
         <v>118</v>
-      </c>
-      <c r="O32" s="16" t="s">
-        <v>119</v>
       </c>
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
       <c r="R32" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S32" s="16"/>
       <c r="T32" s="16"/>
@@ -3724,13 +3719,13 @@
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>122</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>123</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
@@ -3740,7 +3735,7 @@
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
       <c r="K33" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
@@ -3778,13 +3773,13 @@
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="C34" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>127</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="16"/>
@@ -3796,15 +3791,15 @@
         <v>47</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
       <c r="N34" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="O34" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="O34" s="16" t="s">
-        <v>129</v>
       </c>
       <c r="P34" s="16"/>
       <c r="Q34" s="16"/>
@@ -3838,13 +3833,13 @@
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B35" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>130</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>131</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="16"/>
@@ -3854,15 +3849,15 @@
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
       <c r="K35" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
       <c r="N35" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="O35" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="O35" s="16" t="s">
-        <v>133</v>
       </c>
       <c r="P35" s="16"/>
       <c r="Q35" s="16"/>
@@ -3896,13 +3891,13 @@
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>136</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="16"/>
@@ -3913,7 +3908,7 @@
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
       <c r="L36" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
@@ -3953,7 +3948,7 @@
         <v>59</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="18"/>
@@ -3968,8 +3963,8 @@
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
       <c r="O37" s="16"/>
-      <c r="P37" s="21" t="s">
-        <v>139</v>
+      <c r="P37" s="16" t="s">
+        <v>138</v>
       </c>
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
@@ -4005,7 +4000,7 @@
         <v>59</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="18"/>
@@ -4020,8 +4015,8 @@
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
-      <c r="P38" s="21" t="s">
-        <v>141</v>
+      <c r="P38" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="Q38" s="16"/>
       <c r="R38" s="16"/>
@@ -4057,10 +4052,10 @@
         <v>59</v>
       </c>
       <c r="B39" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="16" t="s">
         <v>142</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>143</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="16"/>
@@ -4075,7 +4070,7 @@
       <c r="N39" s="16"/>
       <c r="O39" s="16"/>
       <c r="P39" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q39" s="16"/>
       <c r="R39" s="16"/>
@@ -4111,7 +4106,7 @@
         <v>59</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="18"/>
@@ -4127,7 +4122,7 @@
       <c r="N40" s="16"/>
       <c r="O40" s="16"/>
       <c r="P40" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q40" s="16"/>
       <c r="R40" s="16"/>
@@ -4163,10 +4158,10 @@
         <v>59</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="16"/>
@@ -4181,7 +4176,7 @@
       <c r="N41" s="16"/>
       <c r="O41" s="16"/>
       <c r="P41" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q41" s="16"/>
       <c r="R41" s="16"/>
@@ -4214,13 +4209,13 @@
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B42" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="22" t="s">
         <v>149</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>150</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="16"/>
@@ -4317,33 +4312,33 @@
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="C44" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="D44" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="E44" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="F44" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="G44" s="16" t="s">
         <v>156</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>157</v>
       </c>
       <c r="H44" s="16"/>
       <c r="I44" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J44" s="16"/>
       <c r="K44" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L44" s="16"/>
       <c r="M44" s="16"/>
@@ -4352,7 +4347,7 @@
         <v>1</v>
       </c>
       <c r="O44" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P44" s="16"/>
       <c r="Q44" s="16"/>
@@ -4386,33 +4381,33 @@
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B45" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="D45" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="E45" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="F45" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="G45" s="16" t="s">
         <v>164</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>165</v>
       </c>
       <c r="H45" s="16"/>
       <c r="I45" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J45" s="16"/>
       <c r="K45" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
@@ -4421,7 +4416,7 @@
         <v>1</v>
       </c>
       <c r="O45" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P45" s="16"/>
       <c r="Q45" s="16"/>
@@ -4455,38 +4450,38 @@
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="C46" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="D46" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="E46" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="F46" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="F46" s="16" t="s">
-        <v>172</v>
-      </c>
       <c r="G46" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H46" s="16"/>
       <c r="I46" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J46" s="16" t="s">
         <v>47</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L46" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M46" s="16"/>
       <c r="N46" s="16"/>
@@ -4523,33 +4518,33 @@
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B47" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="C47" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="D47" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="E47" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="F47" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="G47" s="16" t="s">
         <v>179</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>180</v>
       </c>
       <c r="H47" s="16"/>
       <c r="I47" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J47" s="16"/>
       <c r="K47" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L47" s="16"/>
       <c r="M47" s="16"/>
@@ -4590,32 +4585,32 @@
         <v>30</v>
       </c>
       <c r="B48" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C48" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="D48" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="E48" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="F48" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="G48" s="16" t="s">
         <v>186</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>187</v>
       </c>
       <c r="H48" s="16"/>
       <c r="I48" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J48" s="16" t="s">
         <v>47</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L48" s="16"/>
       <c r="M48" s="16"/>
@@ -4656,30 +4651,30 @@
         <v>30</v>
       </c>
       <c r="B49" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="D49" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="E49" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="F49" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="G49" s="16" t="s">
         <v>194</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>195</v>
       </c>
       <c r="H49" s="16"/>
       <c r="I49" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J49" s="16"/>
       <c r="K49" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L49" s="16"/>
       <c r="M49" s="16"/>
@@ -4723,30 +4718,30 @@
         <v>25</v>
       </c>
       <c r="C50" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D50" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="E50" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="F50" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="G50" s="16" t="s">
         <v>200</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>201</v>
       </c>
       <c r="H50" s="16"/>
       <c r="I50" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J50" s="16"/>
       <c r="K50" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L50" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
@@ -4786,7 +4781,7 @@
         <v>26</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>28</v>
@@ -4840,7 +4835,7 @@
         <v>59</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
@@ -4856,7 +4851,7 @@
       <c r="N52" s="16"/>
       <c r="O52" s="16"/>
       <c r="P52" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q52" s="16"/>
       <c r="R52" s="16"/>
@@ -4892,7 +4887,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
@@ -4908,7 +4903,7 @@
       <c r="N53" s="16"/>
       <c r="O53" s="16"/>
       <c r="P53" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q53" s="16"/>
       <c r="R53" s="16"/>
@@ -4944,7 +4939,7 @@
         <v>59</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
@@ -4960,7 +4955,7 @@
       <c r="N54" s="16"/>
       <c r="O54" s="16"/>
       <c r="P54" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q54" s="16"/>
       <c r="R54" s="16"/>
@@ -5132,7 +5127,7 @@
         <v>26</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>28</v>
@@ -5196,7 +5191,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>28</v>
@@ -5233,7 +5228,7 @@
       <c r="W59" s="16"/>
       <c r="X59" s="16"/>
       <c r="Y59" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z59" s="16"/>
       <c r="AA59" s="16"/>
@@ -5319,35 +5314,35 @@
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B61" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="C61" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="D61" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="E61" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="F61" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="F61" s="16" t="s">
+      <c r="G61" s="16" t="s">
         <v>215</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>216</v>
       </c>
       <c r="H61" s="16"/>
       <c r="I61" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J61" s="16" t="s">
         <v>47</v>
       </c>
       <c r="K61" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L61" s="16" t="s">
         <v>48</v>
@@ -5365,7 +5360,7 @@
       <c r="W61" s="16"/>
       <c r="X61" s="16"/>
       <c r="Y61" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Z61" s="16"/>
       <c r="AA61" s="16"/>
@@ -5395,23 +5390,23 @@
         <v>1</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D62" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E62" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="F62" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F62" s="16" t="s">
-        <v>100</v>
-      </c>
       <c r="G62" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H62" s="16"/>
       <c r="I62" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J62" s="16" t="s">
         <v>47</v>
@@ -5422,7 +5417,7 @@
       <c r="N62" s="16"/>
       <c r="O62" s="22"/>
       <c r="P62" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q62" s="16"/>
       <c r="R62" s="16"/>
@@ -5458,26 +5453,26 @@
         <v>30</v>
       </c>
       <c r="B63" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C63" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="D63" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="E63" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="E63" s="16" t="s">
-        <v>193</v>
-      </c>
       <c r="F63" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H63" s="16"/>
       <c r="I63" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J63" s="16"/>
       <c r="K63" s="16"/>
@@ -5523,28 +5518,28 @@
         <v>25</v>
       </c>
       <c r="C64" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D64" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="D64" s="16" t="s">
+      <c r="E64" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="F64" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="F64" s="16" t="s">
+      <c r="G64" s="18" t="s">
         <v>200</v>
-      </c>
-      <c r="G64" s="18" t="s">
-        <v>201</v>
       </c>
       <c r="H64" s="16"/>
       <c r="I64" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J64" s="16"/>
       <c r="K64" s="16"/>
       <c r="L64" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M64" s="16"/>
       <c r="N64" s="16"/>
@@ -5584,7 +5579,7 @@
         <v>59</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C65" s="16"/>
       <c r="D65" s="16"/>
@@ -5600,7 +5595,7 @@
       <c r="N65" s="16"/>
       <c r="O65" s="16"/>
       <c r="P65" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q65" s="16"/>
       <c r="R65" s="16"/>
@@ -5636,7 +5631,7 @@
         <v>59</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
@@ -5652,7 +5647,7 @@
       <c r="N66" s="16"/>
       <c r="O66" s="16"/>
       <c r="P66" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q66" s="16"/>
       <c r="R66" s="16"/>
@@ -5688,7 +5683,7 @@
         <v>26</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C67" s="16" t="s">
         <v>28</v>
@@ -5752,7 +5747,7 @@
         <v>59</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
@@ -5768,7 +5763,7 @@
       <c r="N68" s="16"/>
       <c r="O68" s="16"/>
       <c r="P68" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q68" s="16"/>
       <c r="R68" s="16"/>
@@ -5804,7 +5799,7 @@
         <v>59</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
@@ -5820,7 +5815,7 @@
       <c r="N69" s="16"/>
       <c r="O69" s="16"/>
       <c r="P69" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q69" s="16"/>
       <c r="R69" s="16"/>
@@ -5856,7 +5851,7 @@
         <v>59</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
@@ -5872,7 +5867,7 @@
       <c r="N70" s="16"/>
       <c r="O70" s="16"/>
       <c r="P70" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q70" s="16"/>
       <c r="R70" s="16"/>
@@ -6033,7 +6028,7 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>1</v>
@@ -6079,29 +6074,29 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="D2" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="E2" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="G2" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="H2" s="30"/>
+      <c r="I2" s="20" t="s">
         <v>232</v>
-      </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="19" t="s">
-        <v>233</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -6123,29 +6118,29 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B3" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="D3" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="E3" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="G3" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="H3" s="30"/>
+      <c r="I3" s="20" t="s">
         <v>239</v>
-      </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="19" t="s">
-        <v>240</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -6167,29 +6162,29 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="C4" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="D4" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="E4" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="F4" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="G4" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="H4" s="30"/>
+      <c r="I4" s="20" t="s">
         <v>247</v>
-      </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="19" t="s">
-        <v>248</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -6211,29 +6206,29 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B5" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="D5" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="E5" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="F5" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="G5" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="H5" s="30"/>
+      <c r="I5" s="20" t="s">
         <v>254</v>
-      </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="19" t="s">
-        <v>255</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -6255,29 +6250,29 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="D6" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="E6" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="F6" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="G6" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="H6" s="30"/>
+      <c r="I6" s="20" t="s">
         <v>261</v>
-      </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="19" t="s">
-        <v>262</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -6299,29 +6294,29 @@
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="D7" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="E7" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="F7" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="G7" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="H7" s="30"/>
+      <c r="I7" s="20" t="s">
         <v>268</v>
-      </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="19" t="s">
-        <v>269</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -6343,29 +6338,29 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="D8" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="E8" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="F8" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="G8" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="H8" s="30"/>
+      <c r="I8" s="20" t="s">
         <v>275</v>
-      </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="19" t="s">
-        <v>276</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -6387,20 +6382,20 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="C9" s="34" t="s">
         <v>278</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>279</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="32"/>
       <c r="F9" s="28"/>
       <c r="G9" s="29"/>
       <c r="H9" s="30"/>
-      <c r="I9" s="19"/>
+      <c r="I9" s="20"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -6421,29 +6416,29 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B10" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="C10" s="34" t="s">
         <v>281</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="D10" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="E10" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="F10" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="G10" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="H10" s="30"/>
+      <c r="I10" s="20" t="s">
         <v>286</v>
-      </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="19" t="s">
-        <v>287</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -6465,29 +6460,29 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B11" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="D11" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="E11" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="F11" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="G11" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="H11" s="30"/>
+      <c r="I11" s="20" t="s">
         <v>293</v>
-      </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="19" t="s">
-        <v>294</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -6509,29 +6504,29 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B12" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="D12" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="E12" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="F12" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="G12" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="H12" s="30"/>
+      <c r="I12" s="20" t="s">
         <v>299</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="19" t="s">
-        <v>300</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -6553,29 +6548,29 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B13" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="D13" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="E13" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="F13" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="G13" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="H13" s="30"/>
+      <c r="I13" s="20" t="s">
         <v>306</v>
-      </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="19" t="s">
-        <v>307</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -6597,29 +6592,29 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="E14" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="F14" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="G14" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="G14" s="29" t="s">
-        <v>313</v>
-      </c>
       <c r="H14" s="30"/>
-      <c r="I14" s="19" t="s">
-        <v>309</v>
+      <c r="I14" s="20" t="s">
+        <v>308</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -6641,29 +6636,29 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B15" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="D15" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="E15" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="F15" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="G15" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="H15" s="30"/>
+      <c r="I15" s="20" t="s">
         <v>318</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="19" t="s">
-        <v>319</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -6685,29 +6680,29 @@
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="G16" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>321</v>
-      </c>
       <c r="H16" s="30"/>
-      <c r="I16" s="19" t="s">
-        <v>233</v>
+      <c r="I16" s="20" t="s">
+        <v>232</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -6729,29 +6724,29 @@
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C17" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="D17" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="E17" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="F17" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="G17" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="H17" s="30"/>
+      <c r="I17" s="20" t="s">
         <v>326</v>
-      </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="19" t="s">
-        <v>327</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -6773,29 +6768,29 @@
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="C18" s="34" t="s">
         <v>328</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="D18" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="E18" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="F18" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="G18" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="H18" s="30"/>
+      <c r="I18" s="20" t="s">
         <v>333</v>
-      </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="19" t="s">
-        <v>334</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -6817,29 +6812,29 @@
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>335</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="D19" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="E19" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="F19" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="G19" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="H19" s="30"/>
+      <c r="I19" s="20" t="s">
         <v>340</v>
-      </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="19" t="s">
-        <v>341</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -6861,29 +6856,29 @@
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="C20" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="D20" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="E20" s="32" t="s">
         <v>344</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="F20" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="G20" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="H20" s="30"/>
+      <c r="I20" s="20" t="s">
         <v>346</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="19" t="s">
-        <v>347</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -6905,29 +6900,29 @@
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C21" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="D21" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="E21" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="F21" s="28" t="s">
         <v>350</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="G21" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="H21" s="30"/>
+      <c r="I21" s="20" t="s">
         <v>352</v>
-      </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="19" t="s">
-        <v>353</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -6949,29 +6944,29 @@
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C22" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="D22" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="E22" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="F22" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="G22" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="H22" s="30"/>
+      <c r="I22" s="20" t="s">
         <v>358</v>
-      </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="19" t="s">
-        <v>359</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -6993,29 +6988,29 @@
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C23" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="D23" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="E23" s="32" t="s">
         <v>361</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="F23" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="G23" s="35" t="s">
         <v>363</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="H23" s="30"/>
+      <c r="I23" s="20" t="s">
         <v>364</v>
-      </c>
-      <c r="H23" s="30"/>
-      <c r="I23" s="19" t="s">
-        <v>365</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -7037,29 +7032,29 @@
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B24" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D24" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="F24" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="G24" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="30"/>
+      <c r="I24" s="20" t="s">
         <v>100</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="19" t="s">
-        <v>101</v>
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -7113,19 +7108,19 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="8"/>
@@ -7150,20 +7145,20 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>372</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>373</v>
       </c>
       <c r="C2" s="37" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v xml:space="preserve">2022-02-24 13-11</v>
+        <v xml:space="preserve">2022-03-11 17-37</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>375</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>

--- a/config/default/forms/contact/PLACE_TYPE-create.xlsx
+++ b/config/default/forms/contact/PLACE_TYPE-create.xlsx
@@ -446,7 +446,7 @@
     <t>DOB</t>
   </si>
   <si>
-    <t xml:space="preserve">concat(string(${ephemeral_years}),'-',if(${ephemeral_months}&lt;10, concat('0',string(${ephemeral_months})), ${ephemeral_months}),'-',string(format-date-time(today(), "%d")))</t>
+    <t xml:space="preserve">concat(string(if(${ephemeral_months} &gt; 0,${ephemeral_years},${ephemeral_years} - 1)),'-',if(${ephemeral_months} &gt; 0,if(${ephemeral_months}&lt;10,concat('0',string(${ephemeral_months})),${ephemeral_months}),12),'-',string(format-date-time(today(), "%d")))</t>
   </si>
   <si>
     <t>dob_raw</t>
@@ -1151,7 +1151,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <name val="Calibri"/>
@@ -1287,9 +1287,9 @@
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="4" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1756,12 +1756,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" workbookViewId="0" zoomScale="100">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" zoomScale="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P39" activeCellId="0" sqref="P39"/>
     </sheetView>
   </sheetViews>
@@ -2682,7 +2682,7 @@
         <v>28</v>
       </c>
       <c r="J15" s="16"/>
-      <c r="K15" s="19" t="s">
+      <c r="K15" s="16" t="s">
         <v>64</v>
       </c>
       <c r="L15" s="16" t="s">
@@ -2804,7 +2804,7 @@
       <c r="J17" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="K17" s="16" t="s">
         <v>64</v>
       </c>
       <c r="L17" s="16"/>
@@ -3255,7 +3255,7 @@
       <c r="G25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="20"/>
+      <c r="H25" s="19"/>
       <c r="I25" s="16" t="s">
         <v>28</v>
       </c>
@@ -3319,7 +3319,7 @@
       <c r="G26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="20"/>
+      <c r="H26" s="19"/>
       <c r="I26" s="16" t="s">
         <v>28</v>
       </c>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
-      <c r="R28" s="21" t="s">
+      <c r="R28" s="20" t="s">
         <v>107</v>
       </c>
       <c r="S28" s="16"/>
@@ -3494,7 +3494,7 @@
       <c r="B29" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="18"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -3548,7 +3548,7 @@
       <c r="B30" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="20"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="18"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
@@ -3603,20 +3603,20 @@
       <c r="C31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20" t="s">
+      <c r="H31" s="19"/>
+      <c r="I31" s="19" t="s">
         <v>28</v>
       </c>
       <c r="J31" s="16"/>
@@ -4069,7 +4069,7 @@
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
       <c r="O39" s="16"/>
-      <c r="P39" s="16" t="s">
+      <c r="P39" s="21" t="s">
         <v>143</v>
       </c>
       <c r="Q39" s="16"/>
@@ -5997,7 +5997,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -6005,11 +6005,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" workbookViewId="0" zoomScale="100">
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6095,7 +6095,7 @@
         <v>231</v>
       </c>
       <c r="H2" s="30"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>232</v>
       </c>
       <c r="J2" s="8"/>
@@ -6139,7 +6139,7 @@
         <v>238</v>
       </c>
       <c r="H3" s="30"/>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>239</v>
       </c>
       <c r="J3" s="8"/>
@@ -6183,7 +6183,7 @@
         <v>246</v>
       </c>
       <c r="H4" s="30"/>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="19" t="s">
         <v>247</v>
       </c>
       <c r="J4" s="8"/>
@@ -6227,7 +6227,7 @@
         <v>253</v>
       </c>
       <c r="H5" s="30"/>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="19" t="s">
         <v>254</v>
       </c>
       <c r="J5" s="8"/>
@@ -6271,7 +6271,7 @@
         <v>260</v>
       </c>
       <c r="H6" s="30"/>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="19" t="s">
         <v>261</v>
       </c>
       <c r="J6" s="8"/>
@@ -6315,7 +6315,7 @@
         <v>267</v>
       </c>
       <c r="H7" s="30"/>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="19" t="s">
         <v>268</v>
       </c>
       <c r="J7" s="8"/>
@@ -6359,7 +6359,7 @@
         <v>274</v>
       </c>
       <c r="H8" s="30"/>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="19" t="s">
         <v>275</v>
       </c>
       <c r="J8" s="8"/>
@@ -6395,7 +6395,7 @@
       <c r="F9" s="28"/>
       <c r="G9" s="29"/>
       <c r="H9" s="30"/>
-      <c r="I9" s="20"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -6437,7 +6437,7 @@
         <v>285</v>
       </c>
       <c r="H10" s="30"/>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="19" t="s">
         <v>286</v>
       </c>
       <c r="J10" s="8"/>
@@ -6481,7 +6481,7 @@
         <v>292</v>
       </c>
       <c r="H11" s="30"/>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="19" t="s">
         <v>293</v>
       </c>
       <c r="J11" s="8"/>
@@ -6525,7 +6525,7 @@
         <v>296</v>
       </c>
       <c r="H12" s="30"/>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="19" t="s">
         <v>299</v>
       </c>
       <c r="J12" s="8"/>
@@ -6569,7 +6569,7 @@
         <v>305</v>
       </c>
       <c r="H13" s="30"/>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="19" t="s">
         <v>306</v>
       </c>
       <c r="J13" s="8"/>
@@ -6613,7 +6613,7 @@
         <v>312</v>
       </c>
       <c r="H14" s="30"/>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="19" t="s">
         <v>308</v>
       </c>
       <c r="J14" s="8"/>
@@ -6657,7 +6657,7 @@
         <v>315</v>
       </c>
       <c r="H15" s="30"/>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="19" t="s">
         <v>318</v>
       </c>
       <c r="J15" s="8"/>
@@ -6701,7 +6701,7 @@
         <v>320</v>
       </c>
       <c r="H16" s="30"/>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="19" t="s">
         <v>232</v>
       </c>
       <c r="J16" s="8"/>
@@ -6745,7 +6745,7 @@
         <v>325</v>
       </c>
       <c r="H17" s="30"/>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="19" t="s">
         <v>326</v>
       </c>
       <c r="J17" s="8"/>
@@ -6789,7 +6789,7 @@
         <v>332</v>
       </c>
       <c r="H18" s="30"/>
-      <c r="I18" s="20" t="s">
+      <c r="I18" s="19" t="s">
         <v>333</v>
       </c>
       <c r="J18" s="8"/>
@@ -6833,7 +6833,7 @@
         <v>339</v>
       </c>
       <c r="H19" s="30"/>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="19" t="s">
         <v>340</v>
       </c>
       <c r="J19" s="8"/>
@@ -6877,7 +6877,7 @@
         <v>343</v>
       </c>
       <c r="H20" s="30"/>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="19" t="s">
         <v>346</v>
       </c>
       <c r="J20" s="8"/>
@@ -6921,7 +6921,7 @@
         <v>351</v>
       </c>
       <c r="H21" s="30"/>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="19" t="s">
         <v>352</v>
       </c>
       <c r="J21" s="8"/>
@@ -6965,7 +6965,7 @@
         <v>357</v>
       </c>
       <c r="H22" s="30"/>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="19" t="s">
         <v>358</v>
       </c>
       <c r="J22" s="8"/>
@@ -7009,7 +7009,7 @@
         <v>363</v>
       </c>
       <c r="H23" s="30"/>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="19" t="s">
         <v>364</v>
       </c>
       <c r="J23" s="8"/>
@@ -7053,7 +7053,7 @@
         <v>97</v>
       </c>
       <c r="H24" s="30"/>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="19" t="s">
         <v>100</v>
       </c>
       <c r="J24" s="8"/>
@@ -7077,7 +7077,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -7085,11 +7085,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" workbookViewId="0" zoomScale="100">
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7152,7 +7152,7 @@
       </c>
       <c r="C2" s="37" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v xml:space="preserve">2022-03-11 17-37</v>
+        <v xml:space="preserve">2022-06-13 17-11</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>373</v>
@@ -13850,7 +13850,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/config/default/forms/contact/PLACE_TYPE-create.xlsx
+++ b/config/default/forms/contact/PLACE_TYPE-create.xlsx
@@ -431,13 +431,13 @@
     <t>ephemeral_months</t>
   </si>
   <si>
-    <t xml:space="preserve">if(format-date-time(today(),"%m") - ../age_months &lt; 0, format-date-time(today(),"%m") - ../age_months + 12, format-date-time(today(),"%m") - ../age_months)</t>
+    <t xml:space="preserve">if(format-date-time(today(),"%m") - coalesce(../age_months, 0) &lt; 0, format-date-time(today(),"%m") - coalesce(../age_months, 0) + 12, format-date-time(today(),"%m") - coalesce(../age_months, 0))</t>
   </si>
   <si>
     <t>ephemeral_years</t>
   </si>
   <si>
-    <t xml:space="preserve">if(format-date-time(today(),"%m") - ../age_months &lt; 0, format-date-time(today(),"%Y") - ../age_years - 1, format-date-time(today(),"%Y") -../age_years)</t>
+    <t xml:space="preserve">if(format-date-time(today(),"%m") - coalesce(../age_months, 0) &lt; 0, format-date-time(today(),"%Y") - ../age_years - 1, format-date-time(today(),"%Y") -../age_years)</t>
   </si>
   <si>
     <t>dob_approx</t>
@@ -446,7 +446,7 @@
     <t>DOB</t>
   </si>
   <si>
-    <t xml:space="preserve">concat(string(${ephemeral_years}),'-',if(${ephemeral_months}&lt;10, concat('0',string(${ephemeral_months})), ${ephemeral_months}),'-',string(format-date-time(today(), "%d")))</t>
+    <t xml:space="preserve">concat(string(if(${ephemeral_months} &gt; 0,${ephemeral_years},${ephemeral_years} - 1)),'-',if(${ephemeral_months} &gt; 0,if(${ephemeral_months}&lt;10,concat('0',string(${ephemeral_months})),${ephemeral_months}),12),'-',string(format-date-time(today(), "%d")))</t>
   </si>
   <si>
     <t>dob_raw</t>
@@ -1151,11 +1151,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <name val="Calibri"/>
-      <color indexed="64"/>
+      <color theme="1"/>
       <sz val="11.000000"/>
     </font>
     <font>
@@ -1165,7 +1165,6 @@
     <font>
       <name val="Calibri"/>
       <b/>
-      <color indexed="64"/>
       <sz val="11.000000"/>
     </font>
     <font>
@@ -1174,7 +1173,6 @@
     </font>
     <font>
       <name val="Arial"/>
-      <color indexed="64"/>
       <sz val="11.000000"/>
     </font>
   </fonts>
@@ -1263,7 +1261,7 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1289,9 +1287,9 @@
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="4" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1301,7 +1299,6 @@
     <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1759,12 +1756,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" workbookViewId="0" zoomScale="100">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" zoomScale="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P39" activeCellId="0" sqref="P39"/>
     </sheetView>
   </sheetViews>
@@ -2685,7 +2682,7 @@
         <v>28</v>
       </c>
       <c r="J15" s="16"/>
-      <c r="K15" s="19" t="s">
+      <c r="K15" s="16" t="s">
         <v>64</v>
       </c>
       <c r="L15" s="16" t="s">
@@ -2807,7 +2804,7 @@
       <c r="J17" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="K17" s="16" t="s">
         <v>64</v>
       </c>
       <c r="L17" s="16"/>
@@ -3258,7 +3255,7 @@
       <c r="G25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="20"/>
+      <c r="H25" s="19"/>
       <c r="I25" s="16" t="s">
         <v>28</v>
       </c>
@@ -3322,7 +3319,7 @@
       <c r="G26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="20"/>
+      <c r="H26" s="19"/>
       <c r="I26" s="16" t="s">
         <v>28</v>
       </c>
@@ -3460,7 +3457,7 @@
       </c>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
-      <c r="R28" s="21" t="s">
+      <c r="R28" s="20" t="s">
         <v>107</v>
       </c>
       <c r="S28" s="16"/>
@@ -3497,7 +3494,7 @@
       <c r="B29" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="18"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -3551,7 +3548,7 @@
       <c r="B30" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="20"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="18"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
@@ -3606,20 +3603,20 @@
       <c r="C31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20" t="s">
+      <c r="H31" s="19"/>
+      <c r="I31" s="19" t="s">
         <v>28</v>
       </c>
       <c r="J31" s="16"/>
@@ -4072,7 +4069,7 @@
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
       <c r="O39" s="16"/>
-      <c r="P39" s="16" t="s">
+      <c r="P39" s="21" t="s">
         <v>143</v>
       </c>
       <c r="Q39" s="16"/>
@@ -5316,7 +5313,7 @@
       <c r="AR60" s="16"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="17" t="s">
         <v>209</v>
       </c>
       <c r="B61" s="17" t="s">
@@ -6000,7 +5997,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -6008,11 +6005,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" workbookViewId="0" zoomScale="100">
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6030,13 +6027,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -6076,29 +6073,29 @@
       <c r="Z1" s="8"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>228</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="20" t="s">
+      <c r="H2" s="30"/>
+      <c r="I2" s="19" t="s">
         <v>232</v>
       </c>
       <c r="J2" s="8"/>
@@ -6120,29 +6117,29 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>235</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="20" t="s">
+      <c r="H3" s="30"/>
+      <c r="I3" s="19" t="s">
         <v>239</v>
       </c>
       <c r="J3" s="8"/>
@@ -6164,29 +6161,29 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="20" t="s">
+      <c r="H4" s="30"/>
+      <c r="I4" s="19" t="s">
         <v>247</v>
       </c>
       <c r="J4" s="8"/>
@@ -6208,29 +6205,29 @@
       <c r="Z4" s="8"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="20" t="s">
+      <c r="H5" s="30"/>
+      <c r="I5" s="19" t="s">
         <v>254</v>
       </c>
       <c r="J5" s="8"/>
@@ -6252,29 +6249,29 @@
       <c r="Z5" s="8"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="20" t="s">
+      <c r="H6" s="30"/>
+      <c r="I6" s="19" t="s">
         <v>261</v>
       </c>
       <c r="J6" s="8"/>
@@ -6296,29 +6293,29 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="20" t="s">
+      <c r="H7" s="30"/>
+      <c r="I7" s="19" t="s">
         <v>268</v>
       </c>
       <c r="J7" s="8"/>
@@ -6340,29 +6337,29 @@
       <c r="Z7" s="8"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="20" t="s">
+      <c r="H8" s="30"/>
+      <c r="I8" s="19" t="s">
         <v>275</v>
       </c>
       <c r="J8" s="8"/>
@@ -6387,18 +6384,18 @@
       <c r="A9" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="20"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -6421,26 +6418,26 @@
       <c r="A10" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>281</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="20" t="s">
+      <c r="H10" s="30"/>
+      <c r="I10" s="19" t="s">
         <v>286</v>
       </c>
       <c r="J10" s="8"/>
@@ -6465,26 +6462,26 @@
       <c r="A11" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="20" t="s">
+      <c r="H11" s="30"/>
+      <c r="I11" s="19" t="s">
         <v>293</v>
       </c>
       <c r="J11" s="8"/>
@@ -6509,26 +6506,26 @@
       <c r="A12" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="20" t="s">
+      <c r="H12" s="30"/>
+      <c r="I12" s="19" t="s">
         <v>299</v>
       </c>
       <c r="J12" s="8"/>
@@ -6553,26 +6550,26 @@
       <c r="A13" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="20" t="s">
+      <c r="H13" s="30"/>
+      <c r="I13" s="19" t="s">
         <v>306</v>
       </c>
       <c r="J13" s="8"/>
@@ -6603,20 +6600,20 @@
       <c r="C14" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="20" t="s">
+      <c r="H14" s="30"/>
+      <c r="I14" s="19" t="s">
         <v>308</v>
       </c>
       <c r="J14" s="8"/>
@@ -6641,26 +6638,26 @@
       <c r="A15" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="20" t="s">
+      <c r="H15" s="30"/>
+      <c r="I15" s="19" t="s">
         <v>318</v>
       </c>
       <c r="J15" s="8"/>
@@ -6682,29 +6679,29 @@
       <c r="Z15" s="8"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>228</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="20" t="s">
+      <c r="H16" s="30"/>
+      <c r="I16" s="19" t="s">
         <v>232</v>
       </c>
       <c r="J16" s="8"/>
@@ -6726,29 +6723,29 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="H17" s="31"/>
-      <c r="I17" s="20" t="s">
+      <c r="H17" s="30"/>
+      <c r="I17" s="19" t="s">
         <v>326</v>
       </c>
       <c r="J17" s="8"/>
@@ -6773,26 +6770,26 @@
       <c r="A18" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="34" t="s">
         <v>328</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="20" t="s">
+      <c r="H18" s="30"/>
+      <c r="I18" s="19" t="s">
         <v>333</v>
       </c>
       <c r="J18" s="8"/>
@@ -6817,26 +6814,26 @@
       <c r="A19" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>335</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="20" t="s">
+      <c r="H19" s="30"/>
+      <c r="I19" s="19" t="s">
         <v>340</v>
       </c>
       <c r="J19" s="8"/>
@@ -6861,26 +6858,26 @@
       <c r="A20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="32" t="s">
         <v>344</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="20" t="s">
+      <c r="H20" s="30"/>
+      <c r="I20" s="19" t="s">
         <v>346</v>
       </c>
       <c r="J20" s="8"/>
@@ -6905,26 +6902,26 @@
       <c r="A21" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="28" t="s">
         <v>350</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="H21" s="31"/>
-      <c r="I21" s="20" t="s">
+      <c r="H21" s="30"/>
+      <c r="I21" s="19" t="s">
         <v>352</v>
       </c>
       <c r="J21" s="8"/>
@@ -6949,26 +6946,26 @@
       <c r="A22" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="34" t="s">
         <v>353</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="20" t="s">
+      <c r="H22" s="30"/>
+      <c r="I22" s="19" t="s">
         <v>358</v>
       </c>
       <c r="J22" s="8"/>
@@ -6993,26 +6990,26 @@
       <c r="A23" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>359</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="32" t="s">
         <v>361</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="35" t="s">
         <v>363</v>
       </c>
-      <c r="H23" s="31"/>
-      <c r="I23" s="20" t="s">
+      <c r="H23" s="30"/>
+      <c r="I23" s="19" t="s">
         <v>364</v>
       </c>
       <c r="J23" s="8"/>
@@ -7034,29 +7031,29 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="36" t="s">
         <v>365</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H24" s="31"/>
-      <c r="I24" s="20" t="s">
+      <c r="H24" s="30"/>
+      <c r="I24" s="19" t="s">
         <v>100</v>
       </c>
       <c r="J24" s="8"/>
@@ -7080,7 +7077,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -7088,11 +7085,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" workbookViewId="0" zoomScale="100">
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7153,9 +7150,9 @@
       <c r="B2" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="C2" s="38" t="str">
+      <c r="C2" s="37" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v xml:space="preserve">2022-01-19 16-22</v>
+        <v xml:space="preserve">2022-06-13 17-11</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>373</v>
@@ -13853,7 +13850,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/config/default/forms/contact/PLACE_TYPE-create.xlsx
+++ b/config/default/forms/contact/PLACE_TYPE-create.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="371">
   <si>
     <t>type</t>
   </si>
@@ -428,25 +428,13 @@
     <t>horizontal</t>
   </si>
   <si>
-    <t>ephemeral_months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if(format-date-time(today(),"%m") - coalesce(../age_months, 0) &lt; 0, format-date-time(today(),"%m") - coalesce(../age_months, 0) + 12, format-date-time(today(),"%m") - coalesce(../age_months, 0))</t>
-  </si>
-  <si>
-    <t>ephemeral_years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if(format-date-time(today(),"%m") - coalesce(../age_months, 0) &lt; 0, format-date-time(today(),"%Y") - ../age_years - 1, format-date-time(today(),"%Y") -../age_years)</t>
-  </si>
-  <si>
     <t>dob_approx</t>
   </si>
   <si>
     <t>DOB</t>
   </si>
   <si>
-    <t xml:space="preserve">concat(string(if(${ephemeral_months} &gt; 0,${ephemeral_years},${ephemeral_years} - 1)),'-',if(${ephemeral_months} &gt; 0,if(${ephemeral_months}&lt;10,concat('0',string(${ephemeral_months})),${ephemeral_months}),12),'-',string(format-date-time(today(), "%d")))</t>
+    <t xml:space="preserve">add-date(today(), 0-${age_years}, 0-${age_months})</t>
   </si>
   <si>
     <t>dob_raw</t>
@@ -466,9 +454,7 @@
     <t>dob_debug</t>
   </si>
   <si>
-    <t xml:space="preserve">Months: ${ephemeral_months}
-Year: ${ephemeral_years}
-DOB Approx: ${dob_approx}
+    <t xml:space="preserve">DOB Approx: ${dob_approx}
 DOB Calendar: ${dob_calendar}
 DOB ISO: ${dob_iso}</t>
   </si>
@@ -1261,7 +1247,7 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1290,6 +1276,9 @@
     <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="4" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3950,7 +3939,9 @@
       <c r="B37" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="16"/>
+      <c r="C37" s="16" t="s">
+        <v>138</v>
+      </c>
       <c r="D37" s="18"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
@@ -3963,8 +3954,8 @@
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
       <c r="O37" s="16"/>
-      <c r="P37" s="16" t="s">
-        <v>138</v>
+      <c r="P37" s="21" t="s">
+        <v>139</v>
       </c>
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
@@ -4000,7 +3991,7 @@
         <v>59</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="18"/>
@@ -4015,8 +4006,8 @@
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
-      <c r="P38" s="16" t="s">
-        <v>140</v>
+      <c r="P38" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="Q38" s="16"/>
       <c r="R38" s="16"/>
@@ -4052,10 +4043,10 @@
         <v>59</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="16"/>
@@ -4069,7 +4060,7 @@
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
       <c r="O39" s="16"/>
-      <c r="P39" s="21" t="s">
+      <c r="P39" s="16" t="s">
         <v>143</v>
       </c>
       <c r="Q39" s="16"/>
@@ -4103,12 +4094,14 @@
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="17" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="16"/>
+      <c r="C40" s="23" t="s">
+        <v>145</v>
+      </c>
       <c r="D40" s="18"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
@@ -4116,14 +4109,15 @@
       <c r="H40" s="16"/>
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
+      <c r="K40" s="16" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
       <c r="L40" s="16"/>
       <c r="M40" s="16"/>
       <c r="N40" s="16"/>
       <c r="O40" s="16"/>
-      <c r="P40" s="22" t="s">
-        <v>145</v>
-      </c>
+      <c r="P40" s="16"/>
       <c r="Q40" s="16"/>
       <c r="R40" s="16"/>
       <c r="S40" s="16"/>
@@ -4155,14 +4149,10 @@
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>119</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="18"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
@@ -4175,9 +4165,7 @@
       <c r="M41" s="16"/>
       <c r="N41" s="16"/>
       <c r="O41" s="16"/>
-      <c r="P41" s="16" t="s">
-        <v>147</v>
-      </c>
+      <c r="P41" s="16"/>
       <c r="Q41" s="16"/>
       <c r="R41" s="16"/>
       <c r="S41" s="16"/>
@@ -4209,29 +4197,43 @@
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="17" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="B42" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="D42" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
+      <c r="E42" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>152</v>
+      </c>
       <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
+      <c r="I42" s="16" t="s">
+        <v>153</v>
+      </c>
       <c r="J42" s="16"/>
-      <c r="K42" s="16">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="K42" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
+      <c r="N42" s="24" t="b">
+        <f t="shared" ref="N42:N43" si="0">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O42" s="16" t="s">
+        <v>154</v>
+      </c>
       <c r="P42" s="16"/>
       <c r="Q42" s="16"/>
       <c r="R42" s="16"/>
@@ -4264,22 +4266,43 @@
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
+        <v>146</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>160</v>
+      </c>
       <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
+      <c r="I43" s="16" t="s">
+        <v>161</v>
+      </c>
       <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
+      <c r="K43" s="16" t="s">
+        <v>92</v>
+      </c>
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
+      <c r="N43" s="24" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O43" s="16" t="s">
+        <v>154</v>
+      </c>
       <c r="P43" s="16"/>
       <c r="Q43" s="16"/>
       <c r="R43" s="16"/>
@@ -4312,43 +4335,42 @@
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="17" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H44" s="16"/>
       <c r="I44" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="J44" s="16"/>
+        <v>168</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="K44" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="L44" s="16"/>
+      <c r="L44" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="M44" s="16"/>
-      <c r="N44" s="23">
-        <f t="shared" ref="N44:N45" si="0">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O44" s="16" t="s">
-        <v>158</v>
-      </c>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
       <c r="P44" s="16"/>
       <c r="Q44" s="16"/>
       <c r="R44" s="16"/>
@@ -4381,29 +4403,29 @@
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="17" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="H45" s="16"/>
       <c r="I45" s="16" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="J45" s="16"/>
       <c r="K45" s="16" t="s">
@@ -4411,13 +4433,8 @@
       </c>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
-      <c r="N45" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O45" s="16" t="s">
-        <v>158</v>
-      </c>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
       <c r="P45" s="16"/>
       <c r="Q45" s="16"/>
       <c r="R45" s="16"/>
@@ -4450,39 +4467,37 @@
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="17" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="H46" s="16"/>
       <c r="I46" s="16" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="J46" s="16" t="s">
         <v>47</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="L46" s="16" t="s">
-        <v>136</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="L46" s="16"/>
       <c r="M46" s="16"/>
       <c r="N46" s="16"/>
       <c r="O46" s="16"/>
@@ -4518,29 +4533,29 @@
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="17" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="H47" s="16"/>
       <c r="I47" s="16" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="J47" s="16"/>
       <c r="K47" s="16" t="s">
@@ -4585,34 +4600,34 @@
         <v>30</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="H48" s="16"/>
       <c r="I48" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="J48" s="16" t="s">
-        <v>47</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="J48" s="16"/>
       <c r="K48" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="L48" s="16"/>
+        <v>92</v>
+      </c>
+      <c r="L48" s="16" t="s">
+        <v>197</v>
+      </c>
       <c r="M48" s="16"/>
       <c r="N48" s="16"/>
       <c r="O48" s="16"/>
@@ -4648,35 +4663,25 @@
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>194</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
       <c r="H49" s="16"/>
-      <c r="I49" s="16" t="s">
-        <v>195</v>
-      </c>
+      <c r="I49" s="16"/>
       <c r="J49" s="16"/>
-      <c r="K49" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="L49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="M49" s="16"/>
       <c r="N49" s="16"/>
       <c r="O49" s="16"/>
@@ -4712,41 +4717,27 @@
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="17" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="F50" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="G50" s="16" t="s">
-        <v>200</v>
-      </c>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
       <c r="H50" s="16"/>
-      <c r="I50" s="16" t="s">
-        <v>196</v>
-      </c>
+      <c r="I50" s="16"/>
       <c r="J50" s="16"/>
-      <c r="K50" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="L50" s="16" t="s">
-        <v>201</v>
-      </c>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
       <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
+      <c r="P50" s="16" t="s">
+        <v>200</v>
+      </c>
       <c r="Q50" s="16"/>
       <c r="R50" s="16"/>
       <c r="S50" s="16"/>
@@ -4778,14 +4769,12 @@
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="17" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C51" s="16"/>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
@@ -4794,13 +4783,13 @@
       <c r="I51" s="16"/>
       <c r="J51" s="16"/>
       <c r="K51" s="16"/>
-      <c r="L51" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="L51" s="16"/>
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
       <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
+      <c r="P51" s="16" t="s">
+        <v>202</v>
+      </c>
       <c r="Q51" s="16"/>
       <c r="R51" s="16"/>
       <c r="S51" s="16"/>
@@ -4884,11 +4873,9 @@
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>205</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B53" s="17"/>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
@@ -4902,9 +4889,7 @@
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
       <c r="O53" s="16"/>
-      <c r="P53" s="16" t="s">
-        <v>206</v>
-      </c>
+      <c r="P53" s="16"/>
       <c r="Q53" s="16"/>
       <c r="R53" s="16"/>
       <c r="S53" s="16"/>
@@ -4936,11 +4921,9 @@
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>207</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B54" s="17"/>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
@@ -4954,9 +4937,7 @@
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
       <c r="O54" s="16"/>
-      <c r="P54" s="16" t="s">
-        <v>208</v>
-      </c>
+      <c r="P54" s="16"/>
       <c r="Q54" s="16"/>
       <c r="R54" s="16"/>
       <c r="S54" s="16"/>
@@ -4987,68 +4968,76 @@
       <c r="AR54" s="16"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="15"/>
       <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16"/>
-      <c r="S55" s="16"/>
-      <c r="T55" s="16"/>
-      <c r="U55" s="16"/>
-      <c r="V55" s="16"/>
-      <c r="W55" s="16"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="14"/>
+      <c r="W55" s="15"/>
       <c r="X55" s="16"/>
-      <c r="Y55" s="16"/>
-      <c r="Z55" s="16"/>
-      <c r="AA55" s="16"/>
-      <c r="AB55" s="16"/>
-      <c r="AC55" s="16"/>
-      <c r="AD55" s="16"/>
-      <c r="AE55" s="16"/>
-      <c r="AF55" s="16"/>
-      <c r="AG55" s="16"/>
-      <c r="AH55" s="16"/>
-      <c r="AI55" s="16"/>
-      <c r="AJ55" s="16"/>
-      <c r="AK55" s="16"/>
-      <c r="AL55" s="16"/>
-      <c r="AM55" s="16"/>
-      <c r="AN55" s="16"/>
-      <c r="AO55" s="16"/>
-      <c r="AP55" s="16"/>
-      <c r="AQ55" s="16"/>
-      <c r="AR55" s="16"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="8"/>
+      <c r="AD55" s="8"/>
+      <c r="AE55" s="8"/>
+      <c r="AF55" s="8"/>
+      <c r="AG55" s="8"/>
+      <c r="AH55" s="8"/>
+      <c r="AI55" s="8"/>
+      <c r="AJ55" s="8"/>
+      <c r="AK55" s="8"/>
+      <c r="AL55" s="8"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
+        <v>26</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
+      <c r="I56" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="J56" s="16"/>
       <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
+      <c r="L56" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
       <c r="O56" s="16"/>
@@ -5083,51 +5072,75 @@
       <c r="AR56" s="16"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="12"/>
-      <c r="U57" s="13"/>
-      <c r="V57" s="14"/>
-      <c r="W57" s="15"/>
+      <c r="A57" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="16"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="16"/>
+      <c r="W57" s="16"/>
       <c r="X57" s="16"/>
-      <c r="Y57" s="8"/>
-      <c r="Z57" s="8"/>
-      <c r="AA57" s="8"/>
-      <c r="AB57" s="8"/>
-      <c r="AC57" s="8"/>
-      <c r="AD57" s="8"/>
-      <c r="AE57" s="8"/>
-      <c r="AF57" s="8"/>
-      <c r="AG57" s="8"/>
-      <c r="AH57" s="8"/>
-      <c r="AI57" s="8"/>
-      <c r="AJ57" s="8"/>
-      <c r="AK57" s="8"/>
-      <c r="AL57" s="8"/>
+      <c r="Y57" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z57" s="16"/>
+      <c r="AA57" s="16"/>
+      <c r="AB57" s="16"/>
+      <c r="AC57" s="16"/>
+      <c r="AD57" s="16"/>
+      <c r="AE57" s="16"/>
+      <c r="AF57" s="16"/>
+      <c r="AG57" s="16"/>
+      <c r="AH57" s="16"/>
+      <c r="AI57" s="16"/>
+      <c r="AJ57" s="16"/>
+      <c r="AK57" s="16"/>
+      <c r="AL57" s="16"/>
+      <c r="AM57" s="16"/>
+      <c r="AN57" s="16"/>
+      <c r="AO57" s="16"/>
+      <c r="AP57" s="16"/>
+      <c r="AQ57" s="16"/>
+      <c r="AR57" s="16"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="17" t="s">
-        <v>26</v>
+      <c r="A58" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>28</v>
@@ -5150,9 +5163,7 @@
       </c>
       <c r="J58" s="16"/>
       <c r="K58" s="16"/>
-      <c r="L58" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="L58" s="16"/>
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
       <c r="O58" s="16"/>
@@ -5187,34 +5198,40 @@
       <c r="AR58" s="16"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="24" t="s">
-        <v>58</v>
+      <c r="A59" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>93</v>
+        <v>206</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>28</v>
+        <v>207</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>28</v>
+        <v>209</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>28</v>
+        <v>210</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c r="H59" s="16"/>
       <c r="I59" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
+        <v>212</v>
+      </c>
+      <c r="J59" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K59" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="L59" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
       <c r="O59" s="16"/>
@@ -5228,7 +5245,7 @@
       <c r="W59" s="16"/>
       <c r="X59" s="16"/>
       <c r="Y59" s="16" t="s">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="Z59" s="16"/>
       <c r="AA59" s="16"/>
@@ -5251,38 +5268,42 @@
       <c r="AR59" s="16"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="24" t="s">
-        <v>58</v>
+      <c r="A60" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>28</v>
+        <v>215</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="H60" s="16"/>
       <c r="I60" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J60" s="16"/>
+        <v>100</v>
+      </c>
+      <c r="J60" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="K60" s="16"/>
       <c r="L60" s="16"/>
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="16" t="s">
+        <v>216</v>
+      </c>
       <c r="Q60" s="16"/>
       <c r="R60" s="16"/>
       <c r="S60" s="16"/>
@@ -5314,39 +5335,33 @@
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="17" t="s">
-        <v>209</v>
+        <v>30</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>215</v>
+        <v>217</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>190</v>
       </c>
       <c r="H61" s="16"/>
       <c r="I61" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="J61" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K61" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="L61" s="16" t="s">
-        <v>48</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
       <c r="M61" s="16"/>
       <c r="N61" s="16"/>
       <c r="O61" s="16"/>
@@ -5359,9 +5374,7 @@
       <c r="V61" s="16"/>
       <c r="W61" s="16"/>
       <c r="X61" s="16"/>
-      <c r="Y61" s="16" t="s">
-        <v>218</v>
-      </c>
+      <c r="Y61" s="16"/>
       <c r="Z61" s="16"/>
       <c r="AA61" s="16"/>
       <c r="AB61" s="16"/>
@@ -5384,41 +5397,39 @@
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="17" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>97</v>
+        <v>192</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>97</v>
+        <v>195</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="H62" s="16"/>
       <c r="I62" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="J62" s="16" t="s">
-        <v>47</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="J62" s="16"/>
       <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
+      <c r="L62" s="16" t="s">
+        <v>197</v>
+      </c>
       <c r="M62" s="16"/>
       <c r="N62" s="16"/>
-      <c r="O62" s="22"/>
-      <c r="P62" s="16" t="s">
-        <v>220</v>
-      </c>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
       <c r="Q62" s="16"/>
       <c r="R62" s="16"/>
       <c r="S62" s="16"/>
@@ -5450,37 +5461,27 @@
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="17" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="G63" s="18" t="s">
-        <v>194</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
       <c r="H63" s="16"/>
-      <c r="I63" s="16" t="s">
-        <v>195</v>
-      </c>
+      <c r="I63" s="16"/>
       <c r="J63" s="16"/>
       <c r="K63" s="16"/>
       <c r="L63" s="16"/>
       <c r="M63" s="16"/>
       <c r="N63" s="16"/>
       <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
+      <c r="P63" s="16" t="s">
+        <v>218</v>
+      </c>
       <c r="Q63" s="16"/>
       <c r="R63" s="16"/>
       <c r="S63" s="16"/>
@@ -5512,39 +5513,27 @@
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="17" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="G64" s="18" t="s">
-        <v>200</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
       <c r="H64" s="16"/>
-      <c r="I64" s="16" t="s">
-        <v>196</v>
-      </c>
+      <c r="I64" s="16"/>
       <c r="J64" s="16"/>
       <c r="K64" s="16"/>
-      <c r="L64" s="16" t="s">
-        <v>201</v>
-      </c>
+      <c r="L64" s="16"/>
       <c r="M64" s="16"/>
       <c r="N64" s="16"/>
       <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
+      <c r="P64" s="16" t="s">
+        <v>220</v>
+      </c>
       <c r="Q64" s="16"/>
       <c r="R64" s="16"/>
       <c r="S64" s="16"/>
@@ -5576,27 +5565,39 @@
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="17" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
+        <v>198</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>28</v>
+      </c>
       <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
+      <c r="I65" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="J65" s="16"/>
       <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
+      <c r="L65" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="M65" s="16"/>
       <c r="N65" s="16"/>
       <c r="O65" s="16"/>
-      <c r="P65" s="16" t="s">
-        <v>222</v>
-      </c>
+      <c r="P65" s="16"/>
       <c r="Q65" s="16"/>
       <c r="R65" s="16"/>
       <c r="S65" s="16"/>
@@ -5631,7 +5632,7 @@
         <v>59</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
@@ -5647,7 +5648,7 @@
       <c r="N66" s="16"/>
       <c r="O66" s="16"/>
       <c r="P66" s="16" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="Q66" s="16"/>
       <c r="R66" s="16"/>
@@ -5680,39 +5681,27 @@
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="17" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G67" s="18" t="s">
-        <v>28</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
       <c r="H67" s="16"/>
-      <c r="I67" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="I67" s="16"/>
       <c r="J67" s="16"/>
       <c r="K67" s="16"/>
-      <c r="L67" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="L67" s="16"/>
       <c r="M67" s="16"/>
       <c r="N67" s="16"/>
       <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
+      <c r="P67" s="16" t="s">
+        <v>202</v>
+      </c>
       <c r="Q67" s="16"/>
       <c r="R67" s="16"/>
       <c r="S67" s="16"/>
@@ -5796,11 +5785,9 @@
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>205</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B69" s="17"/>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
@@ -5814,9 +5801,7 @@
       <c r="M69" s="16"/>
       <c r="N69" s="16"/>
       <c r="O69" s="16"/>
-      <c r="P69" s="16" t="s">
-        <v>206</v>
-      </c>
+      <c r="P69" s="16"/>
       <c r="Q69" s="16"/>
       <c r="R69" s="16"/>
       <c r="S69" s="16"/>
@@ -5848,11 +5833,9 @@
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>207</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B70" s="17"/>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
@@ -5866,9 +5849,7 @@
       <c r="M70" s="16"/>
       <c r="N70" s="16"/>
       <c r="O70" s="16"/>
-      <c r="P70" s="16" t="s">
-        <v>208</v>
-      </c>
+      <c r="P70" s="16"/>
       <c r="Q70" s="16"/>
       <c r="R70" s="16"/>
       <c r="S70" s="16"/>
@@ -5897,102 +5878,6 @@
       <c r="AP70" s="16"/>
       <c r="AQ70" s="16"/>
       <c r="AR70" s="16"/>
-    </row>
-    <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B71" s="17"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="16"/>
-      <c r="S71" s="16"/>
-      <c r="T71" s="16"/>
-      <c r="U71" s="16"/>
-      <c r="V71" s="16"/>
-      <c r="W71" s="16"/>
-      <c r="X71" s="16"/>
-      <c r="Y71" s="16"/>
-      <c r="Z71" s="16"/>
-      <c r="AA71" s="16"/>
-      <c r="AB71" s="16"/>
-      <c r="AC71" s="16"/>
-      <c r="AD71" s="16"/>
-      <c r="AE71" s="16"/>
-      <c r="AF71" s="16"/>
-      <c r="AG71" s="16"/>
-      <c r="AH71" s="16"/>
-      <c r="AI71" s="16"/>
-      <c r="AJ71" s="16"/>
-      <c r="AK71" s="16"/>
-      <c r="AL71" s="16"/>
-      <c r="AM71" s="16"/>
-      <c r="AN71" s="16"/>
-      <c r="AO71" s="16"/>
-      <c r="AP71" s="16"/>
-      <c r="AQ71" s="16"/>
-      <c r="AR71" s="16"/>
-    </row>
-    <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B72" s="17"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="16"/>
-      <c r="S72" s="16"/>
-      <c r="T72" s="16"/>
-      <c r="U72" s="16"/>
-      <c r="V72" s="16"/>
-      <c r="W72" s="16"/>
-      <c r="X72" s="16"/>
-      <c r="Y72" s="16"/>
-      <c r="Z72" s="16"/>
-      <c r="AA72" s="16"/>
-      <c r="AB72" s="16"/>
-      <c r="AC72" s="16"/>
-      <c r="AD72" s="16"/>
-      <c r="AE72" s="16"/>
-      <c r="AF72" s="16"/>
-      <c r="AG72" s="16"/>
-      <c r="AH72" s="16"/>
-      <c r="AI72" s="16"/>
-      <c r="AJ72" s="16"/>
-      <c r="AK72" s="16"/>
-      <c r="AL72" s="16"/>
-      <c r="AM72" s="16"/>
-      <c r="AN72" s="16"/>
-      <c r="AO72" s="16"/>
-      <c r="AP72" s="16"/>
-      <c r="AQ72" s="16"/>
-      <c r="AR72" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -6027,13 +5912,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -6073,30 +5958,30 @@
       <c r="Z1" s="8"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="G2" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="19" t="s">
         <v>228</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="19" t="s">
-        <v>232</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -6117,30 +6002,30 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="G3" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="H3" s="31"/>
+      <c r="I3" s="19" t="s">
         <v>235</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="19" t="s">
-        <v>239</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -6161,30 +6046,30 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="F4" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="G4" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="H4" s="31"/>
+      <c r="I4" s="19" t="s">
         <v>243</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="19" t="s">
-        <v>247</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -6205,30 +6090,30 @@
       <c r="Z4" s="8"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="B5" s="26" t="s">
+      <c r="A5" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="G5" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="H5" s="31"/>
+      <c r="I5" s="19" t="s">
         <v>250</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="19" t="s">
-        <v>254</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -6249,30 +6134,30 @@
       <c r="Z5" s="8"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="G6" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="H6" s="31"/>
+      <c r="I6" s="19" t="s">
         <v>257</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>260</v>
-      </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="19" t="s">
-        <v>261</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -6293,30 +6178,30 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="F7" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="G7" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="H7" s="31"/>
+      <c r="I7" s="19" t="s">
         <v>264</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>265</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="19" t="s">
-        <v>268</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -6337,30 +6222,30 @@
       <c r="Z7" s="8"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="G8" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="H8" s="31"/>
+      <c r="I8" s="19" t="s">
         <v>271</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="19" t="s">
-        <v>275</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -6382,19 +6267,19 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
+        <v>272</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
       <c r="I9" s="19"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -6416,29 +6301,29 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="E10" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="F10" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="G10" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="H10" s="31"/>
+      <c r="I10" s="19" t="s">
         <v>282</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="19" t="s">
-        <v>286</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -6460,29 +6345,29 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B11" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="F11" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="G11" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="H11" s="31"/>
+      <c r="I11" s="19" t="s">
         <v>289</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="19" t="s">
-        <v>293</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -6504,29 +6389,29 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B12" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="F12" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="G12" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="I12" s="19" t="s">
         <v>295</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="19" t="s">
-        <v>299</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -6548,29 +6433,29 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B13" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="F13" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="G13" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="H13" s="31"/>
+      <c r="I13" s="19" t="s">
         <v>302</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="19" t="s">
-        <v>306</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -6592,29 +6477,29 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="F14" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="G14" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="H14" s="30"/>
+      <c r="H14" s="31"/>
       <c r="I14" s="19" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -6636,29 +6521,29 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B15" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="G15" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="H15" s="31"/>
+      <c r="I15" s="19" t="s">
         <v>314</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="19" t="s">
-        <v>318</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -6679,30 +6564,30 @@
       <c r="Z15" s="8"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="D16" s="27" t="s">
+      <c r="A16" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="H16" s="31"/>
+      <c r="I16" s="19" t="s">
         <v>228</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>320</v>
-      </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="19" t="s">
-        <v>232</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -6723,30 +6608,30 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="E17" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="B17" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="C17" s="26" t="s">
+      <c r="F17" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="G17" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="H17" s="31"/>
+      <c r="I17" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="19" t="s">
-        <v>326</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -6770,27 +6655,27 @@
       <c r="A18" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="F18" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="G18" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="H18" s="31"/>
+      <c r="I18" s="19" t="s">
         <v>329</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>332</v>
-      </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="19" t="s">
-        <v>333</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -6814,27 +6699,27 @@
       <c r="A19" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="F19" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="G19" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="H19" s="31"/>
+      <c r="I19" s="19" t="s">
         <v>336</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>337</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="19" t="s">
-        <v>340</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -6858,27 +6743,27 @@
       <c r="A20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="F20" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="G20" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="H20" s="31"/>
+      <c r="I20" s="19" t="s">
         <v>342</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>343</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>344</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="19" t="s">
-        <v>346</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -6902,27 +6787,27 @@
       <c r="A21" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="C21" s="34" t="s">
+      <c r="B21" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="G21" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="H21" s="31"/>
+      <c r="I21" s="19" t="s">
         <v>348</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>349</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="19" t="s">
-        <v>352</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -6946,27 +6831,27 @@
       <c r="A22" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="C22" s="34" t="s">
+      <c r="B22" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="G22" s="30" t="s">
         <v>353</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="H22" s="31"/>
+      <c r="I22" s="19" t="s">
         <v>354</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>355</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>356</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>357</v>
-      </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="19" t="s">
-        <v>358</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -6990,27 +6875,27 @@
       <c r="A23" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="C23" s="34" t="s">
+      <c r="B23" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="G23" s="36" t="s">
         <v>359</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="H23" s="31"/>
+      <c r="I23" s="19" t="s">
         <v>360</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>361</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>363</v>
-      </c>
-      <c r="H23" s="30"/>
-      <c r="I23" s="19" t="s">
-        <v>364</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -7031,28 +6916,28 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="B24" s="33" t="s">
+      <c r="A24" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="B24" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="D24" s="27" t="s">
+      <c r="C24" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="D24" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H24" s="30"/>
+      <c r="H24" s="31"/>
       <c r="I24" s="19" t="s">
         <v>100</v>
       </c>
@@ -7108,19 +6993,19 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="8"/>
@@ -7145,20 +7030,20 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="C2" s="37" t="str">
+        <v>368</v>
+      </c>
+      <c r="C2" s="38" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v xml:space="preserve">2022-06-13 17-11</v>
+        <v xml:space="preserve">2022-08-15 11-54</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>

--- a/config/default/forms/contact/PLACE_TYPE-create.xlsx
+++ b/config/default/forms/contact/PLACE_TYPE-create.xlsx
@@ -161,7 +161,7 @@
     <t>yes</t>
   </si>
   <si>
-    <t>horizontal-compact</t>
+    <t>columns-pack</t>
   </si>
   <si>
     <t>db:person</t>
@@ -425,7 +425,7 @@
     <t>DELETE_THIS_LINE</t>
   </si>
   <si>
-    <t>horizontal</t>
+    <t>columns</t>
   </si>
   <si>
     <t>ephemeral_months</t>
@@ -1284,12 +1284,12 @@
     <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="4" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2435,7 +2435,7 @@
         <v>47</v>
       </c>
       <c r="K11" s="16"/>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="18" t="s">
         <v>48</v>
       </c>
       <c r="M11" s="16"/>
@@ -2623,7 +2623,7 @@
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
-      <c r="P14" s="18" t="s">
+      <c r="P14" s="19" t="s">
         <v>61</v>
       </c>
       <c r="Q14" s="16"/>
@@ -2665,7 +2665,7 @@
       <c r="C15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="16" t="s">
@@ -2731,7 +2731,7 @@
         <v>66</v>
       </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="18"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -2742,8 +2742,8 @@
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18" t="s">
+      <c r="O16" s="19"/>
+      <c r="P16" s="19" t="s">
         <v>67</v>
       </c>
       <c r="Q16" s="16"/>
@@ -2877,7 +2877,7 @@
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
-      <c r="P18" s="18"/>
+      <c r="P18" s="19"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
@@ -2886,7 +2886,7 @@
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
-      <c r="Y18" s="18" t="s">
+      <c r="Y18" s="19" t="s">
         <v>79</v>
       </c>
       <c r="Z18" s="16"/>
@@ -2929,7 +2929,7 @@
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
-      <c r="P19" s="18" t="s">
+      <c r="P19" s="19" t="s">
         <v>81</v>
       </c>
       <c r="Q19" s="16"/>
@@ -3004,7 +3004,7 @@
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
-      <c r="Y20" s="18" t="s">
+      <c r="Y20" s="19" t="s">
         <v>79</v>
       </c>
       <c r="Z20" s="16"/>
@@ -3047,7 +3047,7 @@
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="18" t="s">
+      <c r="P21" s="19" t="s">
         <v>85</v>
       </c>
       <c r="Q21" s="16"/>
@@ -3255,7 +3255,7 @@
       <c r="G25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="20"/>
       <c r="I25" s="16" t="s">
         <v>28</v>
       </c>
@@ -3319,7 +3319,7 @@
       <c r="G26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="20"/>
       <c r="I26" s="16" t="s">
         <v>28</v>
       </c>
@@ -3371,7 +3371,7 @@
       <c r="C27" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="19" t="s">
         <v>97</v>
       </c>
       <c r="E27" s="16" t="s">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
-      <c r="R28" s="20" t="s">
+      <c r="R28" s="21" t="s">
         <v>107</v>
       </c>
       <c r="S28" s="16"/>
@@ -3494,8 +3494,8 @@
       <c r="B29" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="18"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="19"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -3548,8 +3548,8 @@
       <c r="B30" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="18"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
@@ -3603,20 +3603,20 @@
       <c r="C31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19" t="s">
+      <c r="H31" s="20"/>
+      <c r="I31" s="20" t="s">
         <v>28</v>
       </c>
       <c r="J31" s="16"/>
@@ -3665,7 +3665,7 @@
       <c r="C32" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
@@ -3781,7 +3781,7 @@
       <c r="C34" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
@@ -3841,7 +3841,7 @@
       <c r="C35" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="19"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
@@ -3899,7 +3899,7 @@
       <c r="C36" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="D36" s="18"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
@@ -3907,7 +3907,7 @@
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
-      <c r="L36" s="16" t="s">
+      <c r="L36" s="18" t="s">
         <v>136</v>
       </c>
       <c r="M36" s="16"/>
@@ -3951,7 +3951,7 @@
         <v>137</v>
       </c>
       <c r="C37" s="16"/>
-      <c r="D37" s="18"/>
+      <c r="D37" s="19"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -4003,7 +4003,7 @@
         <v>139</v>
       </c>
       <c r="C38" s="16"/>
-      <c r="D38" s="18"/>
+      <c r="D38" s="19"/>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
@@ -4057,7 +4057,7 @@
       <c r="C39" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D39" s="18"/>
+      <c r="D39" s="19"/>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
@@ -4069,7 +4069,7 @@
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
       <c r="O39" s="16"/>
-      <c r="P39" s="21" t="s">
+      <c r="P39" s="16" t="s">
         <v>143</v>
       </c>
       <c r="Q39" s="16"/>
@@ -4109,7 +4109,7 @@
         <v>144</v>
       </c>
       <c r="C40" s="16"/>
-      <c r="D40" s="18"/>
+      <c r="D40" s="19"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -4163,7 +4163,7 @@
       <c r="C41" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D41" s="18"/>
+      <c r="D41" s="19"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -4217,7 +4217,7 @@
       <c r="C42" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="19"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="B43" s="17"/>
       <c r="C43" s="16"/>
-      <c r="D43" s="18"/>
+      <c r="D43" s="19"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
@@ -4480,7 +4480,7 @@
       <c r="K46" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="L46" s="16" t="s">
+      <c r="L46" s="18" t="s">
         <v>136</v>
       </c>
       <c r="M46" s="16"/>
@@ -5344,7 +5344,7 @@
       <c r="K61" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="L61" s="16" t="s">
+      <c r="L61" s="18" t="s">
         <v>48</v>
       </c>
       <c r="M61" s="16"/>
@@ -5392,7 +5392,7 @@
       <c r="C62" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="19" t="s">
         <v>97</v>
       </c>
       <c r="E62" s="16" t="s">
@@ -5467,7 +5467,7 @@
       <c r="F63" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="G63" s="18" t="s">
+      <c r="G63" s="19" t="s">
         <v>194</v>
       </c>
       <c r="H63" s="16"/>
@@ -5529,7 +5529,7 @@
       <c r="F64" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="G64" s="18" t="s">
+      <c r="G64" s="19" t="s">
         <v>200</v>
       </c>
       <c r="H64" s="16"/>
@@ -5697,7 +5697,7 @@
       <c r="F67" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G67" s="18" t="s">
+      <c r="G67" s="19" t="s">
         <v>28</v>
       </c>
       <c r="H67" s="16"/>
@@ -6095,7 +6095,7 @@
         <v>231</v>
       </c>
       <c r="H2" s="30"/>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="20" t="s">
         <v>232</v>
       </c>
       <c r="J2" s="8"/>
@@ -6139,7 +6139,7 @@
         <v>238</v>
       </c>
       <c r="H3" s="30"/>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="20" t="s">
         <v>239</v>
       </c>
       <c r="J3" s="8"/>
@@ -6183,7 +6183,7 @@
         <v>246</v>
       </c>
       <c r="H4" s="30"/>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="20" t="s">
         <v>247</v>
       </c>
       <c r="J4" s="8"/>
@@ -6227,7 +6227,7 @@
         <v>253</v>
       </c>
       <c r="H5" s="30"/>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="20" t="s">
         <v>254</v>
       </c>
       <c r="J5" s="8"/>
@@ -6271,7 +6271,7 @@
         <v>260</v>
       </c>
       <c r="H6" s="30"/>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="20" t="s">
         <v>261</v>
       </c>
       <c r="J6" s="8"/>
@@ -6315,7 +6315,7 @@
         <v>267</v>
       </c>
       <c r="H7" s="30"/>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="20" t="s">
         <v>268</v>
       </c>
       <c r="J7" s="8"/>
@@ -6359,7 +6359,7 @@
         <v>274</v>
       </c>
       <c r="H8" s="30"/>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="20" t="s">
         <v>275</v>
       </c>
       <c r="J8" s="8"/>
@@ -6395,7 +6395,7 @@
       <c r="F9" s="28"/>
       <c r="G9" s="29"/>
       <c r="H9" s="30"/>
-      <c r="I9" s="19"/>
+      <c r="I9" s="20"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -6437,7 +6437,7 @@
         <v>285</v>
       </c>
       <c r="H10" s="30"/>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="20" t="s">
         <v>286</v>
       </c>
       <c r="J10" s="8"/>
@@ -6481,7 +6481,7 @@
         <v>292</v>
       </c>
       <c r="H11" s="30"/>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="20" t="s">
         <v>293</v>
       </c>
       <c r="J11" s="8"/>
@@ -6525,7 +6525,7 @@
         <v>296</v>
       </c>
       <c r="H12" s="30"/>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="20" t="s">
         <v>299</v>
       </c>
       <c r="J12" s="8"/>
@@ -6569,7 +6569,7 @@
         <v>305</v>
       </c>
       <c r="H13" s="30"/>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="20" t="s">
         <v>306</v>
       </c>
       <c r="J13" s="8"/>
@@ -6613,7 +6613,7 @@
         <v>312</v>
       </c>
       <c r="H14" s="30"/>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="20" t="s">
         <v>308</v>
       </c>
       <c r="J14" s="8"/>
@@ -6657,7 +6657,7 @@
         <v>315</v>
       </c>
       <c r="H15" s="30"/>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="20" t="s">
         <v>318</v>
       </c>
       <c r="J15" s="8"/>
@@ -6701,7 +6701,7 @@
         <v>320</v>
       </c>
       <c r="H16" s="30"/>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="20" t="s">
         <v>232</v>
       </c>
       <c r="J16" s="8"/>
@@ -6745,7 +6745,7 @@
         <v>325</v>
       </c>
       <c r="H17" s="30"/>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="20" t="s">
         <v>326</v>
       </c>
       <c r="J17" s="8"/>
@@ -6789,7 +6789,7 @@
         <v>332</v>
       </c>
       <c r="H18" s="30"/>
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="20" t="s">
         <v>333</v>
       </c>
       <c r="J18" s="8"/>
@@ -6833,7 +6833,7 @@
         <v>339</v>
       </c>
       <c r="H19" s="30"/>
-      <c r="I19" s="19" t="s">
+      <c r="I19" s="20" t="s">
         <v>340</v>
       </c>
       <c r="J19" s="8"/>
@@ -6877,7 +6877,7 @@
         <v>343</v>
       </c>
       <c r="H20" s="30"/>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="20" t="s">
         <v>346</v>
       </c>
       <c r="J20" s="8"/>
@@ -6921,7 +6921,7 @@
         <v>351</v>
       </c>
       <c r="H21" s="30"/>
-      <c r="I21" s="19" t="s">
+      <c r="I21" s="20" t="s">
         <v>352</v>
       </c>
       <c r="J21" s="8"/>
@@ -6965,7 +6965,7 @@
         <v>357</v>
       </c>
       <c r="H22" s="30"/>
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="20" t="s">
         <v>358</v>
       </c>
       <c r="J22" s="8"/>
@@ -7009,7 +7009,7 @@
         <v>363</v>
       </c>
       <c r="H23" s="30"/>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="20" t="s">
         <v>364</v>
       </c>
       <c r="J23" s="8"/>
@@ -7053,7 +7053,7 @@
         <v>97</v>
       </c>
       <c r="H24" s="30"/>
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="20" t="s">
         <v>100</v>
       </c>
       <c r="J24" s="8"/>
@@ -7152,7 +7152,7 @@
       </c>
       <c r="C2" s="37" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v xml:space="preserve">2022-06-13 17-11</v>
+        <v xml:space="preserve">2022-08-19 14-44</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>373</v>

--- a/config/default/forms/contact/PLACE_TYPE-create.xlsx
+++ b/config/default/forms/contact/PLACE_TYPE-create.xlsx
@@ -161,7 +161,7 @@
     <t>yes</t>
   </si>
   <si>
-    <t>horizontal-compact</t>
+    <t>columns-pack</t>
   </si>
   <si>
     <t>db:person</t>
@@ -425,7 +425,7 @@
     <t>DELETE_THIS_LINE</t>
   </si>
   <si>
-    <t>horizontal</t>
+    <t>columns</t>
   </si>
   <si>
     <t>dob_approx</t>
@@ -1247,7 +1247,7 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1270,15 +1270,12 @@
     <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="4" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2424,7 +2421,7 @@
         <v>47</v>
       </c>
       <c r="K11" s="16"/>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="18" t="s">
         <v>48</v>
       </c>
       <c r="M11" s="16"/>
@@ -2612,7 +2609,7 @@
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
-      <c r="P14" s="18" t="s">
+      <c r="P14" s="19" t="s">
         <v>61</v>
       </c>
       <c r="Q14" s="16"/>
@@ -2654,7 +2651,7 @@
       <c r="C15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="16" t="s">
@@ -2720,7 +2717,7 @@
         <v>66</v>
       </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="18"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -2731,8 +2728,8 @@
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18" t="s">
+      <c r="O16" s="19"/>
+      <c r="P16" s="19" t="s">
         <v>67</v>
       </c>
       <c r="Q16" s="16"/>
@@ -2866,7 +2863,7 @@
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
-      <c r="P18" s="18"/>
+      <c r="P18" s="19"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
@@ -2875,7 +2872,7 @@
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
-      <c r="Y18" s="18" t="s">
+      <c r="Y18" s="19" t="s">
         <v>79</v>
       </c>
       <c r="Z18" s="16"/>
@@ -2918,7 +2915,7 @@
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
-      <c r="P19" s="18" t="s">
+      <c r="P19" s="19" t="s">
         <v>81</v>
       </c>
       <c r="Q19" s="16"/>
@@ -2993,7 +2990,7 @@
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
-      <c r="Y20" s="18" t="s">
+      <c r="Y20" s="19" t="s">
         <v>79</v>
       </c>
       <c r="Z20" s="16"/>
@@ -3036,7 +3033,7 @@
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="18" t="s">
+      <c r="P21" s="19" t="s">
         <v>85</v>
       </c>
       <c r="Q21" s="16"/>
@@ -3244,7 +3241,7 @@
       <c r="G25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="20"/>
       <c r="I25" s="16" t="s">
         <v>28</v>
       </c>
@@ -3308,7 +3305,7 @@
       <c r="G26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="20"/>
       <c r="I26" s="16" t="s">
         <v>28</v>
       </c>
@@ -3360,7 +3357,7 @@
       <c r="C27" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="19" t="s">
         <v>97</v>
       </c>
       <c r="E27" s="16" t="s">
@@ -3446,7 +3443,7 @@
       </c>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
-      <c r="R28" s="20" t="s">
+      <c r="R28" s="21" t="s">
         <v>107</v>
       </c>
       <c r="S28" s="16"/>
@@ -3483,8 +3480,8 @@
       <c r="B29" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="18"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="19"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -3537,8 +3534,8 @@
       <c r="B30" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="18"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
@@ -3592,20 +3589,20 @@
       <c r="C31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19" t="s">
+      <c r="H31" s="20"/>
+      <c r="I31" s="20" t="s">
         <v>28</v>
       </c>
       <c r="J31" s="16"/>
@@ -3654,7 +3651,7 @@
       <c r="C32" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
@@ -3770,7 +3767,7 @@
       <c r="C34" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
@@ -3830,7 +3827,7 @@
       <c r="C35" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="19"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
@@ -3888,7 +3885,7 @@
       <c r="C36" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="D36" s="18"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
@@ -3896,7 +3893,7 @@
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
-      <c r="L36" s="16" t="s">
+      <c r="L36" s="18" t="s">
         <v>136</v>
       </c>
       <c r="M36" s="16"/>
@@ -3942,7 +3939,7 @@
       <c r="C37" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="18"/>
+      <c r="D37" s="19"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -3954,7 +3951,7 @@
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
       <c r="O37" s="16"/>
-      <c r="P37" s="21" t="s">
+      <c r="P37" s="16" t="s">
         <v>139</v>
       </c>
       <c r="Q37" s="16"/>
@@ -3994,7 +3991,7 @@
         <v>140</v>
       </c>
       <c r="C38" s="16"/>
-      <c r="D38" s="18"/>
+      <c r="D38" s="19"/>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
@@ -4048,7 +4045,7 @@
       <c r="C39" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="18"/>
+      <c r="D39" s="19"/>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
@@ -4099,10 +4096,10 @@
       <c r="B40" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="D40" s="18"/>
+      <c r="D40" s="19"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -4153,7 +4150,7 @@
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="16"/>
-      <c r="D41" s="18"/>
+      <c r="D41" s="19"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -4227,7 +4224,7 @@
       </c>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
-      <c r="N42" s="24" t="b">
+      <c r="N42" s="23" t="b">
         <f t="shared" ref="N42:N43" si="0">TRUE()</f>
         <v>1</v>
       </c>
@@ -4296,7 +4293,7 @@
       </c>
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
-      <c r="N43" s="24" t="b">
+      <c r="N43" s="23" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4365,7 +4362,7 @@
       <c r="K44" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="L44" s="16" t="s">
+      <c r="L44" s="18" t="s">
         <v>136</v>
       </c>
       <c r="M44" s="16"/>
@@ -5072,7 +5069,7 @@
       <c r="AR56" s="16"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="17" t="s">
@@ -5136,7 +5133,7 @@
       <c r="AR57" s="16"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="17" t="s">
@@ -5229,7 +5226,7 @@
       <c r="K59" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="L59" s="16" t="s">
+      <c r="L59" s="18" t="s">
         <v>48</v>
       </c>
       <c r="M59" s="16"/>
@@ -5277,7 +5274,7 @@
       <c r="C60" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="19" t="s">
         <v>97</v>
       </c>
       <c r="E60" s="16" t="s">
@@ -5352,7 +5349,7 @@
       <c r="F61" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="G61" s="18" t="s">
+      <c r="G61" s="19" t="s">
         <v>190</v>
       </c>
       <c r="H61" s="16"/>
@@ -5414,7 +5411,7 @@
       <c r="F62" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="G62" s="18" t="s">
+      <c r="G62" s="19" t="s">
         <v>196</v>
       </c>
       <c r="H62" s="16"/>
@@ -5582,7 +5579,7 @@
       <c r="F65" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G65" s="18" t="s">
+      <c r="G65" s="19" t="s">
         <v>28</v>
       </c>
       <c r="H65" s="16"/>
@@ -5912,13 +5909,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -5958,29 +5955,29 @@
       <c r="Z1" s="8"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>224</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="19" t="s">
+      <c r="H2" s="30"/>
+      <c r="I2" s="20" t="s">
         <v>228</v>
       </c>
       <c r="J2" s="8"/>
@@ -6002,29 +5999,29 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>231</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="19" t="s">
+      <c r="H3" s="30"/>
+      <c r="I3" s="20" t="s">
         <v>235</v>
       </c>
       <c r="J3" s="8"/>
@@ -6046,29 +6043,29 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="19" t="s">
+      <c r="H4" s="30"/>
+      <c r="I4" s="20" t="s">
         <v>243</v>
       </c>
       <c r="J4" s="8"/>
@@ -6090,29 +6087,29 @@
       <c r="Z4" s="8"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="30"/>
+      <c r="I5" s="20" t="s">
         <v>250</v>
       </c>
       <c r="J5" s="8"/>
@@ -6134,29 +6131,29 @@
       <c r="Z5" s="8"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="19" t="s">
+      <c r="H6" s="30"/>
+      <c r="I6" s="20" t="s">
         <v>257</v>
       </c>
       <c r="J6" s="8"/>
@@ -6178,29 +6175,29 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="19" t="s">
+      <c r="H7" s="30"/>
+      <c r="I7" s="20" t="s">
         <v>264</v>
       </c>
       <c r="J7" s="8"/>
@@ -6222,29 +6219,29 @@
       <c r="Z7" s="8"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="19" t="s">
+      <c r="H8" s="30"/>
+      <c r="I8" s="20" t="s">
         <v>271</v>
       </c>
       <c r="J8" s="8"/>
@@ -6269,18 +6266,18 @@
       <c r="A9" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="19"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="20"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -6303,26 +6300,26 @@
       <c r="A10" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="19" t="s">
+      <c r="H10" s="30"/>
+      <c r="I10" s="20" t="s">
         <v>282</v>
       </c>
       <c r="J10" s="8"/>
@@ -6347,26 +6344,26 @@
       <c r="A11" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="19" t="s">
+      <c r="H11" s="30"/>
+      <c r="I11" s="20" t="s">
         <v>289</v>
       </c>
       <c r="J11" s="8"/>
@@ -6391,26 +6388,26 @@
       <c r="A12" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="19" t="s">
+      <c r="H12" s="30"/>
+      <c r="I12" s="20" t="s">
         <v>295</v>
       </c>
       <c r="J12" s="8"/>
@@ -6435,26 +6432,26 @@
       <c r="A13" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="19" t="s">
+      <c r="H13" s="30"/>
+      <c r="I13" s="20" t="s">
         <v>302</v>
       </c>
       <c r="J13" s="8"/>
@@ -6485,20 +6482,20 @@
       <c r="C14" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="19" t="s">
+      <c r="H14" s="30"/>
+      <c r="I14" s="20" t="s">
         <v>304</v>
       </c>
       <c r="J14" s="8"/>
@@ -6523,26 +6520,26 @@
       <c r="A15" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="19" t="s">
+      <c r="H15" s="30"/>
+      <c r="I15" s="20" t="s">
         <v>314</v>
       </c>
       <c r="J15" s="8"/>
@@ -6564,29 +6561,29 @@
       <c r="Z15" s="8"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>224</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="19" t="s">
+      <c r="H16" s="30"/>
+      <c r="I16" s="20" t="s">
         <v>228</v>
       </c>
       <c r="J16" s="8"/>
@@ -6608,29 +6605,29 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="H17" s="31"/>
-      <c r="I17" s="19" t="s">
+      <c r="H17" s="30"/>
+      <c r="I17" s="20" t="s">
         <v>322</v>
       </c>
       <c r="J17" s="8"/>
@@ -6655,26 +6652,26 @@
       <c r="A18" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>323</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="19" t="s">
+      <c r="H18" s="30"/>
+      <c r="I18" s="20" t="s">
         <v>329</v>
       </c>
       <c r="J18" s="8"/>
@@ -6699,26 +6696,26 @@
       <c r="A19" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>331</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="32" t="s">
         <v>333</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="19" t="s">
+      <c r="H19" s="30"/>
+      <c r="I19" s="20" t="s">
         <v>336</v>
       </c>
       <c r="J19" s="8"/>
@@ -6743,26 +6740,26 @@
       <c r="A20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="32" t="s">
         <v>340</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="19" t="s">
+      <c r="H20" s="30"/>
+      <c r="I20" s="20" t="s">
         <v>342</v>
       </c>
       <c r="J20" s="8"/>
@@ -6787,26 +6784,26 @@
       <c r="A21" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>323</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>343</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="32" t="s">
         <v>345</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="28" t="s">
         <v>346</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="H21" s="31"/>
-      <c r="I21" s="19" t="s">
+      <c r="H21" s="30"/>
+      <c r="I21" s="20" t="s">
         <v>348</v>
       </c>
       <c r="J21" s="8"/>
@@ -6831,26 +6828,26 @@
       <c r="A22" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="34" t="s">
         <v>349</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="27" t="s">
         <v>350</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="19" t="s">
+      <c r="H22" s="30"/>
+      <c r="I22" s="20" t="s">
         <v>354</v>
       </c>
       <c r="J22" s="8"/>
@@ -6875,26 +6872,26 @@
       <c r="A23" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>355</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="28" t="s">
         <v>358</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="35" t="s">
         <v>359</v>
       </c>
-      <c r="H23" s="31"/>
-      <c r="I23" s="19" t="s">
+      <c r="H23" s="30"/>
+      <c r="I23" s="20" t="s">
         <v>360</v>
       </c>
       <c r="J23" s="8"/>
@@ -6916,29 +6913,29 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="36" t="s">
         <v>361</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H24" s="31"/>
-      <c r="I24" s="19" t="s">
+      <c r="H24" s="30"/>
+      <c r="I24" s="20" t="s">
         <v>100</v>
       </c>
       <c r="J24" s="8"/>
@@ -7035,9 +7032,9 @@
       <c r="B2" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="C2" s="38" t="str">
+      <c r="C2" s="37" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v xml:space="preserve">2022-08-15 11-54</v>
+        <v xml:space="preserve">2022-08-24 11-44</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>369</v>

--- a/config/default/forms/contact/PLACE_TYPE-create.xlsx
+++ b/config/default/forms/contact/PLACE_TYPE-create.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="371">
   <si>
     <t>type</t>
   </si>
@@ -161,7 +161,7 @@
     <t>yes</t>
   </si>
   <si>
-    <t>horizontal-compact</t>
+    <t>columns-pack</t>
   </si>
   <si>
     <t>db:person</t>
@@ -425,19 +425,7 @@
     <t>DELETE_THIS_LINE</t>
   </si>
   <si>
-    <t>horizontal</t>
-  </si>
-  <si>
-    <t>ephemeral_months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if(format-date-time(today(),"%m") - ../age_months &lt; 0, format-date-time(today(),"%m") - ../age_months + 12, format-date-time(today(),"%m") - ../age_months)</t>
-  </si>
-  <si>
-    <t>ephemeral_years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if(format-date-time(today(),"%m") - ../age_months &lt; 0, format-date-time(today(),"%Y") - ../age_years - 1, format-date-time(today(),"%Y") -../age_years)</t>
+    <t>columns</t>
   </si>
   <si>
     <t>dob_approx</t>
@@ -446,7 +434,7 @@
     <t>DOB</t>
   </si>
   <si>
-    <t xml:space="preserve">concat(string(${ephemeral_years}),'-',if(${ephemeral_months}&lt;10, concat('0',string(${ephemeral_months})), ${ephemeral_months}),'-',string(format-date-time(today(), "%d")))</t>
+    <t xml:space="preserve">add-date(today(), 0-${age_years}, 0-${age_months})</t>
   </si>
   <si>
     <t>dob_raw</t>
@@ -466,9 +454,7 @@
     <t>dob_debug</t>
   </si>
   <si>
-    <t xml:space="preserve">Months: ${ephemeral_months}
-Year: ${ephemeral_years}
-DOB Approx: ${dob_approx}
+    <t xml:space="preserve">DOB Approx: ${dob_approx}
 DOB Calendar: ${dob_calendar}
 DOB ISO: ${dob_iso}</t>
   </si>
@@ -1151,11 +1137,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <name val="Calibri"/>
-      <color indexed="64"/>
+      <color theme="1"/>
       <sz val="11.000000"/>
     </font>
     <font>
@@ -1165,7 +1151,6 @@
     <font>
       <name val="Calibri"/>
       <b/>
-      <color indexed="64"/>
       <sz val="11.000000"/>
     </font>
     <font>
@@ -1174,7 +1159,6 @@
     </font>
     <font>
       <name val="Arial"/>
-      <color indexed="64"/>
       <sz val="11.000000"/>
     </font>
   </fonts>
@@ -1263,7 +1247,7 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1286,10 +1270,10 @@
     <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="4" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1301,7 +1285,6 @@
     <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1759,12 +1742,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" workbookViewId="0" zoomScale="100">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" zoomScale="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P39" activeCellId="0" sqref="P39"/>
     </sheetView>
   </sheetViews>
@@ -2438,7 +2421,7 @@
         <v>47</v>
       </c>
       <c r="K11" s="16"/>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="18" t="s">
         <v>48</v>
       </c>
       <c r="M11" s="16"/>
@@ -2626,7 +2609,7 @@
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
-      <c r="P14" s="18" t="s">
+      <c r="P14" s="19" t="s">
         <v>61</v>
       </c>
       <c r="Q14" s="16"/>
@@ -2668,7 +2651,7 @@
       <c r="C15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="16" t="s">
@@ -2685,7 +2668,7 @@
         <v>28</v>
       </c>
       <c r="J15" s="16"/>
-      <c r="K15" s="19" t="s">
+      <c r="K15" s="16" t="s">
         <v>64</v>
       </c>
       <c r="L15" s="16" t="s">
@@ -2734,7 +2717,7 @@
         <v>66</v>
       </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="18"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -2745,8 +2728,8 @@
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18" t="s">
+      <c r="O16" s="19"/>
+      <c r="P16" s="19" t="s">
         <v>67</v>
       </c>
       <c r="Q16" s="16"/>
@@ -2807,7 +2790,7 @@
       <c r="J17" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="K17" s="16" t="s">
         <v>64</v>
       </c>
       <c r="L17" s="16"/>
@@ -2880,7 +2863,7 @@
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
-      <c r="P18" s="18"/>
+      <c r="P18" s="19"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
@@ -2889,7 +2872,7 @@
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
-      <c r="Y18" s="18" t="s">
+      <c r="Y18" s="19" t="s">
         <v>79</v>
       </c>
       <c r="Z18" s="16"/>
@@ -2932,7 +2915,7 @@
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
-      <c r="P19" s="18" t="s">
+      <c r="P19" s="19" t="s">
         <v>81</v>
       </c>
       <c r="Q19" s="16"/>
@@ -3007,7 +2990,7 @@
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
-      <c r="Y20" s="18" t="s">
+      <c r="Y20" s="19" t="s">
         <v>79</v>
       </c>
       <c r="Z20" s="16"/>
@@ -3050,7 +3033,7 @@
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="18" t="s">
+      <c r="P21" s="19" t="s">
         <v>85</v>
       </c>
       <c r="Q21" s="16"/>
@@ -3374,7 +3357,7 @@
       <c r="C27" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="19" t="s">
         <v>97</v>
       </c>
       <c r="E27" s="16" t="s">
@@ -3498,7 +3481,7 @@
         <v>108</v>
       </c>
       <c r="C29" s="20"/>
-      <c r="D29" s="18"/>
+      <c r="D29" s="19"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -3552,7 +3535,7 @@
         <v>110</v>
       </c>
       <c r="C30" s="20"/>
-      <c r="D30" s="18"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
@@ -3668,7 +3651,7 @@
       <c r="C32" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
@@ -3784,7 +3767,7 @@
       <c r="C34" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
@@ -3844,7 +3827,7 @@
       <c r="C35" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="19"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
@@ -3902,7 +3885,7 @@
       <c r="C36" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="D36" s="18"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
@@ -3910,7 +3893,7 @@
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
-      <c r="L36" s="16" t="s">
+      <c r="L36" s="18" t="s">
         <v>136</v>
       </c>
       <c r="M36" s="16"/>
@@ -3953,8 +3936,10 @@
       <c r="B37" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="18"/>
+      <c r="C37" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="19"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -3967,7 +3952,7 @@
       <c r="N37" s="16"/>
       <c r="O37" s="16"/>
       <c r="P37" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
@@ -4003,10 +3988,10 @@
         <v>59</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C38" s="16"/>
-      <c r="D38" s="18"/>
+      <c r="D38" s="19"/>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
@@ -4018,8 +4003,8 @@
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
-      <c r="P38" s="16" t="s">
-        <v>140</v>
+      <c r="P38" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="Q38" s="16"/>
       <c r="R38" s="16"/>
@@ -4055,12 +4040,12 @@
         <v>59</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D39" s="18"/>
+        <v>119</v>
+      </c>
+      <c r="D39" s="19"/>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
@@ -4106,27 +4091,30 @@
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="17" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="18"/>
+      <c r="C40" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="19"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
+      <c r="K40" s="16" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
       <c r="L40" s="16"/>
       <c r="M40" s="16"/>
       <c r="N40" s="16"/>
       <c r="O40" s="16"/>
-      <c r="P40" s="22" t="s">
-        <v>145</v>
-      </c>
+      <c r="P40" s="16"/>
       <c r="Q40" s="16"/>
       <c r="R40" s="16"/>
       <c r="S40" s="16"/>
@@ -4158,15 +4146,11 @@
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" s="18"/>
+        <v>36</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="19"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -4178,9 +4162,7 @@
       <c r="M41" s="16"/>
       <c r="N41" s="16"/>
       <c r="O41" s="16"/>
-      <c r="P41" s="16" t="s">
-        <v>147</v>
-      </c>
+      <c r="P41" s="16"/>
       <c r="Q41" s="16"/>
       <c r="R41" s="16"/>
       <c r="S41" s="16"/>
@@ -4212,29 +4194,43 @@
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="17" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="B42" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="D42" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
+      <c r="E42" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>152</v>
+      </c>
       <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
+      <c r="I42" s="16" t="s">
+        <v>153</v>
+      </c>
       <c r="J42" s="16"/>
-      <c r="K42" s="16">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="K42" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
+      <c r="N42" s="23" t="b">
+        <f t="shared" ref="N42:N43" si="0">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O42" s="16" t="s">
+        <v>154</v>
+      </c>
       <c r="P42" s="16"/>
       <c r="Q42" s="16"/>
       <c r="R42" s="16"/>
@@ -4267,22 +4263,43 @@
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
+        <v>146</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>160</v>
+      </c>
       <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
+      <c r="I43" s="16" t="s">
+        <v>161</v>
+      </c>
       <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
+      <c r="K43" s="16" t="s">
+        <v>92</v>
+      </c>
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
+      <c r="N43" s="23" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O43" s="16" t="s">
+        <v>154</v>
+      </c>
       <c r="P43" s="16"/>
       <c r="Q43" s="16"/>
       <c r="R43" s="16"/>
@@ -4315,43 +4332,42 @@
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="17" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H44" s="16"/>
       <c r="I44" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="J44" s="16"/>
+        <v>168</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="K44" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="L44" s="16"/>
+      <c r="L44" s="18" t="s">
+        <v>136</v>
+      </c>
       <c r="M44" s="16"/>
-      <c r="N44" s="23">
-        <f t="shared" ref="N44:N45" si="0">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O44" s="16" t="s">
-        <v>158</v>
-      </c>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
       <c r="P44" s="16"/>
       <c r="Q44" s="16"/>
       <c r="R44" s="16"/>
@@ -4384,29 +4400,29 @@
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="17" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="H45" s="16"/>
       <c r="I45" s="16" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="J45" s="16"/>
       <c r="K45" s="16" t="s">
@@ -4414,13 +4430,8 @@
       </c>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
-      <c r="N45" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O45" s="16" t="s">
-        <v>158</v>
-      </c>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
       <c r="P45" s="16"/>
       <c r="Q45" s="16"/>
       <c r="R45" s="16"/>
@@ -4453,39 +4464,37 @@
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="17" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="H46" s="16"/>
       <c r="I46" s="16" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="J46" s="16" t="s">
         <v>47</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="L46" s="16" t="s">
-        <v>136</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="L46" s="16"/>
       <c r="M46" s="16"/>
       <c r="N46" s="16"/>
       <c r="O46" s="16"/>
@@ -4521,29 +4530,29 @@
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="17" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="H47" s="16"/>
       <c r="I47" s="16" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="J47" s="16"/>
       <c r="K47" s="16" t="s">
@@ -4588,34 +4597,34 @@
         <v>30</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="H48" s="16"/>
       <c r="I48" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="J48" s="16" t="s">
-        <v>47</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="J48" s="16"/>
       <c r="K48" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="L48" s="16"/>
+        <v>92</v>
+      </c>
+      <c r="L48" s="16" t="s">
+        <v>197</v>
+      </c>
       <c r="M48" s="16"/>
       <c r="N48" s="16"/>
       <c r="O48" s="16"/>
@@ -4651,35 +4660,25 @@
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>194</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
       <c r="H49" s="16"/>
-      <c r="I49" s="16" t="s">
-        <v>195</v>
-      </c>
+      <c r="I49" s="16"/>
       <c r="J49" s="16"/>
-      <c r="K49" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="L49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="M49" s="16"/>
       <c r="N49" s="16"/>
       <c r="O49" s="16"/>
@@ -4715,41 +4714,27 @@
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="17" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="F50" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="G50" s="16" t="s">
-        <v>200</v>
-      </c>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
       <c r="H50" s="16"/>
-      <c r="I50" s="16" t="s">
-        <v>196</v>
-      </c>
+      <c r="I50" s="16"/>
       <c r="J50" s="16"/>
-      <c r="K50" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="L50" s="16" t="s">
-        <v>201</v>
-      </c>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
       <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
+      <c r="P50" s="16" t="s">
+        <v>200</v>
+      </c>
       <c r="Q50" s="16"/>
       <c r="R50" s="16"/>
       <c r="S50" s="16"/>
@@ -4781,14 +4766,12 @@
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="17" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C51" s="16"/>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
@@ -4797,13 +4780,13 @@
       <c r="I51" s="16"/>
       <c r="J51" s="16"/>
       <c r="K51" s="16"/>
-      <c r="L51" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="L51" s="16"/>
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
       <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
+      <c r="P51" s="16" t="s">
+        <v>202</v>
+      </c>
       <c r="Q51" s="16"/>
       <c r="R51" s="16"/>
       <c r="S51" s="16"/>
@@ -4887,11 +4870,9 @@
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>205</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B53" s="17"/>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
@@ -4905,9 +4886,7 @@
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
       <c r="O53" s="16"/>
-      <c r="P53" s="16" t="s">
-        <v>206</v>
-      </c>
+      <c r="P53" s="16"/>
       <c r="Q53" s="16"/>
       <c r="R53" s="16"/>
       <c r="S53" s="16"/>
@@ -4939,11 +4918,9 @@
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>207</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B54" s="17"/>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
@@ -4957,9 +4934,7 @@
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
       <c r="O54" s="16"/>
-      <c r="P54" s="16" t="s">
-        <v>208</v>
-      </c>
+      <c r="P54" s="16"/>
       <c r="Q54" s="16"/>
       <c r="R54" s="16"/>
       <c r="S54" s="16"/>
@@ -4990,68 +4965,76 @@
       <c r="AR54" s="16"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="15"/>
       <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16"/>
-      <c r="S55" s="16"/>
-      <c r="T55" s="16"/>
-      <c r="U55" s="16"/>
-      <c r="V55" s="16"/>
-      <c r="W55" s="16"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="14"/>
+      <c r="W55" s="15"/>
       <c r="X55" s="16"/>
-      <c r="Y55" s="16"/>
-      <c r="Z55" s="16"/>
-      <c r="AA55" s="16"/>
-      <c r="AB55" s="16"/>
-      <c r="AC55" s="16"/>
-      <c r="AD55" s="16"/>
-      <c r="AE55" s="16"/>
-      <c r="AF55" s="16"/>
-      <c r="AG55" s="16"/>
-      <c r="AH55" s="16"/>
-      <c r="AI55" s="16"/>
-      <c r="AJ55" s="16"/>
-      <c r="AK55" s="16"/>
-      <c r="AL55" s="16"/>
-      <c r="AM55" s="16"/>
-      <c r="AN55" s="16"/>
-      <c r="AO55" s="16"/>
-      <c r="AP55" s="16"/>
-      <c r="AQ55" s="16"/>
-      <c r="AR55" s="16"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="8"/>
+      <c r="AD55" s="8"/>
+      <c r="AE55" s="8"/>
+      <c r="AF55" s="8"/>
+      <c r="AG55" s="8"/>
+      <c r="AH55" s="8"/>
+      <c r="AI55" s="8"/>
+      <c r="AJ55" s="8"/>
+      <c r="AK55" s="8"/>
+      <c r="AL55" s="8"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
+        <v>26</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
+      <c r="I56" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="J56" s="16"/>
       <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
+      <c r="L56" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
       <c r="O56" s="16"/>
@@ -5086,51 +5069,75 @@
       <c r="AR56" s="16"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="12"/>
-      <c r="U57" s="13"/>
-      <c r="V57" s="14"/>
-      <c r="W57" s="15"/>
+      <c r="A57" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="16"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="16"/>
+      <c r="W57" s="16"/>
       <c r="X57" s="16"/>
-      <c r="Y57" s="8"/>
-      <c r="Z57" s="8"/>
-      <c r="AA57" s="8"/>
-      <c r="AB57" s="8"/>
-      <c r="AC57" s="8"/>
-      <c r="AD57" s="8"/>
-      <c r="AE57" s="8"/>
-      <c r="AF57" s="8"/>
-      <c r="AG57" s="8"/>
-      <c r="AH57" s="8"/>
-      <c r="AI57" s="8"/>
-      <c r="AJ57" s="8"/>
-      <c r="AK57" s="8"/>
-      <c r="AL57" s="8"/>
+      <c r="Y57" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z57" s="16"/>
+      <c r="AA57" s="16"/>
+      <c r="AB57" s="16"/>
+      <c r="AC57" s="16"/>
+      <c r="AD57" s="16"/>
+      <c r="AE57" s="16"/>
+      <c r="AF57" s="16"/>
+      <c r="AG57" s="16"/>
+      <c r="AH57" s="16"/>
+      <c r="AI57" s="16"/>
+      <c r="AJ57" s="16"/>
+      <c r="AK57" s="16"/>
+      <c r="AL57" s="16"/>
+      <c r="AM57" s="16"/>
+      <c r="AN57" s="16"/>
+      <c r="AO57" s="16"/>
+      <c r="AP57" s="16"/>
+      <c r="AQ57" s="16"/>
+      <c r="AR57" s="16"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="17" t="s">
-        <v>26</v>
+      <c r="A58" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>28</v>
@@ -5153,9 +5160,7 @@
       </c>
       <c r="J58" s="16"/>
       <c r="K58" s="16"/>
-      <c r="L58" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="L58" s="16"/>
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
       <c r="O58" s="16"/>
@@ -5190,34 +5195,40 @@
       <c r="AR58" s="16"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="24" t="s">
-        <v>58</v>
+      <c r="A59" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>93</v>
+        <v>206</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>28</v>
+        <v>207</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>28</v>
+        <v>209</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>28</v>
+        <v>210</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c r="H59" s="16"/>
       <c r="I59" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
+        <v>212</v>
+      </c>
+      <c r="J59" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K59" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="L59" s="18" t="s">
+        <v>48</v>
+      </c>
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
       <c r="O59" s="16"/>
@@ -5231,7 +5242,7 @@
       <c r="W59" s="16"/>
       <c r="X59" s="16"/>
       <c r="Y59" s="16" t="s">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="Z59" s="16"/>
       <c r="AA59" s="16"/>
@@ -5254,38 +5265,42 @@
       <c r="AR59" s="16"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="24" t="s">
-        <v>58</v>
+      <c r="A60" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>28</v>
+        <v>215</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="H60" s="16"/>
       <c r="I60" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J60" s="16"/>
+        <v>100</v>
+      </c>
+      <c r="J60" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="K60" s="16"/>
       <c r="L60" s="16"/>
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="16" t="s">
+        <v>216</v>
+      </c>
       <c r="Q60" s="16"/>
       <c r="R60" s="16"/>
       <c r="S60" s="16"/>
@@ -5316,40 +5331,34 @@
       <c r="AR60" s="16"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="25" t="s">
-        <v>209</v>
+      <c r="A61" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>215</v>
+        <v>217</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>190</v>
       </c>
       <c r="H61" s="16"/>
       <c r="I61" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="J61" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K61" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="L61" s="16" t="s">
-        <v>48</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
       <c r="M61" s="16"/>
       <c r="N61" s="16"/>
       <c r="O61" s="16"/>
@@ -5362,9 +5371,7 @@
       <c r="V61" s="16"/>
       <c r="W61" s="16"/>
       <c r="X61" s="16"/>
-      <c r="Y61" s="16" t="s">
-        <v>218</v>
-      </c>
+      <c r="Y61" s="16"/>
       <c r="Z61" s="16"/>
       <c r="AA61" s="16"/>
       <c r="AB61" s="16"/>
@@ -5387,41 +5394,39 @@
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="17" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>97</v>
+        <v>192</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>97</v>
+        <v>195</v>
+      </c>
+      <c r="G62" s="19" t="s">
+        <v>196</v>
       </c>
       <c r="H62" s="16"/>
       <c r="I62" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="J62" s="16" t="s">
-        <v>47</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="J62" s="16"/>
       <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
+      <c r="L62" s="16" t="s">
+        <v>197</v>
+      </c>
       <c r="M62" s="16"/>
       <c r="N62" s="16"/>
-      <c r="O62" s="22"/>
-      <c r="P62" s="16" t="s">
-        <v>220</v>
-      </c>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
       <c r="Q62" s="16"/>
       <c r="R62" s="16"/>
       <c r="S62" s="16"/>
@@ -5453,37 +5458,27 @@
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="17" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="G63" s="18" t="s">
-        <v>194</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
       <c r="H63" s="16"/>
-      <c r="I63" s="16" t="s">
-        <v>195</v>
-      </c>
+      <c r="I63" s="16"/>
       <c r="J63" s="16"/>
       <c r="K63" s="16"/>
       <c r="L63" s="16"/>
       <c r="M63" s="16"/>
       <c r="N63" s="16"/>
       <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
+      <c r="P63" s="16" t="s">
+        <v>218</v>
+      </c>
       <c r="Q63" s="16"/>
       <c r="R63" s="16"/>
       <c r="S63" s="16"/>
@@ -5515,39 +5510,27 @@
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="17" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="G64" s="18" t="s">
-        <v>200</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
       <c r="H64" s="16"/>
-      <c r="I64" s="16" t="s">
-        <v>196</v>
-      </c>
+      <c r="I64" s="16"/>
       <c r="J64" s="16"/>
       <c r="K64" s="16"/>
-      <c r="L64" s="16" t="s">
-        <v>201</v>
-      </c>
+      <c r="L64" s="16"/>
       <c r="M64" s="16"/>
       <c r="N64" s="16"/>
       <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
+      <c r="P64" s="16" t="s">
+        <v>220</v>
+      </c>
       <c r="Q64" s="16"/>
       <c r="R64" s="16"/>
       <c r="S64" s="16"/>
@@ -5579,27 +5562,39 @@
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="17" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
+        <v>198</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
+      <c r="I65" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="J65" s="16"/>
       <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
+      <c r="L65" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="M65" s="16"/>
       <c r="N65" s="16"/>
       <c r="O65" s="16"/>
-      <c r="P65" s="16" t="s">
-        <v>222</v>
-      </c>
+      <c r="P65" s="16"/>
       <c r="Q65" s="16"/>
       <c r="R65" s="16"/>
       <c r="S65" s="16"/>
@@ -5634,7 +5629,7 @@
         <v>59</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
@@ -5650,7 +5645,7 @@
       <c r="N66" s="16"/>
       <c r="O66" s="16"/>
       <c r="P66" s="16" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="Q66" s="16"/>
       <c r="R66" s="16"/>
@@ -5683,39 +5678,27 @@
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="17" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G67" s="18" t="s">
-        <v>28</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
       <c r="H67" s="16"/>
-      <c r="I67" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="I67" s="16"/>
       <c r="J67" s="16"/>
       <c r="K67" s="16"/>
-      <c r="L67" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="L67" s="16"/>
       <c r="M67" s="16"/>
       <c r="N67" s="16"/>
       <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
+      <c r="P67" s="16" t="s">
+        <v>202</v>
+      </c>
       <c r="Q67" s="16"/>
       <c r="R67" s="16"/>
       <c r="S67" s="16"/>
@@ -5799,11 +5782,9 @@
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>205</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B69" s="17"/>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
@@ -5817,9 +5798,7 @@
       <c r="M69" s="16"/>
       <c r="N69" s="16"/>
       <c r="O69" s="16"/>
-      <c r="P69" s="16" t="s">
-        <v>206</v>
-      </c>
+      <c r="P69" s="16"/>
       <c r="Q69" s="16"/>
       <c r="R69" s="16"/>
       <c r="S69" s="16"/>
@@ -5851,11 +5830,9 @@
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>207</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B70" s="17"/>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
@@ -5869,9 +5846,7 @@
       <c r="M70" s="16"/>
       <c r="N70" s="16"/>
       <c r="O70" s="16"/>
-      <c r="P70" s="16" t="s">
-        <v>208</v>
-      </c>
+      <c r="P70" s="16"/>
       <c r="Q70" s="16"/>
       <c r="R70" s="16"/>
       <c r="S70" s="16"/>
@@ -5901,106 +5876,10 @@
       <c r="AQ70" s="16"/>
       <c r="AR70" s="16"/>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B71" s="17"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="16"/>
-      <c r="S71" s="16"/>
-      <c r="T71" s="16"/>
-      <c r="U71" s="16"/>
-      <c r="V71" s="16"/>
-      <c r="W71" s="16"/>
-      <c r="X71" s="16"/>
-      <c r="Y71" s="16"/>
-      <c r="Z71" s="16"/>
-      <c r="AA71" s="16"/>
-      <c r="AB71" s="16"/>
-      <c r="AC71" s="16"/>
-      <c r="AD71" s="16"/>
-      <c r="AE71" s="16"/>
-      <c r="AF71" s="16"/>
-      <c r="AG71" s="16"/>
-      <c r="AH71" s="16"/>
-      <c r="AI71" s="16"/>
-      <c r="AJ71" s="16"/>
-      <c r="AK71" s="16"/>
-      <c r="AL71" s="16"/>
-      <c r="AM71" s="16"/>
-      <c r="AN71" s="16"/>
-      <c r="AO71" s="16"/>
-      <c r="AP71" s="16"/>
-      <c r="AQ71" s="16"/>
-      <c r="AR71" s="16"/>
-    </row>
-    <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B72" s="17"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="16"/>
-      <c r="S72" s="16"/>
-      <c r="T72" s="16"/>
-      <c r="U72" s="16"/>
-      <c r="V72" s="16"/>
-      <c r="W72" s="16"/>
-      <c r="X72" s="16"/>
-      <c r="Y72" s="16"/>
-      <c r="Z72" s="16"/>
-      <c r="AA72" s="16"/>
-      <c r="AB72" s="16"/>
-      <c r="AC72" s="16"/>
-      <c r="AD72" s="16"/>
-      <c r="AE72" s="16"/>
-      <c r="AF72" s="16"/>
-      <c r="AG72" s="16"/>
-      <c r="AH72" s="16"/>
-      <c r="AI72" s="16"/>
-      <c r="AJ72" s="16"/>
-      <c r="AK72" s="16"/>
-      <c r="AL72" s="16"/>
-      <c r="AM72" s="16"/>
-      <c r="AN72" s="16"/>
-      <c r="AO72" s="16"/>
-      <c r="AP72" s="16"/>
-      <c r="AQ72" s="16"/>
-      <c r="AR72" s="16"/>
-    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -6008,11 +5887,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" workbookViewId="0" zoomScale="100">
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6030,13 +5909,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -6076,30 +5955,30 @@
       <c r="Z1" s="8"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="C2" s="27" t="s">
+      <c r="G2" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="H2" s="30"/>
+      <c r="I2" s="20" t="s">
         <v>228</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="20" t="s">
-        <v>232</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -6120,30 +5999,30 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="G3" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="H3" s="30"/>
+      <c r="I3" s="20" t="s">
         <v>235</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="20" t="s">
-        <v>239</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -6164,30 +6043,30 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="F4" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="G4" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="H4" s="30"/>
+      <c r="I4" s="20" t="s">
         <v>243</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="20" t="s">
-        <v>247</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -6208,30 +6087,30 @@
       <c r="Z4" s="8"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="G5" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="H5" s="30"/>
+      <c r="I5" s="20" t="s">
         <v>250</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="20" t="s">
-        <v>254</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -6252,30 +6131,30 @@
       <c r="Z5" s="8"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="G6" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="H6" s="30"/>
+      <c r="I6" s="20" t="s">
         <v>257</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="20" t="s">
-        <v>261</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -6296,30 +6175,30 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="F7" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="G7" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="H7" s="30"/>
+      <c r="I7" s="20" t="s">
         <v>264</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="20" t="s">
-        <v>268</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -6340,30 +6219,30 @@
       <c r="Z7" s="8"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="F8" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="G8" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="H8" s="30"/>
+      <c r="I8" s="20" t="s">
         <v>271</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="20" t="s">
-        <v>275</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -6385,19 +6264,19 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
+        <v>272</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="20"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -6419,29 +6298,29 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="E10" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="F10" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="G10" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="H10" s="30"/>
+      <c r="I10" s="20" t="s">
         <v>282</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="20" t="s">
-        <v>286</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -6463,29 +6342,29 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B11" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="F11" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="G11" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="H11" s="30"/>
+      <c r="I11" s="20" t="s">
         <v>289</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="20" t="s">
-        <v>293</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -6507,29 +6386,29 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B12" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="F12" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="G12" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="H12" s="30"/>
+      <c r="I12" s="20" t="s">
         <v>295</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="20" t="s">
-        <v>299</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -6551,29 +6430,29 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B13" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="F13" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="G13" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="H13" s="30"/>
+      <c r="I13" s="20" t="s">
         <v>302</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>303</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="20" t="s">
-        <v>306</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -6595,29 +6474,29 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="F14" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="G14" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="H14" s="31"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="20" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -6639,29 +6518,29 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B15" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="F15" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="G15" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="H15" s="30"/>
+      <c r="I15" s="20" t="s">
         <v>314</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>317</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="20" t="s">
-        <v>318</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -6682,30 +6561,30 @@
       <c r="Z15" s="8"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="D16" s="28" t="s">
+      <c r="A16" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="H16" s="30"/>
+      <c r="I16" s="20" t="s">
         <v>228</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>320</v>
-      </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="20" t="s">
-        <v>232</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -6726,30 +6605,30 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="E17" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="C17" s="27" t="s">
+      <c r="F17" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="G17" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="H17" s="30"/>
+      <c r="I17" s="20" t="s">
         <v>322</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>324</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="H17" s="31"/>
-      <c r="I17" s="20" t="s">
-        <v>326</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -6773,27 +6652,27 @@
       <c r="A18" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="F18" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="G18" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="H18" s="30"/>
+      <c r="I18" s="20" t="s">
         <v>329</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>332</v>
-      </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="20" t="s">
-        <v>333</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -6817,27 +6696,27 @@
       <c r="A19" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="F19" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="G19" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="H19" s="30"/>
+      <c r="I19" s="20" t="s">
         <v>336</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>338</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="20" t="s">
-        <v>340</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -6861,27 +6740,27 @@
       <c r="A20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="F20" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="G20" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="H20" s="30"/>
+      <c r="I20" s="20" t="s">
         <v>342</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="20" t="s">
-        <v>346</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -6905,27 +6784,27 @@
       <c r="A21" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>327</v>
-      </c>
-      <c r="C21" s="35" t="s">
+      <c r="B21" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="G21" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="H21" s="30"/>
+      <c r="I21" s="20" t="s">
         <v>348</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="H21" s="31"/>
-      <c r="I21" s="20" t="s">
-        <v>352</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -6949,27 +6828,27 @@
       <c r="A22" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="C22" s="35" t="s">
+      <c r="B22" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="G22" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="H22" s="30"/>
+      <c r="I22" s="20" t="s">
         <v>354</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>355</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>357</v>
-      </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="20" t="s">
-        <v>358</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -6993,27 +6872,27 @@
       <c r="A23" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="34" t="s">
-        <v>341</v>
-      </c>
-      <c r="C23" s="35" t="s">
+      <c r="B23" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="G23" s="35" t="s">
         <v>359</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="H23" s="30"/>
+      <c r="I23" s="20" t="s">
         <v>360</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>361</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="G23" s="36" t="s">
-        <v>363</v>
-      </c>
-      <c r="H23" s="31"/>
-      <c r="I23" s="20" t="s">
-        <v>364</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -7034,28 +6913,28 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="37" t="s">
-        <v>365</v>
-      </c>
-      <c r="B24" s="34" t="s">
+      <c r="A24" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="B24" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="D24" s="28" t="s">
+      <c r="C24" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="D24" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H24" s="31"/>
+      <c r="H24" s="30"/>
       <c r="I24" s="20" t="s">
         <v>100</v>
       </c>
@@ -7080,7 +6959,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -7088,11 +6967,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" workbookViewId="0" zoomScale="100">
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7111,19 +6990,19 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="8"/>
@@ -7148,20 +7027,20 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="C2" s="38" t="str">
+        <v>368</v>
+      </c>
+      <c r="C2" s="37" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v xml:space="preserve">2022-01-19 16-22</v>
+        <v xml:space="preserve">2022-08-24 11-44</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -13853,7 +13732,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/config/default/forms/contact/PLACE_TYPE-create.xlsx
+++ b/config/default/forms/contact/PLACE_TYPE-create.xlsx
@@ -368,7 +368,7 @@
     <t>not(selected(../dob_method,'approx'))</t>
   </si>
   <si>
-    <t xml:space="preserve">floor(decimal-date-time(.)) &lt;= floor(decimal-date-time(today()))</t>
+    <t xml:space="preserve">. &lt;= now()</t>
   </si>
   <si>
     <t xml:space="preserve">Date must be before today</t>
@@ -1270,12 +1270,12 @@
     <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="4" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2421,7 +2421,7 @@
         <v>47</v>
       </c>
       <c r="K11" s="16"/>
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="16" t="s">
         <v>48</v>
       </c>
       <c r="M11" s="16"/>
@@ -2609,7 +2609,7 @@
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
-      <c r="P14" s="19" t="s">
+      <c r="P14" s="18" t="s">
         <v>61</v>
       </c>
       <c r="Q14" s="16"/>
@@ -2651,7 +2651,7 @@
       <c r="C15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="16" t="s">
@@ -2717,7 +2717,7 @@
         <v>66</v>
       </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="19"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -2728,8 +2728,8 @@
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19" t="s">
+      <c r="O16" s="18"/>
+      <c r="P16" s="18" t="s">
         <v>67</v>
       </c>
       <c r="Q16" s="16"/>
@@ -2863,7 +2863,7 @@
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
-      <c r="P18" s="19"/>
+      <c r="P18" s="18"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
@@ -2872,7 +2872,7 @@
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
-      <c r="Y18" s="19" t="s">
+      <c r="Y18" s="18" t="s">
         <v>79</v>
       </c>
       <c r="Z18" s="16"/>
@@ -2915,7 +2915,7 @@
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
-      <c r="P19" s="19" t="s">
+      <c r="P19" s="18" t="s">
         <v>81</v>
       </c>
       <c r="Q19" s="16"/>
@@ -2990,7 +2990,7 @@
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
-      <c r="Y20" s="19" t="s">
+      <c r="Y20" s="18" t="s">
         <v>79</v>
       </c>
       <c r="Z20" s="16"/>
@@ -3033,7 +3033,7 @@
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="19" t="s">
+      <c r="P21" s="18" t="s">
         <v>85</v>
       </c>
       <c r="Q21" s="16"/>
@@ -3241,7 +3241,7 @@
       <c r="G25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="20"/>
+      <c r="H25" s="19"/>
       <c r="I25" s="16" t="s">
         <v>28</v>
       </c>
@@ -3305,7 +3305,7 @@
       <c r="G26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="20"/>
+      <c r="H26" s="19"/>
       <c r="I26" s="16" t="s">
         <v>28</v>
       </c>
@@ -3357,7 +3357,7 @@
       <c r="C27" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>97</v>
       </c>
       <c r="E27" s="16" t="s">
@@ -3443,7 +3443,7 @@
       </c>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
-      <c r="R28" s="21" t="s">
+      <c r="R28" s="20" t="s">
         <v>107</v>
       </c>
       <c r="S28" s="16"/>
@@ -3480,8 +3480,8 @@
       <c r="B29" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -3534,8 +3534,8 @@
       <c r="B30" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
@@ -3589,20 +3589,20 @@
       <c r="C31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20" t="s">
+      <c r="H31" s="19"/>
+      <c r="I31" s="19" t="s">
         <v>28</v>
       </c>
       <c r="J31" s="16"/>
@@ -3651,7 +3651,7 @@
       <c r="C32" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
@@ -3665,7 +3665,7 @@
       </c>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="21" t="s">
         <v>117</v>
       </c>
       <c r="O32" s="16" t="s">
@@ -3767,7 +3767,7 @@
       <c r="C34" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D34" s="19"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
@@ -3827,7 +3827,7 @@
       <c r="C35" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D35" s="19"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
@@ -3885,7 +3885,7 @@
       <c r="C36" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="D36" s="19"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
@@ -3893,7 +3893,7 @@
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
-      <c r="L36" s="18" t="s">
+      <c r="L36" s="16" t="s">
         <v>136</v>
       </c>
       <c r="M36" s="16"/>
@@ -3939,7 +3939,7 @@
       <c r="C37" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="19"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -3991,7 +3991,7 @@
         <v>140</v>
       </c>
       <c r="C38" s="16"/>
-      <c r="D38" s="19"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
@@ -4045,7 +4045,7 @@
       <c r="C39" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="19"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
@@ -4099,7 +4099,7 @@
       <c r="C40" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="D40" s="19"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="16"/>
-      <c r="D41" s="19"/>
+      <c r="D41" s="18"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -4362,7 +4362,7 @@
       <c r="K44" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="L44" s="18" t="s">
+      <c r="L44" s="16" t="s">
         <v>136</v>
       </c>
       <c r="M44" s="16"/>
@@ -5226,7 +5226,7 @@
       <c r="K59" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="L59" s="18" t="s">
+      <c r="L59" s="16" t="s">
         <v>48</v>
       </c>
       <c r="M59" s="16"/>
@@ -5274,7 +5274,7 @@
       <c r="C60" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="18" t="s">
         <v>97</v>
       </c>
       <c r="E60" s="16" t="s">
@@ -5349,7 +5349,7 @@
       <c r="F61" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="G61" s="19" t="s">
+      <c r="G61" s="18" t="s">
         <v>190</v>
       </c>
       <c r="H61" s="16"/>
@@ -5411,7 +5411,7 @@
       <c r="F62" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="G62" s="19" t="s">
+      <c r="G62" s="18" t="s">
         <v>196</v>
       </c>
       <c r="H62" s="16"/>
@@ -5579,7 +5579,7 @@
       <c r="F65" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G65" s="19" t="s">
+      <c r="G65" s="18" t="s">
         <v>28</v>
       </c>
       <c r="H65" s="16"/>
@@ -5977,7 +5977,7 @@
         <v>227</v>
       </c>
       <c r="H2" s="30"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>228</v>
       </c>
       <c r="J2" s="8"/>
@@ -6021,7 +6021,7 @@
         <v>234</v>
       </c>
       <c r="H3" s="30"/>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>235</v>
       </c>
       <c r="J3" s="8"/>
@@ -6065,7 +6065,7 @@
         <v>242</v>
       </c>
       <c r="H4" s="30"/>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="19" t="s">
         <v>243</v>
       </c>
       <c r="J4" s="8"/>
@@ -6109,7 +6109,7 @@
         <v>249</v>
       </c>
       <c r="H5" s="30"/>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="19" t="s">
         <v>250</v>
       </c>
       <c r="J5" s="8"/>
@@ -6153,7 +6153,7 @@
         <v>256</v>
       </c>
       <c r="H6" s="30"/>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="19" t="s">
         <v>257</v>
       </c>
       <c r="J6" s="8"/>
@@ -6197,7 +6197,7 @@
         <v>263</v>
       </c>
       <c r="H7" s="30"/>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="19" t="s">
         <v>264</v>
       </c>
       <c r="J7" s="8"/>
@@ -6241,7 +6241,7 @@
         <v>270</v>
       </c>
       <c r="H8" s="30"/>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="19" t="s">
         <v>271</v>
       </c>
       <c r="J8" s="8"/>
@@ -6277,7 +6277,7 @@
       <c r="F9" s="28"/>
       <c r="G9" s="29"/>
       <c r="H9" s="30"/>
-      <c r="I9" s="20"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -6319,7 +6319,7 @@
         <v>281</v>
       </c>
       <c r="H10" s="30"/>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="19" t="s">
         <v>282</v>
       </c>
       <c r="J10" s="8"/>
@@ -6363,7 +6363,7 @@
         <v>288</v>
       </c>
       <c r="H11" s="30"/>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="19" t="s">
         <v>289</v>
       </c>
       <c r="J11" s="8"/>
@@ -6407,7 +6407,7 @@
         <v>292</v>
       </c>
       <c r="H12" s="30"/>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="19" t="s">
         <v>295</v>
       </c>
       <c r="J12" s="8"/>
@@ -6451,7 +6451,7 @@
         <v>301</v>
       </c>
       <c r="H13" s="30"/>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="19" t="s">
         <v>302</v>
       </c>
       <c r="J13" s="8"/>
@@ -6495,7 +6495,7 @@
         <v>308</v>
       </c>
       <c r="H14" s="30"/>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="19" t="s">
         <v>304</v>
       </c>
       <c r="J14" s="8"/>
@@ -6539,7 +6539,7 @@
         <v>311</v>
       </c>
       <c r="H15" s="30"/>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="19" t="s">
         <v>314</v>
       </c>
       <c r="J15" s="8"/>
@@ -6583,7 +6583,7 @@
         <v>316</v>
       </c>
       <c r="H16" s="30"/>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="19" t="s">
         <v>228</v>
       </c>
       <c r="J16" s="8"/>
@@ -6627,7 +6627,7 @@
         <v>321</v>
       </c>
       <c r="H17" s="30"/>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="19" t="s">
         <v>322</v>
       </c>
       <c r="J17" s="8"/>
@@ -6671,7 +6671,7 @@
         <v>328</v>
       </c>
       <c r="H18" s="30"/>
-      <c r="I18" s="20" t="s">
+      <c r="I18" s="19" t="s">
         <v>329</v>
       </c>
       <c r="J18" s="8"/>
@@ -6715,7 +6715,7 @@
         <v>335</v>
       </c>
       <c r="H19" s="30"/>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="19" t="s">
         <v>336</v>
       </c>
       <c r="J19" s="8"/>
@@ -6759,7 +6759,7 @@
         <v>339</v>
       </c>
       <c r="H20" s="30"/>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="19" t="s">
         <v>342</v>
       </c>
       <c r="J20" s="8"/>
@@ -6803,7 +6803,7 @@
         <v>347</v>
       </c>
       <c r="H21" s="30"/>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="19" t="s">
         <v>348</v>
       </c>
       <c r="J21" s="8"/>
@@ -6847,7 +6847,7 @@
         <v>353</v>
       </c>
       <c r="H22" s="30"/>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="19" t="s">
         <v>354</v>
       </c>
       <c r="J22" s="8"/>
@@ -6891,7 +6891,7 @@
         <v>359</v>
       </c>
       <c r="H23" s="30"/>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="19" t="s">
         <v>360</v>
       </c>
       <c r="J23" s="8"/>
@@ -6935,7 +6935,7 @@
         <v>97</v>
       </c>
       <c r="H24" s="30"/>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="19" t="s">
         <v>100</v>
       </c>
       <c r="J24" s="8"/>
@@ -7034,7 +7034,7 @@
       </c>
       <c r="C2" s="37" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v xml:space="preserve">2022-08-24 11-44</v>
+        <v xml:space="preserve">2022-09-26 12-17</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>369</v>

--- a/config/default/forms/contact/PLACE_TYPE-create.xlsx
+++ b/config/default/forms/contact/PLACE_TYPE-create.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="375">
   <si>
     <t>type</t>
   </si>
@@ -161,7 +161,7 @@
     <t>yes</t>
   </si>
   <si>
-    <t>columns-pack</t>
+    <t>horizontal-compact</t>
   </si>
   <si>
     <t>db:person</t>
@@ -425,7 +425,19 @@
     <t>DELETE_THIS_LINE</t>
   </si>
   <si>
-    <t>columns</t>
+    <t>horizontal</t>
+  </si>
+  <si>
+    <t>ephemeral_months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if(format-date-time(today(),"%m") - ../age_months &lt; 0, format-date-time(today(),"%m") - ../age_months + 12, format-date-time(today(),"%m") - ../age_months)</t>
+  </si>
+  <si>
+    <t>ephemeral_years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if(format-date-time(today(),"%m") - ../age_months &lt; 0, format-date-time(today(),"%Y") - ../age_years - 1, format-date-time(today(),"%Y") -../age_years)</t>
   </si>
   <si>
     <t>dob_approx</t>
@@ -434,7 +446,7 @@
     <t>DOB</t>
   </si>
   <si>
-    <t xml:space="preserve">add-date(today(), 0-${age_years}, 0-${age_months})</t>
+    <t xml:space="preserve">concat(string(${ephemeral_years}),'-',if(${ephemeral_months}&lt;10, concat('0',string(${ephemeral_months})), ${ephemeral_months}),'-',string(format-date-time(today(), "%d")))</t>
   </si>
   <si>
     <t>dob_raw</t>
@@ -454,7 +466,9 @@
     <t>dob_debug</t>
   </si>
   <si>
-    <t xml:space="preserve">DOB Approx: ${dob_approx}
+    <t xml:space="preserve">Months: ${ephemeral_months}
+Year: ${ephemeral_years}
+DOB Approx: ${dob_approx}
 DOB Calendar: ${dob_calendar}
 DOB ISO: ${dob_iso}</t>
   </si>
@@ -1137,11 +1151,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <name val="Calibri"/>
-      <color theme="1"/>
+      <color indexed="64"/>
       <sz val="11.000000"/>
     </font>
     <font>
@@ -1151,6 +1165,7 @@
     <font>
       <name val="Calibri"/>
       <b/>
+      <color indexed="64"/>
       <sz val="11.000000"/>
     </font>
     <font>
@@ -1159,6 +1174,7 @@
     </font>
     <font>
       <name val="Arial"/>
+      <color indexed="64"/>
       <sz val="11.000000"/>
     </font>
   </fonts>
@@ -1247,7 +1263,7 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1270,10 +1286,10 @@
     <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="4" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1285,6 +1301,7 @@
     <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1742,12 +1759,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" zoomScale="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
       <selection activeCell="P39" activeCellId="0" sqref="P39"/>
     </sheetView>
   </sheetViews>
@@ -2421,7 +2438,7 @@
         <v>47</v>
       </c>
       <c r="K11" s="16"/>
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="16" t="s">
         <v>48</v>
       </c>
       <c r="M11" s="16"/>
@@ -2609,7 +2626,7 @@
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
-      <c r="P14" s="19" t="s">
+      <c r="P14" s="18" t="s">
         <v>61</v>
       </c>
       <c r="Q14" s="16"/>
@@ -2651,7 +2668,7 @@
       <c r="C15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="16" t="s">
@@ -2668,7 +2685,7 @@
         <v>28</v>
       </c>
       <c r="J15" s="16"/>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="19" t="s">
         <v>64</v>
       </c>
       <c r="L15" s="16" t="s">
@@ -2717,7 +2734,7 @@
         <v>66</v>
       </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="19"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -2728,8 +2745,8 @@
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19" t="s">
+      <c r="O16" s="18"/>
+      <c r="P16" s="18" t="s">
         <v>67</v>
       </c>
       <c r="Q16" s="16"/>
@@ -2790,7 +2807,7 @@
       <c r="J17" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="19" t="s">
         <v>64</v>
       </c>
       <c r="L17" s="16"/>
@@ -2863,7 +2880,7 @@
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
-      <c r="P18" s="19"/>
+      <c r="P18" s="18"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
@@ -2872,7 +2889,7 @@
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
-      <c r="Y18" s="19" t="s">
+      <c r="Y18" s="18" t="s">
         <v>79</v>
       </c>
       <c r="Z18" s="16"/>
@@ -2915,7 +2932,7 @@
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
-      <c r="P19" s="19" t="s">
+      <c r="P19" s="18" t="s">
         <v>81</v>
       </c>
       <c r="Q19" s="16"/>
@@ -2990,7 +3007,7 @@
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
-      <c r="Y20" s="19" t="s">
+      <c r="Y20" s="18" t="s">
         <v>79</v>
       </c>
       <c r="Z20" s="16"/>
@@ -3033,7 +3050,7 @@
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="19" t="s">
+      <c r="P21" s="18" t="s">
         <v>85</v>
       </c>
       <c r="Q21" s="16"/>
@@ -3357,7 +3374,7 @@
       <c r="C27" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>97</v>
       </c>
       <c r="E27" s="16" t="s">
@@ -3481,7 +3498,7 @@
         <v>108</v>
       </c>
       <c r="C29" s="20"/>
-      <c r="D29" s="19"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -3535,7 +3552,7 @@
         <v>110</v>
       </c>
       <c r="C30" s="20"/>
-      <c r="D30" s="19"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
@@ -3651,7 +3668,7 @@
       <c r="C32" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
@@ -3767,7 +3784,7 @@
       <c r="C34" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D34" s="19"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
@@ -3827,7 +3844,7 @@
       <c r="C35" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D35" s="19"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
@@ -3885,7 +3902,7 @@
       <c r="C36" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="D36" s="19"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
@@ -3893,7 +3910,7 @@
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
-      <c r="L36" s="18" t="s">
+      <c r="L36" s="16" t="s">
         <v>136</v>
       </c>
       <c r="M36" s="16"/>
@@ -3936,10 +3953,8 @@
       <c r="B37" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" s="19"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -3952,7 +3967,7 @@
       <c r="N37" s="16"/>
       <c r="O37" s="16"/>
       <c r="P37" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
@@ -3988,10 +4003,10 @@
         <v>59</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C38" s="16"/>
-      <c r="D38" s="19"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
@@ -4003,8 +4018,8 @@
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
-      <c r="P38" s="22" t="s">
-        <v>141</v>
+      <c r="P38" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="Q38" s="16"/>
       <c r="R38" s="16"/>
@@ -4040,12 +4055,12 @@
         <v>59</v>
       </c>
       <c r="B39" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39" s="19"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
@@ -4091,30 +4106,27 @@
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="17" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D40" s="19"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
-      <c r="K40" s="16" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
+      <c r="K40" s="16"/>
       <c r="L40" s="16"/>
       <c r="M40" s="16"/>
       <c r="N40" s="16"/>
       <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
+      <c r="P40" s="22" t="s">
+        <v>145</v>
+      </c>
       <c r="Q40" s="16"/>
       <c r="R40" s="16"/>
       <c r="S40" s="16"/>
@@ -4146,11 +4158,15 @@
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="19"/>
+        <v>59</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="18"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -4162,7 +4178,9 @@
       <c r="M41" s="16"/>
       <c r="N41" s="16"/>
       <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
+      <c r="P41" s="16" t="s">
+        <v>147</v>
+      </c>
       <c r="Q41" s="16"/>
       <c r="R41" s="16"/>
       <c r="S41" s="16"/>
@@ -4194,43 +4212,29 @@
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="17" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C42" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="C42" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="E42" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>152</v>
-      </c>
+      <c r="D42" s="18"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
       <c r="H42" s="16"/>
-      <c r="I42" s="16" t="s">
-        <v>153</v>
-      </c>
+      <c r="I42" s="16"/>
       <c r="J42" s="16"/>
-      <c r="K42" s="16" t="s">
-        <v>92</v>
+      <c r="K42" s="16">
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
-      <c r="N42" s="23" t="b">
-        <f t="shared" ref="N42:N43" si="0">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O42" s="16" t="s">
-        <v>154</v>
-      </c>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
       <c r="P42" s="16"/>
       <c r="Q42" s="16"/>
       <c r="R42" s="16"/>
@@ -4263,43 +4267,22 @@
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>160</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
       <c r="H43" s="16"/>
-      <c r="I43" s="16" t="s">
-        <v>161</v>
-      </c>
+      <c r="I43" s="16"/>
       <c r="J43" s="16"/>
-      <c r="K43" s="16" t="s">
-        <v>92</v>
-      </c>
+      <c r="K43" s="16"/>
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
-      <c r="N43" s="23" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O43" s="16" t="s">
-        <v>154</v>
-      </c>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
       <c r="P43" s="16"/>
       <c r="Q43" s="16"/>
       <c r="R43" s="16"/>
@@ -4332,42 +4315,43 @@
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="17" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="H44" s="16"/>
       <c r="I44" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="J44" s="16" t="s">
-        <v>47</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="J44" s="16"/>
       <c r="K44" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="L44" s="18" t="s">
-        <v>136</v>
-      </c>
+      <c r="L44" s="16"/>
       <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
+      <c r="N44" s="23">
+        <f t="shared" ref="N44:N45" si="0">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O44" s="16" t="s">
+        <v>158</v>
+      </c>
       <c r="P44" s="16"/>
       <c r="Q44" s="16"/>
       <c r="R44" s="16"/>
@@ -4400,29 +4384,29 @@
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="17" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="H45" s="16"/>
       <c r="I45" s="16" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J45" s="16"/>
       <c r="K45" s="16" t="s">
@@ -4430,8 +4414,13 @@
       </c>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
+      <c r="N45" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O45" s="16" t="s">
+        <v>158</v>
+      </c>
       <c r="P45" s="16"/>
       <c r="Q45" s="16"/>
       <c r="R45" s="16"/>
@@ -4464,37 +4453,39 @@
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="17" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="H46" s="16"/>
       <c r="I46" s="16" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="J46" s="16" t="s">
         <v>47</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="L46" s="16"/>
+        <v>92</v>
+      </c>
+      <c r="L46" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="M46" s="16"/>
       <c r="N46" s="16"/>
       <c r="O46" s="16"/>
@@ -4530,29 +4521,29 @@
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="17" t="s">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="H47" s="16"/>
       <c r="I47" s="16" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="J47" s="16"/>
       <c r="K47" s="16" t="s">
@@ -4597,34 +4588,34 @@
         <v>30</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="H48" s="16"/>
       <c r="I48" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="J48" s="16"/>
+        <v>187</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="K48" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="L48" s="16" t="s">
-        <v>197</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="L48" s="16"/>
       <c r="M48" s="16"/>
       <c r="N48" s="16"/>
       <c r="O48" s="16"/>
@@ -4660,25 +4651,35 @@
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
+        <v>190</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>194</v>
+      </c>
       <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
+      <c r="I49" s="16" t="s">
+        <v>195</v>
+      </c>
       <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="K49" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L49" s="16"/>
       <c r="M49" s="16"/>
       <c r="N49" s="16"/>
       <c r="O49" s="16"/>
@@ -4714,27 +4715,41 @@
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="17" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B50" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="F50" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
+      <c r="G50" s="16" t="s">
+        <v>200</v>
+      </c>
       <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
+      <c r="I50" s="16" t="s">
+        <v>196</v>
+      </c>
       <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
+      <c r="K50" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L50" s="16" t="s">
+        <v>201</v>
+      </c>
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
       <c r="O50" s="16"/>
-      <c r="P50" s="16" t="s">
-        <v>200</v>
-      </c>
+      <c r="P50" s="16"/>
       <c r="Q50" s="16"/>
       <c r="R50" s="16"/>
       <c r="S50" s="16"/>
@@ -4766,12 +4781,14 @@
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="17" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="C51" s="16"/>
+        <v>202</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
@@ -4780,13 +4797,13 @@
       <c r="I51" s="16"/>
       <c r="J51" s="16"/>
       <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
+      <c r="L51" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
       <c r="O51" s="16"/>
-      <c r="P51" s="16" t="s">
-        <v>202</v>
-      </c>
+      <c r="P51" s="16"/>
       <c r="Q51" s="16"/>
       <c r="R51" s="16"/>
       <c r="S51" s="16"/>
@@ -4870,9 +4887,11 @@
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" s="17"/>
+        <v>59</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>205</v>
+      </c>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
@@ -4886,7 +4905,9 @@
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
       <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
+      <c r="P53" s="16" t="s">
+        <v>206</v>
+      </c>
       <c r="Q53" s="16"/>
       <c r="R53" s="16"/>
       <c r="S53" s="16"/>
@@ -4918,9 +4939,11 @@
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" s="17"/>
+        <v>59</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>207</v>
+      </c>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
@@ -4934,7 +4957,9 @@
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
       <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
+      <c r="P54" s="16" t="s">
+        <v>208</v>
+      </c>
       <c r="Q54" s="16"/>
       <c r="R54" s="16"/>
       <c r="S54" s="16"/>
@@ -4965,76 +4990,68 @@
       <c r="AR54" s="16"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="15"/>
+      <c r="A55" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="17"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
       <c r="I55" s="16"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="12"/>
-      <c r="U55" s="13"/>
-      <c r="V55" s="14"/>
-      <c r="W55" s="15"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="16"/>
+      <c r="W55" s="16"/>
       <c r="X55" s="16"/>
-      <c r="Y55" s="8"/>
-      <c r="Z55" s="8"/>
-      <c r="AA55" s="8"/>
-      <c r="AB55" s="8"/>
-      <c r="AC55" s="8"/>
-      <c r="AD55" s="8"/>
-      <c r="AE55" s="8"/>
-      <c r="AF55" s="8"/>
-      <c r="AG55" s="8"/>
-      <c r="AH55" s="8"/>
-      <c r="AI55" s="8"/>
-      <c r="AJ55" s="8"/>
-      <c r="AK55" s="8"/>
-      <c r="AL55" s="8"/>
+      <c r="Y55" s="16"/>
+      <c r="Z55" s="16"/>
+      <c r="AA55" s="16"/>
+      <c r="AB55" s="16"/>
+      <c r="AC55" s="16"/>
+      <c r="AD55" s="16"/>
+      <c r="AE55" s="16"/>
+      <c r="AF55" s="16"/>
+      <c r="AG55" s="16"/>
+      <c r="AH55" s="16"/>
+      <c r="AI55" s="16"/>
+      <c r="AJ55" s="16"/>
+      <c r="AK55" s="16"/>
+      <c r="AL55" s="16"/>
+      <c r="AM55" s="16"/>
+      <c r="AN55" s="16"/>
+      <c r="AO55" s="16"/>
+      <c r="AP55" s="16"/>
+      <c r="AQ55" s="16"/>
+      <c r="AR55" s="16"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G56" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B56" s="17"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
       <c r="H56" s="16"/>
-      <c r="I56" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="I56" s="16"/>
       <c r="J56" s="16"/>
       <c r="K56" s="16"/>
-      <c r="L56" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="L56" s="16"/>
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
       <c r="O56" s="16"/>
@@ -5069,75 +5086,51 @@
       <c r="AR56" s="16"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="16"/>
-      <c r="S57" s="16"/>
-      <c r="T57" s="16"/>
-      <c r="U57" s="16"/>
-      <c r="V57" s="16"/>
-      <c r="W57" s="16"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="13"/>
+      <c r="V57" s="14"/>
+      <c r="W57" s="15"/>
       <c r="X57" s="16"/>
-      <c r="Y57" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z57" s="16"/>
-      <c r="AA57" s="16"/>
-      <c r="AB57" s="16"/>
-      <c r="AC57" s="16"/>
-      <c r="AD57" s="16"/>
-      <c r="AE57" s="16"/>
-      <c r="AF57" s="16"/>
-      <c r="AG57" s="16"/>
-      <c r="AH57" s="16"/>
-      <c r="AI57" s="16"/>
-      <c r="AJ57" s="16"/>
-      <c r="AK57" s="16"/>
-      <c r="AL57" s="16"/>
-      <c r="AM57" s="16"/>
-      <c r="AN57" s="16"/>
-      <c r="AO57" s="16"/>
-      <c r="AP57" s="16"/>
-      <c r="AQ57" s="16"/>
-      <c r="AR57" s="16"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="8"/>
+      <c r="AC57" s="8"/>
+      <c r="AD57" s="8"/>
+      <c r="AE57" s="8"/>
+      <c r="AF57" s="8"/>
+      <c r="AG57" s="8"/>
+      <c r="AH57" s="8"/>
+      <c r="AI57" s="8"/>
+      <c r="AJ57" s="8"/>
+      <c r="AK57" s="8"/>
+      <c r="AL57" s="8"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="24" t="s">
-        <v>58</v>
+      <c r="A58" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>28</v>
@@ -5160,7 +5153,9 @@
       </c>
       <c r="J58" s="16"/>
       <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
+      <c r="L58" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
       <c r="O58" s="16"/>
@@ -5195,40 +5190,34 @@
       <c r="AR58" s="16"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="17" t="s">
-        <v>205</v>
+      <c r="A59" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>206</v>
+        <v>93</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>207</v>
+        <v>28</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>208</v>
+        <v>28</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>209</v>
+        <v>28</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>210</v>
+        <v>28</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c r="H59" s="16"/>
       <c r="I59" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="J59" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K59" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="L59" s="18" t="s">
-        <v>48</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
       <c r="O59" s="16"/>
@@ -5242,7 +5231,7 @@
       <c r="W59" s="16"/>
       <c r="X59" s="16"/>
       <c r="Y59" s="16" t="s">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="Z59" s="16"/>
       <c r="AA59" s="16"/>
@@ -5265,42 +5254,38 @@
       <c r="AR59" s="16"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="17" t="s">
-        <v>59</v>
+      <c r="A60" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>97</v>
+        <v>28</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="H60" s="16"/>
       <c r="I60" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="J60" s="16" t="s">
-        <v>47</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="J60" s="16"/>
       <c r="K60" s="16"/>
       <c r="L60" s="16"/>
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
-      <c r="O60" s="22"/>
-      <c r="P60" s="16" t="s">
-        <v>216</v>
-      </c>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
       <c r="Q60" s="16"/>
       <c r="R60" s="16"/>
       <c r="S60" s="16"/>
@@ -5331,34 +5316,40 @@
       <c r="AR60" s="16"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="17" t="s">
-        <v>30</v>
+      <c r="A61" s="25" t="s">
+        <v>209</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="G61" s="19" t="s">
-        <v>190</v>
+        <v>214</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="H61" s="16"/>
       <c r="I61" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
+        <v>216</v>
+      </c>
+      <c r="J61" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K61" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="L61" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="M61" s="16"/>
       <c r="N61" s="16"/>
       <c r="O61" s="16"/>
@@ -5371,7 +5362,9 @@
       <c r="V61" s="16"/>
       <c r="W61" s="16"/>
       <c r="X61" s="16"/>
-      <c r="Y61" s="16"/>
+      <c r="Y61" s="16" t="s">
+        <v>218</v>
+      </c>
       <c r="Z61" s="16"/>
       <c r="AA61" s="16"/>
       <c r="AB61" s="16"/>
@@ -5394,39 +5387,41 @@
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="17" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>193</v>
+        <v>219</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="G62" s="19" t="s">
-        <v>196</v>
+        <v>99</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="H62" s="16"/>
       <c r="I62" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="J62" s="16"/>
+        <v>100</v>
+      </c>
+      <c r="J62" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="K62" s="16"/>
-      <c r="L62" s="16" t="s">
-        <v>197</v>
-      </c>
+      <c r="L62" s="16"/>
       <c r="M62" s="16"/>
       <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="16" t="s">
+        <v>220</v>
+      </c>
       <c r="Q62" s="16"/>
       <c r="R62" s="16"/>
       <c r="S62" s="16"/>
@@ -5458,27 +5453,37 @@
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="17" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
+        <v>189</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>194</v>
+      </c>
       <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
+      <c r="I63" s="16" t="s">
+        <v>195</v>
+      </c>
       <c r="J63" s="16"/>
       <c r="K63" s="16"/>
       <c r="L63" s="16"/>
       <c r="M63" s="16"/>
       <c r="N63" s="16"/>
       <c r="O63" s="16"/>
-      <c r="P63" s="16" t="s">
-        <v>218</v>
-      </c>
+      <c r="P63" s="16"/>
       <c r="Q63" s="16"/>
       <c r="R63" s="16"/>
       <c r="S63" s="16"/>
@@ -5510,27 +5515,39 @@
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="17" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>200</v>
+      </c>
       <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
+      <c r="I64" s="16" t="s">
+        <v>196</v>
+      </c>
       <c r="J64" s="16"/>
       <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
+      <c r="L64" s="16" t="s">
+        <v>201</v>
+      </c>
       <c r="M64" s="16"/>
       <c r="N64" s="16"/>
       <c r="O64" s="16"/>
-      <c r="P64" s="16" t="s">
-        <v>220</v>
-      </c>
+      <c r="P64" s="16"/>
       <c r="Q64" s="16"/>
       <c r="R64" s="16"/>
       <c r="S64" s="16"/>
@@ -5562,39 +5579,27 @@
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="17" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F65" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G65" s="19" t="s">
-        <v>28</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
       <c r="H65" s="16"/>
-      <c r="I65" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="I65" s="16"/>
       <c r="J65" s="16"/>
       <c r="K65" s="16"/>
-      <c r="L65" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="L65" s="16"/>
       <c r="M65" s="16"/>
       <c r="N65" s="16"/>
       <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
+      <c r="P65" s="16" t="s">
+        <v>222</v>
+      </c>
       <c r="Q65" s="16"/>
       <c r="R65" s="16"/>
       <c r="S65" s="16"/>
@@ -5629,7 +5634,7 @@
         <v>59</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
@@ -5645,7 +5650,7 @@
       <c r="N66" s="16"/>
       <c r="O66" s="16"/>
       <c r="P66" s="16" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="Q66" s="16"/>
       <c r="R66" s="16"/>
@@ -5678,27 +5683,39 @@
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="17" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
+        <v>202</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>28</v>
+      </c>
       <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
+      <c r="I67" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="J67" s="16"/>
       <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
+      <c r="L67" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="M67" s="16"/>
       <c r="N67" s="16"/>
       <c r="O67" s="16"/>
-      <c r="P67" s="16" t="s">
-        <v>202</v>
-      </c>
+      <c r="P67" s="16"/>
       <c r="Q67" s="16"/>
       <c r="R67" s="16"/>
       <c r="S67" s="16"/>
@@ -5782,9 +5799,11 @@
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B69" s="17"/>
+        <v>59</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>205</v>
+      </c>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
@@ -5798,7 +5817,9 @@
       <c r="M69" s="16"/>
       <c r="N69" s="16"/>
       <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
+      <c r="P69" s="16" t="s">
+        <v>206</v>
+      </c>
       <c r="Q69" s="16"/>
       <c r="R69" s="16"/>
       <c r="S69" s="16"/>
@@ -5830,9 +5851,11 @@
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B70" s="17"/>
+        <v>59</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>207</v>
+      </c>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
@@ -5846,7 +5869,9 @@
       <c r="M70" s="16"/>
       <c r="N70" s="16"/>
       <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
+      <c r="P70" s="16" t="s">
+        <v>208</v>
+      </c>
       <c r="Q70" s="16"/>
       <c r="R70" s="16"/>
       <c r="S70" s="16"/>
@@ -5876,10 +5901,106 @@
       <c r="AQ70" s="16"/>
       <c r="AR70" s="16"/>
     </row>
+    <row r="71" ht="14.25" customHeight="1">
+      <c r="A71" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="17"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="16"/>
+      <c r="W71" s="16"/>
+      <c r="X71" s="16"/>
+      <c r="Y71" s="16"/>
+      <c r="Z71" s="16"/>
+      <c r="AA71" s="16"/>
+      <c r="AB71" s="16"/>
+      <c r="AC71" s="16"/>
+      <c r="AD71" s="16"/>
+      <c r="AE71" s="16"/>
+      <c r="AF71" s="16"/>
+      <c r="AG71" s="16"/>
+      <c r="AH71" s="16"/>
+      <c r="AI71" s="16"/>
+      <c r="AJ71" s="16"/>
+      <c r="AK71" s="16"/>
+      <c r="AL71" s="16"/>
+      <c r="AM71" s="16"/>
+      <c r="AN71" s="16"/>
+      <c r="AO71" s="16"/>
+      <c r="AP71" s="16"/>
+      <c r="AQ71" s="16"/>
+      <c r="AR71" s="16"/>
+    </row>
+    <row r="72" ht="14.25" customHeight="1">
+      <c r="A72" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" s="17"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="16"/>
+      <c r="S72" s="16"/>
+      <c r="T72" s="16"/>
+      <c r="U72" s="16"/>
+      <c r="V72" s="16"/>
+      <c r="W72" s="16"/>
+      <c r="X72" s="16"/>
+      <c r="Y72" s="16"/>
+      <c r="Z72" s="16"/>
+      <c r="AA72" s="16"/>
+      <c r="AB72" s="16"/>
+      <c r="AC72" s="16"/>
+      <c r="AD72" s="16"/>
+      <c r="AE72" s="16"/>
+      <c r="AF72" s="16"/>
+      <c r="AG72" s="16"/>
+      <c r="AH72" s="16"/>
+      <c r="AI72" s="16"/>
+      <c r="AJ72" s="16"/>
+      <c r="AK72" s="16"/>
+      <c r="AL72" s="16"/>
+      <c r="AM72" s="16"/>
+      <c r="AN72" s="16"/>
+      <c r="AO72" s="16"/>
+      <c r="AP72" s="16"/>
+      <c r="AQ72" s="16"/>
+      <c r="AR72" s="16"/>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -5887,11 +6008,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" zoomScale="100" workbookViewId="0">
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" workbookViewId="0" zoomScale="100">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5909,13 +6030,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -5955,30 +6076,30 @@
       <c r="Z1" s="8"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>224</v>
+      <c r="A2" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>228</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="H2" s="30"/>
+        <v>229</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2" s="31"/>
       <c r="I2" s="20" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -5999,30 +6120,30 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>231</v>
+      <c r="A3" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>235</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="H3" s="30"/>
+        <v>236</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="H3" s="31"/>
       <c r="I3" s="20" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -6043,30 +6164,30 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="E4" s="32" t="s">
+      <c r="A4" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="C4" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="H4" s="30"/>
+      <c r="D4" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="H4" s="31"/>
       <c r="I4" s="20" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -6087,30 +6208,30 @@
       <c r="Z4" s="8"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="F5" s="28" t="s">
+      <c r="A5" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="C5" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="H5" s="30"/>
+      <c r="D5" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="H5" s="31"/>
       <c r="I5" s="20" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -6131,30 +6252,30 @@
       <c r="Z5" s="8"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="F6" s="28" t="s">
+      <c r="B6" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="C6" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="H6" s="30"/>
+      <c r="D6" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="H6" s="31"/>
       <c r="I6" s="20" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -6175,30 +6296,30 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="F7" s="28" t="s">
+      <c r="B7" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="C7" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="H7" s="30"/>
+      <c r="D7" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="H7" s="31"/>
       <c r="I7" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -6219,30 +6340,30 @@
       <c r="Z7" s="8"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="F8" s="28" t="s">
+      <c r="B8" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="C8" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="H8" s="30"/>
+      <c r="D8" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="H8" s="31"/>
       <c r="I8" s="20" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -6264,19 +6385,19 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
+        <v>276</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
       <c r="I9" s="20"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -6298,29 +6419,29 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="E10" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="B10" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="C10" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="H10" s="30"/>
+      <c r="D10" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="H10" s="31"/>
       <c r="I10" s="20" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -6342,29 +6463,29 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="F11" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="C11" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="H11" s="30"/>
+      <c r="D11" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="H11" s="31"/>
       <c r="I11" s="20" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -6386,29 +6507,29 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="F12" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="G12" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="H12" s="30"/>
+      <c r="C12" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="H12" s="31"/>
       <c r="I12" s="20" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -6430,29 +6551,29 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="F13" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="C13" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="H13" s="30"/>
+      <c r="D13" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H13" s="31"/>
       <c r="I13" s="20" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -6474,29 +6595,29 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="G14" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="H14" s="30"/>
+      <c r="D14" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="H14" s="31"/>
       <c r="I14" s="20" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -6518,29 +6639,29 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>310</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="F15" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="B15" s="34" t="s">
         <v>313</v>
       </c>
-      <c r="G15" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="H15" s="30"/>
+      <c r="C15" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="H15" s="31"/>
       <c r="I15" s="20" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -6561,30 +6682,30 @@
       <c r="Z15" s="8"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>224</v>
+      <c r="A16" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>228</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="H16" s="30"/>
+        <v>229</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="H16" s="31"/>
       <c r="I16" s="20" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -6605,30 +6726,30 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="E17" s="32" t="s">
+      <c r="A17" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="F17" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="G17" s="29" t="s">
+      <c r="B17" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="H17" s="30"/>
+      <c r="D17" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="H17" s="31"/>
       <c r="I17" s="20" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -6652,27 +6773,27 @@
       <c r="A18" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>324</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="F18" s="28" t="s">
+      <c r="B18" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="C18" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="H18" s="30"/>
+      <c r="D18" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="H18" s="31"/>
       <c r="I18" s="20" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -6696,27 +6817,27 @@
       <c r="A19" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>331</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="F19" s="28" t="s">
+      <c r="B19" s="34" t="s">
         <v>334</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="C19" s="35" t="s">
         <v>335</v>
       </c>
-      <c r="H19" s="30"/>
+      <c r="D19" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="H19" s="31"/>
       <c r="I19" s="20" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -6740,27 +6861,27 @@
       <c r="A20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>340</v>
-      </c>
-      <c r="F20" s="28" t="s">
+      <c r="B20" s="34" t="s">
         <v>341</v>
       </c>
-      <c r="G20" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="H20" s="30"/>
+      <c r="C20" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="H20" s="31"/>
       <c r="I20" s="20" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -6784,27 +6905,27 @@
       <c r="A21" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="G21" s="29" t="s">
+      <c r="B21" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="C21" s="35" t="s">
         <v>347</v>
       </c>
-      <c r="H21" s="30"/>
+      <c r="D21" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="H21" s="31"/>
       <c r="I21" s="20" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -6828,27 +6949,27 @@
       <c r="A22" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>351</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>352</v>
-      </c>
-      <c r="G22" s="29" t="s">
+      <c r="B22" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="H22" s="30"/>
+      <c r="D22" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="H22" s="31"/>
       <c r="I22" s="20" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -6872,27 +6993,27 @@
       <c r="A23" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>355</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>357</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>358</v>
-      </c>
-      <c r="G23" s="35" t="s">
+      <c r="B23" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="C23" s="35" t="s">
         <v>359</v>
       </c>
-      <c r="H23" s="30"/>
+      <c r="D23" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="H23" s="31"/>
       <c r="I23" s="20" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -6913,28 +7034,28 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="B24" s="33" t="s">
+      <c r="A24" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="B24" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="D24" s="27" t="s">
+      <c r="C24" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D24" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H24" s="30"/>
+      <c r="H24" s="31"/>
       <c r="I24" s="20" t="s">
         <v>100</v>
       </c>
@@ -6959,7 +7080,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -6967,11 +7088,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" zoomScale="100" workbookViewId="0">
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" workbookViewId="0" zoomScale="100">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6990,19 +7111,19 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="8"/>
@@ -7027,20 +7148,20 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="C2" s="37" t="str">
+        <v>372</v>
+      </c>
+      <c r="C2" s="38" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v xml:space="preserve">2022-08-24 11-44</v>
+        <v xml:space="preserve">2022-01-19 16-22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -13732,7 +13853,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/config/default/forms/contact/PLACE_TYPE-create.xlsx
+++ b/config/default/forms/contact/PLACE_TYPE-create.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="373">
   <si>
     <t>type</t>
   </si>
@@ -613,6 +613,12 @@
   </si>
   <si>
     <t>multiline</t>
+  </si>
+  <si>
+    <t>create_user_for_contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected( ${role},'chw') or selected( ${role},'chw_supervisor')</t>
   </si>
   <si>
     <t>meta</t>
@@ -1138,7 +1144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -1159,6 +1165,11 @@
     </font>
     <font>
       <name val="Arial"/>
+      <sz val="11.000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color indexed="64"/>
       <sz val="11.000000"/>
     </font>
   </fonts>
@@ -1247,7 +1258,7 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1275,12 +1286,17 @@
     </xf>
     <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="4" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="5" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1">
+      <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3665,7 +3681,7 @@
       </c>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
-      <c r="N32" s="21" t="s">
+      <c r="N32" s="16" t="s">
         <v>117</v>
       </c>
       <c r="O32" s="16" t="s">
@@ -4003,7 +4019,7 @@
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
-      <c r="P38" s="22" t="s">
+      <c r="P38" s="21" t="s">
         <v>141</v>
       </c>
       <c r="Q38" s="16"/>
@@ -4096,7 +4112,7 @@
       <c r="B40" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="21" t="s">
         <v>145</v>
       </c>
       <c r="D40" s="18"/>
@@ -4224,7 +4240,7 @@
       </c>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
-      <c r="N42" s="23" t="b">
+      <c r="N42" s="22" t="b">
         <f t="shared" ref="N42:N43" si="0">TRUE()</f>
         <v>1</v>
       </c>
@@ -4293,7 +4309,7 @@
       </c>
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
-      <c r="N43" s="23" t="b">
+      <c r="N43" s="22" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4659,15 +4675,13 @@
       <c r="AR48" s="16"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" s="17" t="s">
+      <c r="A49" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="C49" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="C49" s="16"/>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
@@ -4676,13 +4690,13 @@
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
       <c r="K49" s="16"/>
-      <c r="L49" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="L49" s="16"/>
       <c r="M49" s="16"/>
       <c r="N49" s="16"/>
       <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
+      <c r="P49" s="24" t="s">
+        <v>199</v>
+      </c>
       <c r="Q49" s="16"/>
       <c r="R49" s="16"/>
       <c r="S49" s="16"/>
@@ -4714,12 +4728,14 @@
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="17" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="C50" s="16"/>
+        <v>200</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
@@ -4728,13 +4744,13 @@
       <c r="I50" s="16"/>
       <c r="J50" s="16"/>
       <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
+      <c r="L50" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
       <c r="O50" s="16"/>
-      <c r="P50" s="16" t="s">
-        <v>200</v>
-      </c>
+      <c r="P50" s="16"/>
       <c r="Q50" s="16"/>
       <c r="R50" s="16"/>
       <c r="S50" s="16"/>
@@ -4870,9 +4886,11 @@
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" s="17"/>
+        <v>59</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>205</v>
+      </c>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
@@ -4886,7 +4904,9 @@
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
       <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
+      <c r="P53" s="16" t="s">
+        <v>206</v>
+      </c>
       <c r="Q53" s="16"/>
       <c r="R53" s="16"/>
       <c r="S53" s="16"/>
@@ -4965,115 +4985,99 @@
       <c r="AR54" s="16"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="15"/>
+      <c r="A55" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="17"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
       <c r="I55" s="16"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="12"/>
-      <c r="U55" s="13"/>
-      <c r="V55" s="14"/>
-      <c r="W55" s="15"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="16"/>
+      <c r="W55" s="16"/>
       <c r="X55" s="16"/>
-      <c r="Y55" s="8"/>
-      <c r="Z55" s="8"/>
-      <c r="AA55" s="8"/>
-      <c r="AB55" s="8"/>
-      <c r="AC55" s="8"/>
-      <c r="AD55" s="8"/>
-      <c r="AE55" s="8"/>
-      <c r="AF55" s="8"/>
-      <c r="AG55" s="8"/>
-      <c r="AH55" s="8"/>
-      <c r="AI55" s="8"/>
-      <c r="AJ55" s="8"/>
-      <c r="AK55" s="8"/>
-      <c r="AL55" s="8"/>
+      <c r="Y55" s="16"/>
+      <c r="Z55" s="16"/>
+      <c r="AA55" s="16"/>
+      <c r="AB55" s="16"/>
+      <c r="AC55" s="16"/>
+      <c r="AD55" s="16"/>
+      <c r="AE55" s="16"/>
+      <c r="AF55" s="16"/>
+      <c r="AG55" s="16"/>
+      <c r="AH55" s="16"/>
+      <c r="AI55" s="16"/>
+      <c r="AJ55" s="16"/>
+      <c r="AK55" s="16"/>
+      <c r="AL55" s="16"/>
+      <c r="AM55" s="16"/>
+      <c r="AN55" s="16"/>
+      <c r="AO55" s="16"/>
+      <c r="AP55" s="16"/>
+      <c r="AQ55" s="16"/>
+      <c r="AR55" s="16"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="13"/>
+      <c r="V56" s="14"/>
+      <c r="W56" s="15"/>
+      <c r="X56" s="16"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="8"/>
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="8"/>
+      <c r="AD56" s="8"/>
+      <c r="AE56" s="8"/>
+      <c r="AF56" s="8"/>
+      <c r="AG56" s="8"/>
+      <c r="AH56" s="8"/>
+      <c r="AI56" s="8"/>
+      <c r="AJ56" s="8"/>
+      <c r="AK56" s="8"/>
+      <c r="AL56" s="8"/>
+    </row>
+    <row r="57" ht="14.25" customHeight="1">
+      <c r="A57" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B57" s="17" t="s">
         <v>79</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G56" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-      <c r="S56" s="16"/>
-      <c r="T56" s="16"/>
-      <c r="U56" s="16"/>
-      <c r="V56" s="16"/>
-      <c r="W56" s="16"/>
-      <c r="X56" s="16"/>
-      <c r="Y56" s="16"/>
-      <c r="Z56" s="16"/>
-      <c r="AA56" s="16"/>
-      <c r="AB56" s="16"/>
-      <c r="AC56" s="16"/>
-      <c r="AD56" s="16"/>
-      <c r="AE56" s="16"/>
-      <c r="AF56" s="16"/>
-      <c r="AG56" s="16"/>
-      <c r="AH56" s="16"/>
-      <c r="AI56" s="16"/>
-      <c r="AJ56" s="16"/>
-      <c r="AK56" s="16"/>
-      <c r="AL56" s="16"/>
-      <c r="AM56" s="16"/>
-      <c r="AN56" s="16"/>
-      <c r="AO56" s="16"/>
-      <c r="AP56" s="16"/>
-      <c r="AQ56" s="16"/>
-      <c r="AR56" s="16"/>
-    </row>
-    <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>93</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>28</v>
@@ -5096,7 +5100,9 @@
       </c>
       <c r="J57" s="16"/>
       <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
+      <c r="L57" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
       <c r="O57" s="16"/>
@@ -5109,9 +5115,7 @@
       <c r="V57" s="16"/>
       <c r="W57" s="16"/>
       <c r="X57" s="16"/>
-      <c r="Y57" s="16" t="s">
-        <v>94</v>
-      </c>
+      <c r="Y57" s="16"/>
       <c r="Z57" s="16"/>
       <c r="AA57" s="16"/>
       <c r="AB57" s="16"/>
@@ -5133,11 +5137,11 @@
       <c r="AR57" s="16"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="25" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>28</v>
@@ -5173,7 +5177,9 @@
       <c r="V58" s="16"/>
       <c r="W58" s="16"/>
       <c r="X58" s="16"/>
-      <c r="Y58" s="16"/>
+      <c r="Y58" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="Z58" s="16"/>
       <c r="AA58" s="16"/>
       <c r="AB58" s="16"/>
@@ -5195,40 +5201,34 @@
       <c r="AR58" s="16"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="17" t="s">
-        <v>205</v>
+      <c r="A59" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>207</v>
+        <v>28</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>208</v>
+        <v>28</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>209</v>
+        <v>28</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>210</v>
+        <v>28</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c r="H59" s="16"/>
       <c r="I59" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="J59" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K59" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="L59" s="16" t="s">
-        <v>48</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
       <c r="O59" s="16"/>
@@ -5241,9 +5241,7 @@
       <c r="V59" s="16"/>
       <c r="W59" s="16"/>
       <c r="X59" s="16"/>
-      <c r="Y59" s="16" t="s">
-        <v>214</v>
-      </c>
+      <c r="Y59" s="16"/>
       <c r="Z59" s="16"/>
       <c r="AA59" s="16"/>
       <c r="AB59" s="16"/>
@@ -5266,41 +5264,43 @@
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="17" t="s">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>97</v>
+        <v>209</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>210</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>98</v>
+        <v>211</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>99</v>
+        <v>212</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>97</v>
+        <v>213</v>
       </c>
       <c r="H60" s="16"/>
       <c r="I60" s="16" t="s">
-        <v>100</v>
+        <v>214</v>
       </c>
       <c r="J60" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
+      <c r="K60" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="L60" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
-      <c r="O60" s="22"/>
-      <c r="P60" s="16" t="s">
-        <v>216</v>
-      </c>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
       <c r="Q60" s="16"/>
       <c r="R60" s="16"/>
       <c r="S60" s="16"/>
@@ -5309,7 +5309,9 @@
       <c r="V60" s="16"/>
       <c r="W60" s="16"/>
       <c r="X60" s="16"/>
-      <c r="Y60" s="16"/>
+      <c r="Y60" s="16" t="s">
+        <v>216</v>
+      </c>
       <c r="Z60" s="16"/>
       <c r="AA60" s="16"/>
       <c r="AB60" s="16"/>
@@ -5332,37 +5334,41 @@
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="17" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>185</v>
+        <v>1</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>187</v>
+        <v>217</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="G61" s="18" t="s">
-        <v>190</v>
+        <v>99</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="H61" s="16"/>
       <c r="I61" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="J61" s="16"/>
+        <v>100</v>
+      </c>
+      <c r="J61" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="K61" s="16"/>
       <c r="L61" s="16"/>
       <c r="M61" s="16"/>
       <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="16" t="s">
+        <v>218</v>
+      </c>
       <c r="Q61" s="16"/>
       <c r="R61" s="16"/>
       <c r="S61" s="16"/>
@@ -5397,32 +5403,30 @@
         <v>30</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H62" s="16"/>
       <c r="I62" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J62" s="16"/>
       <c r="K62" s="16"/>
-      <c r="L62" s="16" t="s">
-        <v>197</v>
-      </c>
+      <c r="L62" s="16"/>
       <c r="M62" s="16"/>
       <c r="N62" s="16"/>
       <c r="O62" s="16"/>
@@ -5458,27 +5462,39 @@
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="17" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>196</v>
+      </c>
       <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
+      <c r="I63" s="16" t="s">
+        <v>192</v>
+      </c>
       <c r="J63" s="16"/>
       <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
+      <c r="L63" s="16" t="s">
+        <v>197</v>
+      </c>
       <c r="M63" s="16"/>
       <c r="N63" s="16"/>
       <c r="O63" s="16"/>
-      <c r="P63" s="16" t="s">
-        <v>218</v>
-      </c>
+      <c r="P63" s="16"/>
       <c r="Q63" s="16"/>
       <c r="R63" s="16"/>
       <c r="S63" s="16"/>
@@ -5513,7 +5529,7 @@
         <v>59</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>219</v>
+        <v>86</v>
       </c>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
@@ -5562,39 +5578,27 @@
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="17" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F65" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G65" s="18" t="s">
-        <v>28</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
       <c r="H65" s="16"/>
-      <c r="I65" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="I65" s="16"/>
       <c r="J65" s="16"/>
       <c r="K65" s="16"/>
-      <c r="L65" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="L65" s="16"/>
       <c r="M65" s="16"/>
       <c r="N65" s="16"/>
       <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
+      <c r="P65" s="16" t="s">
+        <v>222</v>
+      </c>
       <c r="Q65" s="16"/>
       <c r="R65" s="16"/>
       <c r="S65" s="16"/>
@@ -5626,27 +5630,39 @@
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="17" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
+        <v>200</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>28</v>
+      </c>
       <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
+      <c r="I66" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="J66" s="16"/>
       <c r="K66" s="16"/>
-      <c r="L66" s="16"/>
+      <c r="L66" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="M66" s="16"/>
       <c r="N66" s="16"/>
       <c r="O66" s="16"/>
-      <c r="P66" s="16" t="s">
-        <v>200</v>
-      </c>
+      <c r="P66" s="16"/>
       <c r="Q66" s="16"/>
       <c r="R66" s="16"/>
       <c r="S66" s="16"/>
@@ -5782,9 +5798,11 @@
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B69" s="17"/>
+        <v>59</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>205</v>
+      </c>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
@@ -5798,7 +5816,9 @@
       <c r="M69" s="16"/>
       <c r="N69" s="16"/>
       <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
+      <c r="P69" s="16" t="s">
+        <v>206</v>
+      </c>
       <c r="Q69" s="16"/>
       <c r="R69" s="16"/>
       <c r="S69" s="16"/>
@@ -5876,6 +5896,54 @@
       <c r="AQ70" s="16"/>
       <c r="AR70" s="16"/>
     </row>
+    <row r="71" ht="14.25" customHeight="1">
+      <c r="A71" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="17"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="16"/>
+      <c r="W71" s="16"/>
+      <c r="X71" s="16"/>
+      <c r="Y71" s="16"/>
+      <c r="Z71" s="16"/>
+      <c r="AA71" s="16"/>
+      <c r="AB71" s="16"/>
+      <c r="AC71" s="16"/>
+      <c r="AD71" s="16"/>
+      <c r="AE71" s="16"/>
+      <c r="AF71" s="16"/>
+      <c r="AG71" s="16"/>
+      <c r="AH71" s="16"/>
+      <c r="AI71" s="16"/>
+      <c r="AJ71" s="16"/>
+      <c r="AK71" s="16"/>
+      <c r="AL71" s="16"/>
+      <c r="AM71" s="16"/>
+      <c r="AN71" s="16"/>
+      <c r="AO71" s="16"/>
+      <c r="AP71" s="16"/>
+      <c r="AQ71" s="16"/>
+      <c r="AR71" s="16"/>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -5909,13 +5977,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -5955,30 +6023,30 @@
       <c r="Z1" s="8"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="D2" s="27" t="s">
+      <c r="A2" s="27" t="s">
         <v>224</v>
       </c>
+      <c r="B2" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>226</v>
+      </c>
       <c r="E2" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="G2" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="H2" s="30"/>
+      <c r="F2" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2" s="31"/>
       <c r="I2" s="19" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -5999,30 +6067,30 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" s="27" t="s">
+      <c r="A3" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>231</v>
       </c>
+      <c r="C3" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>233</v>
+      </c>
       <c r="E3" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="G3" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="H3" s="30"/>
+      <c r="F3" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="31"/>
       <c r="I3" s="19" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -6043,30 +6111,30 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4" s="26" t="s">
+      <c r="A4" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="B4" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="C4" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="D4" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="E4" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="H4" s="30"/>
+      <c r="F4" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H4" s="31"/>
       <c r="I4" s="19" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -6087,30 +6155,30 @@
       <c r="Z4" s="8"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="D5" s="31" t="s">
+      <c r="A5" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="C5" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="D5" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="E5" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="H5" s="30"/>
+      <c r="F5" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="H5" s="31"/>
       <c r="I5" s="19" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -6131,30 +6199,30 @@
       <c r="Z5" s="8"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="D6" s="31" t="s">
+      <c r="B6" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="C6" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="D6" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="E6" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="H6" s="30"/>
+      <c r="F6" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="H6" s="31"/>
       <c r="I6" s="19" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -6175,30 +6243,30 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="D7" s="27" t="s">
+      <c r="B7" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="C7" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="D7" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="E7" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="H7" s="30"/>
+      <c r="F7" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="H7" s="31"/>
       <c r="I7" s="19" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -6219,30 +6287,30 @@
       <c r="Z7" s="8"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="D8" s="27" t="s">
+      <c r="B8" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="C8" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="D8" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="E8" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="H8" s="30"/>
+      <c r="F8" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="H8" s="31"/>
       <c r="I8" s="19" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -6264,19 +6332,19 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="C9" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
+      <c r="B9" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
       <c r="I9" s="19"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -6298,29 +6366,29 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="C10" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="B10" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="C10" s="35" t="s">
         <v>279</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="D10" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="E10" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="H10" s="30"/>
+      <c r="F10" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="H10" s="31"/>
       <c r="I10" s="19" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -6342,29 +6410,29 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="D11" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="C11" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="D11" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="E11" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="H11" s="30"/>
+      <c r="F11" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="H11" s="31"/>
       <c r="I11" s="19" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -6386,29 +6454,29 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D12" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="C12" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="D12" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="G12" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="H12" s="30"/>
+      <c r="E12" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="H12" s="31"/>
       <c r="I12" s="19" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -6430,29 +6498,29 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="D13" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="B13" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="C13" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="D13" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="E13" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="H13" s="30"/>
+      <c r="F13" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="H13" s="31"/>
       <c r="I13" s="19" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -6474,29 +6542,29 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="E14" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="D14" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="E14" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="H14" s="30"/>
+      <c r="F14" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="H14" s="31"/>
       <c r="I14" s="19" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -6518,29 +6586,29 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>310</v>
-      </c>
-      <c r="D15" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="B15" s="34" t="s">
         <v>311</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="C15" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="D15" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="G15" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="H15" s="30"/>
+      <c r="E15" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="H15" s="31"/>
       <c r="I15" s="19" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -6561,30 +6629,30 @@
       <c r="Z15" s="8"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>224</v>
+      <c r="A16" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>226</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="H16" s="30"/>
+        <v>227</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="H16" s="31"/>
       <c r="I16" s="19" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -6605,30 +6673,30 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="C17" s="26" t="s">
+      <c r="A17" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="D17" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="E17" s="32" t="s">
+      <c r="B17" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="C17" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="D17" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="E17" s="33" t="s">
         <v>321</v>
       </c>
-      <c r="H17" s="30"/>
+      <c r="F17" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="H17" s="31"/>
       <c r="I17" s="19" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -6652,27 +6720,27 @@
       <c r="A18" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>324</v>
-      </c>
-      <c r="D18" s="27" t="s">
+      <c r="B18" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="C18" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="D18" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="E18" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="H18" s="30"/>
+      <c r="F18" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="H18" s="31"/>
       <c r="I18" s="19" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -6696,27 +6764,27 @@
       <c r="A19" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>331</v>
-      </c>
-      <c r="D19" s="27" t="s">
+      <c r="B19" s="34" t="s">
         <v>332</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="C19" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="D19" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="E19" s="33" t="s">
         <v>335</v>
       </c>
-      <c r="H19" s="30"/>
+      <c r="F19" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="H19" s="31"/>
       <c r="I19" s="19" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -6740,27 +6808,27 @@
       <c r="A20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="D20" s="27" t="s">
+      <c r="B20" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="C20" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="D20" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="G20" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="H20" s="30"/>
+      <c r="E20" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="H20" s="31"/>
       <c r="I20" s="19" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -6784,27 +6852,27 @@
       <c r="A21" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="E21" s="32" t="s">
+      <c r="B21" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C21" s="35" t="s">
         <v>345</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="D21" s="28" t="s">
         <v>346</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="E21" s="33" t="s">
         <v>347</v>
       </c>
-      <c r="H21" s="30"/>
+      <c r="F21" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="H21" s="31"/>
       <c r="I21" s="19" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -6828,27 +6896,27 @@
       <c r="A22" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="E22" s="32" t="s">
+      <c r="B22" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="D22" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="E22" s="33" t="s">
         <v>353</v>
       </c>
-      <c r="H22" s="30"/>
+      <c r="F22" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="H22" s="31"/>
       <c r="I22" s="19" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -6872,27 +6940,27 @@
       <c r="A23" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>355</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="E23" s="32" t="s">
+      <c r="B23" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="C23" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="D23" s="28" t="s">
         <v>358</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="E23" s="33" t="s">
         <v>359</v>
       </c>
-      <c r="H23" s="30"/>
+      <c r="F23" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="H23" s="31"/>
       <c r="I23" s="19" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -6913,28 +6981,28 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="B24" s="33" t="s">
+      <c r="A24" s="37" t="s">
+        <v>363</v>
+      </c>
+      <c r="B24" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="D24" s="27" t="s">
+      <c r="C24" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H24" s="30"/>
+      <c r="H24" s="31"/>
       <c r="I24" s="19" t="s">
         <v>100</v>
       </c>
@@ -6990,19 +7058,19 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="8"/>
@@ -7027,20 +7095,20 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="C2" s="37" t="str">
+        <v>370</v>
+      </c>
+      <c r="C2" s="38" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v xml:space="preserve">2022-09-26 12-17</v>
+        <v xml:space="preserve">2023-01-06 10-03</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>

--- a/config/default/forms/contact/PLACE_TYPE-create.xlsx
+++ b/config/default/forms/contact/PLACE_TYPE-create.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="371">
   <si>
     <t>type</t>
   </si>
@@ -613,12 +613,6 @@
   </si>
   <si>
     <t>multiline</t>
-  </si>
-  <si>
-    <t>create_user_for_contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected( ${role},'chw') or selected( ${role},'chw_supervisor')</t>
   </si>
   <si>
     <t>meta</t>
@@ -1144,7 +1138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -1165,11 +1159,6 @@
     </font>
     <font>
       <name val="Arial"/>
-      <sz val="11.000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color indexed="64"/>
       <sz val="11.000000"/>
     </font>
   </fonts>
@@ -1258,7 +1247,7 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1286,17 +1275,12 @@
     </xf>
     <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="4" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="5" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="5" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1">
-      <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3681,7 +3665,7 @@
       </c>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="21" t="s">
         <v>117</v>
       </c>
       <c r="O32" s="16" t="s">
@@ -4019,7 +4003,7 @@
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
-      <c r="P38" s="21" t="s">
+      <c r="P38" s="22" t="s">
         <v>141</v>
       </c>
       <c r="Q38" s="16"/>
@@ -4112,7 +4096,7 @@
       <c r="B40" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="22" t="s">
         <v>145</v>
       </c>
       <c r="D40" s="18"/>
@@ -4240,7 +4224,7 @@
       </c>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
-      <c r="N42" s="22" t="b">
+      <c r="N42" s="23" t="b">
         <f t="shared" ref="N42:N43" si="0">TRUE()</f>
         <v>1</v>
       </c>
@@ -4309,7 +4293,7 @@
       </c>
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
-      <c r="N43" s="22" t="b">
+      <c r="N43" s="23" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4675,13 +4659,15 @@
       <c r="AR48" s="16"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="23" t="s">
+      <c r="A49" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="C49" s="16"/>
+      <c r="C49" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
@@ -4690,13 +4676,13 @@
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
       <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
+      <c r="L49" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="M49" s="16"/>
       <c r="N49" s="16"/>
       <c r="O49" s="16"/>
-      <c r="P49" s="24" t="s">
-        <v>199</v>
-      </c>
+      <c r="P49" s="16"/>
       <c r="Q49" s="16"/>
       <c r="R49" s="16"/>
       <c r="S49" s="16"/>
@@ -4728,14 +4714,12 @@
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="17" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C50" s="16"/>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
@@ -4744,13 +4728,13 @@
       <c r="I50" s="16"/>
       <c r="J50" s="16"/>
       <c r="K50" s="16"/>
-      <c r="L50" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="L50" s="16"/>
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
       <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
+      <c r="P50" s="16" t="s">
+        <v>200</v>
+      </c>
       <c r="Q50" s="16"/>
       <c r="R50" s="16"/>
       <c r="S50" s="16"/>
@@ -4886,11 +4870,9 @@
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>205</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B53" s="17"/>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
@@ -4904,9 +4886,7 @@
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
       <c r="O53" s="16"/>
-      <c r="P53" s="16" t="s">
-        <v>206</v>
-      </c>
+      <c r="P53" s="16"/>
       <c r="Q53" s="16"/>
       <c r="R53" s="16"/>
       <c r="S53" s="16"/>
@@ -4985,99 +4965,115 @@
       <c r="AR54" s="16"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="15"/>
       <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16"/>
-      <c r="S55" s="16"/>
-      <c r="T55" s="16"/>
-      <c r="U55" s="16"/>
-      <c r="V55" s="16"/>
-      <c r="W55" s="16"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="14"/>
+      <c r="W55" s="15"/>
       <c r="X55" s="16"/>
-      <c r="Y55" s="16"/>
-      <c r="Z55" s="16"/>
-      <c r="AA55" s="16"/>
-      <c r="AB55" s="16"/>
-      <c r="AC55" s="16"/>
-      <c r="AD55" s="16"/>
-      <c r="AE55" s="16"/>
-      <c r="AF55" s="16"/>
-      <c r="AG55" s="16"/>
-      <c r="AH55" s="16"/>
-      <c r="AI55" s="16"/>
-      <c r="AJ55" s="16"/>
-      <c r="AK55" s="16"/>
-      <c r="AL55" s="16"/>
-      <c r="AM55" s="16"/>
-      <c r="AN55" s="16"/>
-      <c r="AO55" s="16"/>
-      <c r="AP55" s="16"/>
-      <c r="AQ55" s="16"/>
-      <c r="AR55" s="16"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="8"/>
+      <c r="AD55" s="8"/>
+      <c r="AE55" s="8"/>
+      <c r="AF55" s="8"/>
+      <c r="AG55" s="8"/>
+      <c r="AH55" s="8"/>
+      <c r="AI55" s="8"/>
+      <c r="AJ55" s="8"/>
+      <c r="AK55" s="8"/>
+      <c r="AL55" s="8"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="12"/>
-      <c r="U56" s="13"/>
-      <c r="V56" s="14"/>
-      <c r="W56" s="15"/>
+      <c r="A56" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="16"/>
+      <c r="U56" s="16"/>
+      <c r="V56" s="16"/>
+      <c r="W56" s="16"/>
       <c r="X56" s="16"/>
-      <c r="Y56" s="8"/>
-      <c r="Z56" s="8"/>
-      <c r="AA56" s="8"/>
-      <c r="AB56" s="8"/>
-      <c r="AC56" s="8"/>
-      <c r="AD56" s="8"/>
-      <c r="AE56" s="8"/>
-      <c r="AF56" s="8"/>
-      <c r="AG56" s="8"/>
-      <c r="AH56" s="8"/>
-      <c r="AI56" s="8"/>
-      <c r="AJ56" s="8"/>
-      <c r="AK56" s="8"/>
-      <c r="AL56" s="8"/>
+      <c r="Y56" s="16"/>
+      <c r="Z56" s="16"/>
+      <c r="AA56" s="16"/>
+      <c r="AB56" s="16"/>
+      <c r="AC56" s="16"/>
+      <c r="AD56" s="16"/>
+      <c r="AE56" s="16"/>
+      <c r="AF56" s="16"/>
+      <c r="AG56" s="16"/>
+      <c r="AH56" s="16"/>
+      <c r="AI56" s="16"/>
+      <c r="AJ56" s="16"/>
+      <c r="AK56" s="16"/>
+      <c r="AL56" s="16"/>
+      <c r="AM56" s="16"/>
+      <c r="AN56" s="16"/>
+      <c r="AO56" s="16"/>
+      <c r="AP56" s="16"/>
+      <c r="AQ56" s="16"/>
+      <c r="AR56" s="16"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="17" t="s">
-        <v>26</v>
+      <c r="A57" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>28</v>
@@ -5100,9 +5096,7 @@
       </c>
       <c r="J57" s="16"/>
       <c r="K57" s="16"/>
-      <c r="L57" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="L57" s="16"/>
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
       <c r="O57" s="16"/>
@@ -5115,7 +5109,9 @@
       <c r="V57" s="16"/>
       <c r="W57" s="16"/>
       <c r="X57" s="16"/>
-      <c r="Y57" s="16"/>
+      <c r="Y57" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="Z57" s="16"/>
       <c r="AA57" s="16"/>
       <c r="AB57" s="16"/>
@@ -5137,11 +5133,11 @@
       <c r="AR57" s="16"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>28</v>
@@ -5177,9 +5173,7 @@
       <c r="V58" s="16"/>
       <c r="W58" s="16"/>
       <c r="X58" s="16"/>
-      <c r="Y58" s="16" t="s">
-        <v>94</v>
-      </c>
+      <c r="Y58" s="16"/>
       <c r="Z58" s="16"/>
       <c r="AA58" s="16"/>
       <c r="AB58" s="16"/>
@@ -5201,34 +5195,40 @@
       <c r="AR58" s="16"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="25" t="s">
-        <v>58</v>
+      <c r="A59" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>28</v>
+        <v>207</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>28</v>
+        <v>209</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>28</v>
+        <v>210</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c r="H59" s="16"/>
       <c r="I59" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
+        <v>212</v>
+      </c>
+      <c r="J59" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K59" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="L59" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
       <c r="O59" s="16"/>
@@ -5241,7 +5241,9 @@
       <c r="V59" s="16"/>
       <c r="W59" s="16"/>
       <c r="X59" s="16"/>
-      <c r="Y59" s="16"/>
+      <c r="Y59" s="16" t="s">
+        <v>214</v>
+      </c>
       <c r="Z59" s="16"/>
       <c r="AA59" s="16"/>
       <c r="AB59" s="16"/>
@@ -5264,43 +5266,41 @@
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="17" t="s">
-        <v>207</v>
+        <v>59</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>208</v>
+        <v>1</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>210</v>
+        <v>215</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>211</v>
+        <v>98</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>212</v>
+        <v>99</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>213</v>
+        <v>97</v>
       </c>
       <c r="H60" s="16"/>
       <c r="I60" s="16" t="s">
-        <v>214</v>
+        <v>100</v>
       </c>
       <c r="J60" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="K60" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="L60" s="16" t="s">
-        <v>48</v>
-      </c>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="16" t="s">
+        <v>216</v>
+      </c>
       <c r="Q60" s="16"/>
       <c r="R60" s="16"/>
       <c r="S60" s="16"/>
@@ -5309,9 +5309,7 @@
       <c r="V60" s="16"/>
       <c r="W60" s="16"/>
       <c r="X60" s="16"/>
-      <c r="Y60" s="16" t="s">
-        <v>216</v>
-      </c>
+      <c r="Y60" s="16"/>
       <c r="Z60" s="16"/>
       <c r="AA60" s="16"/>
       <c r="AB60" s="16"/>
@@ -5334,41 +5332,37 @@
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="17" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="C61" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F61" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="D61" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F61" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>97</v>
+      <c r="G61" s="18" t="s">
+        <v>190</v>
       </c>
       <c r="H61" s="16"/>
       <c r="I61" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="J61" s="16" t="s">
-        <v>47</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="J61" s="16"/>
       <c r="K61" s="16"/>
       <c r="L61" s="16"/>
       <c r="M61" s="16"/>
       <c r="N61" s="16"/>
-      <c r="O61" s="21"/>
-      <c r="P61" s="16" t="s">
-        <v>218</v>
-      </c>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
       <c r="Q61" s="16"/>
       <c r="R61" s="16"/>
       <c r="S61" s="16"/>
@@ -5403,30 +5397,32 @@
         <v>30</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H62" s="16"/>
       <c r="I62" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J62" s="16"/>
       <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
+      <c r="L62" s="16" t="s">
+        <v>197</v>
+      </c>
       <c r="M62" s="16"/>
       <c r="N62" s="16"/>
       <c r="O62" s="16"/>
@@ -5462,39 +5458,27 @@
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="17" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="G63" s="18" t="s">
-        <v>196</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
       <c r="H63" s="16"/>
-      <c r="I63" s="16" t="s">
-        <v>192</v>
-      </c>
+      <c r="I63" s="16"/>
       <c r="J63" s="16"/>
       <c r="K63" s="16"/>
-      <c r="L63" s="16" t="s">
-        <v>197</v>
-      </c>
+      <c r="L63" s="16"/>
       <c r="M63" s="16"/>
       <c r="N63" s="16"/>
       <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
+      <c r="P63" s="16" t="s">
+        <v>218</v>
+      </c>
       <c r="Q63" s="16"/>
       <c r="R63" s="16"/>
       <c r="S63" s="16"/>
@@ -5529,7 +5513,7 @@
         <v>59</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>86</v>
+        <v>219</v>
       </c>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
@@ -5578,27 +5562,39 @@
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="17" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
+        <v>198</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>28</v>
+      </c>
       <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
+      <c r="I65" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="J65" s="16"/>
       <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
+      <c r="L65" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="M65" s="16"/>
       <c r="N65" s="16"/>
       <c r="O65" s="16"/>
-      <c r="P65" s="16" t="s">
-        <v>222</v>
-      </c>
+      <c r="P65" s="16"/>
       <c r="Q65" s="16"/>
       <c r="R65" s="16"/>
       <c r="S65" s="16"/>
@@ -5630,39 +5626,27 @@
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="17" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G66" s="18" t="s">
-        <v>28</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
       <c r="H66" s="16"/>
-      <c r="I66" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="I66" s="16"/>
       <c r="J66" s="16"/>
       <c r="K66" s="16"/>
-      <c r="L66" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="L66" s="16"/>
       <c r="M66" s="16"/>
       <c r="N66" s="16"/>
       <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
+      <c r="P66" s="16" t="s">
+        <v>200</v>
+      </c>
       <c r="Q66" s="16"/>
       <c r="R66" s="16"/>
       <c r="S66" s="16"/>
@@ -5798,11 +5782,9 @@
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>205</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B69" s="17"/>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
@@ -5816,9 +5798,7 @@
       <c r="M69" s="16"/>
       <c r="N69" s="16"/>
       <c r="O69" s="16"/>
-      <c r="P69" s="16" t="s">
-        <v>206</v>
-      </c>
+      <c r="P69" s="16"/>
       <c r="Q69" s="16"/>
       <c r="R69" s="16"/>
       <c r="S69" s="16"/>
@@ -5896,54 +5876,6 @@
       <c r="AQ70" s="16"/>
       <c r="AR70" s="16"/>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B71" s="17"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="16"/>
-      <c r="S71" s="16"/>
-      <c r="T71" s="16"/>
-      <c r="U71" s="16"/>
-      <c r="V71" s="16"/>
-      <c r="W71" s="16"/>
-      <c r="X71" s="16"/>
-      <c r="Y71" s="16"/>
-      <c r="Z71" s="16"/>
-      <c r="AA71" s="16"/>
-      <c r="AB71" s="16"/>
-      <c r="AC71" s="16"/>
-      <c r="AD71" s="16"/>
-      <c r="AE71" s="16"/>
-      <c r="AF71" s="16"/>
-      <c r="AG71" s="16"/>
-      <c r="AH71" s="16"/>
-      <c r="AI71" s="16"/>
-      <c r="AJ71" s="16"/>
-      <c r="AK71" s="16"/>
-      <c r="AL71" s="16"/>
-      <c r="AM71" s="16"/>
-      <c r="AN71" s="16"/>
-      <c r="AO71" s="16"/>
-      <c r="AP71" s="16"/>
-      <c r="AQ71" s="16"/>
-      <c r="AR71" s="16"/>
-    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -5977,13 +5909,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -6023,30 +5955,30 @@
       <c r="Z1" s="8"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="C2" s="27" t="s">
+      <c r="E2" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="F2" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="G2" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="H2" s="30"/>
+      <c r="I2" s="19" t="s">
         <v>228</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="19" t="s">
-        <v>230</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -6067,30 +5999,30 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="E3" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="F3" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="G3" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="H3" s="30"/>
+      <c r="I3" s="19" t="s">
         <v>235</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="19" t="s">
-        <v>237</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -6111,30 +6043,30 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="D4" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="E4" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="F4" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="G4" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="H4" s="30"/>
+      <c r="I4" s="19" t="s">
         <v>243</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="19" t="s">
-        <v>245</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -6155,30 +6087,30 @@
       <c r="Z4" s="8"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="E5" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="F5" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="G5" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="H5" s="30"/>
+      <c r="I5" s="19" t="s">
         <v>250</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="19" t="s">
-        <v>252</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -6199,30 +6131,30 @@
       <c r="Z5" s="8"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="E6" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="F6" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="G6" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="H6" s="30"/>
+      <c r="I6" s="19" t="s">
         <v>257</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="19" t="s">
-        <v>259</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -6243,30 +6175,30 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="E7" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="F7" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="G7" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="H7" s="30"/>
+      <c r="I7" s="19" t="s">
         <v>264</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="19" t="s">
-        <v>266</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -6287,30 +6219,30 @@
       <c r="Z7" s="8"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="E8" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="F8" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="G8" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="H8" s="30"/>
+      <c r="I8" s="19" t="s">
         <v>271</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="19" t="s">
-        <v>273</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -6332,19 +6264,19 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="19"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -6366,29 +6298,29 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="D10" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="E10" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="F10" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="G10" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="H10" s="30"/>
+      <c r="I10" s="19" t="s">
         <v>282</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="19" t="s">
-        <v>284</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -6410,29 +6342,29 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="B11" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="E11" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="F11" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="G11" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="H11" s="30"/>
+      <c r="I11" s="19" t="s">
         <v>289</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="19" t="s">
-        <v>291</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -6454,29 +6386,29 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="B12" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="E12" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="F12" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="G12" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="H12" s="30"/>
+      <c r="I12" s="19" t="s">
         <v>295</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="19" t="s">
-        <v>297</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -6498,29 +6430,29 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="B13" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="E13" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="F13" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="G13" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="H13" s="30"/>
+      <c r="I13" s="19" t="s">
         <v>302</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="19" t="s">
-        <v>304</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -6542,29 +6474,29 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D14" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="E14" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="F14" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="G14" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="F14" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="H14" s="31"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="19" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -6586,29 +6518,29 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="B15" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="D15" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="E15" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="F15" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="G15" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="H15" s="30"/>
+      <c r="I15" s="19" t="s">
         <v>314</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="19" t="s">
-        <v>316</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -6629,30 +6561,30 @@
       <c r="Z15" s="8"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="C16" s="27" t="s">
+      <c r="A16" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="F16" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="F16" s="29" t="s">
+      <c r="G16" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="H16" s="30"/>
+      <c r="I16" s="19" t="s">
         <v>228</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="19" t="s">
-        <v>230</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -6673,30 +6605,30 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="C17" s="27" t="s">
+      <c r="D17" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="E17" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="F17" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="G17" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="H17" s="30"/>
+      <c r="I17" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="H17" s="31"/>
-      <c r="I17" s="19" t="s">
-        <v>324</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -6720,27 +6652,27 @@
       <c r="A18" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="D18" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="E18" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="F18" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="G18" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="H18" s="30"/>
+      <c r="I18" s="19" t="s">
         <v>329</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="19" t="s">
-        <v>331</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -6764,27 +6696,27 @@
       <c r="A19" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="D19" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="E19" s="32" t="s">
         <v>333</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="F19" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="G19" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="H19" s="30"/>
+      <c r="I19" s="19" t="s">
         <v>336</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="19" t="s">
-        <v>338</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -6808,27 +6740,27 @@
       <c r="A20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="D20" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="E20" s="32" t="s">
         <v>340</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="F20" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="G20" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="H20" s="30"/>
+      <c r="I20" s="19" t="s">
         <v>342</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>341</v>
-      </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="19" t="s">
-        <v>344</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -6852,27 +6784,27 @@
       <c r="A21" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C21" s="35" t="s">
+      <c r="B21" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="E21" s="32" t="s">
         <v>345</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="F21" s="28" t="s">
         <v>346</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="G21" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="H21" s="30"/>
+      <c r="I21" s="19" t="s">
         <v>348</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="H21" s="31"/>
-      <c r="I21" s="19" t="s">
-        <v>350</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -6896,27 +6828,27 @@
       <c r="A22" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="34" t="s">
-        <v>332</v>
-      </c>
-      <c r="C22" s="35" t="s">
+      <c r="B22" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="E22" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="F22" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="G22" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="H22" s="30"/>
+      <c r="I22" s="19" t="s">
         <v>354</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="19" t="s">
-        <v>356</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -6940,27 +6872,27 @@
       <c r="A23" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="34" t="s">
-        <v>339</v>
-      </c>
-      <c r="C23" s="35" t="s">
+      <c r="B23" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="E23" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="F23" s="28" t="s">
         <v>358</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="G23" s="35" t="s">
         <v>359</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="H23" s="30"/>
+      <c r="I23" s="19" t="s">
         <v>360</v>
-      </c>
-      <c r="G23" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="H23" s="31"/>
-      <c r="I23" s="19" t="s">
-        <v>362</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -6981,28 +6913,28 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="37" t="s">
-        <v>363</v>
-      </c>
-      <c r="B24" s="34" t="s">
+      <c r="A24" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="B24" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="D24" s="28" t="s">
+      <c r="C24" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="D24" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H24" s="31"/>
+      <c r="H24" s="30"/>
       <c r="I24" s="19" t="s">
         <v>100</v>
       </c>
@@ -7058,19 +6990,19 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="8"/>
@@ -7095,20 +7027,20 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2" s="37" t="str">
+        <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
+        <v xml:space="preserve">2022-09-26 12-17</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>370</v>
-      </c>
-      <c r="C2" s="38" t="str">
-        <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v xml:space="preserve">2023-01-06 10-03</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>372</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>

--- a/config/default/forms/contact/PLACE_TYPE-create.xlsx
+++ b/config/default/forms/contact/PLACE_TYPE-create.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="374">
   <si>
     <t>type</t>
   </si>
@@ -613,6 +613,15 @@
   </si>
   <si>
     <t>multiline</t>
+  </si>
+  <si>
+    <t>user_for_contact</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected( ${role},'chw') or selected( ${role},'chw_supervisor')</t>
   </si>
   <si>
     <t>meta</t>
@@ -1138,7 +1147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -1159,6 +1168,11 @@
     </font>
     <font>
       <name val="Arial"/>
+      <sz val="11.000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color indexed="64"/>
       <sz val="11.000000"/>
     </font>
   </fonts>
@@ -1247,7 +1261,7 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1275,12 +1289,17 @@
     </xf>
     <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="4" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="5" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1">
+      <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3665,7 +3684,7 @@
       </c>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
-      <c r="N32" s="21" t="s">
+      <c r="N32" s="16" t="s">
         <v>117</v>
       </c>
       <c r="O32" s="16" t="s">
@@ -4003,7 +4022,7 @@
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
-      <c r="P38" s="22" t="s">
+      <c r="P38" s="21" t="s">
         <v>141</v>
       </c>
       <c r="Q38" s="16"/>
@@ -4096,7 +4115,7 @@
       <c r="B40" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="21" t="s">
         <v>145</v>
       </c>
       <c r="D40" s="18"/>
@@ -4224,7 +4243,7 @@
       </c>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
-      <c r="N42" s="23" t="b">
+      <c r="N42" s="22" t="b">
         <f t="shared" ref="N42:N43" si="0">TRUE()</f>
         <v>1</v>
       </c>
@@ -4293,7 +4312,7 @@
       </c>
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
-      <c r="N43" s="23" t="b">
+      <c r="N43" s="22" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4659,26 +4678,34 @@
       <c r="AR48" s="16"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
+      <c r="D49" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24" t="s">
+        <v>28</v>
+      </c>
       <c r="J49" s="16"/>
       <c r="K49" s="16"/>
-      <c r="L49" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="L49" s="16"/>
       <c r="M49" s="16"/>
       <c r="N49" s="16"/>
       <c r="O49" s="16"/>
@@ -4713,10 +4740,10 @@
       <c r="AR49" s="16"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="23" t="s">
         <v>199</v>
       </c>
       <c r="C50" s="16"/>
@@ -4732,7 +4759,7 @@
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
       <c r="O50" s="16"/>
-      <c r="P50" s="16" t="s">
+      <c r="P50" s="24" t="s">
         <v>200</v>
       </c>
       <c r="Q50" s="16"/>
@@ -4765,12 +4792,10 @@
       <c r="AR50" s="16"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>201</v>
-      </c>
+      <c r="A51" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="23"/>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
@@ -4784,9 +4809,7 @@
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
       <c r="O51" s="16"/>
-      <c r="P51" s="16" t="s">
-        <v>202</v>
-      </c>
+      <c r="P51" s="16"/>
       <c r="Q51" s="16"/>
       <c r="R51" s="16"/>
       <c r="S51" s="16"/>
@@ -4818,12 +4841,14 @@
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="17" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="C52" s="16"/>
+        <v>201</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
@@ -4832,13 +4857,13 @@
       <c r="I52" s="16"/>
       <c r="J52" s="16"/>
       <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
+      <c r="L52" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="M52" s="16"/>
       <c r="N52" s="16"/>
       <c r="O52" s="16"/>
-      <c r="P52" s="16" t="s">
-        <v>204</v>
-      </c>
+      <c r="P52" s="16"/>
       <c r="Q52" s="16"/>
       <c r="R52" s="16"/>
       <c r="S52" s="16"/>
@@ -4870,9 +4895,11 @@
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" s="17"/>
+        <v>59</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>202</v>
+      </c>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
@@ -4886,7 +4913,9 @@
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
       <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
+      <c r="P53" s="16" t="s">
+        <v>203</v>
+      </c>
       <c r="Q53" s="16"/>
       <c r="R53" s="16"/>
       <c r="S53" s="16"/>
@@ -4918,9 +4947,11 @@
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" s="17"/>
+        <v>59</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>204</v>
+      </c>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
@@ -4934,7 +4965,9 @@
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
       <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
+      <c r="P54" s="16" t="s">
+        <v>205</v>
+      </c>
       <c r="Q54" s="16"/>
       <c r="R54" s="16"/>
       <c r="S54" s="16"/>
@@ -4965,76 +4998,72 @@
       <c r="AR54" s="16"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="15"/>
+      <c r="A55" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
       <c r="I55" s="16"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="12"/>
-      <c r="U55" s="13"/>
-      <c r="V55" s="14"/>
-      <c r="W55" s="15"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="16"/>
+      <c r="W55" s="16"/>
       <c r="X55" s="16"/>
-      <c r="Y55" s="8"/>
-      <c r="Z55" s="8"/>
-      <c r="AA55" s="8"/>
-      <c r="AB55" s="8"/>
-      <c r="AC55" s="8"/>
-      <c r="AD55" s="8"/>
-      <c r="AE55" s="8"/>
-      <c r="AF55" s="8"/>
-      <c r="AG55" s="8"/>
-      <c r="AH55" s="8"/>
-      <c r="AI55" s="8"/>
-      <c r="AJ55" s="8"/>
-      <c r="AK55" s="8"/>
-      <c r="AL55" s="8"/>
+      <c r="Y55" s="16"/>
+      <c r="Z55" s="16"/>
+      <c r="AA55" s="16"/>
+      <c r="AB55" s="16"/>
+      <c r="AC55" s="16"/>
+      <c r="AD55" s="16"/>
+      <c r="AE55" s="16"/>
+      <c r="AF55" s="16"/>
+      <c r="AG55" s="16"/>
+      <c r="AH55" s="16"/>
+      <c r="AI55" s="16"/>
+      <c r="AJ55" s="16"/>
+      <c r="AK55" s="16"/>
+      <c r="AL55" s="16"/>
+      <c r="AM55" s="16"/>
+      <c r="AN55" s="16"/>
+      <c r="AO55" s="16"/>
+      <c r="AP55" s="16"/>
+      <c r="AQ55" s="16"/>
+      <c r="AR55" s="16"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G56" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B56" s="17"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
       <c r="H56" s="16"/>
-      <c r="I56" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="I56" s="16"/>
       <c r="J56" s="16"/>
       <c r="K56" s="16"/>
-      <c r="L56" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="L56" s="16"/>
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
       <c r="O56" s="16"/>
@@ -5069,31 +5098,17 @@
       <c r="AR56" s="16"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="A57" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="17"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
       <c r="H57" s="16"/>
-      <c r="I57" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="I57" s="16"/>
       <c r="J57" s="16"/>
       <c r="K57" s="16"/>
       <c r="L57" s="16"/>
@@ -5109,9 +5124,7 @@
       <c r="V57" s="16"/>
       <c r="W57" s="16"/>
       <c r="X57" s="16"/>
-      <c r="Y57" s="16" t="s">
-        <v>94</v>
-      </c>
+      <c r="Y57" s="16"/>
       <c r="Z57" s="16"/>
       <c r="AA57" s="16"/>
       <c r="AB57" s="16"/>
@@ -5133,101 +5146,75 @@
       <c r="AR57" s="16"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="16"/>
-      <c r="S58" s="16"/>
-      <c r="T58" s="16"/>
-      <c r="U58" s="16"/>
-      <c r="V58" s="16"/>
-      <c r="W58" s="16"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="13"/>
+      <c r="V58" s="14"/>
+      <c r="W58" s="15"/>
       <c r="X58" s="16"/>
-      <c r="Y58" s="16"/>
-      <c r="Z58" s="16"/>
-      <c r="AA58" s="16"/>
-      <c r="AB58" s="16"/>
-      <c r="AC58" s="16"/>
-      <c r="AD58" s="16"/>
-      <c r="AE58" s="16"/>
-      <c r="AF58" s="16"/>
-      <c r="AG58" s="16"/>
-      <c r="AH58" s="16"/>
-      <c r="AI58" s="16"/>
-      <c r="AJ58" s="16"/>
-      <c r="AK58" s="16"/>
-      <c r="AL58" s="16"/>
-      <c r="AM58" s="16"/>
-      <c r="AN58" s="16"/>
-      <c r="AO58" s="16"/>
-      <c r="AP58" s="16"/>
-      <c r="AQ58" s="16"/>
-      <c r="AR58" s="16"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="8"/>
+      <c r="AC58" s="8"/>
+      <c r="AD58" s="8"/>
+      <c r="AE58" s="8"/>
+      <c r="AF58" s="8"/>
+      <c r="AG58" s="8"/>
+      <c r="AH58" s="8"/>
+      <c r="AI58" s="8"/>
+      <c r="AJ58" s="8"/>
+      <c r="AK58" s="8"/>
+      <c r="AL58" s="8"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="17" t="s">
-        <v>205</v>
+        <v>26</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>207</v>
+        <v>28</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>208</v>
+        <v>28</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>209</v>
+        <v>28</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>210</v>
+        <v>28</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c r="H59" s="16"/>
       <c r="I59" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="J59" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K59" s="16" t="s">
-        <v>213</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
       <c r="L59" s="16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
@@ -5241,9 +5228,7 @@
       <c r="V59" s="16"/>
       <c r="W59" s="16"/>
       <c r="X59" s="16"/>
-      <c r="Y59" s="16" t="s">
-        <v>214</v>
-      </c>
+      <c r="Y59" s="16"/>
       <c r="Z59" s="16"/>
       <c r="AA59" s="16"/>
       <c r="AB59" s="16"/>
@@ -5265,42 +5250,38 @@
       <c r="AR59" s="16"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="17" t="s">
-        <v>59</v>
+      <c r="A60" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>97</v>
+        <v>28</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="H60" s="16"/>
       <c r="I60" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="J60" s="16" t="s">
-        <v>47</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="J60" s="16"/>
       <c r="K60" s="16"/>
       <c r="L60" s="16"/>
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
-      <c r="O60" s="22"/>
-      <c r="P60" s="16" t="s">
-        <v>216</v>
-      </c>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
       <c r="Q60" s="16"/>
       <c r="R60" s="16"/>
       <c r="S60" s="16"/>
@@ -5309,7 +5290,9 @@
       <c r="V60" s="16"/>
       <c r="W60" s="16"/>
       <c r="X60" s="16"/>
-      <c r="Y60" s="16"/>
+      <c r="Y60" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="Z60" s="16"/>
       <c r="AA60" s="16"/>
       <c r="AB60" s="16"/>
@@ -5331,30 +5314,30 @@
       <c r="AR60" s="16"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="17" t="s">
-        <v>30</v>
+      <c r="A61" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>187</v>
+        <v>28</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="G61" s="18" t="s">
-        <v>190</v>
+        <v>28</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="H61" s="16"/>
       <c r="I61" s="16" t="s">
-        <v>191</v>
+        <v>28</v>
       </c>
       <c r="J61" s="16"/>
       <c r="K61" s="16"/>
@@ -5394,34 +5377,38 @@
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="17" t="s">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>25</v>
+        <v>209</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="G62" s="18" t="s">
-        <v>196</v>
+        <v>213</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>214</v>
       </c>
       <c r="H62" s="16"/>
       <c r="I62" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
+        <v>215</v>
+      </c>
+      <c r="J62" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K62" s="16" t="s">
+        <v>216</v>
+      </c>
       <c r="L62" s="16" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="M62" s="16"/>
       <c r="N62" s="16"/>
@@ -5435,7 +5422,9 @@
       <c r="V62" s="16"/>
       <c r="W62" s="16"/>
       <c r="X62" s="16"/>
-      <c r="Y62" s="16"/>
+      <c r="Y62" s="16" t="s">
+        <v>217</v>
+      </c>
       <c r="Z62" s="16"/>
       <c r="AA62" s="16"/>
       <c r="AB62" s="16"/>
@@ -5461,23 +5450,37 @@
         <v>59</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>97</v>
+      </c>
       <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
+      <c r="I63" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="J63" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="K63" s="16"/>
       <c r="L63" s="16"/>
       <c r="M63" s="16"/>
       <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
+      <c r="O63" s="21"/>
       <c r="P63" s="16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q63" s="16"/>
       <c r="R63" s="16"/>
@@ -5510,27 +5513,37 @@
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="17" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
+        <v>185</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>190</v>
+      </c>
       <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
+      <c r="I64" s="16" t="s">
+        <v>191</v>
+      </c>
       <c r="J64" s="16"/>
       <c r="K64" s="16"/>
       <c r="L64" s="16"/>
       <c r="M64" s="16"/>
       <c r="N64" s="16"/>
       <c r="O64" s="16"/>
-      <c r="P64" s="16" t="s">
-        <v>220</v>
-      </c>
+      <c r="P64" s="16"/>
       <c r="Q64" s="16"/>
       <c r="R64" s="16"/>
       <c r="S64" s="16"/>
@@ -5562,34 +5575,34 @@
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>28</v>
+        <v>193</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>28</v>
+        <v>194</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="H65" s="16"/>
       <c r="I65" s="16" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="J65" s="16"/>
       <c r="K65" s="16"/>
       <c r="L65" s="16" t="s">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c r="M65" s="16"/>
       <c r="N65" s="16"/>
@@ -5629,7 +5642,7 @@
         <v>59</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>199</v>
+        <v>86</v>
       </c>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
@@ -5645,7 +5658,7 @@
       <c r="N66" s="16"/>
       <c r="O66" s="16"/>
       <c r="P66" s="16" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="Q66" s="16"/>
       <c r="R66" s="16"/>
@@ -5681,7 +5694,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
@@ -5697,7 +5710,7 @@
       <c r="N67" s="16"/>
       <c r="O67" s="16"/>
       <c r="P67" s="16" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="Q67" s="16"/>
       <c r="R67" s="16"/>
@@ -5730,27 +5743,39 @@
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="17" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
+        <v>201</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>28</v>
+      </c>
       <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
+      <c r="I68" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="J68" s="16"/>
       <c r="K68" s="16"/>
-      <c r="L68" s="16"/>
+      <c r="L68" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="M68" s="16"/>
       <c r="N68" s="16"/>
       <c r="O68" s="16"/>
-      <c r="P68" s="16" t="s">
-        <v>204</v>
-      </c>
+      <c r="P68" s="16"/>
       <c r="Q68" s="16"/>
       <c r="R68" s="16"/>
       <c r="S68" s="16"/>
@@ -5782,9 +5807,11 @@
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B69" s="17"/>
+        <v>59</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>202</v>
+      </c>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
@@ -5798,7 +5825,9 @@
       <c r="M69" s="16"/>
       <c r="N69" s="16"/>
       <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
+      <c r="P69" s="16" t="s">
+        <v>203</v>
+      </c>
       <c r="Q69" s="16"/>
       <c r="R69" s="16"/>
       <c r="S69" s="16"/>
@@ -5830,9 +5859,11 @@
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B70" s="17"/>
+        <v>59</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>204</v>
+      </c>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
@@ -5846,7 +5877,9 @@
       <c r="M70" s="16"/>
       <c r="N70" s="16"/>
       <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
+      <c r="P70" s="16" t="s">
+        <v>205</v>
+      </c>
       <c r="Q70" s="16"/>
       <c r="R70" s="16"/>
       <c r="S70" s="16"/>
@@ -5875,6 +5908,154 @@
       <c r="AP70" s="16"/>
       <c r="AQ70" s="16"/>
       <c r="AR70" s="16"/>
+    </row>
+    <row r="71" ht="14.25" customHeight="1">
+      <c r="A71" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="16"/>
+      <c r="W71" s="16"/>
+      <c r="X71" s="16"/>
+      <c r="Y71" s="16"/>
+      <c r="Z71" s="16"/>
+      <c r="AA71" s="16"/>
+      <c r="AB71" s="16"/>
+      <c r="AC71" s="16"/>
+      <c r="AD71" s="16"/>
+      <c r="AE71" s="16"/>
+      <c r="AF71" s="16"/>
+      <c r="AG71" s="16"/>
+      <c r="AH71" s="16"/>
+      <c r="AI71" s="16"/>
+      <c r="AJ71" s="16"/>
+      <c r="AK71" s="16"/>
+      <c r="AL71" s="16"/>
+      <c r="AM71" s="16"/>
+      <c r="AN71" s="16"/>
+      <c r="AO71" s="16"/>
+      <c r="AP71" s="16"/>
+      <c r="AQ71" s="16"/>
+      <c r="AR71" s="16"/>
+    </row>
+    <row r="72" ht="14.25" customHeight="1">
+      <c r="A72" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" s="17"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="16"/>
+      <c r="S72" s="16"/>
+      <c r="T72" s="16"/>
+      <c r="U72" s="16"/>
+      <c r="V72" s="16"/>
+      <c r="W72" s="16"/>
+      <c r="X72" s="16"/>
+      <c r="Y72" s="16"/>
+      <c r="Z72" s="16"/>
+      <c r="AA72" s="16"/>
+      <c r="AB72" s="16"/>
+      <c r="AC72" s="16"/>
+      <c r="AD72" s="16"/>
+      <c r="AE72" s="16"/>
+      <c r="AF72" s="16"/>
+      <c r="AG72" s="16"/>
+      <c r="AH72" s="16"/>
+      <c r="AI72" s="16"/>
+      <c r="AJ72" s="16"/>
+      <c r="AK72" s="16"/>
+      <c r="AL72" s="16"/>
+      <c r="AM72" s="16"/>
+      <c r="AN72" s="16"/>
+      <c r="AO72" s="16"/>
+      <c r="AP72" s="16"/>
+      <c r="AQ72" s="16"/>
+      <c r="AR72" s="16"/>
+    </row>
+    <row r="73" ht="14.25" customHeight="1">
+      <c r="A73" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" s="17"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
+      <c r="R73" s="16"/>
+      <c r="S73" s="16"/>
+      <c r="T73" s="16"/>
+      <c r="U73" s="16"/>
+      <c r="V73" s="16"/>
+      <c r="W73" s="16"/>
+      <c r="X73" s="16"/>
+      <c r="Y73" s="16"/>
+      <c r="Z73" s="16"/>
+      <c r="AA73" s="16"/>
+      <c r="AB73" s="16"/>
+      <c r="AC73" s="16"/>
+      <c r="AD73" s="16"/>
+      <c r="AE73" s="16"/>
+      <c r="AF73" s="16"/>
+      <c r="AG73" s="16"/>
+      <c r="AH73" s="16"/>
+      <c r="AI73" s="16"/>
+      <c r="AJ73" s="16"/>
+      <c r="AK73" s="16"/>
+      <c r="AL73" s="16"/>
+      <c r="AM73" s="16"/>
+      <c r="AN73" s="16"/>
+      <c r="AO73" s="16"/>
+      <c r="AP73" s="16"/>
+      <c r="AQ73" s="16"/>
+      <c r="AR73" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -5909,13 +6090,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -5955,30 +6136,30 @@
       <c r="Z1" s="8"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>224</v>
+      <c r="A2" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>227</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="H2" s="30"/>
+        <v>228</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" s="31"/>
       <c r="I2" s="19" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -5999,30 +6180,30 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>231</v>
+      <c r="A3" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>234</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="H3" s="30"/>
+        <v>235</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3" s="31"/>
       <c r="I3" s="19" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -6043,30 +6224,30 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="D4" s="31" t="s">
+      <c r="A4" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="B4" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="D4" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="H4" s="30"/>
+      <c r="E4" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="H4" s="31"/>
       <c r="I4" s="19" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -6087,30 +6268,30 @@
       <c r="Z4" s="8"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="E5" s="32" t="s">
+      <c r="A5" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="D5" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="H5" s="30"/>
+      <c r="E5" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="H5" s="31"/>
       <c r="I5" s="19" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -6131,30 +6312,30 @@
       <c r="Z5" s="8"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="E6" s="32" t="s">
+      <c r="B6" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="C6" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="D6" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="H6" s="30"/>
+      <c r="E6" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="H6" s="31"/>
       <c r="I6" s="19" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -6175,30 +6356,30 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="E7" s="32" t="s">
+      <c r="B7" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="C7" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="H7" s="30"/>
+      <c r="E7" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="H7" s="31"/>
       <c r="I7" s="19" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -6219,30 +6400,30 @@
       <c r="Z7" s="8"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="E8" s="32" t="s">
+      <c r="B8" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="C8" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="H8" s="30"/>
+      <c r="E8" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="H8" s="31"/>
       <c r="I8" s="19" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -6264,19 +6445,19 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
+        <v>275</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
       <c r="I9" s="19"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -6298,29 +6479,29 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="D10" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="B10" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="C10" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="D10" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="H10" s="30"/>
+      <c r="E10" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="H10" s="31"/>
       <c r="I10" s="19" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -6342,29 +6523,29 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="E11" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="C11" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="D11" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="H11" s="30"/>
+      <c r="E11" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="H11" s="31"/>
       <c r="I11" s="19" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -6386,29 +6567,29 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="E12" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="C12" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="G12" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="H12" s="30"/>
+      <c r="D12" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="H12" s="31"/>
       <c r="I12" s="19" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -6430,29 +6611,29 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="E13" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="B13" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="C13" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="D13" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="H13" s="30"/>
+      <c r="E13" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="H13" s="31"/>
       <c r="I13" s="19" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -6474,29 +6655,29 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="F14" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="H14" s="30"/>
+      <c r="E14" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="H14" s="31"/>
       <c r="I14" s="19" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -6518,29 +6699,29 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>310</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="E15" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="B15" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="C15" s="35" t="s">
         <v>313</v>
       </c>
-      <c r="G15" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="H15" s="30"/>
+      <c r="D15" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="H15" s="31"/>
       <c r="I15" s="19" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -6561,30 +6742,30 @@
       <c r="Z15" s="8"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>224</v>
+      <c r="A16" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>227</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="H16" s="30"/>
+        <v>228</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="H16" s="31"/>
       <c r="I16" s="19" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -6605,30 +6786,30 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="D17" s="27" t="s">
+      <c r="A17" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="E17" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="F17" s="28" t="s">
+      <c r="B17" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="D17" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="H17" s="30"/>
+      <c r="E17" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="H17" s="31"/>
       <c r="I17" s="19" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -6652,27 +6833,27 @@
       <c r="A18" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>324</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="E18" s="32" t="s">
+      <c r="B18" s="34" t="s">
         <v>326</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="C18" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="D18" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="H18" s="30"/>
+      <c r="E18" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="H18" s="31"/>
       <c r="I18" s="19" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -6696,27 +6877,27 @@
       <c r="A19" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>331</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="E19" s="32" t="s">
+      <c r="B19" s="34" t="s">
         <v>333</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="C19" s="35" t="s">
         <v>334</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="D19" s="28" t="s">
         <v>335</v>
       </c>
-      <c r="H19" s="30"/>
+      <c r="E19" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="H19" s="31"/>
       <c r="I19" s="19" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -6740,27 +6921,27 @@
       <c r="A20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="E20" s="32" t="s">
+      <c r="B20" s="34" t="s">
         <v>340</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="C20" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="G20" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="H20" s="30"/>
+      <c r="D20" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="H20" s="31"/>
       <c r="I20" s="19" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -6784,27 +6965,27 @@
       <c r="A21" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="F21" s="28" t="s">
+      <c r="B21" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="C21" s="35" t="s">
         <v>346</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="D21" s="28" t="s">
         <v>347</v>
       </c>
-      <c r="H21" s="30"/>
+      <c r="E21" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="H21" s="31"/>
       <c r="I21" s="19" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -6828,27 +7009,27 @@
       <c r="A22" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>351</v>
-      </c>
-      <c r="F22" s="28" t="s">
+      <c r="B22" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="D22" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="H22" s="30"/>
+      <c r="E22" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="H22" s="31"/>
       <c r="I22" s="19" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -6872,27 +7053,27 @@
       <c r="A23" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>355</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>357</v>
-      </c>
-      <c r="F23" s="28" t="s">
+      <c r="B23" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="C23" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="D23" s="28" t="s">
         <v>359</v>
       </c>
-      <c r="H23" s="30"/>
+      <c r="E23" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="H23" s="31"/>
       <c r="I23" s="19" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -6913,28 +7094,28 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="B24" s="33" t="s">
+      <c r="A24" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="B24" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="D24" s="27" t="s">
+      <c r="C24" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="D24" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H24" s="30"/>
+      <c r="H24" s="31"/>
       <c r="I24" s="19" t="s">
         <v>100</v>
       </c>
@@ -6990,19 +7171,19 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="8"/>
@@ -7027,20 +7208,20 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="C2" s="37" t="str">
+        <v>371</v>
+      </c>
+      <c r="C2" s="38" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v xml:space="preserve">2022-09-26 12-17</v>
+        <v xml:space="preserve">2023-01-26 16-02</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>

--- a/config/default/forms/contact/PLACE_TYPE-create.xlsx
+++ b/config/default/forms/contact/PLACE_TYPE-create.xlsx
@@ -621,7 +621,7 @@
     <t>create</t>
   </si>
   <si>
-    <t xml:space="preserve">selected( ${role},'chw') or selected( ${role},'chw_supervisor')</t>
+    <t xml:space="preserve">${phone} != '' and (selected( ${role},'chw') or selected( ${role},'chw_supervisor'))</t>
   </si>
   <si>
     <t>meta</t>
@@ -1149,31 +1149,31 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="10.000000"/>
       <name val="Arial"/>
-      <sz val="10.000000"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <b/>
       <sz val="11.000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11.000000"/>
       <name val="Calibri"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="11.000000"/>
       <name val="Arial"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
-      <color indexed="64"/>
-      <sz val="11.000000"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1261,7 +1261,7 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1295,7 +1295,10 @@
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="5" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf fontId="3" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="5" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4759,7 +4762,7 @@
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
       <c r="O50" s="16"/>
-      <c r="P50" s="24" t="s">
+      <c r="P50" s="25" t="s">
         <v>200</v>
       </c>
       <c r="Q50" s="16"/>
@@ -5250,7 +5253,7 @@
       <c r="AR59" s="16"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="26" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="17" t="s">
@@ -5314,7 +5317,7 @@
       <c r="AR60" s="16"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="26" t="s">
         <v>58</v>
       </c>
       <c r="B61" s="17" t="s">
@@ -6090,13 +6093,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -6136,28 +6139,28 @@
       <c r="Z1" s="8"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="29" t="s">
         <v>227</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="H2" s="31"/>
+      <c r="H2" s="32"/>
       <c r="I2" s="19" t="s">
         <v>231</v>
       </c>
@@ -6180,28 +6183,28 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="29" t="s">
         <v>234</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="H3" s="31"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="19" t="s">
         <v>238</v>
       </c>
@@ -6224,28 +6227,28 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="H4" s="31"/>
+      <c r="H4" s="32"/>
       <c r="I4" s="19" t="s">
         <v>246</v>
       </c>
@@ -6268,28 +6271,28 @@
       <c r="Z4" s="8"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="H5" s="31"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="19" t="s">
         <v>253</v>
       </c>
@@ -6312,28 +6315,28 @@
       <c r="Z5" s="8"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="H6" s="31"/>
+      <c r="H6" s="32"/>
       <c r="I6" s="19" t="s">
         <v>260</v>
       </c>
@@ -6356,28 +6359,28 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="H7" s="31"/>
+      <c r="H7" s="32"/>
       <c r="I7" s="19" t="s">
         <v>267</v>
       </c>
@@ -6400,28 +6403,28 @@
       <c r="Z7" s="8"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="36" t="s">
         <v>269</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="H8" s="31"/>
+      <c r="H8" s="32"/>
       <c r="I8" s="19" t="s">
         <v>274</v>
       </c>
@@ -6447,17 +6450,17 @@
       <c r="A9" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="36" t="s">
         <v>277</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
       <c r="I9" s="19"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -6481,25 +6484,25 @@
       <c r="A10" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="35" t="s">
         <v>279</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="34" t="s">
         <v>282</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="H10" s="31"/>
+      <c r="H10" s="32"/>
       <c r="I10" s="19" t="s">
         <v>285</v>
       </c>
@@ -6525,25 +6528,25 @@
       <c r="A11" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="36" t="s">
         <v>287</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="H11" s="31"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="19" t="s">
         <v>292</v>
       </c>
@@ -6569,25 +6572,25 @@
       <c r="A12" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="H12" s="31"/>
+      <c r="H12" s="32"/>
       <c r="I12" s="19" t="s">
         <v>298</v>
       </c>
@@ -6613,25 +6616,25 @@
       <c r="A13" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="36" t="s">
         <v>300</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="31" t="s">
         <v>304</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="32"/>
       <c r="I13" s="19" t="s">
         <v>305</v>
       </c>
@@ -6663,19 +6666,19 @@
       <c r="C14" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="34" t="s">
         <v>309</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="31" t="s">
         <v>311</v>
       </c>
-      <c r="H14" s="31"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="19" t="s">
         <v>307</v>
       </c>
@@ -6701,25 +6704,25 @@
       <c r="A15" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="36" t="s">
         <v>313</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="H15" s="31"/>
+      <c r="H15" s="32"/>
       <c r="I15" s="19" t="s">
         <v>317</v>
       </c>
@@ -6742,28 +6745,28 @@
       <c r="Z15" s="8"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="29" t="s">
         <v>227</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="H16" s="31"/>
+      <c r="H16" s="32"/>
       <c r="I16" s="19" t="s">
         <v>231</v>
       </c>
@@ -6786,28 +6789,28 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="34" t="s">
         <v>322</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="H17" s="31"/>
+      <c r="H17" s="32"/>
       <c r="I17" s="19" t="s">
         <v>325</v>
       </c>
@@ -6833,25 +6836,25 @@
       <c r="A18" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="36" t="s">
         <v>327</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="34" t="s">
         <v>329</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="H18" s="31"/>
+      <c r="H18" s="32"/>
       <c r="I18" s="19" t="s">
         <v>332</v>
       </c>
@@ -6877,25 +6880,25 @@
       <c r="A19" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="36" t="s">
         <v>334</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="34" t="s">
         <v>336</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="31" t="s">
         <v>338</v>
       </c>
-      <c r="H19" s="31"/>
+      <c r="H19" s="32"/>
       <c r="I19" s="19" t="s">
         <v>339</v>
       </c>
@@ -6921,25 +6924,25 @@
       <c r="A20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="36" t="s">
         <v>341</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="34" t="s">
         <v>343</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="32"/>
       <c r="I20" s="19" t="s">
         <v>345</v>
       </c>
@@ -6965,25 +6968,25 @@
       <c r="A21" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="36" t="s">
         <v>346</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="34" t="s">
         <v>348</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="31" t="s">
         <v>350</v>
       </c>
-      <c r="H21" s="31"/>
+      <c r="H21" s="32"/>
       <c r="I21" s="19" t="s">
         <v>351</v>
       </c>
@@ -7009,25 +7012,25 @@
       <c r="A22" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="30" t="s">
         <v>355</v>
       </c>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="31" t="s">
         <v>356</v>
       </c>
-      <c r="H22" s="31"/>
+      <c r="H22" s="32"/>
       <c r="I22" s="19" t="s">
         <v>357</v>
       </c>
@@ -7053,25 +7056,25 @@
       <c r="A23" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="37" t="s">
         <v>362</v>
       </c>
-      <c r="H23" s="31"/>
+      <c r="H23" s="32"/>
       <c r="I23" s="19" t="s">
         <v>363</v>
       </c>
@@ -7094,28 +7097,28 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H24" s="31"/>
+      <c r="H24" s="32"/>
       <c r="I24" s="19" t="s">
         <v>100</v>
       </c>
@@ -7213,9 +7216,9 @@
       <c r="B2" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="38" t="str">
+      <c r="C2" s="39" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v xml:space="preserve">2023-01-26 16-02</v>
+        <v xml:space="preserve">2023-02-14 7-41</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>372</v>

--- a/config/default/forms/contact/PLACE_TYPE-create.xlsx
+++ b/config/default/forms/contact/PLACE_TYPE-create.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="374">
   <si>
     <t>type</t>
   </si>
@@ -613,6 +613,15 @@
   </si>
   <si>
     <t>multiline</t>
+  </si>
+  <si>
+    <t>user_for_contact</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${phone} != '' and (selected( ${role},'chw') or selected( ${role},'chw_supervisor'))</t>
   </si>
   <si>
     <t>meta</t>
@@ -1138,28 +1147,33 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="10.000000"/>
       <name val="Arial"/>
-      <sz val="10.000000"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <b/>
       <sz val="11.000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11.000000"/>
       <name val="Calibri"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="11.000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
       <sz val="11.000000"/>
+      <color indexed="64"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1247,7 +1261,7 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1275,12 +1289,20 @@
     </xf>
     <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="4" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="5" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1">
+      <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3665,7 +3687,7 @@
       </c>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
-      <c r="N32" s="21" t="s">
+      <c r="N32" s="16" t="s">
         <v>117</v>
       </c>
       <c r="O32" s="16" t="s">
@@ -4003,7 +4025,7 @@
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
-      <c r="P38" s="22" t="s">
+      <c r="P38" s="21" t="s">
         <v>141</v>
       </c>
       <c r="Q38" s="16"/>
@@ -4096,7 +4118,7 @@
       <c r="B40" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="21" t="s">
         <v>145</v>
       </c>
       <c r="D40" s="18"/>
@@ -4224,7 +4246,7 @@
       </c>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
-      <c r="N42" s="23" t="b">
+      <c r="N42" s="22" t="b">
         <f t="shared" ref="N42:N43" si="0">TRUE()</f>
         <v>1</v>
       </c>
@@ -4293,7 +4315,7 @@
       </c>
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
-      <c r="N43" s="23" t="b">
+      <c r="N43" s="22" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4659,26 +4681,34 @@
       <c r="AR48" s="16"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
+      <c r="D49" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24" t="s">
+        <v>28</v>
+      </c>
       <c r="J49" s="16"/>
       <c r="K49" s="16"/>
-      <c r="L49" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="L49" s="16"/>
       <c r="M49" s="16"/>
       <c r="N49" s="16"/>
       <c r="O49" s="16"/>
@@ -4713,10 +4743,10 @@
       <c r="AR49" s="16"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="23" t="s">
         <v>199</v>
       </c>
       <c r="C50" s="16"/>
@@ -4732,7 +4762,7 @@
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
       <c r="O50" s="16"/>
-      <c r="P50" s="16" t="s">
+      <c r="P50" s="25" t="s">
         <v>200</v>
       </c>
       <c r="Q50" s="16"/>
@@ -4765,12 +4795,10 @@
       <c r="AR50" s="16"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>201</v>
-      </c>
+      <c r="A51" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="23"/>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
@@ -4784,9 +4812,7 @@
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
       <c r="O51" s="16"/>
-      <c r="P51" s="16" t="s">
-        <v>202</v>
-      </c>
+      <c r="P51" s="16"/>
       <c r="Q51" s="16"/>
       <c r="R51" s="16"/>
       <c r="S51" s="16"/>
@@ -4818,12 +4844,14 @@
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="17" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="C52" s="16"/>
+        <v>201</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
@@ -4832,13 +4860,13 @@
       <c r="I52" s="16"/>
       <c r="J52" s="16"/>
       <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
+      <c r="L52" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="M52" s="16"/>
       <c r="N52" s="16"/>
       <c r="O52" s="16"/>
-      <c r="P52" s="16" t="s">
-        <v>204</v>
-      </c>
+      <c r="P52" s="16"/>
       <c r="Q52" s="16"/>
       <c r="R52" s="16"/>
       <c r="S52" s="16"/>
@@ -4870,9 +4898,11 @@
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" s="17"/>
+        <v>59</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>202</v>
+      </c>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
@@ -4886,7 +4916,9 @@
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
       <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
+      <c r="P53" s="16" t="s">
+        <v>203</v>
+      </c>
       <c r="Q53" s="16"/>
       <c r="R53" s="16"/>
       <c r="S53" s="16"/>
@@ -4918,9 +4950,11 @@
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" s="17"/>
+        <v>59</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>204</v>
+      </c>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
@@ -4934,7 +4968,9 @@
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
       <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
+      <c r="P54" s="16" t="s">
+        <v>205</v>
+      </c>
       <c r="Q54" s="16"/>
       <c r="R54" s="16"/>
       <c r="S54" s="16"/>
@@ -4965,76 +5001,72 @@
       <c r="AR54" s="16"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="15"/>
+      <c r="A55" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
       <c r="I55" s="16"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="12"/>
-      <c r="U55" s="13"/>
-      <c r="V55" s="14"/>
-      <c r="W55" s="15"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="16"/>
+      <c r="W55" s="16"/>
       <c r="X55" s="16"/>
-      <c r="Y55" s="8"/>
-      <c r="Z55" s="8"/>
-      <c r="AA55" s="8"/>
-      <c r="AB55" s="8"/>
-      <c r="AC55" s="8"/>
-      <c r="AD55" s="8"/>
-      <c r="AE55" s="8"/>
-      <c r="AF55" s="8"/>
-      <c r="AG55" s="8"/>
-      <c r="AH55" s="8"/>
-      <c r="AI55" s="8"/>
-      <c r="AJ55" s="8"/>
-      <c r="AK55" s="8"/>
-      <c r="AL55" s="8"/>
+      <c r="Y55" s="16"/>
+      <c r="Z55" s="16"/>
+      <c r="AA55" s="16"/>
+      <c r="AB55" s="16"/>
+      <c r="AC55" s="16"/>
+      <c r="AD55" s="16"/>
+      <c r="AE55" s="16"/>
+      <c r="AF55" s="16"/>
+      <c r="AG55" s="16"/>
+      <c r="AH55" s="16"/>
+      <c r="AI55" s="16"/>
+      <c r="AJ55" s="16"/>
+      <c r="AK55" s="16"/>
+      <c r="AL55" s="16"/>
+      <c r="AM55" s="16"/>
+      <c r="AN55" s="16"/>
+      <c r="AO55" s="16"/>
+      <c r="AP55" s="16"/>
+      <c r="AQ55" s="16"/>
+      <c r="AR55" s="16"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G56" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B56" s="17"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
       <c r="H56" s="16"/>
-      <c r="I56" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="I56" s="16"/>
       <c r="J56" s="16"/>
       <c r="K56" s="16"/>
-      <c r="L56" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="L56" s="16"/>
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
       <c r="O56" s="16"/>
@@ -5069,31 +5101,17 @@
       <c r="AR56" s="16"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="A57" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="17"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
       <c r="H57" s="16"/>
-      <c r="I57" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="I57" s="16"/>
       <c r="J57" s="16"/>
       <c r="K57" s="16"/>
       <c r="L57" s="16"/>
@@ -5109,9 +5127,7 @@
       <c r="V57" s="16"/>
       <c r="W57" s="16"/>
       <c r="X57" s="16"/>
-      <c r="Y57" s="16" t="s">
-        <v>94</v>
-      </c>
+      <c r="Y57" s="16"/>
       <c r="Z57" s="16"/>
       <c r="AA57" s="16"/>
       <c r="AB57" s="16"/>
@@ -5133,101 +5149,75 @@
       <c r="AR57" s="16"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="16"/>
-      <c r="S58" s="16"/>
-      <c r="T58" s="16"/>
-      <c r="U58" s="16"/>
-      <c r="V58" s="16"/>
-      <c r="W58" s="16"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="13"/>
+      <c r="V58" s="14"/>
+      <c r="W58" s="15"/>
       <c r="X58" s="16"/>
-      <c r="Y58" s="16"/>
-      <c r="Z58" s="16"/>
-      <c r="AA58" s="16"/>
-      <c r="AB58" s="16"/>
-      <c r="AC58" s="16"/>
-      <c r="AD58" s="16"/>
-      <c r="AE58" s="16"/>
-      <c r="AF58" s="16"/>
-      <c r="AG58" s="16"/>
-      <c r="AH58" s="16"/>
-      <c r="AI58" s="16"/>
-      <c r="AJ58" s="16"/>
-      <c r="AK58" s="16"/>
-      <c r="AL58" s="16"/>
-      <c r="AM58" s="16"/>
-      <c r="AN58" s="16"/>
-      <c r="AO58" s="16"/>
-      <c r="AP58" s="16"/>
-      <c r="AQ58" s="16"/>
-      <c r="AR58" s="16"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="8"/>
+      <c r="AC58" s="8"/>
+      <c r="AD58" s="8"/>
+      <c r="AE58" s="8"/>
+      <c r="AF58" s="8"/>
+      <c r="AG58" s="8"/>
+      <c r="AH58" s="8"/>
+      <c r="AI58" s="8"/>
+      <c r="AJ58" s="8"/>
+      <c r="AK58" s="8"/>
+      <c r="AL58" s="8"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="17" t="s">
-        <v>205</v>
+        <v>26</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>207</v>
+        <v>28</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>208</v>
+        <v>28</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>209</v>
+        <v>28</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>210</v>
+        <v>28</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c r="H59" s="16"/>
       <c r="I59" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="J59" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K59" s="16" t="s">
-        <v>213</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
       <c r="L59" s="16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
@@ -5241,9 +5231,7 @@
       <c r="V59" s="16"/>
       <c r="W59" s="16"/>
       <c r="X59" s="16"/>
-      <c r="Y59" s="16" t="s">
-        <v>214</v>
-      </c>
+      <c r="Y59" s="16"/>
       <c r="Z59" s="16"/>
       <c r="AA59" s="16"/>
       <c r="AB59" s="16"/>
@@ -5265,42 +5253,38 @@
       <c r="AR59" s="16"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="17" t="s">
-        <v>59</v>
+      <c r="A60" s="26" t="s">
+        <v>58</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>97</v>
+        <v>28</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="H60" s="16"/>
       <c r="I60" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="J60" s="16" t="s">
-        <v>47</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="J60" s="16"/>
       <c r="K60" s="16"/>
       <c r="L60" s="16"/>
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
-      <c r="O60" s="22"/>
-      <c r="P60" s="16" t="s">
-        <v>216</v>
-      </c>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
       <c r="Q60" s="16"/>
       <c r="R60" s="16"/>
       <c r="S60" s="16"/>
@@ -5309,7 +5293,9 @@
       <c r="V60" s="16"/>
       <c r="W60" s="16"/>
       <c r="X60" s="16"/>
-      <c r="Y60" s="16"/>
+      <c r="Y60" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="Z60" s="16"/>
       <c r="AA60" s="16"/>
       <c r="AB60" s="16"/>
@@ -5331,30 +5317,30 @@
       <c r="AR60" s="16"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="17" t="s">
-        <v>30</v>
+      <c r="A61" s="26" t="s">
+        <v>58</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>187</v>
+        <v>28</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="G61" s="18" t="s">
-        <v>190</v>
+        <v>28</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="H61" s="16"/>
       <c r="I61" s="16" t="s">
-        <v>191</v>
+        <v>28</v>
       </c>
       <c r="J61" s="16"/>
       <c r="K61" s="16"/>
@@ -5394,34 +5380,38 @@
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="17" t="s">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>25</v>
+        <v>209</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="G62" s="18" t="s">
-        <v>196</v>
+        <v>213</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>214</v>
       </c>
       <c r="H62" s="16"/>
       <c r="I62" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
+        <v>215</v>
+      </c>
+      <c r="J62" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K62" s="16" t="s">
+        <v>216</v>
+      </c>
       <c r="L62" s="16" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="M62" s="16"/>
       <c r="N62" s="16"/>
@@ -5435,7 +5425,9 @@
       <c r="V62" s="16"/>
       <c r="W62" s="16"/>
       <c r="X62" s="16"/>
-      <c r="Y62" s="16"/>
+      <c r="Y62" s="16" t="s">
+        <v>217</v>
+      </c>
       <c r="Z62" s="16"/>
       <c r="AA62" s="16"/>
       <c r="AB62" s="16"/>
@@ -5461,23 +5453,37 @@
         <v>59</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>97</v>
+      </c>
       <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
+      <c r="I63" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="J63" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="K63" s="16"/>
       <c r="L63" s="16"/>
       <c r="M63" s="16"/>
       <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
+      <c r="O63" s="21"/>
       <c r="P63" s="16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q63" s="16"/>
       <c r="R63" s="16"/>
@@ -5510,27 +5516,37 @@
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="17" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
+        <v>185</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>190</v>
+      </c>
       <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
+      <c r="I64" s="16" t="s">
+        <v>191</v>
+      </c>
       <c r="J64" s="16"/>
       <c r="K64" s="16"/>
       <c r="L64" s="16"/>
       <c r="M64" s="16"/>
       <c r="N64" s="16"/>
       <c r="O64" s="16"/>
-      <c r="P64" s="16" t="s">
-        <v>220</v>
-      </c>
+      <c r="P64" s="16"/>
       <c r="Q64" s="16"/>
       <c r="R64" s="16"/>
       <c r="S64" s="16"/>
@@ -5562,34 +5578,34 @@
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>28</v>
+        <v>193</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>28</v>
+        <v>194</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="H65" s="16"/>
       <c r="I65" s="16" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="J65" s="16"/>
       <c r="K65" s="16"/>
       <c r="L65" s="16" t="s">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c r="M65" s="16"/>
       <c r="N65" s="16"/>
@@ -5629,7 +5645,7 @@
         <v>59</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>199</v>
+        <v>86</v>
       </c>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
@@ -5645,7 +5661,7 @@
       <c r="N66" s="16"/>
       <c r="O66" s="16"/>
       <c r="P66" s="16" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="Q66" s="16"/>
       <c r="R66" s="16"/>
@@ -5681,7 +5697,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
@@ -5697,7 +5713,7 @@
       <c r="N67" s="16"/>
       <c r="O67" s="16"/>
       <c r="P67" s="16" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="Q67" s="16"/>
       <c r="R67" s="16"/>
@@ -5730,27 +5746,39 @@
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="17" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
+        <v>201</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>28</v>
+      </c>
       <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
+      <c r="I68" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="J68" s="16"/>
       <c r="K68" s="16"/>
-      <c r="L68" s="16"/>
+      <c r="L68" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="M68" s="16"/>
       <c r="N68" s="16"/>
       <c r="O68" s="16"/>
-      <c r="P68" s="16" t="s">
-        <v>204</v>
-      </c>
+      <c r="P68" s="16"/>
       <c r="Q68" s="16"/>
       <c r="R68" s="16"/>
       <c r="S68" s="16"/>
@@ -5782,9 +5810,11 @@
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B69" s="17"/>
+        <v>59</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>202</v>
+      </c>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
@@ -5798,7 +5828,9 @@
       <c r="M69" s="16"/>
       <c r="N69" s="16"/>
       <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
+      <c r="P69" s="16" t="s">
+        <v>203</v>
+      </c>
       <c r="Q69" s="16"/>
       <c r="R69" s="16"/>
       <c r="S69" s="16"/>
@@ -5830,9 +5862,11 @@
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B70" s="17"/>
+        <v>59</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>204</v>
+      </c>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
@@ -5846,7 +5880,9 @@
       <c r="M70" s="16"/>
       <c r="N70" s="16"/>
       <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
+      <c r="P70" s="16" t="s">
+        <v>205</v>
+      </c>
       <c r="Q70" s="16"/>
       <c r="R70" s="16"/>
       <c r="S70" s="16"/>
@@ -5875,6 +5911,154 @@
       <c r="AP70" s="16"/>
       <c r="AQ70" s="16"/>
       <c r="AR70" s="16"/>
+    </row>
+    <row r="71" ht="14.25" customHeight="1">
+      <c r="A71" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="16"/>
+      <c r="W71" s="16"/>
+      <c r="X71" s="16"/>
+      <c r="Y71" s="16"/>
+      <c r="Z71" s="16"/>
+      <c r="AA71" s="16"/>
+      <c r="AB71" s="16"/>
+      <c r="AC71" s="16"/>
+      <c r="AD71" s="16"/>
+      <c r="AE71" s="16"/>
+      <c r="AF71" s="16"/>
+      <c r="AG71" s="16"/>
+      <c r="AH71" s="16"/>
+      <c r="AI71" s="16"/>
+      <c r="AJ71" s="16"/>
+      <c r="AK71" s="16"/>
+      <c r="AL71" s="16"/>
+      <c r="AM71" s="16"/>
+      <c r="AN71" s="16"/>
+      <c r="AO71" s="16"/>
+      <c r="AP71" s="16"/>
+      <c r="AQ71" s="16"/>
+      <c r="AR71" s="16"/>
+    </row>
+    <row r="72" ht="14.25" customHeight="1">
+      <c r="A72" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" s="17"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="16"/>
+      <c r="S72" s="16"/>
+      <c r="T72" s="16"/>
+      <c r="U72" s="16"/>
+      <c r="V72" s="16"/>
+      <c r="W72" s="16"/>
+      <c r="X72" s="16"/>
+      <c r="Y72" s="16"/>
+      <c r="Z72" s="16"/>
+      <c r="AA72" s="16"/>
+      <c r="AB72" s="16"/>
+      <c r="AC72" s="16"/>
+      <c r="AD72" s="16"/>
+      <c r="AE72" s="16"/>
+      <c r="AF72" s="16"/>
+      <c r="AG72" s="16"/>
+      <c r="AH72" s="16"/>
+      <c r="AI72" s="16"/>
+      <c r="AJ72" s="16"/>
+      <c r="AK72" s="16"/>
+      <c r="AL72" s="16"/>
+      <c r="AM72" s="16"/>
+      <c r="AN72" s="16"/>
+      <c r="AO72" s="16"/>
+      <c r="AP72" s="16"/>
+      <c r="AQ72" s="16"/>
+      <c r="AR72" s="16"/>
+    </row>
+    <row r="73" ht="14.25" customHeight="1">
+      <c r="A73" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" s="17"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
+      <c r="R73" s="16"/>
+      <c r="S73" s="16"/>
+      <c r="T73" s="16"/>
+      <c r="U73" s="16"/>
+      <c r="V73" s="16"/>
+      <c r="W73" s="16"/>
+      <c r="X73" s="16"/>
+      <c r="Y73" s="16"/>
+      <c r="Z73" s="16"/>
+      <c r="AA73" s="16"/>
+      <c r="AB73" s="16"/>
+      <c r="AC73" s="16"/>
+      <c r="AD73" s="16"/>
+      <c r="AE73" s="16"/>
+      <c r="AF73" s="16"/>
+      <c r="AG73" s="16"/>
+      <c r="AH73" s="16"/>
+      <c r="AI73" s="16"/>
+      <c r="AJ73" s="16"/>
+      <c r="AK73" s="16"/>
+      <c r="AL73" s="16"/>
+      <c r="AM73" s="16"/>
+      <c r="AN73" s="16"/>
+      <c r="AO73" s="16"/>
+      <c r="AP73" s="16"/>
+      <c r="AQ73" s="16"/>
+      <c r="AR73" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -5909,13 +6093,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -5955,30 +6139,30 @@
       <c r="Z1" s="8"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>224</v>
+      <c r="A2" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>227</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="H2" s="30"/>
+        <v>228</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" s="32"/>
       <c r="I2" s="19" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -5999,30 +6183,30 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>231</v>
+      <c r="A3" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>234</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="H3" s="30"/>
+        <v>235</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3" s="32"/>
       <c r="I3" s="19" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -6043,30 +6227,30 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="D4" s="31" t="s">
+      <c r="A4" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="B4" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="C4" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="D4" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="H4" s="30"/>
+      <c r="E4" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="H4" s="32"/>
       <c r="I4" s="19" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -6087,30 +6271,30 @@
       <c r="Z4" s="8"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="E5" s="32" t="s">
+      <c r="A5" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="C5" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="D5" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="H5" s="30"/>
+      <c r="E5" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="H5" s="32"/>
       <c r="I5" s="19" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -6131,30 +6315,30 @@
       <c r="Z5" s="8"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="E6" s="32" t="s">
+      <c r="B6" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="C6" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="D6" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="H6" s="30"/>
+      <c r="E6" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="H6" s="32"/>
       <c r="I6" s="19" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -6175,30 +6359,30 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="E7" s="32" t="s">
+      <c r="B7" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="C7" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="D7" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="H7" s="30"/>
+      <c r="E7" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="H7" s="32"/>
       <c r="I7" s="19" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -6219,30 +6403,30 @@
       <c r="Z7" s="8"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="E8" s="32" t="s">
+      <c r="B8" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="C8" s="36" t="s">
         <v>269</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="D8" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="H8" s="30"/>
+      <c r="E8" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="H8" s="32"/>
       <c r="I8" s="19" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -6264,19 +6448,19 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
+        <v>275</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
       <c r="I9" s="19"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -6298,29 +6482,29 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="D10" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="B10" s="35" t="s">
         <v>279</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="C10" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="D10" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="H10" s="30"/>
+      <c r="E10" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="H10" s="32"/>
       <c r="I10" s="19" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -6342,29 +6526,29 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="E11" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="C11" s="36" t="s">
         <v>287</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="D11" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="H11" s="30"/>
+      <c r="E11" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="H11" s="32"/>
       <c r="I11" s="19" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -6386,29 +6570,29 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="E12" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="B12" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="C12" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="G12" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="H12" s="30"/>
+      <c r="D12" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="H12" s="32"/>
       <c r="I12" s="19" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -6430,29 +6614,29 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="E13" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="B13" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="C13" s="36" t="s">
         <v>300</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="D13" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="H13" s="30"/>
+      <c r="E13" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="H13" s="32"/>
       <c r="I13" s="19" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -6474,29 +6658,29 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="F14" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="D14" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="H14" s="30"/>
+      <c r="E14" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="H14" s="32"/>
       <c r="I14" s="19" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -6518,29 +6702,29 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>310</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="E15" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="B15" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="C15" s="36" t="s">
         <v>313</v>
       </c>
-      <c r="G15" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="H15" s="30"/>
+      <c r="D15" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="H15" s="32"/>
       <c r="I15" s="19" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -6561,30 +6745,30 @@
       <c r="Z15" s="8"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>224</v>
+      <c r="A16" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>227</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="H16" s="30"/>
+        <v>228</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="H16" s="32"/>
       <c r="I16" s="19" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -6605,30 +6789,30 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="D17" s="27" t="s">
+      <c r="A17" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="E17" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="F17" s="28" t="s">
+      <c r="B17" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="D17" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="H17" s="30"/>
+      <c r="E17" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="H17" s="32"/>
       <c r="I17" s="19" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -6652,27 +6836,27 @@
       <c r="A18" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>324</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="E18" s="32" t="s">
+      <c r="B18" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="C18" s="36" t="s">
         <v>327</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="D18" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="H18" s="30"/>
+      <c r="E18" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="H18" s="32"/>
       <c r="I18" s="19" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -6696,27 +6880,27 @@
       <c r="A19" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>331</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="E19" s="32" t="s">
+      <c r="B19" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="C19" s="36" t="s">
         <v>334</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="D19" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="H19" s="30"/>
+      <c r="E19" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="H19" s="32"/>
       <c r="I19" s="19" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -6740,27 +6924,27 @@
       <c r="A20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="E20" s="32" t="s">
+      <c r="B20" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="C20" s="36" t="s">
         <v>341</v>
       </c>
-      <c r="G20" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="H20" s="30"/>
+      <c r="D20" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="H20" s="32"/>
       <c r="I20" s="19" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -6784,27 +6968,27 @@
       <c r="A21" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="F21" s="28" t="s">
+      <c r="B21" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C21" s="36" t="s">
         <v>346</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="D21" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="H21" s="30"/>
+      <c r="E21" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="H21" s="32"/>
       <c r="I21" s="19" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -6828,27 +7012,27 @@
       <c r="A22" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>351</v>
-      </c>
-      <c r="F22" s="28" t="s">
+      <c r="B22" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="C22" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="D22" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="H22" s="30"/>
+      <c r="E22" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="H22" s="32"/>
       <c r="I22" s="19" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -6872,27 +7056,27 @@
       <c r="A23" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>355</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>357</v>
-      </c>
-      <c r="F23" s="28" t="s">
+      <c r="B23" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="C23" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="D23" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="H23" s="30"/>
+      <c r="E23" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="H23" s="32"/>
       <c r="I23" s="19" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -6913,28 +7097,28 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="B24" s="33" t="s">
+      <c r="A24" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="B24" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="D24" s="27" t="s">
+      <c r="C24" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D24" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H24" s="30"/>
+      <c r="H24" s="32"/>
       <c r="I24" s="19" t="s">
         <v>100</v>
       </c>
@@ -6990,19 +7174,19 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="8"/>
@@ -7027,20 +7211,20 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="C2" s="37" t="str">
+        <v>371</v>
+      </c>
+      <c r="C2" s="39" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v xml:space="preserve">2022-09-26 12-17</v>
+        <v xml:space="preserve">2023-02-14 7-41</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>

--- a/config/default/forms/contact/PLACE_TYPE-create.xlsx
+++ b/config/default/forms/contact/PLACE_TYPE-create.xlsx
@@ -1,21 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\apoorva\cht-core\config\default\forms\contact\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B216D9D5-6F06-43AE-BBB3-96E687F5800F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="choices" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="settings" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="373">
   <si>
     <t>type</t>
   </si>
@@ -95,7 +113,7 @@
     <t>notes</t>
   </si>
   <si>
-    <t xml:space="preserve">begin group</t>
+    <t>begin group</t>
   </si>
   <si>
     <t>inputs</t>
@@ -113,19 +131,19 @@
     <t>contact_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Contact ID of the logged in user</t>
+    <t>Contact ID of the logged in user</t>
   </si>
   <si>
     <t>facility_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Place ID of the logged in user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of the logged in user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end group</t>
+    <t>Place ID of the logged in user</t>
+  </si>
+  <si>
+    <t>Name of the logged in user</t>
+  </si>
+  <si>
+    <t>end group</t>
   </si>
   <si>
     <t>init</t>
@@ -134,28 +152,28 @@
     <t>field-list</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one contact</t>
+    <t>select_one contact</t>
   </si>
   <si>
     <t>create_new_person</t>
   </si>
   <si>
-    <t xml:space="preserve">Set the Primary Contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">प्राथमिक कॉंटॅक्ट चुनें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ditetapkan Sebagai Kontak Utama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weka mwasiliwa mkuu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">प्राथमिक सम्पर्क व्यक्ति</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact primaire</t>
+    <t>Set the Primary Contact</t>
+  </si>
+  <si>
+    <t>प्राथमिक कॉंटॅक्ट चुनें</t>
+  </si>
+  <si>
+    <t>Ditetapkan Sebagai Kontak Utama</t>
+  </si>
+  <si>
+    <t>Weka mwasiliwa mkuu</t>
+  </si>
+  <si>
+    <t>प्राथमिक सम्पर्क व्यक्ति</t>
+  </si>
+  <si>
+    <t>Contact primaire</t>
   </si>
   <si>
     <t>yes</t>
@@ -164,33 +182,27 @@
     <t>columns-pack</t>
   </si>
   <si>
-    <t>db:person</t>
-  </si>
-  <si>
     <t>select_person</t>
   </si>
   <si>
-    <t xml:space="preserve">Select the Primary Contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilih Kontak Utama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chagua Mwasiliwa mkuu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">प्राथमिक सम्पर्क व्यक्ति छान्नुहोस्</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choisisser le contact primaire</t>
+    <t>Select the Primary Contact</t>
+  </si>
+  <si>
+    <t>Pilih Kontak Utama</t>
+  </si>
+  <si>
+    <t>Chagua Mwasiliwa mkuu</t>
+  </si>
+  <si>
+    <t>प्राथमिक सम्पर्क व्यक्ति छान्नुहोस्</t>
+  </si>
+  <si>
+    <t>Choisisser le contact primaire</t>
   </si>
   <si>
     <t>selected(${create_new_person},'old_person')</t>
   </si>
   <si>
-    <t>db-object</t>
-  </si>
-  <si>
     <t>hidden</t>
   </si>
   <si>
@@ -200,16 +212,16 @@
     <t>contact_name</t>
   </si>
   <si>
-    <t xml:space="preserve">coalesce(../../contact/name, ../name)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one translate_name_label</t>
+    <t>coalesce(../../contact/name, ../name)</t>
+  </si>
+  <si>
+    <t>select_one translate_name_label</t>
   </si>
   <si>
     <t>custom_place_name_label_translator</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(${create_new_person},'none') or selected(${is_name_generated}, 'false')</t>
+    <t>selected(${create_new_person},'none') or selected(${is_name_generated}, 'false')</t>
   </si>
   <si>
     <t>"name"</t>
@@ -227,31 +239,31 @@
     <t>${custom_place_name_label}</t>
   </si>
   <si>
-    <t xml:space="preserve">Standalone question only if no contact is selected, so show label accordingly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one place_type</t>
+    <t>Standalone question only if no contact is selected, so show label accordingly</t>
+  </si>
+  <si>
+    <t>select_one place_type</t>
   </si>
   <si>
     <t>place_type</t>
   </si>
   <si>
-    <t xml:space="preserve">Enter the name of this place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">इस स्थान का नाम दर्ज करें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masukkan nama tempat ini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaza jina la eneo hii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">यस स्थानको नाम लेख्नुहोस्</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom de l'endroit</t>
+    <t>Enter the name of this place</t>
+  </si>
+  <si>
+    <t>इस स्थान का नाम दर्ज करें</t>
+  </si>
+  <si>
+    <t>Masukkan nama tempat ini</t>
+  </si>
+  <si>
+    <t>Jaza jina la eneo hii</t>
+  </si>
+  <si>
+    <t>यस स्थानको नाम लेख्नुहोस्</t>
+  </si>
+  <si>
+    <t>Nom de l'endroit</t>
   </si>
   <si>
     <t>PLACE_TYPE</t>
@@ -263,7 +275,7 @@
     <t>jr:choice-name(${place_type},'${place_type}')</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one generated_name</t>
+    <t>select_one generated_name</t>
   </si>
   <si>
     <t>generated_name</t>
@@ -278,19 +290,19 @@
     <t>contact</t>
   </si>
   <si>
-    <t xml:space="preserve">New Person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">नया व्यक्ति</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orang Baru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtu Mpya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nouvelle personne</t>
+    <t>New Person</t>
+  </si>
+  <si>
+    <t>नया व्यक्ति</t>
+  </si>
+  <si>
+    <t>Orang Baru</t>
+  </si>
+  <si>
+    <t>Mtu Mpya</t>
+  </si>
+  <si>
+    <t>Nouvelle personne</t>
   </si>
   <si>
     <t>selected(${create_new_person},'new_person')</t>
@@ -305,7 +317,7 @@
     <t>person</t>
   </si>
   <si>
-    <t xml:space="preserve">Full Name</t>
+    <t>Full Name</t>
   </si>
   <si>
     <t>नाम</t>
@@ -326,19 +338,19 @@
     <t>short_name</t>
   </si>
   <si>
-    <t xml:space="preserve">Short name</t>
+    <t>Short name</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t xml:space="preserve">string-length(.) &lt;= 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short name can not be more than 10 characters long.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please enter a short name that is preferred by the person.</t>
+    <t>string-length(.) &lt;= 10</t>
+  </si>
+  <si>
+    <t>Short name can not be more than 10 characters long.</t>
+  </si>
+  <si>
+    <t>Please enter a short name that is preferred by the person.</t>
   </si>
   <si>
     <t>date_of_birth</t>
@@ -368,13 +380,13 @@
     <t>not(selected(../dob_method,'approx'))</t>
   </si>
   <si>
-    <t xml:space="preserve">. &lt;= now()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date must be before today</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of Birth</t>
+    <t>. &lt;= now()</t>
+  </si>
+  <si>
+    <t>Date must be before today</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
   </si>
   <si>
     <t>note</t>
@@ -398,10 +410,10 @@
     <t>Years</t>
   </si>
   <si>
-    <t xml:space="preserve">. &gt;= 0 and . &lt;= 130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age must be between 0 and 130</t>
+    <t>. &gt;= 0 and . &lt;= 130</t>
+  </si>
+  <si>
+    <t>Age must be between 0 and 130</t>
   </si>
   <si>
     <t>age_months</t>
@@ -410,13 +422,13 @@
     <t>Months</t>
   </si>
   <si>
-    <t xml:space="preserve">. &gt;= 0 and . &lt;= 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Months must between 0 and 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_multiple select_dob_method</t>
+    <t>. &gt;= 0 and . &lt;= 11</t>
+  </si>
+  <si>
+    <t>Months must between 0 and 11</t>
+  </si>
+  <si>
+    <t>select_multiple select_dob_method</t>
   </si>
   <si>
     <t>dob_method</t>
@@ -434,13 +446,13 @@
     <t>DOB</t>
   </si>
   <si>
-    <t xml:space="preserve">add-date(today(), 0-${age_years}, 0-${age_months})</t>
+    <t>add-date(today(), 0-${age_years}, 0-${age_months})</t>
   </si>
   <si>
     <t>dob_raw</t>
   </si>
   <si>
-    <t xml:space="preserve">if(not(selected( ../dob_method,'approx')), 
+    <t>if(not(selected( ../dob_method,'approx')), 
 ../dob_calendar,
 ../dob_approx)</t>
   </si>
@@ -454,7 +466,7 @@
     <t>dob_debug</t>
   </si>
   <si>
-    <t xml:space="preserve">DOB Approx: ${dob_approx}
+    <t>DOB Approx: ${dob_approx}
 DOB Calendar: ${dob_calendar}
 DOB ISO: ${dob_iso}</t>
   </si>
@@ -465,49 +477,49 @@
     <t>phone</t>
   </si>
   <si>
-    <t xml:space="preserve">Phone Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">फोन नंबर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nomor Telepon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namba ya Simi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">फाेन नम्बर</t>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>फोन नंबर</t>
+  </si>
+  <si>
+    <t>Nomor Telepon</t>
+  </si>
+  <si>
+    <t>Namba ya Simi</t>
+  </si>
+  <si>
+    <t>फाेन नम्बर</t>
   </si>
   <si>
     <t>Téléphone</t>
   </si>
   <si>
-    <t xml:space="preserve">Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +254712345678</t>
+    <t>Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +254712345678</t>
   </si>
   <si>
     <t>phone_alternate</t>
   </si>
   <si>
-    <t xml:space="preserve">Alternate Phone Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अन्य फोन नंबर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nomor Telepon Alternatif</t>
+    <t>Alternate Phone Number</t>
+  </si>
+  <si>
+    <t>अन्य फोन नंबर</t>
+  </si>
+  <si>
+    <t>Nomor Telepon Alternatif</t>
   </si>
   <si>
     <t xml:space="preserve">Namba Ya </t>
   </si>
   <si>
-    <t xml:space="preserve">बैकल्पिक फाेन नम्बर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Téléphone alternatif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one male_female</t>
+    <t>बैकल्पिक फाेन नम्बर</t>
+  </si>
+  <si>
+    <t>Téléphone alternatif</t>
+  </si>
+  <si>
+    <t>select_one male_female</t>
   </si>
   <si>
     <t>sex</t>
@@ -519,7 +531,7 @@
     <t>लिंग</t>
   </si>
   <si>
-    <t xml:space="preserve">Jenis kelamin</t>
+    <t>Jenis kelamin</t>
   </si>
   <si>
     <t>Jinsia</t>
@@ -528,7 +540,7 @@
     <t>Sexe</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one roles</t>
+    <t>select_one roles</t>
   </si>
   <si>
     <t>role</t>
@@ -543,7 +555,7 @@
     <t>Peran</t>
   </si>
   <si>
-    <t xml:space="preserve">Namba ya simu Nyingine</t>
+    <t>Namba ya simu Nyingine</t>
   </si>
   <si>
     <t>भुमिका</t>
@@ -555,46 +567,46 @@
     <t>role_other</t>
   </si>
   <si>
-    <t xml:space="preserve">Specify other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अन्य का उल्‍लेख करें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tentukan lainnya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fafanua vingine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अन्य उल्लेख गर्नुहोस्</t>
+    <t>Specify other</t>
+  </si>
+  <si>
+    <t>अन्य का उल्‍लेख करें</t>
+  </si>
+  <si>
+    <t>Tentukan lainnya</t>
+  </si>
+  <si>
+    <t>Fafanua vingine</t>
+  </si>
+  <si>
+    <t>अन्य उल्लेख गर्नुहोस्</t>
   </si>
   <si>
     <t>Specifier</t>
   </si>
   <si>
-    <t xml:space="preserve">selected( ${role},'other')</t>
+    <t>selected( ${role},'other')</t>
   </si>
   <si>
     <t>external_id</t>
   </si>
   <si>
-    <t xml:space="preserve">External ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">बाहरी ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eksternal ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kitambulisho cha nje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">बाहिरि ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifiant externe</t>
+    <t>External ID</t>
+  </si>
+  <si>
+    <t>बाहरी ID</t>
+  </si>
+  <si>
+    <t>Eksternal ID</t>
+  </si>
+  <si>
+    <t>Kitambulisho cha nje</t>
+  </si>
+  <si>
+    <t>बाहिरि ID</t>
+  </si>
+  <si>
+    <t>Identifiant externe</t>
   </si>
   <si>
     <t>Notes</t>
@@ -621,7 +633,7 @@
     <t>create</t>
   </si>
   <si>
-    <t xml:space="preserve">${phone} != '' and (selected( ${role},'chw') or selected( ${role},'chw_supervisor'))</t>
+    <t>${phone} != '' and (selected( ${role},'chw') or selected( ${role},'chw_supervisor'))</t>
   </si>
   <si>
     <t>meta</t>
@@ -645,28 +657,28 @@
     <t>../../../inputs/user/facility_id</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one yes_no_generated_name</t>
+    <t>select_one yes_no_generated_name</t>
   </si>
   <si>
     <t>is_name_generated</t>
   </si>
   <si>
-    <t xml:space="preserve">Would you like to name the place after the primary contact: "${generated_name_translation}"?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">क्या आप इस स्थान को प्राथमिक कॉंटॅक्ट का नाम देना चाहेंगे?: ${generated_name_translation}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apakah Anda ingin nama tempat setelah kontak utama: "${generated_name_translation}"?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Je, Ungependa kuita eneo hii kama mwasilishi mkuu wa eneo hii? "${generated_name_translation}"?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">के तपाइ यस स्थानकाे प्राथमिक सम्पर्क नाम दिन चाहानु हुन्छ?:${generated_name_translation}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voulez-vous nommer l'endroit: "${generated_name_translation}"?</t>
+    <t>Would you like to name the place after the primary contact: "${generated_name_translation}"?</t>
+  </si>
+  <si>
+    <t>क्या आप इस स्थान को प्राथमिक कॉंटॅक्ट का नाम देना चाहेंगे?: ${generated_name_translation}</t>
+  </si>
+  <si>
+    <t>Apakah Anda ingin nama tempat setelah kontak utama: "${generated_name_translation}"?</t>
+  </si>
+  <si>
+    <t>Je, Ungependa kuita eneo hii kama mwasilishi mkuu wa eneo hii? "${generated_name_translation}"?</t>
+  </si>
+  <si>
+    <t>के तपाइ यस स्थानकाे प्राथमिक सम्पर्क नाम दिन चाहानु हुन्छ?:${generated_name_translation}</t>
+  </si>
+  <si>
+    <t>Voulez-vous nommer l'endroit: "${generated_name_translation}"?</t>
   </si>
   <si>
     <t>not(selected(${create_new_person},'none'))</t>
@@ -678,19 +690,19 @@
     <t>Name</t>
   </si>
   <si>
-    <t xml:space="preserve">if( ( selected(${is_name_generated}, 'true') or selected(${is_name_generated}, 'yes') ), ${generated_name_translation}, ${custom_place_name})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namba ya nje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if(selected(${create_new_person},'none'), "", coalesce(${select_person},"NEW"))</t>
+    <t>if( ( selected(${is_name_generated}, 'true') or selected(${is_name_generated}, 'yes') ), ${generated_name_translation}, ${custom_place_name})</t>
+  </si>
+  <si>
+    <t>Namba ya nje</t>
+  </si>
+  <si>
+    <t>if(selected(${create_new_person},'none'), "", coalesce(${select_person},"NEW"))</t>
   </si>
   <si>
     <t>geolocation</t>
   </si>
   <si>
-    <t xml:space="preserve">concat(../../inputs/meta/location/lat, concat(' ', ../../inputs/meta/location/long))</t>
+    <t>concat(../../inputs/meta/location/lat, concat(' ', ../../inputs/meta/location/long))</t>
   </si>
   <si>
     <t>list_name</t>
@@ -786,64 +798,64 @@
     <t>new_person</t>
   </si>
   <si>
-    <t xml:space="preserve">Create a new person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">एक नया व्यक्ति बनाएं</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buat orang baru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ongeza mtumizi mpya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">एक नया व्यक्ति बनाउनुस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Créer une nouvelle personne</t>
+    <t>Create a new person</t>
+  </si>
+  <si>
+    <t>एक नया व्यक्ति बनाएं</t>
+  </si>
+  <si>
+    <t>Buat orang baru</t>
+  </si>
+  <si>
+    <t>Ongeza mtumizi mpya</t>
+  </si>
+  <si>
+    <t>एक नया व्यक्ति बनाउनुस</t>
+  </si>
+  <si>
+    <t>Créer une nouvelle personne</t>
   </si>
   <si>
     <t>old_person</t>
   </si>
   <si>
-    <t xml:space="preserve">Select an existing person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">मौजूदा व्यक्ति चुनें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilih orang yang ada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chagua mtumizi aliyesajlishwa apo awali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">व्यक्ति छान्नुहोस्</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selectiionner une personne existant</t>
+    <t>Select an existing person</t>
+  </si>
+  <si>
+    <t>मौजूदा व्यक्ति चुनें</t>
+  </si>
+  <si>
+    <t>Pilih orang yang ada</t>
+  </si>
+  <si>
+    <t>Chagua mtumizi aliyesajlishwa apo awali</t>
+  </si>
+  <si>
+    <t>व्यक्ति छान्नुहोस्</t>
+  </si>
+  <si>
+    <t>Selectiionner une personne existant</t>
   </si>
   <si>
     <t>none</t>
   </si>
   <si>
-    <t xml:space="preserve">Skip this step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">इस स्टेप को छोड़ दें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lewati langkah ini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruka hatua ii</t>
+    <t>Skip this step</t>
+  </si>
+  <si>
+    <t>इस स्टेप को छोड़ दें</t>
+  </si>
+  <si>
+    <t>Lewati langkah ini</t>
+  </si>
+  <si>
+    <t>Ruka hatua ii</t>
   </si>
   <si>
     <t xml:space="preserve">एख </t>
   </si>
   <si>
-    <t xml:space="preserve">Sauter cette section</t>
+    <t>Sauter cette section</t>
   </si>
   <si>
     <t>select_dob_method</t>
@@ -852,7 +864,7 @@
     <t>approx</t>
   </si>
   <si>
-    <t xml:space="preserve">Date of birth unknown</t>
+    <t>Date of birth unknown</t>
   </si>
   <si>
     <t>roles</t>
@@ -864,16 +876,16 @@
     <t>CHW</t>
   </si>
   <si>
-    <t xml:space="preserve">सामुदायिक स्वास्थ्य कर्मी</t>
+    <t>सामुदायिक स्वास्थ्य कर्मी</t>
   </si>
   <si>
     <t>Kader</t>
   </si>
   <si>
-    <t xml:space="preserve">Mhudumu wa afya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">महिला स्वास्थ्य स्वयम् सेविका</t>
+    <t>Mhudumu wa afya</t>
+  </si>
+  <si>
+    <t>महिला स्वास्थ्य स्वयम् सेविका</t>
   </si>
   <si>
     <t>ASC</t>
@@ -882,22 +894,22 @@
     <t>chw_supervisor</t>
   </si>
   <si>
-    <t xml:space="preserve">CHW Supervisor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सामुदायिक स्वास्थ्य कर्मी के मैनेजर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kader Pengawas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mkuu wa wahudumu wa afya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">महिला स्वास्थ्य स्वयम् सेविकाको सुपरभाइजर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superviseur ASC</t>
+    <t>CHW Supervisor</t>
+  </si>
+  <si>
+    <t>सामुदायिक स्वास्थ्य कर्मी के मैनेजर</t>
+  </si>
+  <si>
+    <t>Kader Pengawas</t>
+  </si>
+  <si>
+    <t>Mkuu wa wahudumu wa afya</t>
+  </si>
+  <si>
+    <t>महिला स्वास्थ्य स्वयम् सेविकाको सुपरभाइजर</t>
+  </si>
+  <si>
+    <t>Superviseur ASC</t>
   </si>
   <si>
     <t>nurse</t>
@@ -921,22 +933,22 @@
     <t>manager</t>
   </si>
   <si>
-    <t xml:space="preserve">Facility Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्वास्थ्य केंद्र के मैनजर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manajer Fasilitas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meneja wa Kituo cha afya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्वास्थ्य सस्था प्रमुख</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Staff médical</t>
+    <t>Facility Manager</t>
+  </si>
+  <si>
+    <t>स्वास्थ्य केंद्र के मैनजर</t>
+  </si>
+  <si>
+    <t>Manajer Fasilitas</t>
+  </si>
+  <si>
+    <t>Meneja wa Kituo cha afya</t>
+  </si>
+  <si>
+    <t>स्वास्थ्य सस्था प्रमुख</t>
+  </si>
+  <si>
+    <t>Staff médical</t>
   </si>
   <si>
     <t>patient</t>
@@ -981,28 +993,28 @@
     <t>हो</t>
   </si>
   <si>
-    <t xml:space="preserve">No, I want to name it manually</t>
-  </si>
-  <si>
-    <t xml:space="preserve">नहीं, मैं इसे मैन्युअल रूप से नाम देना चाहता हूं</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tidak, saya ingin nama itu secara manual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hapana, ningependa kuijaza mwenyewe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">होइन, म आफैँ नाम दिन चाहन्छु</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non, je veux nommer ça manuellement</t>
+    <t>No, I want to name it manually</t>
+  </si>
+  <si>
+    <t>नहीं, मैं इसे मैन्युअल रूप से नाम देना चाहता हूं</t>
+  </si>
+  <si>
+    <t>Tidak, saya ingin nama itu secara manual</t>
+  </si>
+  <si>
+    <t>Hapana, ningependa kuijaza mwenyewe</t>
+  </si>
+  <si>
+    <t>होइन, म आफैँ नाम दिन चाहन्छु</t>
+  </si>
+  <si>
+    <t>Non, je veux nommer ça manuellement</t>
   </si>
   <si>
     <t>district_hospital</t>
   </si>
   <si>
-    <t xml:space="preserve">Health Facility</t>
+    <t>Health Facility</t>
   </si>
   <si>
     <t>ज़िला</t>
@@ -1026,19 +1038,19 @@
     <t>Area</t>
   </si>
   <si>
-    <t xml:space="preserve">स्वास्थ्य केंद्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fasilitas Kesehatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kituo cha afya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्वास्थ्य केन्द्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centre de santé</t>
+    <t>स्वास्थ्य केंद्र</t>
+  </si>
+  <si>
+    <t>Fasilitas Kesehatan</t>
+  </si>
+  <si>
+    <t>Kituo cha afya</t>
+  </si>
+  <si>
+    <t>स्वास्थ्य केन्द्र</t>
+  </si>
+  <si>
+    <t>Centre de santé</t>
   </si>
   <si>
     <t>clinic</t>
@@ -1059,58 +1071,58 @@
     <t>Zone</t>
   </si>
   <si>
-    <t xml:space="preserve">${contact_name}'s Health Facility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name} का ज़िला</t>
+    <t>${contact_name}'s Health Facility</t>
+  </si>
+  <si>
+    <t>${contact_name} का ज़िला</t>
   </si>
   <si>
     <t xml:space="preserve">Kabupaten ${contact_name} </t>
   </si>
   <si>
-    <t xml:space="preserve">WIlaya ya  ${contact_name}</t>
+    <t>WIlaya ya  ${contact_name}</t>
   </si>
   <si>
     <t xml:space="preserve">${contact_name}को जिल्ला </t>
   </si>
   <si>
-    <t xml:space="preserve">District de ${contact_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name}'s Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name} का स्वास्थ्य केंद्र</t>
+    <t>District de ${contact_name}</t>
+  </si>
+  <si>
+    <t>${contact_name}'s Area</t>
+  </si>
+  <si>
+    <t>${contact_name} का स्वास्थ्य केंद्र</t>
   </si>
   <si>
     <t xml:space="preserve">Fasilitas Kesehatan ${contact_name} </t>
   </si>
   <si>
-    <t xml:space="preserve">Kituo cha afya cha  ${contact_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name}को स्वास्थ्य केन्द्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centre de santé de ${contact_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name}'s Household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name} का क्षेत्र</t>
+    <t>Kituo cha afya cha  ${contact_name}</t>
+  </si>
+  <si>
+    <t>${contact_name}को स्वास्थ्य केन्द्र</t>
+  </si>
+  <si>
+    <t>Centre de santé de ${contact_name}</t>
+  </si>
+  <si>
+    <t>${contact_name}'s Household</t>
+  </si>
+  <si>
+    <t>${contact_name} का क्षेत्र</t>
   </si>
   <si>
     <t xml:space="preserve">Daerah ${contact_name} </t>
   </si>
   <si>
-    <t xml:space="preserve">Eneo ya  ${contact_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name}को क्षेत्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone de ${contact_name}</t>
+    <t>Eneo ya  ${contact_name}</t>
+  </si>
+  <si>
+    <t>${contact_name}को क्षेत्र</t>
+  </si>
+  <si>
+    <t>Zone de ${contact_name}</t>
   </si>
   <si>
     <t>translate_name_label</t>
@@ -1131,7 +1143,7 @@
     <t>default_language</t>
   </si>
   <si>
-    <t xml:space="preserve">New PLACE_NAME</t>
+    <t>New PLACE_NAME</t>
   </si>
   <si>
     <t>contact:PLACE_TYPE:create</t>
@@ -1141,37 +1153,36 @@
   </si>
   <si>
     <t>en</t>
+  </si>
+  <si>
+    <t>select-contact type-person</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color indexed="64"/>
       <name val="Calibri"/>
     </font>
@@ -1228,7 +1239,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
-        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
@@ -1253,93 +1263,77 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="4" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="3" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="5" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1347,295 +1341,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:themeElements>
     <a:clrScheme name="">
       <a:dk1>
@@ -1687,7 +1401,7 @@
         <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1758,51 +1472,52 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AR73"/>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" zoomScale="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="P39" activeCellId="0" sqref="P39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="P39" sqref="P39"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="0" width="34"/>
-    <col customWidth="1" min="2" max="2" style="0" width="22.710000000000001"/>
-    <col customWidth="1" min="3" max="3" style="0" width="47.859999999999999"/>
-    <col customWidth="1" min="4" max="4" style="0" width="33.43"/>
-    <col customWidth="1" min="5" max="5" style="0" width="27.43"/>
-    <col customWidth="1" min="6" max="6" style="0" width="37.289999999999999"/>
-    <col customWidth="1" min="7" max="7" style="0" width="31.289999999999999"/>
-    <col customWidth="1" min="8" max="8" style="0" width="8.1400000000000006"/>
-    <col customWidth="1" min="9" max="9" style="0" width="16.710000000000001"/>
-    <col customWidth="1" min="10" max="10" style="0" width="8.1400000000000006"/>
-    <col customWidth="1" min="11" max="11" style="0" width="51.43"/>
-    <col customWidth="1" min="12" max="13" style="0" width="10.710000000000001"/>
-    <col customWidth="1" min="14" max="14" style="0" width="25.300000000000001"/>
-    <col customWidth="1" min="15" max="15" style="0" width="46.289999999999999"/>
-    <col customWidth="1" min="16" max="16" style="0" width="68.849999999999994"/>
-    <col customWidth="1" min="17" max="17" style="0" width="9.4299999999999997"/>
-    <col customWidth="1" min="18" max="18" style="0" width="33.43"/>
-    <col customWidth="1" min="19" max="19" style="0" width="36.289999999999999"/>
-    <col customWidth="1" min="20" max="23" style="0" width="13.57"/>
-    <col customWidth="1" min="24" max="24" style="0" width="7.7000000000000002"/>
-    <col customWidth="1" min="25" max="25" style="0" width="8.6999999999999993"/>
-    <col customWidth="1" min="26" max="26" style="0" width="35.850000000000001"/>
-    <col customWidth="1" min="27" max="36" style="0" width="7.7000000000000002"/>
-    <col customWidth="1" min="37" max="38" style="0" width="15.140000000000001"/>
-    <col customWidth="1" min="39" max="44" style="0" width="17.289999999999999"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="47.88671875" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" customWidth="1"/>
+    <col min="11" max="11" width="51.44140625" customWidth="1"/>
+    <col min="12" max="13" width="10.6640625" customWidth="1"/>
+    <col min="14" max="14" width="25.33203125" customWidth="1"/>
+    <col min="15" max="15" width="46.33203125" customWidth="1"/>
+    <col min="16" max="16" width="68.88671875" customWidth="1"/>
+    <col min="17" max="17" width="9.44140625" customWidth="1"/>
+    <col min="18" max="18" width="33.44140625" customWidth="1"/>
+    <col min="19" max="19" width="36.33203125" customWidth="1"/>
+    <col min="20" max="23" width="13.5546875" customWidth="1"/>
+    <col min="24" max="24" width="7.6640625" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" customWidth="1"/>
+    <col min="26" max="26" width="35.88671875" customWidth="1"/>
+    <col min="27" max="36" width="7.6640625" customWidth="1"/>
+    <col min="37" max="38" width="15.109375" customWidth="1"/>
+    <col min="39" max="44" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:44" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1894,7 +1609,7 @@
       <c r="AK1" s="8"/>
       <c r="AL1" s="8"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:44" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>26</v>
       </c>
@@ -1921,7 +1636,7 @@
         <v>28</v>
       </c>
       <c r="J2" s="10"/>
-      <c r="K2" s="10">
+      <c r="K2" s="10" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -1959,7 +1674,7 @@
       <c r="AQ2" s="10"/>
       <c r="AR2" s="10"/>
     </row>
-    <row r="3" ht="15">
+    <row r="3" spans="1:44">
       <c r="A3" s="9" t="s">
         <v>26</v>
       </c>
@@ -2021,7 +1736,7 @@
       <c r="AQ3" s="10"/>
       <c r="AR3" s="10"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:44" ht="14.25" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>30</v>
       </c>
@@ -2085,7 +1800,7 @@
       <c r="AQ4" s="10"/>
       <c r="AR4" s="10"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:44" ht="14.25" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>30</v>
       </c>
@@ -2149,7 +1864,7 @@
       <c r="AQ5" s="10"/>
       <c r="AR5" s="10"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:44" ht="14.25" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>30</v>
       </c>
@@ -2213,7 +1928,7 @@
       <c r="AQ6" s="10"/>
       <c r="AR6" s="10"/>
     </row>
-    <row r="7" ht="15">
+    <row r="7" spans="1:44">
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
@@ -2261,7 +1976,7 @@
       <c r="AQ7" s="10"/>
       <c r="AR7" s="10"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:44" ht="14.25" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>36</v>
       </c>
@@ -2309,7 +2024,7 @@
       <c r="AQ8" s="10"/>
       <c r="AR8" s="10"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:44" ht="14.25" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2349,7 +2064,7 @@
       <c r="AK9" s="8"/>
       <c r="AL9" s="8"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:44" ht="14.25" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>26</v>
       </c>
@@ -2413,7 +2128,7 @@
       <c r="AQ10" s="16"/>
       <c r="AR10" s="16"/>
     </row>
-    <row r="11" ht="13.5" customHeight="1">
+    <row r="11" spans="1:44" ht="13.5" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>39</v>
       </c>
@@ -2479,40 +2194,40 @@
       <c r="AQ11" s="16"/>
       <c r="AR11" s="16"/>
     </row>
-    <row r="12" ht="13.5" customHeight="1">
+    <row r="12" spans="1:44" ht="13.5" customHeight="1">
       <c r="A12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="G12" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>54</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J12" s="16" t="s">
         <v>47</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>57</v>
+        <v>372</v>
       </c>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
@@ -2547,7 +2262,7 @@
       <c r="AQ12" s="16"/>
       <c r="AR12" s="16"/>
     </row>
-    <row r="13" ht="15">
+    <row r="13" spans="1:44">
       <c r="A13" s="17" t="s">
         <v>30</v>
       </c>
@@ -2576,7 +2291,7 @@
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
@@ -2611,12 +2326,12 @@
       <c r="AQ13" s="16"/>
       <c r="AR13" s="16"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:44" ht="14.25" customHeight="1">
       <c r="A14" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -2632,7 +2347,7 @@
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
@@ -2663,12 +2378,12 @@
       <c r="AQ14" s="16"/>
       <c r="AR14" s="16"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:44" ht="14.25" customHeight="1">
       <c r="A15" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>28</v>
@@ -2691,16 +2406,16 @@
       </c>
       <c r="J15" s="16"/>
       <c r="K15" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
@@ -2731,12 +2446,12 @@
       <c r="AQ15" s="16"/>
       <c r="AR15" s="16"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:44" ht="14.25" customHeight="1">
       <c r="A16" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="18"/>
@@ -2752,7 +2467,7 @@
       <c r="N16" s="16"/>
       <c r="O16" s="18"/>
       <c r="P16" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
@@ -2783,37 +2498,37 @@
       <c r="AQ16" s="16"/>
       <c r="AR16" s="16"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:44" ht="14.25" customHeight="1">
       <c r="A17" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J17" s="16" t="s">
         <v>47</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
@@ -2830,7 +2545,7 @@
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AA17" s="16"/>
       <c r="AB17" s="16"/>
@@ -2851,36 +2566,36 @@
       <c r="AQ17" s="16"/>
       <c r="AR17" s="16"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:44" ht="14.25" customHeight="1">
       <c r="A18" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="E18" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="F18" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="G18" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>77</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
@@ -2895,7 +2610,7 @@
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
       <c r="Y18" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Z18" s="16"/>
       <c r="AA18" s="16"/>
@@ -2917,12 +2632,12 @@
       <c r="AQ18" s="16"/>
       <c r="AR18" s="16"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:44" ht="14.25" customHeight="1">
       <c r="A19" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -2938,7 +2653,7 @@
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
       <c r="P19" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
@@ -2969,12 +2684,12 @@
       <c r="AQ19" s="16"/>
       <c r="AR19" s="16"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:44" ht="14.25" customHeight="1">
       <c r="A20" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>28</v>
@@ -2998,7 +2713,7 @@
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
@@ -3013,7 +2728,7 @@
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
       <c r="Y20" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Z20" s="16"/>
       <c r="AA20" s="16"/>
@@ -3035,12 +2750,12 @@
       <c r="AQ20" s="16"/>
       <c r="AR20" s="16"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:44" ht="14.25" customHeight="1">
       <c r="A21" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -3056,7 +2771,7 @@
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
       <c r="P21" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
@@ -3087,7 +2802,7 @@
       <c r="AQ21" s="16"/>
       <c r="AR21" s="16"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:44" ht="14.25" customHeight="1">
       <c r="A22" s="17" t="s">
         <v>36</v>
       </c>
@@ -3135,7 +2850,7 @@
       <c r="AQ22" s="16"/>
       <c r="AR22" s="16"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:44" ht="14.25" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -3175,35 +2890,35 @@
       <c r="AK23" s="8"/>
       <c r="AL23" s="8"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:44" ht="14.25" customHeight="1">
       <c r="A24" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="E24" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="F24" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>90</v>
-      </c>
       <c r="G24" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L24" s="16" t="s">
         <v>38</v>
@@ -3241,12 +2956,12 @@
       <c r="AQ24" s="16"/>
       <c r="AR24" s="16"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:44" ht="14.25" customHeight="1">
       <c r="A25" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>28</v>
@@ -3283,7 +2998,7 @@
       <c r="W25" s="16"/>
       <c r="X25" s="16"/>
       <c r="Y25" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Z25" s="16"/>
       <c r="AA25" s="16"/>
@@ -3305,9 +3020,9 @@
       <c r="AQ25" s="16"/>
       <c r="AR25" s="16"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:44" ht="14.25" customHeight="1">
       <c r="A26" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>0</v>
@@ -3347,7 +3062,7 @@
       <c r="W26" s="16"/>
       <c r="X26" s="16"/>
       <c r="Y26" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Z26" s="16"/>
       <c r="AA26" s="16"/>
@@ -3369,7 +3084,7 @@
       <c r="AQ26" s="16"/>
       <c r="AR26" s="16"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:44" ht="14.25" customHeight="1">
       <c r="A27" s="17" t="s">
         <v>30</v>
       </c>
@@ -3377,23 +3092,23 @@
         <v>1</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="F27" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>99</v>
-      </c>
       <c r="G27" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H27" s="16"/>
       <c r="I27" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J27" s="16" t="s">
         <v>47</v>
@@ -3402,7 +3117,7 @@
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
       <c r="N27" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
@@ -3435,15 +3150,15 @@
       <c r="AQ27" s="16"/>
       <c r="AR27" s="16"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:44" ht="14.25" customHeight="1">
       <c r="A28" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -3452,21 +3167,21 @@
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
       <c r="M28" s="16"/>
       <c r="N28" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
       <c r="R28" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
@@ -3495,12 +3210,12 @@
       <c r="AQ28" s="16"/>
       <c r="AR28" s="16"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:44" ht="14.25" customHeight="1">
       <c r="A29" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="18"/>
@@ -3518,7 +3233,7 @@
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
       <c r="P29" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
@@ -3549,12 +3264,12 @@
       <c r="AQ29" s="16"/>
       <c r="AR29" s="16"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:44" ht="14.25" customHeight="1">
       <c r="A30" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="18"/>
@@ -3570,7 +3285,7 @@
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
       <c r="P30" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
@@ -3601,12 +3316,12 @@
       <c r="AQ30" s="16"/>
       <c r="AR30" s="16"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:44" ht="14.25" customHeight="1">
       <c r="A31" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>28</v>
@@ -3663,15 +3378,15 @@
       <c r="AQ31" s="16"/>
       <c r="AR31" s="16"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:44" ht="14.25" customHeight="1">
       <c r="A32" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>115</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="16"/>
@@ -3683,20 +3398,20 @@
         <v>47</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
       <c r="N32" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O32" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
       <c r="R32" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="S32" s="16"/>
       <c r="T32" s="16"/>
@@ -3725,15 +3440,15 @@
       <c r="AQ32" s="16"/>
       <c r="AR32" s="16"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="1:44" ht="14.25" customHeight="1">
       <c r="A33" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>120</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>122</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
@@ -3743,7 +3458,7 @@
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
       <c r="K33" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
@@ -3779,15 +3494,15 @@
       <c r="AQ33" s="16"/>
       <c r="AR33" s="16"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:44" ht="14.25" customHeight="1">
       <c r="A34" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>126</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="16"/>
@@ -3799,15 +3514,15 @@
         <v>47</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
       <c r="N34" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O34" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P34" s="16"/>
       <c r="Q34" s="16"/>
@@ -3839,15 +3554,15 @@
       <c r="AQ34" s="16"/>
       <c r="AR34" s="16"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:44" ht="14.25" customHeight="1">
       <c r="A35" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="16"/>
@@ -3857,15 +3572,15 @@
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
       <c r="K35" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
       <c r="N35" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O35" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P35" s="16"/>
       <c r="Q35" s="16"/>
@@ -3897,15 +3612,15 @@
       <c r="AQ35" s="16"/>
       <c r="AR35" s="16"/>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:44" ht="14.25" customHeight="1">
       <c r="A36" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>135</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="16"/>
@@ -3916,7 +3631,7 @@
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
       <c r="L36" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
@@ -3951,15 +3666,15 @@
       <c r="AQ36" s="16"/>
       <c r="AR36" s="16"/>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:44" ht="14.25" customHeight="1">
       <c r="A37" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="16"/>
@@ -3974,7 +3689,7 @@
       <c r="N37" s="16"/>
       <c r="O37" s="16"/>
       <c r="P37" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
@@ -4005,12 +3720,12 @@
       <c r="AQ37" s="16"/>
       <c r="AR37" s="16"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:44" ht="14.25" customHeight="1">
       <c r="A38" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="18"/>
@@ -4026,7 +3741,7 @@
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
       <c r="P38" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q38" s="16"/>
       <c r="R38" s="16"/>
@@ -4057,15 +3772,15 @@
       <c r="AQ38" s="16"/>
       <c r="AR38" s="16"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:44" ht="14.25" customHeight="1">
       <c r="A39" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="16"/>
@@ -4080,7 +3795,7 @@
       <c r="N39" s="16"/>
       <c r="O39" s="16"/>
       <c r="P39" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q39" s="16"/>
       <c r="R39" s="16"/>
@@ -4111,15 +3826,15 @@
       <c r="AQ39" s="16"/>
       <c r="AR39" s="16"/>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="1:44" ht="14.25" customHeight="1">
       <c r="A40" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="16"/>
@@ -4166,7 +3881,7 @@
       <c r="AQ40" s="16"/>
       <c r="AR40" s="16"/>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="1:44" ht="14.25" customHeight="1">
       <c r="A41" s="17" t="s">
         <v>36</v>
       </c>
@@ -4214,35 +3929,35 @@
       <c r="AQ41" s="16"/>
       <c r="AR41" s="16"/>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:44" ht="14.25" customHeight="1">
       <c r="A42" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="D42" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="E42" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="F42" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="G42" s="16" t="s">
         <v>150</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>152</v>
       </c>
       <c r="H42" s="16"/>
       <c r="I42" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J42" s="16"/>
       <c r="K42" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
@@ -4251,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="O42" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P42" s="16"/>
       <c r="Q42" s="16"/>
@@ -4283,35 +3998,35 @@
       <c r="AQ42" s="16"/>
       <c r="AR42" s="16"/>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="1:44" ht="14.25" customHeight="1">
       <c r="A43" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B43" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="E43" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="F43" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="G43" s="16" t="s">
         <v>158</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>160</v>
       </c>
       <c r="H43" s="16"/>
       <c r="I43" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J43" s="16"/>
       <c r="K43" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
@@ -4320,7 +4035,7 @@
         <v>1</v>
       </c>
       <c r="O43" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P43" s="16"/>
       <c r="Q43" s="16"/>
@@ -4352,40 +4067,40 @@
       <c r="AQ43" s="16"/>
       <c r="AR43" s="16"/>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="1:44" ht="14.25" customHeight="1">
       <c r="A44" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="D44" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="E44" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="F44" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="E44" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>167</v>
-      </c>
       <c r="G44" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H44" s="16"/>
       <c r="I44" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J44" s="16" t="s">
         <v>47</v>
       </c>
       <c r="K44" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L44" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M44" s="16"/>
       <c r="N44" s="16"/>
@@ -4420,35 +4135,35 @@
       <c r="AQ44" s="16"/>
       <c r="AR44" s="16"/>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="1:44" ht="14.25" customHeight="1">
       <c r="A45" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="D45" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="E45" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="F45" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="G45" s="16" t="s">
         <v>173</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>175</v>
       </c>
       <c r="H45" s="16"/>
       <c r="I45" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J45" s="16"/>
       <c r="K45" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
@@ -4484,37 +4199,37 @@
       <c r="AQ45" s="16"/>
       <c r="AR45" s="16"/>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="1:44" ht="14.25" customHeight="1">
       <c r="A46" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B46" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="E46" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="F46" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="G46" s="16" t="s">
         <v>180</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>182</v>
       </c>
       <c r="H46" s="16"/>
       <c r="I46" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J46" s="16" t="s">
         <v>47</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L46" s="16"/>
       <c r="M46" s="16"/>
@@ -4550,35 +4265,35 @@
       <c r="AQ46" s="16"/>
       <c r="AR46" s="16"/>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:44" ht="14.25" customHeight="1">
       <c r="A47" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B47" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="E47" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="F47" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="G47" s="16" t="s">
         <v>188</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>190</v>
       </c>
       <c r="H47" s="16"/>
       <c r="I47" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J47" s="16"/>
       <c r="K47" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L47" s="16"/>
       <c r="M47" s="16"/>
@@ -4614,7 +4329,7 @@
       <c r="AQ47" s="16"/>
       <c r="AR47" s="16"/>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="1:44" ht="14.25" customHeight="1">
       <c r="A48" s="17" t="s">
         <v>30</v>
       </c>
@@ -4622,30 +4337,30 @@
         <v>25</v>
       </c>
       <c r="C48" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="F48" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="G48" s="16" t="s">
         <v>194</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>196</v>
       </c>
       <c r="H48" s="16"/>
       <c r="I48" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J48" s="16"/>
       <c r="K48" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L48" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M48" s="16"/>
       <c r="N48" s="16"/>
@@ -4680,12 +4395,12 @@
       <c r="AQ48" s="16"/>
       <c r="AR48" s="16"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="1:44" ht="14.25" customHeight="1">
       <c r="A49" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C49" s="24" t="s">
         <v>28</v>
@@ -4742,12 +4457,12 @@
       <c r="AQ49" s="16"/>
       <c r="AR49" s="16"/>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="1:44" ht="14.25" customHeight="1">
       <c r="A50" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
@@ -4763,7 +4478,7 @@
       <c r="N50" s="16"/>
       <c r="O50" s="16"/>
       <c r="P50" s="25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q50" s="16"/>
       <c r="R50" s="16"/>
@@ -4794,7 +4509,7 @@
       <c r="AQ50" s="16"/>
       <c r="AR50" s="16"/>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="1:44" ht="14.25" customHeight="1">
       <c r="A51" s="23" t="s">
         <v>36</v>
       </c>
@@ -4842,12 +4557,12 @@
       <c r="AQ51" s="16"/>
       <c r="AR51" s="16"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="1:44" ht="14.25" customHeight="1">
       <c r="A52" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>28</v>
@@ -4861,7 +4576,7 @@
       <c r="J52" s="16"/>
       <c r="K52" s="16"/>
       <c r="L52" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M52" s="16"/>
       <c r="N52" s="16"/>
@@ -4896,12 +4611,12 @@
       <c r="AQ52" s="16"/>
       <c r="AR52" s="16"/>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="1:44" ht="14.25" customHeight="1">
       <c r="A53" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
@@ -4917,7 +4632,7 @@
       <c r="N53" s="16"/>
       <c r="O53" s="16"/>
       <c r="P53" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Q53" s="16"/>
       <c r="R53" s="16"/>
@@ -4948,12 +4663,12 @@
       <c r="AQ53" s="16"/>
       <c r="AR53" s="16"/>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="1:44" ht="14.25" customHeight="1">
       <c r="A54" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
@@ -4969,7 +4684,7 @@
       <c r="N54" s="16"/>
       <c r="O54" s="16"/>
       <c r="P54" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q54" s="16"/>
       <c r="R54" s="16"/>
@@ -5000,12 +4715,12 @@
       <c r="AQ54" s="16"/>
       <c r="AR54" s="16"/>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="1:44" ht="14.25" customHeight="1">
       <c r="A55" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
@@ -5021,7 +4736,7 @@
       <c r="N55" s="16"/>
       <c r="O55" s="16"/>
       <c r="P55" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q55" s="16"/>
       <c r="R55" s="16"/>
@@ -5052,7 +4767,7 @@
       <c r="AQ55" s="16"/>
       <c r="AR55" s="16"/>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="1:44" ht="14.25" customHeight="1">
       <c r="A56" s="17" t="s">
         <v>36</v>
       </c>
@@ -5100,7 +4815,7 @@
       <c r="AQ56" s="16"/>
       <c r="AR56" s="16"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="1:44" ht="14.25" customHeight="1">
       <c r="A57" s="17" t="s">
         <v>36</v>
       </c>
@@ -5148,7 +4863,7 @@
       <c r="AQ57" s="16"/>
       <c r="AR57" s="16"/>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="1:44" ht="14.25" customHeight="1">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -5188,12 +4903,12 @@
       <c r="AK58" s="8"/>
       <c r="AL58" s="8"/>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="1:44" ht="14.25" customHeight="1">
       <c r="A59" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>28</v>
@@ -5252,12 +4967,12 @@
       <c r="AQ59" s="16"/>
       <c r="AR59" s="16"/>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="1:44" ht="14.25" customHeight="1">
       <c r="A60" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>28</v>
@@ -5294,7 +5009,7 @@
       <c r="W60" s="16"/>
       <c r="X60" s="16"/>
       <c r="Y60" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Z60" s="16"/>
       <c r="AA60" s="16"/>
@@ -5316,9 +5031,9 @@
       <c r="AQ60" s="16"/>
       <c r="AR60" s="16"/>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="1:44" ht="14.25" customHeight="1">
       <c r="A61" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B61" s="17" t="s">
         <v>0</v>
@@ -5378,37 +5093,37 @@
       <c r="AQ61" s="16"/>
       <c r="AR61" s="16"/>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="1:44" ht="14.25" customHeight="1">
       <c r="A62" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C62" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="D62" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="E62" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="F62" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="G62" s="16" t="s">
         <v>212</v>
-      </c>
-      <c r="F62" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>214</v>
       </c>
       <c r="H62" s="16"/>
       <c r="I62" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J62" s="16" t="s">
         <v>47</v>
       </c>
       <c r="K62" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L62" s="16" t="s">
         <v>48</v>
@@ -5426,7 +5141,7 @@
       <c r="W62" s="16"/>
       <c r="X62" s="16"/>
       <c r="Y62" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Z62" s="16"/>
       <c r="AA62" s="16"/>
@@ -5448,31 +5163,31 @@
       <c r="AQ62" s="16"/>
       <c r="AR62" s="16"/>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="1:44" ht="14.25" customHeight="1">
       <c r="A63" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B63" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D63" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F63" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E63" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>99</v>
-      </c>
       <c r="G63" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H63" s="16"/>
       <c r="I63" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J63" s="16" t="s">
         <v>47</v>
@@ -5483,7 +5198,7 @@
       <c r="N63" s="16"/>
       <c r="O63" s="21"/>
       <c r="P63" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Q63" s="16"/>
       <c r="R63" s="16"/>
@@ -5514,31 +5229,31 @@
       <c r="AQ63" s="16"/>
       <c r="AR63" s="16"/>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="1:44" ht="14.25" customHeight="1">
       <c r="A64" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B64" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="E64" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="D64" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="E64" s="16" t="s">
+      <c r="F64" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="G64" s="18" t="s">
         <v>188</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="G64" s="18" t="s">
-        <v>190</v>
       </c>
       <c r="H64" s="16"/>
       <c r="I64" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J64" s="16"/>
       <c r="K64" s="16"/>
@@ -5576,7 +5291,7 @@
       <c r="AQ64" s="16"/>
       <c r="AR64" s="16"/>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="1:44" ht="14.25" customHeight="1">
       <c r="A65" s="17" t="s">
         <v>30</v>
       </c>
@@ -5584,28 +5299,28 @@
         <v>25</v>
       </c>
       <c r="C65" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E65" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="D65" s="16" t="s">
+      <c r="F65" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="G65" s="18" t="s">
         <v>194</v>
-      </c>
-      <c r="F65" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="G65" s="18" t="s">
-        <v>196</v>
       </c>
       <c r="H65" s="16"/>
       <c r="I65" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J65" s="16"/>
       <c r="K65" s="16"/>
       <c r="L65" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M65" s="16"/>
       <c r="N65" s="16"/>
@@ -5640,12 +5355,12 @@
       <c r="AQ65" s="16"/>
       <c r="AR65" s="16"/>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="1:44" ht="14.25" customHeight="1">
       <c r="A66" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
@@ -5661,7 +5376,7 @@
       <c r="N66" s="16"/>
       <c r="O66" s="16"/>
       <c r="P66" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="Q66" s="16"/>
       <c r="R66" s="16"/>
@@ -5692,12 +5407,12 @@
       <c r="AQ66" s="16"/>
       <c r="AR66" s="16"/>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="1:44" ht="14.25" customHeight="1">
       <c r="A67" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
@@ -5713,7 +5428,7 @@
       <c r="N67" s="16"/>
       <c r="O67" s="16"/>
       <c r="P67" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Q67" s="16"/>
       <c r="R67" s="16"/>
@@ -5744,12 +5459,12 @@
       <c r="AQ67" s="16"/>
       <c r="AR67" s="16"/>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="1:44" ht="14.25" customHeight="1">
       <c r="A68" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C68" s="16" t="s">
         <v>28</v>
@@ -5773,7 +5488,7 @@
       <c r="J68" s="16"/>
       <c r="K68" s="16"/>
       <c r="L68" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M68" s="16"/>
       <c r="N68" s="16"/>
@@ -5808,12 +5523,12 @@
       <c r="AQ68" s="16"/>
       <c r="AR68" s="16"/>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="1:44" ht="14.25" customHeight="1">
       <c r="A69" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
@@ -5829,7 +5544,7 @@
       <c r="N69" s="16"/>
       <c r="O69" s="16"/>
       <c r="P69" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Q69" s="16"/>
       <c r="R69" s="16"/>
@@ -5860,12 +5575,12 @@
       <c r="AQ69" s="16"/>
       <c r="AR69" s="16"/>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="1:44" ht="14.25" customHeight="1">
       <c r="A70" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
@@ -5881,7 +5596,7 @@
       <c r="N70" s="16"/>
       <c r="O70" s="16"/>
       <c r="P70" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q70" s="16"/>
       <c r="R70" s="16"/>
@@ -5912,12 +5627,12 @@
       <c r="AQ70" s="16"/>
       <c r="AR70" s="16"/>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="1:44" ht="14.25" customHeight="1">
       <c r="A71" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
@@ -5933,7 +5648,7 @@
       <c r="N71" s="16"/>
       <c r="O71" s="16"/>
       <c r="P71" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q71" s="16"/>
       <c r="R71" s="16"/>
@@ -5964,7 +5679,7 @@
       <c r="AQ71" s="16"/>
       <c r="AR71" s="16"/>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="1:44" ht="14.25" customHeight="1">
       <c r="A72" s="17" t="s">
         <v>36</v>
       </c>
@@ -6012,7 +5727,7 @@
       <c r="AQ72" s="16"/>
       <c r="AR72" s="16"/>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="1:44" ht="14.25" customHeight="1">
       <c r="A73" s="17" t="s">
         <v>36</v>
       </c>
@@ -6061,40 +5776,33 @@
       <c r="AR73" s="16"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="0" width="21.149999999999999"/>
-    <col customWidth="1" min="3" max="3" style="0" width="29"/>
-    <col customWidth="1" min="4" max="4" style="0" width="36.289999999999999"/>
-    <col customWidth="1" min="5" max="5" style="0" width="27.300000000000001"/>
-    <col customWidth="1" min="6" max="7" style="0" width="24.710000000000001"/>
-    <col customWidth="1" min="8" max="8" style="0" width="7.7000000000000002"/>
-    <col customWidth="1" min="9" max="9" style="0" width="14.289999999999999"/>
-    <col customWidth="1" min="10" max="13" style="0" width="7.7000000000000002"/>
-    <col customWidth="1" min="14" max="26" style="0" width="15.140000000000001"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="6" max="7" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="13" width="7.6640625" customWidth="1"/>
+    <col min="14" max="26" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>1</v>
@@ -6138,31 +5846,31 @@
       <c r="Y1" s="8"/>
       <c r="Z1" s="8"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="E2" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="G2" s="31" t="s">
         <v>228</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>230</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -6182,31 +5890,31 @@
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B3" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="E3" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="F3" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="G3" s="31" t="s">
         <v>235</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>237</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -6226,31 +5934,31 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="D4" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="E4" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="F4" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="G4" s="31" t="s">
         <v>243</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>245</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -6270,31 +5978,31 @@
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B5" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="E5" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="F5" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="G5" s="31" t="s">
         <v>250</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>252</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -6314,31 +6022,31 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="E6" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="F6" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="G6" s="31" t="s">
         <v>257</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>259</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -6358,31 +6066,31 @@
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="E7" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="F7" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="G7" s="31" t="s">
         <v>264</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>266</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -6402,31 +6110,31 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B8" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="E8" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="F8" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="G8" s="31" t="s">
         <v>271</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>273</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -6446,15 +6154,15 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>275</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>277</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="34"/>
@@ -6480,31 +6188,31 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="D10" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="E10" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="F10" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="G10" s="31" t="s">
         <v>282</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>284</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -6524,31 +6232,31 @@
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B11" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="E11" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="F11" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="G11" s="31" t="s">
         <v>289</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>291</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -6568,31 +6276,31 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B12" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="E12" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="F12" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="E12" s="34" t="s">
-        <v>296</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>297</v>
-      </c>
       <c r="G12" s="31" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="19" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -6612,31 +6320,31 @@
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B13" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="D13" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="E13" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="F13" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="G13" s="31" t="s">
         <v>302</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>304</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -6656,31 +6364,31 @@
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D14" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="E14" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="F14" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="G14" s="31" t="s">
         <v>309</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>311</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="19" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -6700,31 +6408,31 @@
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B15" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="E15" s="34" t="s">
         <v>313</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="F15" s="30" t="s">
         <v>314</v>
       </c>
-      <c r="E15" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>316</v>
-      </c>
       <c r="G15" s="31" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H15" s="32"/>
       <c r="I15" s="19" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -6744,31 +6452,31 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="28" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C16" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="F16" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>229</v>
-      </c>
       <c r="G16" s="31" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -6788,31 +6496,31 @@
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:26" ht="14.25" customHeight="1">
       <c r="A17" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="C17" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="B17" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="C17" s="28" t="s">
+      <c r="D17" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="E17" s="34" t="s">
         <v>320</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="F17" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="G17" s="31" t="s">
         <v>322</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>324</v>
       </c>
       <c r="H17" s="32"/>
       <c r="I17" s="19" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -6832,31 +6540,31 @@
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:26" ht="14.25" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B18" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="E18" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="F18" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="G18" s="31" t="s">
         <v>329</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>331</v>
       </c>
       <c r="H18" s="32"/>
       <c r="I18" s="19" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -6876,31 +6584,31 @@
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:26" ht="14.25" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="D19" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="E19" s="34" t="s">
         <v>334</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="F19" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="G19" s="31" t="s">
         <v>336</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>338</v>
       </c>
       <c r="H19" s="32"/>
       <c r="I19" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -6920,31 +6628,31 @@
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:26" ht="14.25" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="D20" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="E20" s="34" t="s">
         <v>341</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="F20" s="30" t="s">
         <v>342</v>
       </c>
-      <c r="E20" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>344</v>
-      </c>
       <c r="G20" s="31" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H20" s="32"/>
       <c r="I20" s="19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -6964,31 +6672,31 @@
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:26" ht="14.25" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C21" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="E21" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="F21" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="G21" s="31" t="s">
         <v>348</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>350</v>
       </c>
       <c r="H21" s="32"/>
       <c r="I21" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -7008,31 +6716,31 @@
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:26" ht="14.25" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C22" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="E22" s="34" t="s">
         <v>352</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="F22" s="30" t="s">
         <v>353</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="G22" s="31" t="s">
         <v>354</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>356</v>
       </c>
       <c r="H22" s="32"/>
       <c r="I22" s="19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -7052,31 +6760,31 @@
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:26" ht="14.25" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C23" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="E23" s="34" t="s">
         <v>358</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="F23" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="G23" s="37" t="s">
         <v>360</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="G23" s="37" t="s">
-        <v>362</v>
       </c>
       <c r="H23" s="32"/>
       <c r="I23" s="19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -7096,31 +6804,31 @@
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:26" ht="14.25" customHeight="1">
       <c r="A24" s="38" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B24" s="35" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D24" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>99</v>
-      </c>
       <c r="G24" s="31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H24" s="32"/>
       <c r="I24" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -7141,52 +6849,45 @@
       <c r="Z24" s="8"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="0" width="28.140000000000001"/>
-    <col customWidth="1" min="2" max="2" style="0" width="12.710000000000001"/>
-    <col customWidth="1" min="3" max="3" style="0" width="19"/>
-    <col customWidth="1" min="4" max="4" style="0" width="5.7000000000000002"/>
-    <col customWidth="1" min="5" max="5" style="0" width="14.289999999999999"/>
-    <col customWidth="1" min="6" max="6" style="0" width="34"/>
-    <col customWidth="1" min="7" max="14" style="0" width="7.7000000000000002"/>
-    <col customWidth="1" min="15" max="25" style="0" width="15.140000000000001"/>
-    <col customWidth="1" min="26" max="26" style="0" width="17.289999999999999"/>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="7" max="14" width="7.6640625" customWidth="1"/>
+    <col min="15" max="25" width="15.109375" customWidth="1"/>
+    <col min="26" max="26" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:25" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="8"/>
@@ -7209,22 +6910,22 @@
       <c r="X1" s="8"/>
       <c r="Y1" s="8"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:25" ht="14.25" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C2" s="39" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v xml:space="preserve">2023-02-14 7-41</v>
+        <v>2025-05-01 22-44</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -7247,7 +6948,7 @@
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:25" ht="14.25" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -7274,7 +6975,7 @@
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:25" ht="14.25" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -7301,7 +7002,7 @@
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:25" ht="14.25" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -7328,7 +7029,7 @@
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:25" ht="14.25" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -7355,7 +7056,7 @@
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:25" ht="14.25" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -7382,7 +7083,7 @@
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:25" ht="14.25" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -7409,7 +7110,7 @@
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:25" ht="14.25" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -7436,7 +7137,7 @@
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:25" ht="14.25" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -7463,7 +7164,7 @@
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:25" ht="14.25" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -7490,7 +7191,7 @@
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:25" ht="14.25" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -7517,7 +7218,7 @@
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:25" ht="14.25" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -7544,7 +7245,7 @@
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:25" ht="14.25" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -7571,7 +7272,7 @@
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:25" ht="14.25" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -7598,7 +7299,7 @@
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:25" ht="14.25" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -7625,7 +7326,7 @@
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:25" ht="14.25" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -7652,7 +7353,7 @@
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:25" ht="14.25" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -7679,7 +7380,7 @@
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:25" ht="14.25" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -7706,7 +7407,7 @@
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:25" ht="14.25" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -7733,7 +7434,7 @@
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:25" ht="14.25" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -7760,7 +7461,7 @@
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:25" ht="15.75" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -7787,7 +7488,7 @@
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:25" ht="15.75" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -7814,7 +7515,7 @@
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:25" ht="15.75" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -7841,7 +7542,7 @@
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:25" ht="15.75" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -7868,7 +7569,7 @@
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:25" ht="15.75" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -7895,7 +7596,7 @@
       <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:25" ht="15.75" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -7922,7 +7623,7 @@
       <c r="X27" s="8"/>
       <c r="Y27" s="8"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:25" ht="15.75" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -7949,7 +7650,7 @@
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:25" ht="15.75" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -7976,7 +7677,7 @@
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -8003,7 +7704,7 @@
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -8030,7 +7731,7 @@
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -8057,7 +7758,7 @@
       <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:25" ht="15.75" customHeight="1">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -8084,7 +7785,7 @@
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:25" ht="15.75" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -8111,7 +7812,7 @@
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:25" ht="15.75" customHeight="1">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -8138,7 +7839,7 @@
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:25" ht="15.75" customHeight="1">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -8165,7 +7866,7 @@
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:25" ht="15.75" customHeight="1">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -8192,7 +7893,7 @@
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:25" ht="15.75" customHeight="1">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -8219,7 +7920,7 @@
       <c r="X38" s="8"/>
       <c r="Y38" s="8"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:25" ht="15.75" customHeight="1">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -8246,7 +7947,7 @@
       <c r="X39" s="8"/>
       <c r="Y39" s="8"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:25" ht="15.75" customHeight="1">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -8273,7 +7974,7 @@
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:25" ht="15.75" customHeight="1">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -8300,7 +8001,7 @@
       <c r="X41" s="8"/>
       <c r="Y41" s="8"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:25" ht="15.75" customHeight="1">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -8327,7 +8028,7 @@
       <c r="X42" s="8"/>
       <c r="Y42" s="8"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:25" ht="15.75" customHeight="1">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -8354,7 +8055,7 @@
       <c r="X43" s="8"/>
       <c r="Y43" s="8"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:25" ht="15.75" customHeight="1">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -8381,7 +8082,7 @@
       <c r="X44" s="8"/>
       <c r="Y44" s="8"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:25" ht="15.75" customHeight="1">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -8408,7 +8109,7 @@
       <c r="X45" s="8"/>
       <c r="Y45" s="8"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:25" ht="15.75" customHeight="1">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -8435,7 +8136,7 @@
       <c r="X46" s="8"/>
       <c r="Y46" s="8"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:25" ht="15.75" customHeight="1">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -8462,7 +8163,7 @@
       <c r="X47" s="8"/>
       <c r="Y47" s="8"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:25" ht="15.75" customHeight="1">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -8489,7 +8190,7 @@
       <c r="X48" s="8"/>
       <c r="Y48" s="8"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:25" ht="15.75" customHeight="1">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -8516,7 +8217,7 @@
       <c r="X49" s="8"/>
       <c r="Y49" s="8"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:25" ht="15.75" customHeight="1">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -8543,7 +8244,7 @@
       <c r="X50" s="8"/>
       <c r="Y50" s="8"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:25" ht="15.75" customHeight="1">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -8570,7 +8271,7 @@
       <c r="X51" s="8"/>
       <c r="Y51" s="8"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -8597,7 +8298,7 @@
       <c r="X52" s="8"/>
       <c r="Y52" s="8"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -8624,7 +8325,7 @@
       <c r="X53" s="8"/>
       <c r="Y53" s="8"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -8651,7 +8352,7 @@
       <c r="X54" s="8"/>
       <c r="Y54" s="8"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:25" ht="15.75" customHeight="1">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -8678,7 +8379,7 @@
       <c r="X55" s="8"/>
       <c r="Y55" s="8"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:25" ht="15.75" customHeight="1">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -8705,7 +8406,7 @@
       <c r="X56" s="8"/>
       <c r="Y56" s="8"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:25" ht="15.75" customHeight="1">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -8732,7 +8433,7 @@
       <c r="X57" s="8"/>
       <c r="Y57" s="8"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:25" ht="15.75" customHeight="1">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -8759,7 +8460,7 @@
       <c r="X58" s="8"/>
       <c r="Y58" s="8"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:25" ht="15.75" customHeight="1">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -8786,7 +8487,7 @@
       <c r="X59" s="8"/>
       <c r="Y59" s="8"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:25" ht="15.75" customHeight="1">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -8813,7 +8514,7 @@
       <c r="X60" s="8"/>
       <c r="Y60" s="8"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:25" ht="15.75" customHeight="1">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -8840,7 +8541,7 @@
       <c r="X61" s="8"/>
       <c r="Y61" s="8"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:25" ht="15.75" customHeight="1">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -8867,7 +8568,7 @@
       <c r="X62" s="8"/>
       <c r="Y62" s="8"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:25" ht="15.75" customHeight="1">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -8894,7 +8595,7 @@
       <c r="X63" s="8"/>
       <c r="Y63" s="8"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:25" ht="15.75" customHeight="1">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -8921,7 +8622,7 @@
       <c r="X64" s="8"/>
       <c r="Y64" s="8"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:25" ht="15.75" customHeight="1">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -8948,7 +8649,7 @@
       <c r="X65" s="8"/>
       <c r="Y65" s="8"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:25" ht="15.75" customHeight="1">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -8975,7 +8676,7 @@
       <c r="X66" s="8"/>
       <c r="Y66" s="8"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:25" ht="15.75" customHeight="1">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -9002,7 +8703,7 @@
       <c r="X67" s="8"/>
       <c r="Y67" s="8"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:25" ht="15.75" customHeight="1">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -9029,7 +8730,7 @@
       <c r="X68" s="8"/>
       <c r="Y68" s="8"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:25" ht="15.75" customHeight="1">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -9056,7 +8757,7 @@
       <c r="X69" s="8"/>
       <c r="Y69" s="8"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:25" ht="15.75" customHeight="1">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -9083,7 +8784,7 @@
       <c r="X70" s="8"/>
       <c r="Y70" s="8"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:25" ht="15.75" customHeight="1">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -9110,7 +8811,7 @@
       <c r="X71" s="8"/>
       <c r="Y71" s="8"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:25" ht="15.75" customHeight="1">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -9137,7 +8838,7 @@
       <c r="X72" s="8"/>
       <c r="Y72" s="8"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:25" ht="15.75" customHeight="1">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -9164,7 +8865,7 @@
       <c r="X73" s="8"/>
       <c r="Y73" s="8"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:25" ht="15.75" customHeight="1">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -9191,7 +8892,7 @@
       <c r="X74" s="8"/>
       <c r="Y74" s="8"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:25" ht="15.75" customHeight="1">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -9218,7 +8919,7 @@
       <c r="X75" s="8"/>
       <c r="Y75" s="8"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:25" ht="15.75" customHeight="1">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -9245,7 +8946,7 @@
       <c r="X76" s="8"/>
       <c r="Y76" s="8"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:25" ht="15.75" customHeight="1">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -9272,7 +8973,7 @@
       <c r="X77" s="8"/>
       <c r="Y77" s="8"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:25" ht="15.75" customHeight="1">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -9299,7 +9000,7 @@
       <c r="X78" s="8"/>
       <c r="Y78" s="8"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:25" ht="15.75" customHeight="1">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -9326,7 +9027,7 @@
       <c r="X79" s="8"/>
       <c r="Y79" s="8"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:25" ht="15.75" customHeight="1">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -9353,7 +9054,7 @@
       <c r="X80" s="8"/>
       <c r="Y80" s="8"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:25" ht="15.75" customHeight="1">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -9380,7 +9081,7 @@
       <c r="X81" s="8"/>
       <c r="Y81" s="8"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:25" ht="15.75" customHeight="1">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -9407,7 +9108,7 @@
       <c r="X82" s="8"/>
       <c r="Y82" s="8"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:25" ht="15.75" customHeight="1">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -9434,7 +9135,7 @@
       <c r="X83" s="8"/>
       <c r="Y83" s="8"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:25" ht="15.75" customHeight="1">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -9461,7 +9162,7 @@
       <c r="X84" s="8"/>
       <c r="Y84" s="8"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:25" ht="15.75" customHeight="1">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -9488,7 +9189,7 @@
       <c r="X85" s="8"/>
       <c r="Y85" s="8"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:25" ht="15.75" customHeight="1">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -9515,7 +9216,7 @@
       <c r="X86" s="8"/>
       <c r="Y86" s="8"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:25" ht="15.75" customHeight="1">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -9542,7 +9243,7 @@
       <c r="X87" s="8"/>
       <c r="Y87" s="8"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:25" ht="15.75" customHeight="1">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -9569,7 +9270,7 @@
       <c r="X88" s="8"/>
       <c r="Y88" s="8"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:25" ht="15.75" customHeight="1">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -9596,7 +9297,7 @@
       <c r="X89" s="8"/>
       <c r="Y89" s="8"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:25" ht="15.75" customHeight="1">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -9623,7 +9324,7 @@
       <c r="X90" s="8"/>
       <c r="Y90" s="8"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:25" ht="15.75" customHeight="1">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -9650,7 +9351,7 @@
       <c r="X91" s="8"/>
       <c r="Y91" s="8"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:25" ht="15.75" customHeight="1">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -9677,7 +9378,7 @@
       <c r="X92" s="8"/>
       <c r="Y92" s="8"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:25" ht="15.75" customHeight="1">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -9704,7 +9405,7 @@
       <c r="X93" s="8"/>
       <c r="Y93" s="8"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:25" ht="15.75" customHeight="1">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -9731,7 +9432,7 @@
       <c r="X94" s="8"/>
       <c r="Y94" s="8"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:25" ht="15.75" customHeight="1">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -9758,7 +9459,7 @@
       <c r="X95" s="8"/>
       <c r="Y95" s="8"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:25" ht="15.75" customHeight="1">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -9785,7 +9486,7 @@
       <c r="X96" s="8"/>
       <c r="Y96" s="8"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:25" ht="15.75" customHeight="1">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -9812,7 +9513,7 @@
       <c r="X97" s="8"/>
       <c r="Y97" s="8"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:25" ht="15.75" customHeight="1">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -9839,7 +9540,7 @@
       <c r="X98" s="8"/>
       <c r="Y98" s="8"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:25" ht="15.75" customHeight="1">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -9866,7 +9567,7 @@
       <c r="X99" s="8"/>
       <c r="Y99" s="8"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:25" ht="15.75" customHeight="1">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -9893,7 +9594,7 @@
       <c r="X100" s="8"/>
       <c r="Y100" s="8"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:25" ht="15.75" customHeight="1">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -9920,7 +9621,7 @@
       <c r="X101" s="8"/>
       <c r="Y101" s="8"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:25" ht="15.75" customHeight="1">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -9947,7 +9648,7 @@
       <c r="X102" s="8"/>
       <c r="Y102" s="8"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:25" ht="15.75" customHeight="1">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -9974,7 +9675,7 @@
       <c r="X103" s="8"/>
       <c r="Y103" s="8"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:25" ht="15.75" customHeight="1">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -10001,7 +9702,7 @@
       <c r="X104" s="8"/>
       <c r="Y104" s="8"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:25" ht="15.75" customHeight="1">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -10028,7 +9729,7 @@
       <c r="X105" s="8"/>
       <c r="Y105" s="8"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:25" ht="15.75" customHeight="1">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -10055,7 +9756,7 @@
       <c r="X106" s="8"/>
       <c r="Y106" s="8"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:25" ht="15.75" customHeight="1">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -10082,7 +9783,7 @@
       <c r="X107" s="8"/>
       <c r="Y107" s="8"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:25" ht="15.75" customHeight="1">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -10109,7 +9810,7 @@
       <c r="X108" s="8"/>
       <c r="Y108" s="8"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:25" ht="15.75" customHeight="1">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -10136,7 +9837,7 @@
       <c r="X109" s="8"/>
       <c r="Y109" s="8"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:25" ht="15.75" customHeight="1">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -10163,7 +9864,7 @@
       <c r="X110" s="8"/>
       <c r="Y110" s="8"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:25" ht="15.75" customHeight="1">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -10190,7 +9891,7 @@
       <c r="X111" s="8"/>
       <c r="Y111" s="8"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:25" ht="15.75" customHeight="1">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -10217,7 +9918,7 @@
       <c r="X112" s="8"/>
       <c r="Y112" s="8"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:25" ht="15.75" customHeight="1">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -10244,7 +9945,7 @@
       <c r="X113" s="8"/>
       <c r="Y113" s="8"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:25" ht="15.75" customHeight="1">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -10271,7 +9972,7 @@
       <c r="X114" s="8"/>
       <c r="Y114" s="8"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:25" ht="15.75" customHeight="1">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -10298,7 +9999,7 @@
       <c r="X115" s="8"/>
       <c r="Y115" s="8"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:25" ht="15.75" customHeight="1">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -10325,7 +10026,7 @@
       <c r="X116" s="8"/>
       <c r="Y116" s="8"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:25" ht="15.75" customHeight="1">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -10352,7 +10053,7 @@
       <c r="X117" s="8"/>
       <c r="Y117" s="8"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:25" ht="15.75" customHeight="1">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -10379,7 +10080,7 @@
       <c r="X118" s="8"/>
       <c r="Y118" s="8"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:25" ht="15.75" customHeight="1">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -10406,7 +10107,7 @@
       <c r="X119" s="8"/>
       <c r="Y119" s="8"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:25" ht="15.75" customHeight="1">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -10433,7 +10134,7 @@
       <c r="X120" s="8"/>
       <c r="Y120" s="8"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:25" ht="15.75" customHeight="1">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -10460,7 +10161,7 @@
       <c r="X121" s="8"/>
       <c r="Y121" s="8"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:25" ht="15.75" customHeight="1">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -10487,7 +10188,7 @@
       <c r="X122" s="8"/>
       <c r="Y122" s="8"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:25" ht="15.75" customHeight="1">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -10514,7 +10215,7 @@
       <c r="X123" s="8"/>
       <c r="Y123" s="8"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:25" ht="15.75" customHeight="1">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -10541,7 +10242,7 @@
       <c r="X124" s="8"/>
       <c r="Y124" s="8"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:25" ht="15.75" customHeight="1">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -10568,7 +10269,7 @@
       <c r="X125" s="8"/>
       <c r="Y125" s="8"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:25" ht="15.75" customHeight="1">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -10595,7 +10296,7 @@
       <c r="X126" s="8"/>
       <c r="Y126" s="8"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:25" ht="15.75" customHeight="1">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -10622,7 +10323,7 @@
       <c r="X127" s="8"/>
       <c r="Y127" s="8"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:25" ht="15.75" customHeight="1">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -10649,7 +10350,7 @@
       <c r="X128" s="8"/>
       <c r="Y128" s="8"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:25" ht="15.75" customHeight="1">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -10676,7 +10377,7 @@
       <c r="X129" s="8"/>
       <c r="Y129" s="8"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:25" ht="15.75" customHeight="1">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -10703,7 +10404,7 @@
       <c r="X130" s="8"/>
       <c r="Y130" s="8"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:25" ht="15.75" customHeight="1">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -10730,7 +10431,7 @@
       <c r="X131" s="8"/>
       <c r="Y131" s="8"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:25" ht="15.75" customHeight="1">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -10757,7 +10458,7 @@
       <c r="X132" s="8"/>
       <c r="Y132" s="8"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:25" ht="15.75" customHeight="1">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -10784,7 +10485,7 @@
       <c r="X133" s="8"/>
       <c r="Y133" s="8"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:25" ht="15.75" customHeight="1">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -10811,7 +10512,7 @@
       <c r="X134" s="8"/>
       <c r="Y134" s="8"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:25" ht="15.75" customHeight="1">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -10838,7 +10539,7 @@
       <c r="X135" s="8"/>
       <c r="Y135" s="8"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:25" ht="15.75" customHeight="1">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -10865,7 +10566,7 @@
       <c r="X136" s="8"/>
       <c r="Y136" s="8"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:25" ht="15.75" customHeight="1">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -10892,7 +10593,7 @@
       <c r="X137" s="8"/>
       <c r="Y137" s="8"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:25" ht="15.75" customHeight="1">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -10919,7 +10620,7 @@
       <c r="X138" s="8"/>
       <c r="Y138" s="8"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:25" ht="15.75" customHeight="1">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -10946,7 +10647,7 @@
       <c r="X139" s="8"/>
       <c r="Y139" s="8"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:25" ht="15.75" customHeight="1">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -10973,7 +10674,7 @@
       <c r="X140" s="8"/>
       <c r="Y140" s="8"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:25" ht="15.75" customHeight="1">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -11000,7 +10701,7 @@
       <c r="X141" s="8"/>
       <c r="Y141" s="8"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:25" ht="15.75" customHeight="1">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -11027,7 +10728,7 @@
       <c r="X142" s="8"/>
       <c r="Y142" s="8"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:25" ht="15.75" customHeight="1">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -11054,7 +10755,7 @@
       <c r="X143" s="8"/>
       <c r="Y143" s="8"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:25" ht="15.75" customHeight="1">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -11081,7 +10782,7 @@
       <c r="X144" s="8"/>
       <c r="Y144" s="8"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:25" ht="15.75" customHeight="1">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -11108,7 +10809,7 @@
       <c r="X145" s="8"/>
       <c r="Y145" s="8"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:25" ht="15.75" customHeight="1">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -11135,7 +10836,7 @@
       <c r="X146" s="8"/>
       <c r="Y146" s="8"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:25" ht="15.75" customHeight="1">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -11162,7 +10863,7 @@
       <c r="X147" s="8"/>
       <c r="Y147" s="8"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:25" ht="15.75" customHeight="1">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -11189,7 +10890,7 @@
       <c r="X148" s="8"/>
       <c r="Y148" s="8"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:25" ht="15.75" customHeight="1">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -11216,7 +10917,7 @@
       <c r="X149" s="8"/>
       <c r="Y149" s="8"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:25" ht="15.75" customHeight="1">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -11243,7 +10944,7 @@
       <c r="X150" s="8"/>
       <c r="Y150" s="8"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:25" ht="15.75" customHeight="1">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -11270,7 +10971,7 @@
       <c r="X151" s="8"/>
       <c r="Y151" s="8"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:25" ht="15.75" customHeight="1">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -11297,7 +10998,7 @@
       <c r="X152" s="8"/>
       <c r="Y152" s="8"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:25" ht="15.75" customHeight="1">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -11324,7 +11025,7 @@
       <c r="X153" s="8"/>
       <c r="Y153" s="8"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:25" ht="15.75" customHeight="1">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -11351,7 +11052,7 @@
       <c r="X154" s="8"/>
       <c r="Y154" s="8"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:25" ht="15.75" customHeight="1">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -11378,7 +11079,7 @@
       <c r="X155" s="8"/>
       <c r="Y155" s="8"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:25" ht="15.75" customHeight="1">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -11405,7 +11106,7 @@
       <c r="X156" s="8"/>
       <c r="Y156" s="8"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:25" ht="15.75" customHeight="1">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -11432,7 +11133,7 @@
       <c r="X157" s="8"/>
       <c r="Y157" s="8"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:25" ht="15.75" customHeight="1">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -11459,7 +11160,7 @@
       <c r="X158" s="8"/>
       <c r="Y158" s="8"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:25" ht="15.75" customHeight="1">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -11486,7 +11187,7 @@
       <c r="X159" s="8"/>
       <c r="Y159" s="8"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:25" ht="15.75" customHeight="1">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -11513,7 +11214,7 @@
       <c r="X160" s="8"/>
       <c r="Y160" s="8"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:25" ht="15.75" customHeight="1">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -11540,7 +11241,7 @@
       <c r="X161" s="8"/>
       <c r="Y161" s="8"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:25" ht="15.75" customHeight="1">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -11567,7 +11268,7 @@
       <c r="X162" s="8"/>
       <c r="Y162" s="8"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:25" ht="15.75" customHeight="1">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -11594,7 +11295,7 @@
       <c r="X163" s="8"/>
       <c r="Y163" s="8"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:25" ht="15.75" customHeight="1">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -11621,7 +11322,7 @@
       <c r="X164" s="8"/>
       <c r="Y164" s="8"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:25" ht="15.75" customHeight="1">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -11648,7 +11349,7 @@
       <c r="X165" s="8"/>
       <c r="Y165" s="8"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:25" ht="15.75" customHeight="1">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -11675,7 +11376,7 @@
       <c r="X166" s="8"/>
       <c r="Y166" s="8"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:25" ht="15.75" customHeight="1">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -11702,7 +11403,7 @@
       <c r="X167" s="8"/>
       <c r="Y167" s="8"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:25" ht="15.75" customHeight="1">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -11729,7 +11430,7 @@
       <c r="X168" s="8"/>
       <c r="Y168" s="8"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:25" ht="15.75" customHeight="1">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -11756,7 +11457,7 @@
       <c r="X169" s="8"/>
       <c r="Y169" s="8"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:25" ht="15.75" customHeight="1">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -11783,7 +11484,7 @@
       <c r="X170" s="8"/>
       <c r="Y170" s="8"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:25" ht="15.75" customHeight="1">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -11810,7 +11511,7 @@
       <c r="X171" s="8"/>
       <c r="Y171" s="8"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:25" ht="15.75" customHeight="1">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -11837,7 +11538,7 @@
       <c r="X172" s="8"/>
       <c r="Y172" s="8"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:25" ht="15.75" customHeight="1">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -11864,7 +11565,7 @@
       <c r="X173" s="8"/>
       <c r="Y173" s="8"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:25" ht="15.75" customHeight="1">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -11891,7 +11592,7 @@
       <c r="X174" s="8"/>
       <c r="Y174" s="8"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:25" ht="15.75" customHeight="1">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -11918,7 +11619,7 @@
       <c r="X175" s="8"/>
       <c r="Y175" s="8"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:25" ht="15.75" customHeight="1">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -11945,7 +11646,7 @@
       <c r="X176" s="8"/>
       <c r="Y176" s="8"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:25" ht="15.75" customHeight="1">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -11972,7 +11673,7 @@
       <c r="X177" s="8"/>
       <c r="Y177" s="8"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:25" ht="15.75" customHeight="1">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -11999,7 +11700,7 @@
       <c r="X178" s="8"/>
       <c r="Y178" s="8"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:25" ht="15.75" customHeight="1">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -12026,7 +11727,7 @@
       <c r="X179" s="8"/>
       <c r="Y179" s="8"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:25" ht="15.75" customHeight="1">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -12053,7 +11754,7 @@
       <c r="X180" s="8"/>
       <c r="Y180" s="8"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:25" ht="15.75" customHeight="1">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -12080,7 +11781,7 @@
       <c r="X181" s="8"/>
       <c r="Y181" s="8"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:25" ht="15.75" customHeight="1">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -12107,7 +11808,7 @@
       <c r="X182" s="8"/>
       <c r="Y182" s="8"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:25" ht="15.75" customHeight="1">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -12134,7 +11835,7 @@
       <c r="X183" s="8"/>
       <c r="Y183" s="8"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:25" ht="15.75" customHeight="1">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -12161,7 +11862,7 @@
       <c r="X184" s="8"/>
       <c r="Y184" s="8"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:25" ht="15.75" customHeight="1">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -12188,7 +11889,7 @@
       <c r="X185" s="8"/>
       <c r="Y185" s="8"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:25" ht="15.75" customHeight="1">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -12215,7 +11916,7 @@
       <c r="X186" s="8"/>
       <c r="Y186" s="8"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:25" ht="15.75" customHeight="1">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -12242,7 +11943,7 @@
       <c r="X187" s="8"/>
       <c r="Y187" s="8"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:25" ht="15.75" customHeight="1">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -12269,7 +11970,7 @@
       <c r="X188" s="8"/>
       <c r="Y188" s="8"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:25" ht="15.75" customHeight="1">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -12296,7 +11997,7 @@
       <c r="X189" s="8"/>
       <c r="Y189" s="8"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:25" ht="15.75" customHeight="1">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -12323,7 +12024,7 @@
       <c r="X190" s="8"/>
       <c r="Y190" s="8"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:25" ht="15.75" customHeight="1">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -12350,7 +12051,7 @@
       <c r="X191" s="8"/>
       <c r="Y191" s="8"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:25" ht="15.75" customHeight="1">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -12377,7 +12078,7 @@
       <c r="X192" s="8"/>
       <c r="Y192" s="8"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:25" ht="15.75" customHeight="1">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -12404,7 +12105,7 @@
       <c r="X193" s="8"/>
       <c r="Y193" s="8"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:25" ht="15.75" customHeight="1">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -12431,7 +12132,7 @@
       <c r="X194" s="8"/>
       <c r="Y194" s="8"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:25" ht="15.75" customHeight="1">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -12458,7 +12159,7 @@
       <c r="X195" s="8"/>
       <c r="Y195" s="8"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:25" ht="15.75" customHeight="1">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -12485,7 +12186,7 @@
       <c r="X196" s="8"/>
       <c r="Y196" s="8"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:25" ht="15.75" customHeight="1">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -12512,7 +12213,7 @@
       <c r="X197" s="8"/>
       <c r="Y197" s="8"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:25" ht="15.75" customHeight="1">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -12539,7 +12240,7 @@
       <c r="X198" s="8"/>
       <c r="Y198" s="8"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:25" ht="15.75" customHeight="1">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -12566,7 +12267,7 @@
       <c r="X199" s="8"/>
       <c r="Y199" s="8"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:25" ht="15.75" customHeight="1">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -12593,7 +12294,7 @@
       <c r="X200" s="8"/>
       <c r="Y200" s="8"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:25" ht="15.75" customHeight="1">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -12620,7 +12321,7 @@
       <c r="X201" s="8"/>
       <c r="Y201" s="8"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:25" ht="15.75" customHeight="1">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
@@ -12647,7 +12348,7 @@
       <c r="X202" s="8"/>
       <c r="Y202" s="8"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:25" ht="15.75" customHeight="1">
       <c r="A203" s="8"/>
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
@@ -12674,7 +12375,7 @@
       <c r="X203" s="8"/>
       <c r="Y203" s="8"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:25" ht="15.75" customHeight="1">
       <c r="A204" s="8"/>
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
@@ -12701,7 +12402,7 @@
       <c r="X204" s="8"/>
       <c r="Y204" s="8"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:25" ht="15.75" customHeight="1">
       <c r="A205" s="8"/>
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
@@ -12728,7 +12429,7 @@
       <c r="X205" s="8"/>
       <c r="Y205" s="8"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:25" ht="15.75" customHeight="1">
       <c r="A206" s="8"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
@@ -12755,7 +12456,7 @@
       <c r="X206" s="8"/>
       <c r="Y206" s="8"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:25" ht="15.75" customHeight="1">
       <c r="A207" s="8"/>
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
@@ -12782,7 +12483,7 @@
       <c r="X207" s="8"/>
       <c r="Y207" s="8"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:25" ht="15.75" customHeight="1">
       <c r="A208" s="8"/>
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
@@ -12809,7 +12510,7 @@
       <c r="X208" s="8"/>
       <c r="Y208" s="8"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:25" ht="15.75" customHeight="1">
       <c r="A209" s="8"/>
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
@@ -12836,7 +12537,7 @@
       <c r="X209" s="8"/>
       <c r="Y209" s="8"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:25" ht="15.75" customHeight="1">
       <c r="A210" s="8"/>
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
@@ -12863,7 +12564,7 @@
       <c r="X210" s="8"/>
       <c r="Y210" s="8"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:25" ht="15.75" customHeight="1">
       <c r="A211" s="8"/>
       <c r="B211" s="8"/>
       <c r="C211" s="8"/>
@@ -12890,7 +12591,7 @@
       <c r="X211" s="8"/>
       <c r="Y211" s="8"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:25" ht="15.75" customHeight="1">
       <c r="A212" s="8"/>
       <c r="B212" s="8"/>
       <c r="C212" s="8"/>
@@ -12917,7 +12618,7 @@
       <c r="X212" s="8"/>
       <c r="Y212" s="8"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:25" ht="15.75" customHeight="1">
       <c r="A213" s="8"/>
       <c r="B213" s="8"/>
       <c r="C213" s="8"/>
@@ -12944,7 +12645,7 @@
       <c r="X213" s="8"/>
       <c r="Y213" s="8"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:25" ht="15.75" customHeight="1">
       <c r="A214" s="8"/>
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
@@ -12971,7 +12672,7 @@
       <c r="X214" s="8"/>
       <c r="Y214" s="8"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:25" ht="15.75" customHeight="1">
       <c r="A215" s="8"/>
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
@@ -12998,7 +12699,7 @@
       <c r="X215" s="8"/>
       <c r="Y215" s="8"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:25" ht="15.75" customHeight="1">
       <c r="A216" s="8"/>
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
@@ -13025,7 +12726,7 @@
       <c r="X216" s="8"/>
       <c r="Y216" s="8"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:25" ht="15.75" customHeight="1">
       <c r="A217" s="8"/>
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
@@ -13052,7 +12753,7 @@
       <c r="X217" s="8"/>
       <c r="Y217" s="8"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:25" ht="15.75" customHeight="1">
       <c r="A218" s="8"/>
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
@@ -13079,7 +12780,7 @@
       <c r="X218" s="8"/>
       <c r="Y218" s="8"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:25" ht="15.75" customHeight="1">
       <c r="A219" s="8"/>
       <c r="B219" s="8"/>
       <c r="C219" s="8"/>
@@ -13106,7 +12807,7 @@
       <c r="X219" s="8"/>
       <c r="Y219" s="8"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:25" ht="15.75" customHeight="1">
       <c r="A220" s="8"/>
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
@@ -13133,10 +12834,10 @@
       <c r="X220" s="8"/>
       <c r="Y220" s="8"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:25" ht="15.75" customHeight="1"/>
+    <row r="222" spans="1:25" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:25" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:25" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -13914,9 +13615,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>